--- a/data/02_運用_rakuten.xlsx
+++ b/data/02_運用_rakuten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ca29965d2a6599a/01_資産管理/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="13_ncr:1_{1CCB16D9-864A-481B-A34B-A3476BEF7488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E079AAE-EE19-4D15-8653-349F7C68F746}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="13_ncr:1_{1CCB16D9-864A-481B-A34B-A3476BEF7488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA131E74-8CDE-48C6-99F2-4E0F1CCAE1EB}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="758" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="10" r:id="rId1"/>
@@ -34,24 +34,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">米国株式_配当!$A$1:$K$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4574" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4583" uniqueCount="301">
   <si>
     <t>約定日</t>
   </si>
@@ -1355,6 +1342,10 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
@@ -2050,7 +2041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2195,19 +2186,13 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2216,13 +2201,13 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2496,8 +2481,8 @@
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -2507,64 +2492,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
       <c r="O1" s="37" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="50" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="53" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2575,86 +2560,86 @@
       <c r="C3" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="32" t="s">
         <v>208</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
       <c r="K3" s="32" t="s">
         <v>208</v>
       </c>
       <c r="L3" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="53"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A4" s="34" t="s">
         <v>217</v>
       </c>
       <c r="B4" s="20">
-        <f>SUM(B5:B7)</f>
-        <v>257780</v>
+        <f>SUM(B5:B100)</f>
+        <v>2561580</v>
       </c>
       <c r="C4" s="20">
-        <f>SUM(C5:C7)</f>
-        <v>0</v>
+        <f>SUM(C5:C100)</f>
+        <v>-49300</v>
       </c>
       <c r="D4" s="20">
-        <f>SUM(D5:D7)</f>
-        <v>152320</v>
+        <f>SUM(D5:D100)</f>
+        <v>288795</v>
       </c>
       <c r="E4" s="35">
         <f>SUM(B4:D4)</f>
-        <v>410100</v>
+        <v>2801075</v>
       </c>
       <c r="F4" s="20">
-        <f>SUM(F5:F7)</f>
-        <v>2929718</v>
+        <f>SUM(F5:F100)</f>
+        <v>5010178</v>
       </c>
       <c r="G4" s="20">
-        <f t="shared" ref="G4" si="0">SUM(G5:G7)</f>
-        <v>-1702434</v>
+        <f>SUM(G5:G100)</f>
+        <v>-2826054</v>
       </c>
       <c r="H4" s="20">
-        <f>SUM(H5:H7)</f>
-        <v>455200</v>
+        <f>SUM(H5:H100)</f>
+        <v>571950</v>
       </c>
       <c r="I4" s="35">
         <f>SUM(F4:H4)</f>
-        <v>1682484</v>
+        <v>2756074</v>
       </c>
       <c r="J4" s="35">
-        <f>SUM(J5:J7)</f>
-        <v>1340687.3754</v>
+        <f>SUM(J5:J100)</f>
+        <v>2196177.5669</v>
       </c>
       <c r="K4" s="20">
-        <f>SUM(K5:K7)</f>
-        <v>143409</v>
+        <f>SUM(K5:K100)</f>
+        <v>200229</v>
       </c>
       <c r="L4" s="20">
-        <f t="shared" ref="L4" si="1">SUM(L5:L7)</f>
-        <v>-369463</v>
+        <f>SUM(L5:L100)</f>
+        <v>-674243</v>
       </c>
       <c r="M4" s="35">
         <f>SUM(K4:L4)</f>
-        <v>-226054</v>
+        <v>-474014</v>
       </c>
       <c r="N4" s="35">
-        <f>SUM(N5:N7)</f>
-        <v>-226054</v>
+        <f>SUM(N5:N100)</f>
+        <v>-474014</v>
       </c>
       <c r="O4" s="38">
         <f>SUM(E4,J4,N4)</f>
-        <v>1524733.3754</v>
+        <v>4523238.5669</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.7">
@@ -2674,7 +2659,7 @@
         <v>27700</v>
       </c>
       <c r="E5" s="35">
-        <f t="shared" ref="E5:E7" si="2">SUM(B5:D5)</f>
+        <f t="shared" ref="E5:E7" si="0">SUM(B5:D5)</f>
         <v>160060</v>
       </c>
       <c r="F5" s="19">
@@ -2706,7 +2691,7 @@
         <v>-130800</v>
       </c>
       <c r="M5" s="35">
-        <f t="shared" ref="M5:M7" si="3">SUM(K5:L5)</f>
+        <f t="shared" ref="M5:M7" si="1">SUM(K5:L5)</f>
         <v>-68778</v>
       </c>
       <c r="N5" s="36">
@@ -2714,7 +2699,7 @@
         <v>-68778</v>
       </c>
       <c r="O5" s="38">
-        <f t="shared" ref="O5:O7" si="4">SUM(E5,J5,N5)</f>
+        <f t="shared" ref="O5:O7" si="2">SUM(E5,J5,N5)</f>
         <v>149055.2187</v>
       </c>
     </row>
@@ -2735,7 +2720,7 @@
         <v>35720</v>
       </c>
       <c r="E6" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>35720</v>
       </c>
       <c r="F6" s="19">
@@ -2751,7 +2736,7 @@
         <v>245200</v>
       </c>
       <c r="I6" s="35">
-        <f t="shared" ref="I6:I7" si="5">SUM(F6:H6)</f>
+        <f t="shared" ref="I6:I7" si="3">SUM(F6:H6)</f>
         <v>166095</v>
       </c>
       <c r="J6" s="36">
@@ -2767,15 +2752,15 @@
         <v>-187960</v>
       </c>
       <c r="M6" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-106573</v>
       </c>
       <c r="N6" s="36">
-        <f t="shared" ref="N6:N7" si="6">IF(M6&gt;0,M6-M6*0.20315,M6)</f>
+        <f t="shared" ref="N6:N7" si="4">IF(M6&gt;0,M6-M6*0.20315,M6)</f>
         <v>-106573</v>
       </c>
       <c r="O6" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>61499.800749999995</v>
       </c>
     </row>
@@ -2796,7 +2781,7 @@
         <v>88900</v>
       </c>
       <c r="E7" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>214320</v>
       </c>
       <c r="F7" s="19">
@@ -2812,7 +2797,7 @@
         <v>167100</v>
       </c>
       <c r="I7" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1443887</v>
       </c>
       <c r="J7" s="36">
@@ -2828,15 +2813,15 @@
         <v>-50703</v>
       </c>
       <c r="M7" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-50703</v>
       </c>
       <c r="N7" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-50703</v>
       </c>
       <c r="O7" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1314178.35595</v>
       </c>
     </row>
@@ -2857,7 +2842,7 @@
         <v>136475</v>
       </c>
       <c r="E8" s="35">
-        <f t="shared" ref="E8:E9" si="7">SUM(B8:D8)</f>
+        <f t="shared" ref="E8:E9" si="5">SUM(B8:D8)</f>
         <v>111775</v>
       </c>
       <c r="F8" s="19">
@@ -2873,7 +2858,7 @@
         <v>116750</v>
       </c>
       <c r="I8" s="35">
-        <f t="shared" ref="I8" si="8">SUM(F8:H8)</f>
+        <f t="shared" ref="I8" si="6">SUM(F8:H8)</f>
         <v>1052340</v>
       </c>
       <c r="J8" s="36">
@@ -2889,11 +2874,11 @@
         <v>-304780</v>
       </c>
       <c r="M8" s="35">
-        <f t="shared" ref="M8" si="9">SUM(K8:L8)</f>
+        <f t="shared" ref="M8" si="7">SUM(K8:L8)</f>
         <v>-247960</v>
       </c>
       <c r="N8" s="36">
-        <f t="shared" ref="N8" si="10">IF(M8&gt;0,M8-M8*0.20315,M8)</f>
+        <f t="shared" ref="N8" si="8">IF(M8&gt;0,M8-M8*0.20315,M8)</f>
         <v>-247960</v>
       </c>
       <c r="O8" s="38">
@@ -2907,7 +2892,7 @@
       </c>
       <c r="B9" s="19">
         <f>SUMIFS(国内株式_NISA!$K$2:$K$1000,国内株式_NISA!$B$2:$B$1000,"&gt;=2025/1/1",国内株式_NISA!$B$2:$B$1000,"&lt;=2025/12/31",国内株式_NISA!$K$2:$K$1000,"&gt;=0")</f>
-        <v>1003250</v>
+        <v>2279200</v>
       </c>
       <c r="C9" s="19">
         <f>SUMIFS(国内株式_NISA!$K$2:$K$1000,国内株式_NISA!$B$2:$B$1000,"&gt;=2025/1/1",国内株式_NISA!$B$2:$B$1000,"&lt;=2025/12/31",国内株式_NISA!$K$2:$K$1000,"&lt;0")</f>
@@ -2918,12 +2903,12 @@
         <v>0</v>
       </c>
       <c r="E9" s="35">
-        <f t="shared" si="7"/>
-        <v>1003250</v>
+        <f t="shared" si="5"/>
+        <v>2279200</v>
       </c>
       <c r="F9" s="19">
         <f>SUMIFS(国内株式_特定!$N$2:$N$1000,国内株式_特定!$B$2:$B$1000,"&gt;=2025/1/1",国内株式_特定!$B$2:$B$1000,"&lt;=2025/12/31",国内株式_特定!$N$2:$N$1000,"&gt;=0")</f>
-        <v>0</v>
+        <v>21250</v>
       </c>
       <c r="G9" s="19">
         <f>SUMIFS(国内株式_特定!$N$2:$N$1000,国内株式_特定!$B$2:$B$1000,"&gt;=2025/1/1",国内株式_特定!$B$2:$B$1000,"&lt;=2025/12/31",国内株式_特定!$N$2:$N$1000,"&lt;0")</f>
@@ -2934,12 +2919,12 @@
         <v>0</v>
       </c>
       <c r="I9" s="35">
-        <f t="shared" ref="I9" si="11">SUM(F9:H9)</f>
-        <v>0</v>
+        <f t="shared" ref="I9" si="9">SUM(F9:H9)</f>
+        <v>21250</v>
       </c>
       <c r="J9" s="36">
         <f>IF(I9&gt;0,I9-I9*0.20315,I9)</f>
-        <v>0</v>
+        <v>16933.0625</v>
       </c>
       <c r="K9" s="19">
         <f>SUMIFS(国内株式_信用!$P$2:$P$1000,国内株式_信用!$B$2:$B$1000,"&gt;=2025/1/1",国内株式_信用!$B$2:$B$1000,"&lt;=2025/12/31",国内株式_信用!$P$2:$P$1000,"&gt;=0")</f>
@@ -2950,20 +2935,26 @@
         <v>0</v>
       </c>
       <c r="M9" s="35">
-        <f t="shared" ref="M9" si="12">SUM(K9:L9)</f>
+        <f t="shared" ref="M9" si="10">SUM(K9:L9)</f>
         <v>0</v>
       </c>
       <c r="N9" s="36">
-        <f t="shared" ref="N9" si="13">IF(M9&gt;0,M9-M9*0.20315,M9)</f>
+        <f t="shared" ref="N9" si="11">IF(M9&gt;0,M9-M9*0.20315,M9)</f>
         <v>0</v>
       </c>
       <c r="O9" s="38">
         <f>SUM(E9,J9,N9)</f>
-        <v>1003250</v>
+        <v>2296133.0625</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="F1:J1"/>
@@ -2972,12 +2963,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2993,10 +2978,10 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -3112,7 +3097,7 @@
         <v>925</v>
       </c>
       <c r="J3" s="19">
-        <f t="shared" ref="J3:J45" si="0">H3*I3</f>
+        <f>H3*I3</f>
         <v>92500</v>
       </c>
       <c r="K3" s="15">
@@ -3148,7 +3133,7 @@
         <v>1094</v>
       </c>
       <c r="J4" s="19">
-        <f t="shared" si="0"/>
+        <f>H4*I4</f>
         <v>109400</v>
       </c>
       <c r="K4" s="14">
@@ -3184,7 +3169,7 @@
         <v>1307</v>
       </c>
       <c r="J5" s="19">
-        <f t="shared" si="0"/>
+        <f>H5*I5</f>
         <v>130700</v>
       </c>
       <c r="K5" s="15">
@@ -3220,7 +3205,7 @@
         <v>1506.6</v>
       </c>
       <c r="J6" s="19">
-        <f t="shared" si="0"/>
+        <f>H6*I6</f>
         <v>150660</v>
       </c>
       <c r="K6" s="14">
@@ -3256,7 +3241,7 @@
         <v>1635</v>
       </c>
       <c r="J7" s="19">
-        <f t="shared" si="0"/>
+        <f>H7*I7</f>
         <v>163500</v>
       </c>
       <c r="K7" s="15">
@@ -3292,7 +3277,7 @@
         <v>580</v>
       </c>
       <c r="J8" s="19">
-        <f t="shared" si="0"/>
+        <f>H8*I8</f>
         <v>58000</v>
       </c>
       <c r="K8" s="14">
@@ -3328,7 +3313,7 @@
         <v>700</v>
       </c>
       <c r="J9" s="19">
-        <f t="shared" si="0"/>
+        <f>H9*I9</f>
         <v>70000</v>
       </c>
       <c r="K9" s="15">
@@ -3364,7 +3349,7 @@
         <v>4170</v>
       </c>
       <c r="J10" s="19">
-        <f t="shared" si="0"/>
+        <f>H10*I10</f>
         <v>417000</v>
       </c>
       <c r="K10" s="14">
@@ -3373,16 +3358,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A11" s="4">
-        <v>44537</v>
+        <v>45089</v>
       </c>
       <c r="B11" s="4">
-        <v>44539</v>
+        <v>45091</v>
       </c>
       <c r="C11" s="5">
-        <v>4502</v>
+        <v>4324</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>261</v>
@@ -3391,34 +3376,34 @@
         <v>29</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H11" s="5">
         <v>100</v>
       </c>
       <c r="I11" s="25">
-        <v>3115</v>
+        <v>4615</v>
       </c>
       <c r="J11" s="19">
-        <f t="shared" si="0"/>
-        <v>311500</v>
-      </c>
-      <c r="K11" s="14">
-        <v>0</v>
+        <f>H11*I11</f>
+        <v>461500</v>
+      </c>
+      <c r="K11" s="30">
+        <v>44500</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A12" s="4">
-        <v>44146</v>
+        <v>45211</v>
       </c>
       <c r="B12" s="4">
-        <v>44148</v>
+        <v>45215</v>
       </c>
       <c r="C12" s="5">
-        <v>4917</v>
+        <v>4324</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>261</v>
@@ -3433,28 +3418,28 @@
         <v>100</v>
       </c>
       <c r="I12" s="25">
-        <v>1703.8</v>
+        <v>4440</v>
       </c>
       <c r="J12" s="19">
-        <f t="shared" si="0"/>
-        <v>170380</v>
-      </c>
-      <c r="K12" s="14">
+        <f>H12*I12</f>
+        <v>444000</v>
+      </c>
+      <c r="K12" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A13" s="4">
-        <v>44501</v>
+        <v>45561</v>
       </c>
       <c r="B13" s="4">
-        <v>44504</v>
+        <v>45565</v>
       </c>
       <c r="C13" s="5">
-        <v>4917</v>
+        <v>4324</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>261</v>
@@ -3469,28 +3454,28 @@
         <v>100</v>
       </c>
       <c r="I13" s="25">
-        <v>1790</v>
+        <v>4530</v>
       </c>
       <c r="J13" s="19">
-        <f t="shared" si="0"/>
-        <v>179000</v>
+        <f>H13*I13</f>
+        <v>453000</v>
       </c>
       <c r="K13" s="15">
-        <v>8620</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A14" s="4">
-        <v>44862</v>
+        <v>44537</v>
       </c>
       <c r="B14" s="4">
-        <v>44866</v>
+        <v>44539</v>
       </c>
       <c r="C14" s="5">
-        <v>5201</v>
+        <v>4502</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>261</v>
@@ -3505,11 +3490,11 @@
         <v>100</v>
       </c>
       <c r="I14" s="25">
-        <v>4620</v>
+        <v>3115</v>
       </c>
       <c r="J14" s="19">
-        <f t="shared" si="0"/>
-        <v>462000</v>
+        <f>H14*I14</f>
+        <v>311500</v>
       </c>
       <c r="K14" s="14">
         <v>0</v>
@@ -3517,19 +3502,19 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A15" s="4">
-        <v>44172</v>
+        <v>45314</v>
       </c>
       <c r="B15" s="4">
-        <v>44174</v>
+        <v>45316</v>
       </c>
       <c r="C15" s="5">
-        <v>7011</v>
+        <v>4502</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>29</v>
@@ -3541,28 +3526,28 @@
         <v>100</v>
       </c>
       <c r="I15" s="25">
-        <v>2590</v>
+        <v>4405</v>
       </c>
       <c r="J15" s="19">
-        <f t="shared" si="0"/>
-        <v>259000</v>
-      </c>
-      <c r="K15" s="14">
+        <f>H15*I15</f>
+        <v>440500</v>
+      </c>
+      <c r="K15" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A16" s="4">
-        <v>44172</v>
+        <v>44146</v>
       </c>
       <c r="B16" s="4">
-        <v>44174</v>
+        <v>44148</v>
       </c>
       <c r="C16" s="5">
-        <v>7751</v>
+        <v>4917</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>261</v>
@@ -3577,11 +3562,11 @@
         <v>100</v>
       </c>
       <c r="I16" s="25">
-        <v>2009</v>
+        <v>1703.8</v>
       </c>
       <c r="J16" s="19">
-        <f t="shared" si="0"/>
-        <v>200900</v>
+        <f>H16*I16</f>
+        <v>170380</v>
       </c>
       <c r="K16" s="14">
         <v>0</v>
@@ -3589,16 +3574,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A17" s="4">
-        <v>44204</v>
+        <v>44501</v>
       </c>
       <c r="B17" s="4">
-        <v>44209</v>
+        <v>44504</v>
       </c>
       <c r="C17" s="5">
-        <v>7867</v>
+        <v>4917</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>261</v>
@@ -3607,34 +3592,34 @@
         <v>29</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H17" s="5">
         <v>100</v>
       </c>
       <c r="I17" s="25">
-        <v>895</v>
+        <v>1790</v>
       </c>
       <c r="J17" s="19">
-        <f t="shared" si="0"/>
-        <v>89500</v>
-      </c>
-      <c r="K17" s="14">
-        <v>0</v>
+        <f>H17*I17</f>
+        <v>179000</v>
+      </c>
+      <c r="K17" s="15">
+        <v>8620</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A18" s="4">
-        <v>44425</v>
+        <v>45140</v>
       </c>
       <c r="B18" s="4">
-        <v>44427</v>
+        <v>45142</v>
       </c>
       <c r="C18" s="5">
-        <v>7867</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>40</v>
+        <v>5019</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>261</v>
@@ -3643,70 +3628,67 @@
         <v>29</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H18" s="5">
         <v>100</v>
       </c>
       <c r="I18" s="25">
-        <v>1047</v>
+        <v>2988.5</v>
       </c>
       <c r="J18" s="19">
-        <f t="shared" si="0"/>
-        <v>104700</v>
-      </c>
-      <c r="K18" s="15">
-        <v>15200</v>
+        <f>H18*I18</f>
+        <v>298850</v>
+      </c>
+      <c r="K18" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A19" s="4">
-        <v>44186</v>
+        <v>45287</v>
       </c>
       <c r="B19" s="4">
-        <v>44188</v>
+        <v>45295</v>
       </c>
       <c r="C19" s="5">
-        <v>7912</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>36</v>
+        <v>5019</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="H19" s="5">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I19" s="25">
-        <v>1890</v>
+        <v>597.70000000000005</v>
       </c>
       <c r="J19" s="19">
-        <f t="shared" si="0"/>
-        <v>189000</v>
-      </c>
-      <c r="K19" s="14">
+        <v>0</v>
+      </c>
+      <c r="K19" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A20" s="4">
-        <v>44270</v>
+        <v>44862</v>
       </c>
       <c r="B20" s="4">
-        <v>44272</v>
+        <v>44866</v>
       </c>
       <c r="C20" s="5">
-        <v>7912</v>
+        <v>5201</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>261</v>
@@ -3715,37 +3697,37 @@
         <v>29</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H20" s="5">
         <v>100</v>
       </c>
       <c r="I20" s="25">
-        <v>2325</v>
+        <v>4620</v>
       </c>
       <c r="J20" s="19">
-        <f t="shared" si="0"/>
-        <v>232500</v>
-      </c>
-      <c r="K20" s="15">
-        <v>43500</v>
+        <f>H20*I20</f>
+        <v>462000</v>
+      </c>
+      <c r="K20" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A21" s="4">
-        <v>44187</v>
+        <v>45342</v>
       </c>
       <c r="B21" s="4">
-        <v>44189</v>
+        <v>45344</v>
       </c>
       <c r="C21" s="5">
-        <v>8306</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>37</v>
+        <v>6526</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>29</v>
@@ -3757,31 +3739,31 @@
         <v>100</v>
       </c>
       <c r="I21" s="25">
-        <v>454</v>
+        <v>3818</v>
       </c>
       <c r="J21" s="19">
-        <f t="shared" si="0"/>
-        <v>45400</v>
-      </c>
-      <c r="K21" s="14">
+        <f>H21*I21</f>
+        <v>381800</v>
+      </c>
+      <c r="K21" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A22" s="4">
-        <v>44266</v>
+        <v>45404</v>
       </c>
       <c r="B22" s="4">
-        <v>44270</v>
+        <v>45406</v>
       </c>
       <c r="C22" s="5">
-        <v>8306</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>37</v>
+        <v>6526</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>29</v>
@@ -3793,28 +3775,28 @@
         <v>100</v>
       </c>
       <c r="I22" s="25">
-        <v>593</v>
+        <v>3954</v>
       </c>
       <c r="J22" s="19">
-        <f t="shared" si="0"/>
-        <v>59300</v>
-      </c>
-      <c r="K22" s="15">
-        <v>13900</v>
+        <f>H22*I22</f>
+        <v>395400</v>
+      </c>
+      <c r="K22" s="30">
+        <v>13600</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A23" s="4">
-        <v>44866</v>
+        <v>44172</v>
       </c>
       <c r="B23" s="4">
-        <v>44869</v>
+        <v>44174</v>
       </c>
       <c r="C23" s="5">
-        <v>8766</v>
+        <v>7011</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>261</v>
@@ -3829,11 +3811,11 @@
         <v>100</v>
       </c>
       <c r="I23" s="25">
-        <v>2713.4</v>
+        <v>2590</v>
       </c>
       <c r="J23" s="19">
-        <f t="shared" si="0"/>
-        <v>271340</v>
+        <f>H23*I23</f>
+        <v>259000</v>
       </c>
       <c r="K23" s="14">
         <v>0</v>
@@ -3841,35 +3823,32 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A24" s="4">
-        <v>45020</v>
+        <v>45378</v>
       </c>
       <c r="B24" s="4">
-        <v>45022</v>
+        <v>45383</v>
       </c>
       <c r="C24" s="5">
-        <v>8593</v>
+        <v>7011</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="H24" s="5">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="I24" s="25">
-        <v>688</v>
+        <v>259</v>
       </c>
       <c r="J24" s="19">
-        <f t="shared" si="0"/>
-        <v>68800</v>
+        <v>0</v>
       </c>
       <c r="K24" s="23">
         <v>0</v>
@@ -3877,88 +3856,82 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A25" s="4">
-        <v>45069</v>
+        <v>45656</v>
       </c>
       <c r="B25" s="4">
-        <v>45071</v>
+        <v>45663</v>
       </c>
       <c r="C25" s="5">
-        <v>8766</v>
+        <v>7011</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
-        <v>41</v>
+        <v>292</v>
       </c>
       <c r="H25" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I25" s="25">
-        <v>3004.6</v>
+        <v>259</v>
       </c>
       <c r="J25" s="19">
-        <f t="shared" si="0"/>
-        <v>300460</v>
-      </c>
-      <c r="K25" s="30">
-        <v>29120</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
+        <v>982000</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A26" s="4">
-        <v>45069</v>
+        <v>45656</v>
       </c>
       <c r="B26" s="4">
-        <v>45071</v>
+        <v>45663</v>
       </c>
       <c r="C26" s="5">
-        <v>8593</v>
+        <v>7011</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>41</v>
+        <v>292</v>
       </c>
       <c r="H26" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I26" s="25">
-        <v>763.4</v>
+        <v>259</v>
       </c>
       <c r="J26" s="19">
-        <f t="shared" si="0"/>
-        <v>76340</v>
-      </c>
-      <c r="K26" s="30">
-        <v>7540</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <v>982000</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A27" s="4">
-        <v>45089</v>
+        <v>44172</v>
       </c>
       <c r="B27" s="4">
-        <v>45091</v>
+        <v>44174</v>
       </c>
       <c r="C27" s="5">
-        <v>4324</v>
+        <v>7751</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>261</v>
@@ -3967,70 +3940,67 @@
         <v>29</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H27" s="5">
         <v>100</v>
       </c>
       <c r="I27" s="25">
-        <v>4615</v>
+        <v>2009</v>
       </c>
       <c r="J27" s="19">
-        <f t="shared" si="0"/>
-        <v>461500</v>
-      </c>
-      <c r="K27" s="30">
-        <v>44500</v>
+        <f>H27*I27</f>
+        <v>200900</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A28" s="4">
-        <v>45140</v>
+        <v>45656</v>
       </c>
       <c r="B28" s="4">
-        <v>45142</v>
+        <v>45663</v>
       </c>
       <c r="C28" s="5">
-        <v>5019</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>190</v>
+        <v>7751</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
       <c r="H28" s="5">
         <v>100</v>
       </c>
       <c r="I28" s="25">
-        <v>2988.5</v>
+        <v>2009</v>
       </c>
       <c r="J28" s="19">
-        <f t="shared" si="0"/>
-        <v>298850</v>
-      </c>
-      <c r="K28" s="23">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>315200</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A29" s="4">
-        <v>45141</v>
+        <v>44204</v>
       </c>
       <c r="B29" s="4">
-        <v>45145</v>
+        <v>44209</v>
       </c>
       <c r="C29" s="5">
-        <v>9104</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>91</v>
+        <v>7867</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>261</v>
@@ -4045,28 +4015,28 @@
         <v>100</v>
       </c>
       <c r="I29" s="25">
-        <v>3869.4</v>
+        <v>895</v>
       </c>
       <c r="J29" s="19">
-        <f t="shared" si="0"/>
-        <v>386940</v>
-      </c>
-      <c r="K29" s="23">
+        <f>H29*I29</f>
+        <v>89500</v>
+      </c>
+      <c r="K29" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A30" s="4">
-        <v>45175</v>
+        <v>44425</v>
       </c>
       <c r="B30" s="4">
-        <v>45177</v>
+        <v>44427</v>
       </c>
       <c r="C30" s="5">
-        <v>9104</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>91</v>
+        <v>7867</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>261</v>
@@ -4081,28 +4051,28 @@
         <v>100</v>
       </c>
       <c r="I30" s="25">
-        <v>4312</v>
+        <v>1047</v>
       </c>
       <c r="J30" s="19">
-        <f t="shared" si="0"/>
-        <v>431200</v>
+        <f>H30*I30</f>
+        <v>104700</v>
       </c>
       <c r="K30" s="15">
-        <v>44260</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A31" s="4">
-        <v>45211</v>
+        <v>44186</v>
       </c>
       <c r="B31" s="4">
-        <v>45215</v>
+        <v>44188</v>
       </c>
       <c r="C31" s="5">
-        <v>4324</v>
+        <v>7912</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>261</v>
@@ -4117,61 +4087,64 @@
         <v>100</v>
       </c>
       <c r="I31" s="25">
-        <v>4440</v>
+        <v>1890</v>
       </c>
       <c r="J31" s="19">
-        <f t="shared" si="0"/>
-        <v>444000</v>
-      </c>
-      <c r="K31" s="30">
+        <f>H31*I31</f>
+        <v>189000</v>
+      </c>
+      <c r="K31" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A32" s="4">
-        <v>45287</v>
+        <v>44270</v>
       </c>
       <c r="B32" s="4">
-        <v>45295</v>
+        <v>44272</v>
       </c>
       <c r="C32" s="5">
-        <v>5019</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>190</v>
+        <v>7912</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G32" s="5" t="s">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c r="H32" s="5">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I32" s="25">
-        <v>597.70000000000005</v>
+        <v>2325</v>
       </c>
       <c r="J32" s="19">
-        <v>0</v>
-      </c>
-      <c r="K32" s="23">
-        <v>0</v>
+        <f>H32*I32</f>
+        <v>232500</v>
+      </c>
+      <c r="K32" s="15">
+        <v>43500</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A33" s="4">
-        <v>45314</v>
+        <v>45471</v>
       </c>
       <c r="B33" s="4">
-        <v>45316</v>
+        <v>45475</v>
       </c>
       <c r="C33" s="5">
-        <v>4502</v>
+        <v>7984</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>239</v>
@@ -4186,11 +4159,11 @@
         <v>100</v>
       </c>
       <c r="I33" s="25">
-        <v>4405</v>
+        <v>2686</v>
       </c>
       <c r="J33" s="19">
-        <f t="shared" si="0"/>
-        <v>440500</v>
+        <f>H33*I33</f>
+        <v>268600</v>
       </c>
       <c r="K33" s="23">
         <v>0</v>
@@ -4198,19 +4171,19 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A34" s="4">
-        <v>45341</v>
+        <v>44187</v>
       </c>
       <c r="B34" s="4">
-        <v>45343</v>
+        <v>44189</v>
       </c>
       <c r="C34" s="5">
-        <v>9101</v>
+        <v>8306</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>29</v>
@@ -4222,67 +4195,67 @@
         <v>100</v>
       </c>
       <c r="I34" s="25">
-        <v>4775</v>
+        <v>454</v>
       </c>
       <c r="J34" s="19">
-        <f t="shared" si="0"/>
-        <v>477500</v>
-      </c>
-      <c r="K34" s="23">
+        <f>H34*I34</f>
+        <v>45400</v>
+      </c>
+      <c r="K34" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A35" s="4">
-        <v>45341</v>
+        <v>44266</v>
       </c>
       <c r="B35" s="4">
-        <v>45343</v>
+        <v>44270</v>
       </c>
       <c r="C35" s="5">
-        <v>9433</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>71</v>
+        <v>8306</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H35" s="5">
         <v>100</v>
       </c>
       <c r="I35" s="25">
-        <v>4600</v>
+        <v>593</v>
       </c>
       <c r="J35" s="19">
-        <f t="shared" si="0"/>
-        <v>460000</v>
-      </c>
-      <c r="K35" s="23">
-        <v>0</v>
+        <f>H35*I35</f>
+        <v>59300</v>
+      </c>
+      <c r="K35" s="15">
+        <v>13900</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A36" s="4">
-        <v>45342</v>
+        <v>45020</v>
       </c>
       <c r="B36" s="4">
-        <v>45344</v>
+        <v>45022</v>
       </c>
       <c r="C36" s="5">
-        <v>6526</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>241</v>
+        <v>8593</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>29</v>
@@ -4294,11 +4267,11 @@
         <v>100</v>
       </c>
       <c r="I36" s="25">
-        <v>3818</v>
+        <v>688</v>
       </c>
       <c r="J36" s="19">
-        <f t="shared" si="0"/>
-        <v>381800</v>
+        <f>H36*I36</f>
+        <v>68800</v>
       </c>
       <c r="K36" s="23">
         <v>0</v>
@@ -4306,19 +4279,19 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A37" s="4">
-        <v>45364</v>
+        <v>45069</v>
       </c>
       <c r="B37" s="4">
-        <v>45366</v>
+        <v>45071</v>
       </c>
       <c r="C37" s="5">
-        <v>9101</v>
+        <v>8593</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>29</v>
@@ -4330,44 +4303,47 @@
         <v>100</v>
       </c>
       <c r="I37" s="25">
-        <v>4282</v>
+        <v>763.4</v>
       </c>
       <c r="J37" s="19">
-        <f t="shared" si="0"/>
-        <v>428200</v>
-      </c>
-      <c r="K37" s="15">
-        <v>-49300</v>
+        <f>H37*I37</f>
+        <v>76340</v>
+      </c>
+      <c r="K37" s="30">
+        <v>7540</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A38" s="4">
-        <v>45378</v>
+        <v>45645</v>
       </c>
       <c r="B38" s="4">
-        <v>45383</v>
+        <v>45649</v>
       </c>
       <c r="C38" s="5">
-        <v>7011</v>
+        <v>8593</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F38" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G38" s="5" t="s">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="H38" s="5">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="I38" s="25">
-        <v>259</v>
+        <v>1008</v>
       </c>
       <c r="J38" s="19">
-        <v>0</v>
+        <f>H38*I38</f>
+        <v>302400</v>
       </c>
       <c r="K38" s="23">
         <v>0</v>
@@ -4375,88 +4351,88 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A39" s="4">
-        <v>45404</v>
+        <v>44866</v>
       </c>
       <c r="B39" s="4">
-        <v>45406</v>
+        <v>44869</v>
       </c>
       <c r="C39" s="5">
-        <v>6526</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>241</v>
+        <v>8766</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H39" s="5">
         <v>100</v>
       </c>
       <c r="I39" s="25">
-        <v>3954</v>
+        <v>2713.4</v>
       </c>
       <c r="J39" s="19">
-        <f t="shared" si="0"/>
-        <v>395400</v>
-      </c>
-      <c r="K39" s="30">
-        <v>13600</v>
+        <f>H39*I39</f>
+        <v>271340</v>
+      </c>
+      <c r="K39" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A40" s="4">
-        <v>45471</v>
+        <v>45069</v>
       </c>
       <c r="B40" s="4">
-        <v>45475</v>
+        <v>45071</v>
       </c>
       <c r="C40" s="5">
-        <v>7984</v>
+        <v>8766</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H40" s="5">
         <v>100</v>
       </c>
       <c r="I40" s="25">
-        <v>2686</v>
+        <v>3004.6</v>
       </c>
       <c r="J40" s="19">
-        <f t="shared" si="0"/>
-        <v>268600</v>
-      </c>
-      <c r="K40" s="23">
-        <v>0</v>
+        <f>H40*I40</f>
+        <v>300460</v>
+      </c>
+      <c r="K40" s="30">
+        <v>29120</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A41" s="4">
-        <v>45520</v>
+        <v>45341</v>
       </c>
       <c r="B41" s="4">
-        <v>45524</v>
+        <v>45343</v>
       </c>
       <c r="C41" s="5">
-        <v>9433</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>71</v>
+        <v>9101</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>239</v>
@@ -4465,37 +4441,37 @@
         <v>29</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H41" s="5">
         <v>100</v>
       </c>
       <c r="I41" s="25">
-        <v>4620</v>
+        <v>4775</v>
       </c>
       <c r="J41" s="19">
-        <f t="shared" si="0"/>
-        <v>462000</v>
-      </c>
-      <c r="K41" s="15">
-        <v>2000</v>
+        <f>H41*I41</f>
+        <v>477500</v>
+      </c>
+      <c r="K41" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A42" s="4">
-        <v>45561</v>
+        <v>45364</v>
       </c>
       <c r="B42" s="4">
-        <v>45565</v>
+        <v>45366</v>
       </c>
       <c r="C42" s="5">
-        <v>4324</v>
+        <v>9101</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>29</v>
@@ -4507,31 +4483,31 @@
         <v>100</v>
       </c>
       <c r="I42" s="25">
-        <v>4530</v>
+        <v>4282</v>
       </c>
       <c r="J42" s="19">
-        <f t="shared" si="0"/>
-        <v>453000</v>
+        <f>H42*I42</f>
+        <v>428200</v>
       </c>
       <c r="K42" s="15">
-        <v>9000</v>
+        <v>-49300</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A43" s="4">
-        <v>45645</v>
+        <v>45141</v>
       </c>
       <c r="B43" s="4">
-        <v>45649</v>
+        <v>45145</v>
       </c>
       <c r="C43" s="5">
-        <v>8593</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>191</v>
+        <v>9104</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>29</v>
@@ -4540,14 +4516,14 @@
         <v>30</v>
       </c>
       <c r="H43" s="5">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I43" s="25">
-        <v>1008</v>
+        <v>3869.4</v>
       </c>
       <c r="J43" s="19">
-        <f t="shared" si="0"/>
-        <v>302400</v>
+        <f>H43*I43</f>
+        <v>386940</v>
       </c>
       <c r="K43" s="23">
         <v>0</v>
@@ -4555,16 +4531,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A44" s="4">
-        <v>45653</v>
+        <v>45175</v>
       </c>
       <c r="B44" s="4">
-        <v>45663</v>
+        <v>45177</v>
       </c>
       <c r="C44" s="5">
-        <v>7011</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>34</v>
+        <v>9104</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>261</v>
@@ -4576,47 +4552,50 @@
         <v>41</v>
       </c>
       <c r="H44" s="5">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I44" s="25">
-        <v>2265.5</v>
+        <v>4312</v>
       </c>
       <c r="J44" s="19">
-        <f t="shared" si="0"/>
-        <v>1132750</v>
+        <f>H44*I44</f>
+        <v>431200</v>
       </c>
       <c r="K44" s="15">
-        <v>1003250</v>
+        <v>44260</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A45" s="4">
-        <v>45656</v>
+        <v>45341</v>
       </c>
       <c r="B45" s="4">
-        <v>45663</v>
+        <v>45343</v>
       </c>
       <c r="C45" s="5">
-        <v>7011</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>34</v>
+        <v>9433</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F45" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G45" s="5" t="s">
-        <v>292</v>
+        <v>30</v>
       </c>
       <c r="H45" s="5">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I45" s="25">
-        <v>259</v>
+        <v>4600</v>
       </c>
       <c r="J45" s="19">
-        <v>0</v>
+        <f>H45*I45</f>
+        <v>460000</v>
       </c>
       <c r="K45" s="23">
         <v>0</v>
@@ -4624,40 +4603,43 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A46" s="4">
-        <v>45656</v>
+        <v>45520</v>
       </c>
       <c r="B46" s="4">
-        <v>45663</v>
+        <v>45524</v>
       </c>
       <c r="C46" s="5">
-        <v>7751</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>35</v>
+        <v>9433</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F46" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G46" s="5" t="s">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="H46" s="5">
         <v>100</v>
       </c>
       <c r="I46" s="25">
-        <v>2009</v>
+        <v>4620</v>
       </c>
       <c r="J46" s="19">
-        <v>0</v>
-      </c>
-      <c r="K46" s="23">
-        <v>0</v>
+        <f>H46*I46</f>
+        <v>462000</v>
+      </c>
+      <c r="K46" s="15">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K23">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K46">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
@@ -4675,7 +4657,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -4750,18 +4732,18 @@
         <v>100</v>
       </c>
       <c r="H2" s="19">
-        <f t="shared" ref="H2:H43" si="0">F2*G2</f>
+        <f>F2*G2</f>
         <v>1600</v>
       </c>
       <c r="I2" s="19">
         <v>0</v>
       </c>
       <c r="J2" s="19">
-        <f t="shared" ref="J2:J43" si="1">H2-I2</f>
+        <f>H2-I2</f>
         <v>1600</v>
       </c>
       <c r="K2" s="19">
-        <f t="shared" ref="K2:K43" si="2">J2</f>
+        <f>J2</f>
         <v>1600</v>
       </c>
     </row>
@@ -4788,18 +4770,18 @@
         <v>100</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" si="0"/>
+        <f>F3*G3</f>
         <v>1200</v>
       </c>
       <c r="I3" s="19">
         <v>0</v>
       </c>
       <c r="J3" s="19">
-        <f t="shared" si="1"/>
+        <f>H3-I3</f>
         <v>1200</v>
       </c>
       <c r="K3" s="19">
-        <f t="shared" si="2"/>
+        <f>J3</f>
         <v>1200</v>
       </c>
     </row>
@@ -4826,18 +4808,18 @@
         <v>100</v>
       </c>
       <c r="H4" s="19">
-        <f t="shared" si="0"/>
+        <f>F4*G4</f>
         <v>8500</v>
       </c>
       <c r="I4" s="19">
         <v>0</v>
       </c>
       <c r="J4" s="19">
-        <f t="shared" si="1"/>
+        <f>H4-I4</f>
         <v>8500</v>
       </c>
       <c r="K4" s="19">
-        <f t="shared" si="2"/>
+        <f>J4</f>
         <v>8500</v>
       </c>
     </row>
@@ -4864,18 +4846,18 @@
         <v>100</v>
       </c>
       <c r="H5" s="19">
-        <f t="shared" si="0"/>
+        <f>F5*G5</f>
         <v>6100</v>
       </c>
       <c r="I5" s="19">
         <v>0</v>
       </c>
       <c r="J5" s="19">
-        <f t="shared" si="1"/>
+        <f>H5-I5</f>
         <v>6100</v>
       </c>
       <c r="K5" s="19">
-        <f t="shared" si="2"/>
+        <f>J5</f>
         <v>6100</v>
       </c>
     </row>
@@ -4902,18 +4884,18 @@
         <v>100</v>
       </c>
       <c r="H6" s="19">
-        <f t="shared" si="0"/>
+        <f>F6*G6</f>
         <v>6975</v>
       </c>
       <c r="I6" s="19">
         <v>0</v>
       </c>
       <c r="J6" s="19">
-        <f t="shared" si="1"/>
+        <f>H6-I6</f>
         <v>6975</v>
       </c>
       <c r="K6" s="19">
-        <f t="shared" si="2"/>
+        <f>J6</f>
         <v>6975</v>
       </c>
     </row>
@@ -4940,18 +4922,18 @@
         <v>100</v>
       </c>
       <c r="H7" s="19">
-        <f t="shared" si="0"/>
+        <f>F7*G7</f>
         <v>9000</v>
       </c>
       <c r="I7" s="19">
         <v>1828</v>
       </c>
       <c r="J7" s="19">
-        <f t="shared" si="1"/>
+        <f>H7-I7</f>
         <v>7172</v>
       </c>
       <c r="K7" s="19">
-        <f t="shared" si="2"/>
+        <f>J7</f>
         <v>7172</v>
       </c>
     </row>
@@ -4978,18 +4960,18 @@
         <v>100</v>
       </c>
       <c r="H8" s="19">
-        <f t="shared" si="0"/>
+        <f>F8*G8</f>
         <v>9000</v>
       </c>
       <c r="I8" s="19">
         <v>0</v>
       </c>
       <c r="J8" s="19">
-        <f t="shared" si="1"/>
+        <f>H8-I8</f>
         <v>9000</v>
       </c>
       <c r="K8" s="19">
-        <f t="shared" si="2"/>
+        <f>J8</f>
         <v>9000</v>
       </c>
     </row>
@@ -5016,18 +4998,18 @@
         <v>100</v>
       </c>
       <c r="H9" s="19">
-        <f t="shared" si="0"/>
+        <f>F9*G9</f>
         <v>9000</v>
       </c>
       <c r="I9" s="19">
         <v>0</v>
       </c>
       <c r="J9" s="19">
-        <f t="shared" si="1"/>
+        <f>H9-I9</f>
         <v>9000</v>
       </c>
       <c r="K9" s="19">
-        <f t="shared" si="2"/>
+        <f>J9</f>
         <v>9000</v>
       </c>
     </row>
@@ -5054,18 +5036,18 @@
         <v>100</v>
       </c>
       <c r="H10" s="19">
-        <f t="shared" si="0"/>
+        <f>F10*G10</f>
         <v>9400</v>
       </c>
       <c r="I10" s="19">
         <v>0</v>
       </c>
       <c r="J10" s="19">
-        <f t="shared" si="1"/>
+        <f>H10-I10</f>
         <v>9400</v>
       </c>
       <c r="K10" s="19">
-        <f t="shared" si="2"/>
+        <f>J10</f>
         <v>9400</v>
       </c>
     </row>
@@ -5092,18 +5074,18 @@
         <v>100</v>
       </c>
       <c r="H11" s="19">
-        <f t="shared" si="0"/>
+        <f>F11*G11</f>
         <v>9400</v>
       </c>
       <c r="I11" s="19">
         <v>0</v>
       </c>
       <c r="J11" s="19">
-        <f t="shared" si="1"/>
+        <f>H11-I11</f>
         <v>9400</v>
       </c>
       <c r="K11" s="19">
-        <f t="shared" si="2"/>
+        <f>J11</f>
         <v>9400</v>
       </c>
     </row>
@@ -5130,18 +5112,18 @@
         <v>100</v>
       </c>
       <c r="H12" s="19">
-        <f t="shared" si="0"/>
+        <f>F12*G12</f>
         <v>9400</v>
       </c>
       <c r="I12" s="19">
         <v>0</v>
       </c>
       <c r="J12" s="19">
-        <f t="shared" si="1"/>
+        <f>H12-I12</f>
         <v>9400</v>
       </c>
       <c r="K12" s="19">
-        <f t="shared" si="2"/>
+        <f>J12</f>
         <v>9400</v>
       </c>
     </row>
@@ -5168,18 +5150,18 @@
         <v>100</v>
       </c>
       <c r="H13" s="19">
-        <f t="shared" si="0"/>
+        <f>F13*G13</f>
         <v>9800</v>
       </c>
       <c r="I13" s="19">
         <v>0</v>
       </c>
       <c r="J13" s="19">
-        <f t="shared" si="1"/>
+        <f>H13-I13</f>
         <v>9800</v>
       </c>
       <c r="K13" s="19">
-        <f t="shared" si="2"/>
+        <f>J13</f>
         <v>9800</v>
       </c>
     </row>
@@ -5206,18 +5188,18 @@
         <v>100</v>
       </c>
       <c r="H14" s="19">
-        <f t="shared" si="0"/>
+        <f>F14*G14</f>
         <v>9800</v>
       </c>
       <c r="I14" s="19">
         <v>0</v>
       </c>
       <c r="J14" s="19">
-        <f t="shared" si="1"/>
+        <f>H14-I14</f>
         <v>9800</v>
       </c>
       <c r="K14" s="19">
-        <f t="shared" si="2"/>
+        <f>J14</f>
         <v>9800</v>
       </c>
     </row>
@@ -5244,18 +5226,18 @@
         <v>100</v>
       </c>
       <c r="H15" s="19">
-        <f t="shared" si="0"/>
+        <f>F15*G15</f>
         <v>1600</v>
       </c>
       <c r="I15" s="19">
         <v>0</v>
       </c>
       <c r="J15" s="19">
-        <f t="shared" si="1"/>
+        <f>H15-I15</f>
         <v>1600</v>
       </c>
       <c r="K15" s="19">
-        <f t="shared" si="2"/>
+        <f>J15</f>
         <v>1600</v>
       </c>
     </row>
@@ -5282,18 +5264,18 @@
         <v>100</v>
       </c>
       <c r="H16" s="19">
-        <f t="shared" si="0"/>
+        <f>F16*G16</f>
         <v>1800</v>
       </c>
       <c r="I16" s="19">
         <v>0</v>
       </c>
       <c r="J16" s="19">
-        <f t="shared" si="1"/>
+        <f>H16-I16</f>
         <v>1800</v>
       </c>
       <c r="K16" s="19">
-        <f t="shared" si="2"/>
+        <f>J16</f>
         <v>1800</v>
       </c>
     </row>
@@ -5320,18 +5302,18 @@
         <v>100</v>
       </c>
       <c r="H17" s="19">
-        <f t="shared" si="0"/>
+        <f>F17*G17</f>
         <v>8000</v>
       </c>
       <c r="I17" s="19">
         <v>0</v>
       </c>
       <c r="J17" s="19">
-        <f t="shared" si="1"/>
+        <f>H17-I17</f>
         <v>8000</v>
       </c>
       <c r="K17" s="31">
-        <f t="shared" si="2"/>
+        <f>J17</f>
         <v>8000</v>
       </c>
     </row>
@@ -5358,18 +5340,18 @@
         <v>500</v>
       </c>
       <c r="H18" s="19">
-        <f t="shared" si="0"/>
+        <f>F18*G18</f>
         <v>8000</v>
       </c>
       <c r="I18" s="19">
         <v>0</v>
       </c>
       <c r="J18" s="19">
-        <f t="shared" si="1"/>
+        <f>H18-I18</f>
         <v>8000</v>
       </c>
       <c r="K18" s="31">
-        <f t="shared" si="2"/>
+        <f>J18</f>
         <v>8000</v>
       </c>
     </row>
@@ -5396,18 +5378,18 @@
         <v>500</v>
       </c>
       <c r="H19" s="19">
-        <f t="shared" si="0"/>
+        <f>F19*G19</f>
         <v>9000</v>
       </c>
       <c r="I19" s="19">
         <v>0</v>
       </c>
       <c r="J19" s="19">
-        <f t="shared" si="1"/>
+        <f>H19-I19</f>
         <v>9000</v>
       </c>
       <c r="K19" s="31">
-        <f t="shared" si="2"/>
+        <f>J19</f>
         <v>9000</v>
       </c>
     </row>
@@ -5434,18 +5416,18 @@
         <v>100</v>
       </c>
       <c r="H20" s="19">
-        <f t="shared" si="0"/>
+        <f>F20*G20</f>
         <v>10500</v>
       </c>
       <c r="I20" s="19">
         <v>0</v>
       </c>
       <c r="J20" s="19">
-        <f t="shared" si="1"/>
+        <f>H20-I20</f>
         <v>10500</v>
       </c>
       <c r="K20" s="19">
-        <f t="shared" si="2"/>
+        <f>J20</f>
         <v>10500</v>
       </c>
     </row>
@@ -5472,18 +5454,18 @@
         <v>100</v>
       </c>
       <c r="H21" s="19">
-        <f t="shared" si="0"/>
+        <f>F21*G21</f>
         <v>10500</v>
       </c>
       <c r="I21" s="19">
         <v>0</v>
       </c>
       <c r="J21" s="19">
-        <f t="shared" si="1"/>
+        <f>H21-I21</f>
         <v>10500</v>
       </c>
       <c r="K21" s="19">
-        <f t="shared" si="2"/>
+        <f>J21</f>
         <v>10500</v>
       </c>
     </row>
@@ -5510,18 +5492,18 @@
         <v>100</v>
       </c>
       <c r="H22" s="19">
-        <f t="shared" si="0"/>
+        <f>F22*G22</f>
         <v>10500</v>
       </c>
       <c r="I22" s="19">
         <v>0</v>
       </c>
       <c r="J22" s="19">
-        <f t="shared" si="1"/>
+        <f>H22-I22</f>
         <v>10500</v>
       </c>
       <c r="K22" s="19">
-        <f t="shared" si="2"/>
+        <f>J22</f>
         <v>10500</v>
       </c>
     </row>
@@ -5548,18 +5530,18 @@
         <v>100</v>
       </c>
       <c r="H23" s="19">
-        <f t="shared" si="0"/>
+        <f>F23*G23</f>
         <v>10500</v>
       </c>
       <c r="I23" s="19">
         <v>0</v>
       </c>
       <c r="J23" s="19">
-        <f t="shared" si="1"/>
+        <f>H23-I23</f>
         <v>10500</v>
       </c>
       <c r="K23" s="19">
-        <f t="shared" si="2"/>
+        <f>J23</f>
         <v>10500</v>
       </c>
     </row>
@@ -5586,18 +5568,18 @@
         <v>100</v>
       </c>
       <c r="H24" s="19">
-        <f t="shared" si="0"/>
+        <f>F24*G24</f>
         <v>2500</v>
       </c>
       <c r="I24" s="19">
         <v>0</v>
       </c>
       <c r="J24" s="19">
-        <f t="shared" si="1"/>
+        <f>H24-I24</f>
         <v>2500</v>
       </c>
       <c r="K24" s="19">
-        <f t="shared" si="2"/>
+        <f>J24</f>
         <v>2500</v>
       </c>
     </row>
@@ -5624,18 +5606,18 @@
         <v>100</v>
       </c>
       <c r="H25" s="19">
-        <f t="shared" si="0"/>
+        <f>F25*G25</f>
         <v>7500</v>
       </c>
       <c r="I25" s="19">
         <v>0</v>
       </c>
       <c r="J25" s="19">
-        <f t="shared" si="1"/>
+        <f>H25-I25</f>
         <v>7500</v>
       </c>
       <c r="K25" s="19">
-        <f t="shared" si="2"/>
+        <f>J25</f>
         <v>7500</v>
       </c>
     </row>
@@ -5662,18 +5644,18 @@
         <v>100</v>
       </c>
       <c r="H26" s="19">
-        <f t="shared" si="0"/>
+        <f>F26*G26</f>
         <v>4500</v>
       </c>
       <c r="I26" s="19">
         <v>0</v>
       </c>
       <c r="J26" s="19">
-        <f t="shared" si="1"/>
+        <f>H26-I26</f>
         <v>4500</v>
       </c>
       <c r="K26" s="19">
-        <f t="shared" si="2"/>
+        <f>J26</f>
         <v>4500</v>
       </c>
     </row>
@@ -5700,18 +5682,18 @@
         <v>100</v>
       </c>
       <c r="H27" s="19">
-        <f t="shared" si="0"/>
+        <f>F27*G27</f>
         <v>5500</v>
       </c>
       <c r="I27" s="19">
         <v>1117</v>
       </c>
       <c r="J27" s="19">
-        <f t="shared" si="1"/>
+        <f>H27-I27</f>
         <v>4383</v>
       </c>
       <c r="K27" s="19">
-        <f t="shared" si="2"/>
+        <f>J27</f>
         <v>4383</v>
       </c>
     </row>
@@ -5738,18 +5720,18 @@
         <v>100</v>
       </c>
       <c r="H28" s="19">
-        <f t="shared" si="0"/>
+        <f>F28*G28</f>
         <v>6000</v>
       </c>
       <c r="I28" s="19">
         <v>0</v>
       </c>
       <c r="J28" s="19">
-        <f t="shared" si="1"/>
+        <f>H28-I28</f>
         <v>6000</v>
       </c>
       <c r="K28" s="19">
-        <f t="shared" si="2"/>
+        <f>J28</f>
         <v>6000</v>
       </c>
     </row>
@@ -5776,18 +5758,18 @@
         <v>100</v>
       </c>
       <c r="H29" s="19">
-        <f t="shared" si="0"/>
+        <f>F29*G29</f>
         <v>7000</v>
       </c>
       <c r="I29" s="19">
         <v>0</v>
       </c>
       <c r="J29" s="19">
-        <f t="shared" si="1"/>
+        <f>H29-I29</f>
         <v>7000</v>
       </c>
       <c r="K29" s="19">
-        <f t="shared" si="2"/>
+        <f>J29</f>
         <v>7000</v>
       </c>
     </row>
@@ -5814,18 +5796,18 @@
         <v>100</v>
       </c>
       <c r="H30" s="19">
-        <f t="shared" si="0"/>
+        <f>F30*G30</f>
         <v>8000</v>
       </c>
       <c r="I30" s="19">
         <v>0</v>
       </c>
       <c r="J30" s="19">
-        <f t="shared" si="1"/>
+        <f>H30-I30</f>
         <v>8000</v>
       </c>
       <c r="K30" s="19">
-        <f t="shared" si="2"/>
+        <f>J30</f>
         <v>8000</v>
       </c>
     </row>
@@ -5852,18 +5834,18 @@
         <v>100</v>
       </c>
       <c r="H31" s="19">
-        <f t="shared" si="0"/>
+        <f>F31*G31</f>
         <v>12000</v>
       </c>
       <c r="I31" s="19">
         <v>0</v>
       </c>
       <c r="J31" s="19">
-        <f t="shared" si="1"/>
+        <f>H31-I31</f>
         <v>12000</v>
       </c>
       <c r="K31" s="19">
-        <f t="shared" si="2"/>
+        <f>J31</f>
         <v>12000</v>
       </c>
     </row>
@@ -5890,18 +5872,18 @@
         <v>1000</v>
       </c>
       <c r="H32" s="19">
-        <f t="shared" si="0"/>
+        <f>F32*G32</f>
         <v>11000</v>
       </c>
       <c r="I32" s="19">
         <v>0</v>
       </c>
       <c r="J32" s="19">
-        <f t="shared" si="1"/>
+        <f>H32-I32</f>
         <v>11000</v>
       </c>
       <c r="K32" s="19">
-        <f t="shared" si="2"/>
+        <f>J32</f>
         <v>11000</v>
       </c>
     </row>
@@ -5928,18 +5910,18 @@
         <v>100</v>
       </c>
       <c r="H33" s="19">
-        <f t="shared" si="0"/>
+        <f>F33*G33</f>
         <v>4000</v>
       </c>
       <c r="I33" s="19">
         <v>0</v>
       </c>
       <c r="J33" s="19">
-        <f t="shared" si="1"/>
+        <f>H33-I33</f>
         <v>4000</v>
       </c>
       <c r="K33" s="19">
-        <f t="shared" si="2"/>
+        <f>J33</f>
         <v>4000</v>
       </c>
     </row>
@@ -5966,18 +5948,18 @@
         <v>100</v>
       </c>
       <c r="H34" s="19">
-        <f t="shared" si="0"/>
+        <f>F34*G34</f>
         <v>4500</v>
       </c>
       <c r="I34" s="19">
         <v>0</v>
       </c>
       <c r="J34" s="19">
-        <f t="shared" si="1"/>
+        <f>H34-I34</f>
         <v>4500</v>
       </c>
       <c r="K34" s="19">
-        <f t="shared" si="2"/>
+        <f>J34</f>
         <v>4500</v>
       </c>
     </row>
@@ -6004,18 +5986,18 @@
         <v>100</v>
       </c>
       <c r="H35" s="19">
-        <f t="shared" si="0"/>
+        <f>F35*G35</f>
         <v>5500</v>
       </c>
       <c r="I35" s="19">
         <v>1117</v>
       </c>
       <c r="J35" s="19">
-        <f t="shared" si="1"/>
+        <f>H35-I35</f>
         <v>4383</v>
       </c>
       <c r="K35" s="19">
-        <f t="shared" si="2"/>
+        <f>J35</f>
         <v>4383</v>
       </c>
     </row>
@@ -6042,18 +6024,18 @@
         <v>100</v>
       </c>
       <c r="H36" s="19">
-        <f t="shared" si="0"/>
+        <f>F36*G36</f>
         <v>6000</v>
       </c>
       <c r="I36" s="19">
         <v>1218</v>
       </c>
       <c r="J36" s="19">
-        <f t="shared" si="1"/>
+        <f>H36-I36</f>
         <v>4782</v>
       </c>
       <c r="K36" s="19">
-        <f t="shared" si="2"/>
+        <f>J36</f>
         <v>4782</v>
       </c>
     </row>
@@ -6080,18 +6062,18 @@
         <v>100</v>
       </c>
       <c r="H37" s="19">
-        <f t="shared" si="0"/>
+        <f>F37*G37</f>
         <v>6000</v>
       </c>
       <c r="I37" s="19">
         <v>0</v>
       </c>
       <c r="J37" s="19">
-        <f t="shared" si="1"/>
+        <f>H37-I37</f>
         <v>6000</v>
       </c>
       <c r="K37" s="19">
-        <f t="shared" si="2"/>
+        <f>J37</f>
         <v>6000</v>
       </c>
     </row>
@@ -6118,18 +6100,18 @@
         <v>100</v>
       </c>
       <c r="H38" s="19">
-        <f t="shared" si="0"/>
+        <f>F38*G38</f>
         <v>7000</v>
       </c>
       <c r="I38" s="19">
         <v>0</v>
       </c>
       <c r="J38" s="19">
-        <f t="shared" si="1"/>
+        <f>H38-I38</f>
         <v>7000</v>
       </c>
       <c r="K38" s="19">
-        <f t="shared" si="2"/>
+        <f>J38</f>
         <v>7000</v>
       </c>
     </row>
@@ -6156,18 +6138,18 @@
         <v>100</v>
       </c>
       <c r="H39" s="19">
-        <f t="shared" si="0"/>
+        <f>F39*G39</f>
         <v>7000</v>
       </c>
       <c r="I39" s="19">
         <v>0</v>
       </c>
       <c r="J39" s="19">
-        <f t="shared" si="1"/>
+        <f>H39-I39</f>
         <v>7000</v>
       </c>
       <c r="K39" s="19">
-        <f t="shared" si="2"/>
+        <f>J39</f>
         <v>7000</v>
       </c>
     </row>
@@ -6194,18 +6176,18 @@
         <v>100</v>
       </c>
       <c r="H40" s="19">
-        <f t="shared" si="0"/>
+        <f>F40*G40</f>
         <v>7500</v>
       </c>
       <c r="I40" s="19">
         <v>0</v>
       </c>
       <c r="J40" s="19">
-        <f t="shared" si="1"/>
+        <f>H40-I40</f>
         <v>7500</v>
       </c>
       <c r="K40" s="19">
-        <f t="shared" si="2"/>
+        <f>J40</f>
         <v>7500</v>
       </c>
     </row>
@@ -6232,18 +6214,18 @@
         <v>100</v>
       </c>
       <c r="H41" s="19">
-        <f t="shared" si="0"/>
+        <f>F41*G41</f>
         <v>1000</v>
       </c>
       <c r="I41" s="19">
         <v>0</v>
       </c>
       <c r="J41" s="19">
-        <f t="shared" si="1"/>
+        <f>H41-I41</f>
         <v>1000</v>
       </c>
       <c r="K41" s="19">
-        <f t="shared" si="2"/>
+        <f>J41</f>
         <v>1000</v>
       </c>
     </row>
@@ -6270,18 +6252,18 @@
         <v>100</v>
       </c>
       <c r="H42" s="19">
-        <f t="shared" si="0"/>
+        <f>F42*G42</f>
         <v>5000</v>
       </c>
       <c r="I42" s="19">
         <v>0</v>
       </c>
       <c r="J42" s="19">
-        <f t="shared" si="1"/>
+        <f>H42-I42</f>
         <v>5000</v>
       </c>
       <c r="K42" s="19">
-        <f t="shared" si="2"/>
+        <f>J42</f>
         <v>5000</v>
       </c>
     </row>
@@ -6308,18 +6290,18 @@
         <v>100</v>
       </c>
       <c r="H43" s="19">
-        <f t="shared" si="0"/>
+        <f>F43*G43</f>
         <v>7000</v>
       </c>
       <c r="I43" s="19">
         <v>0</v>
       </c>
       <c r="J43" s="19">
-        <f t="shared" si="1"/>
+        <f>H43-I43</f>
         <v>7000</v>
       </c>
       <c r="K43" s="19">
-        <f t="shared" si="2"/>
+        <f>J43</f>
         <v>7000</v>
       </c>
     </row>
@@ -6346,7 +6328,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E532" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J556" sqref="J556"/>
+      <selection pane="bottomRight" activeCell="E548" sqref="E548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -30162,7 +30144,7 @@
         <v>277</v>
       </c>
       <c r="M529" s="15">
-        <f t="shared" ref="M529:M560" si="25">IF(G529="買付",H529*I529+SUM(J529:K529),H529*I529-SUM(J529:K529))</f>
+        <f t="shared" ref="M529:M562" si="25">IF(G529="買付",H529*I529+SUM(J529:K529),H529*I529-SUM(J529:K529))</f>
         <v>370000</v>
       </c>
       <c r="N529" s="21">
@@ -31145,7 +31127,7 @@
       <c r="I551" s="25">
         <v>3885</v>
       </c>
-      <c r="J551" s="55">
+      <c r="J551" s="9">
         <v>0</v>
       </c>
       <c r="K551" s="14">
@@ -31190,7 +31172,7 @@
       <c r="I552" s="25">
         <v>7066</v>
       </c>
-      <c r="J552" s="55">
+      <c r="J552" s="9">
         <v>0</v>
       </c>
       <c r="K552" s="14">
@@ -31235,7 +31217,7 @@
       <c r="I553" s="25">
         <v>3170</v>
       </c>
-      <c r="J553" s="55">
+      <c r="J553" s="9">
         <v>0</v>
       </c>
       <c r="K553" s="14">
@@ -31262,7 +31244,7 @@
       <c r="C554" s="5">
         <v>7011</v>
       </c>
-      <c r="D554" s="55" t="s">
+      <c r="D554" s="9" t="s">
         <v>293</v>
       </c>
       <c r="E554" s="5" t="s">
@@ -31278,7 +31260,7 @@
       <c r="I554" s="25">
         <v>2223</v>
       </c>
-      <c r="J554" s="55">
+      <c r="J554" s="9">
         <v>0</v>
       </c>
       <c r="K554" s="14">
@@ -31323,7 +31305,7 @@
       <c r="I555" s="25">
         <v>3140</v>
       </c>
-      <c r="J555" s="55">
+      <c r="J555" s="9">
         <v>0</v>
       </c>
       <c r="K555" s="14">
@@ -31411,7 +31393,7 @@
       <c r="I557" s="25">
         <v>4533</v>
       </c>
-      <c r="J557" s="55">
+      <c r="J557" s="9">
         <v>0</v>
       </c>
       <c r="K557" s="14">
@@ -31456,7 +31438,7 @@
       <c r="I558" s="25">
         <v>9340</v>
       </c>
-      <c r="J558" s="55">
+      <c r="J558" s="9">
         <v>0</v>
       </c>
       <c r="K558" s="14">
@@ -31501,7 +31483,7 @@
       <c r="I559" s="25">
         <v>7828</v>
       </c>
-      <c r="J559" s="55">
+      <c r="J559" s="9">
         <v>0</v>
       </c>
       <c r="K559" s="14">
@@ -31546,7 +31528,7 @@
       <c r="I560" s="25">
         <v>6145</v>
       </c>
-      <c r="J560" s="55">
+      <c r="J560" s="9">
         <v>0</v>
       </c>
       <c r="K560" s="14">
@@ -31563,52 +31545,136 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="9:9" x14ac:dyDescent="0.7">
-      <c r="I561" s="27"/>
-    </row>
-    <row r="562" spans="9:9" x14ac:dyDescent="0.7">
-      <c r="I562" s="27"/>
-    </row>
-    <row r="563" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="561" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A561" s="4">
+        <v>45663</v>
+      </c>
+      <c r="B561" s="4">
+        <v>45665</v>
+      </c>
+      <c r="C561" s="5">
+        <v>2432</v>
+      </c>
+      <c r="D561" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E561" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F561" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G561" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H561" s="5">
+        <v>100</v>
+      </c>
+      <c r="I561" s="25">
+        <v>2878.5</v>
+      </c>
+      <c r="J561" s="55">
+        <v>0</v>
+      </c>
+      <c r="K561" s="14">
+        <v>0</v>
+      </c>
+      <c r="L561" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="M561" s="15">
+        <f t="shared" si="25"/>
+        <v>287850</v>
+      </c>
+      <c r="N561" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A562" s="4">
+        <v>45663</v>
+      </c>
+      <c r="B562" s="4">
+        <v>45664</v>
+      </c>
+      <c r="C562" s="5">
+        <v>7011</v>
+      </c>
+      <c r="D562" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E562" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F562" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G562" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H562" s="5">
+        <v>500</v>
+      </c>
+      <c r="I562" s="25">
+        <v>2265.5</v>
+      </c>
+      <c r="J562" s="55">
+        <v>0</v>
+      </c>
+      <c r="K562" s="14">
+        <v>0</v>
+      </c>
+      <c r="L562" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M562" s="15">
+        <f t="shared" si="25"/>
+        <v>1132750</v>
+      </c>
+      <c r="N562" s="19">
+        <v>21250</v>
+      </c>
+    </row>
+    <row r="563" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I563" s="27"/>
     </row>
-    <row r="564" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="564" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I564" s="27"/>
     </row>
-    <row r="565" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="565" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I565" s="27"/>
     </row>
-    <row r="566" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="566" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I566" s="27"/>
     </row>
-    <row r="567" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="567" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I567" s="27"/>
     </row>
-    <row r="568" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="568" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I568" s="27"/>
     </row>
-    <row r="569" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="569" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I569" s="27"/>
     </row>
-    <row r="570" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="570" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I570" s="27"/>
     </row>
-    <row r="571" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="571" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I571" s="27"/>
     </row>
-    <row r="572" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="572" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I572" s="27"/>
     </row>
-    <row r="573" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="573" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I573" s="27"/>
     </row>
-    <row r="574" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="574" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I574" s="27"/>
     </row>
-    <row r="575" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="575" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I575" s="27"/>
     </row>
-    <row r="576" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="576" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I576" s="27"/>
     </row>
     <row r="577" spans="9:9" x14ac:dyDescent="0.7">
@@ -41129,7 +41195,7 @@
       <c r="B36" s="4">
         <v>45665</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="5" t="s">
         <v>295</v>
       </c>
       <c r="D36" s="9" t="s">
@@ -41147,10 +41213,10 @@
       <c r="H36" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I36" s="55">
+      <c r="I36" s="9">
         <v>4</v>
       </c>
-      <c r="J36" s="57">
+      <c r="J36" s="12">
         <v>77.47</v>
       </c>
       <c r="K36" s="9">
@@ -41171,10 +41237,10 @@
       <c r="P36" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="Q36" s="55">
-        <v>0</v>
-      </c>
-      <c r="R36" s="55">
+      <c r="Q36" s="9">
+        <v>0</v>
+      </c>
+      <c r="R36" s="9">
         <v>0</v>
       </c>
     </row>
@@ -43960,11 +44026,11 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>

--- a/data/02_運用_rakuten.xlsx
+++ b/data/02_運用_rakuten.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ca29965d2a6599a/01_資産管理/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="343" documentId="13_ncr:1_{1CCB16D9-864A-481B-A34B-A3476BEF7488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{637012C7-F0AD-41F1-B031-3DEAEF0ED26F}"/>
+  <xr:revisionPtr revIDLastSave="379" documentId="13_ncr:1_{1CCB16D9-864A-481B-A34B-A3476BEF7488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28E9C51A-0F73-42D9-AF60-9FAFB10B34BE}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="758" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4607" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4636" uniqueCount="303">
   <si>
     <t>約定日</t>
   </si>
@@ -1354,6 +1354,16 @@
     <t>-</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>積水化学</t>
+    <rPh sb="0" eb="2">
+      <t>セキスイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カガク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
@@ -2049,7 +2059,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2214,9 +2224,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2611,7 +2618,7 @@
       </c>
       <c r="F4" s="20">
         <f>SUM(F5:F100)</f>
-        <v>5019578</v>
+        <v>5158828</v>
       </c>
       <c r="G4" s="20">
         <f>SUM(G5:G100)</f>
@@ -2623,11 +2630,11 @@
       </c>
       <c r="I4" s="35">
         <f>SUM(F4:H4)</f>
-        <v>2765474</v>
+        <v>2904724</v>
       </c>
       <c r="J4" s="35">
         <f>SUM(J5:J100)</f>
-        <v>2203667.9569000001</v>
+        <v>2314629.3193999999</v>
       </c>
       <c r="K4" s="20">
         <f>SUM(K5:K100)</f>
@@ -2647,7 +2654,7 @@
       </c>
       <c r="O4" s="38">
         <f>SUM(E4,J4,N4)</f>
-        <v>4530728.9569000006</v>
+        <v>4641690.3193999995</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.7">
@@ -2916,7 +2923,7 @@
       </c>
       <c r="F9" s="19">
         <f>SUMIFS(国内株式_特定!$N$2:$N$1000,国内株式_特定!$B$2:$B$1000,"&gt;=2025/1/1",国内株式_特定!$B$2:$B$1000,"&lt;=2025/12/31",国内株式_特定!$N$2:$N$1000,"&gt;=0")</f>
-        <v>30650</v>
+        <v>169900</v>
       </c>
       <c r="G9" s="19">
         <f>SUMIFS(国内株式_特定!$N$2:$N$1000,国内株式_特定!$B$2:$B$1000,"&gt;=2025/1/1",国内株式_特定!$B$2:$B$1000,"&lt;=2025/12/31",国内株式_特定!$N$2:$N$1000,"&lt;0")</f>
@@ -2928,11 +2935,11 @@
       </c>
       <c r="I9" s="35">
         <f t="shared" ref="I9" si="9">SUM(F9:H9)</f>
-        <v>30650</v>
+        <v>169900</v>
       </c>
       <c r="J9" s="36">
         <f>IF(I9&gt;0,I9-I9*0.20315,I9)</f>
-        <v>24423.452499999999</v>
+        <v>135384.815</v>
       </c>
       <c r="K9" s="19">
         <f>SUMIFS(国内株式_信用!$P$2:$P$1000,国内株式_信用!$B$2:$B$1000,"&gt;=2025/1/1",国内株式_信用!$B$2:$B$1000,"&lt;=2025/12/31",国内株式_信用!$P$2:$P$1000,"&gt;=0")</f>
@@ -2952,7 +2959,7 @@
       </c>
       <c r="O9" s="38">
         <f>SUM(E9,J9,N9)</f>
-        <v>2303623.4525000001</v>
+        <v>2414584.8149999999</v>
       </c>
     </row>
   </sheetData>
@@ -2983,13 +2990,13 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -4026,7 +4033,7 @@
         <v>895</v>
       </c>
       <c r="J29" s="19">
-        <f t="shared" ref="J29:J46" si="1">H29*I29</f>
+        <f t="shared" ref="J29:J47" si="1">H29*I29</f>
         <v>89500</v>
       </c>
       <c r="K29" s="14">
@@ -4643,6 +4650,42 @@
       </c>
       <c r="K46" s="15">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A47" s="4">
+        <v>45674</v>
+      </c>
+      <c r="B47" s="4">
+        <v>45678</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4204</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="5">
+        <v>100</v>
+      </c>
+      <c r="I47" s="25">
+        <v>2457.5</v>
+      </c>
+      <c r="J47" s="19">
+        <f t="shared" si="1"/>
+        <v>245750</v>
+      </c>
+      <c r="K47" s="23">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6333,10 +6376,10 @@
   <dimension ref="A1:O601"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E537" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E543" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N566" sqref="N566"/>
+      <selection pane="bottomRight" activeCell="N570" sqref="N570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -6437,7 +6480,7 @@
         <v>31</v>
       </c>
       <c r="M2" s="15">
-        <f>IF(G2="買付",H2*I2+SUM(J2:K2),H2*I2-SUM(J2:K2))</f>
+        <f t="shared" ref="M2:M33" si="0">IF(G2="買付",H2*I2+SUM(J2:K2),H2*I2-SUM(J2:K2))</f>
         <v>226590</v>
       </c>
       <c r="N2" s="19">
@@ -6482,7 +6525,7 @@
         <v>90</v>
       </c>
       <c r="M3" s="15">
-        <f>IF(G3="買付",H3*I3+SUM(J3:K3),H3*I3-SUM(J3:K3))</f>
+        <f t="shared" si="0"/>
         <v>230640</v>
       </c>
       <c r="N3" s="19">
@@ -6527,7 +6570,7 @@
         <v>31</v>
       </c>
       <c r="M4" s="15">
-        <f>IF(G4="買付",H4*I4+SUM(J4:K4),H4*I4-SUM(J4:K4))</f>
+        <f t="shared" si="0"/>
         <v>149000</v>
       </c>
       <c r="N4" s="19">
@@ -6572,7 +6615,7 @@
         <v>31</v>
       </c>
       <c r="M5" s="15">
-        <f>IF(G5="買付",H5*I5+SUM(J5:K5),H5*I5-SUM(J5:K5))</f>
+        <f t="shared" si="0"/>
         <v>74530</v>
       </c>
       <c r="N5" s="19">
@@ -6617,7 +6660,7 @@
         <v>31</v>
       </c>
       <c r="M6" s="15">
-        <f>IF(G6="買付",H6*I6+SUM(J6:K6),H6*I6-SUM(J6:K6))</f>
+        <f t="shared" si="0"/>
         <v>181700</v>
       </c>
       <c r="N6" s="19">
@@ -6662,7 +6705,7 @@
         <v>31</v>
       </c>
       <c r="M7" s="15">
-        <f>IF(G7="買付",H7*I7+SUM(J7:K7),H7*I7-SUM(J7:K7))</f>
+        <f t="shared" si="0"/>
         <v>220500</v>
       </c>
       <c r="N7" s="19">
@@ -6707,7 +6750,7 @@
         <v>90</v>
       </c>
       <c r="M8" s="15">
-        <f>IF(G8="買付",H8*I8+SUM(J8:K8),H8*I8-SUM(J8:K8))</f>
+        <f t="shared" si="0"/>
         <v>231800</v>
       </c>
       <c r="N8" s="19">
@@ -6752,7 +6795,7 @@
         <v>90</v>
       </c>
       <c r="M9" s="15">
-        <f>IF(G9="買付",H9*I9+SUM(J9:K9),H9*I9-SUM(J9:K9))</f>
+        <f t="shared" si="0"/>
         <v>187800</v>
       </c>
       <c r="N9" s="19">
@@ -6797,7 +6840,7 @@
         <v>31</v>
       </c>
       <c r="M10" s="15">
-        <f>IF(G10="買付",H10*I10+SUM(J10:K10),H10*I10-SUM(J10:K10))</f>
+        <f t="shared" si="0"/>
         <v>236800</v>
       </c>
       <c r="N10" s="19">
@@ -6842,7 +6885,7 @@
         <v>31</v>
       </c>
       <c r="M11" s="15">
-        <f>IF(G11="買付",H11*I11+SUM(J11:K11),H11*I11-SUM(J11:K11))</f>
+        <f t="shared" si="0"/>
         <v>239950</v>
       </c>
       <c r="N11" s="19">
@@ -6887,7 +6930,7 @@
         <v>90</v>
       </c>
       <c r="M12" s="15">
-        <f>IF(G12="買付",H12*I12+SUM(J12:K12),H12*I12-SUM(J12:K12))</f>
+        <f t="shared" si="0"/>
         <v>163500</v>
       </c>
       <c r="N12" s="19">
@@ -6932,7 +6975,7 @@
         <v>31</v>
       </c>
       <c r="M13" s="15">
-        <f>IF(G13="買付",H13*I13+SUM(J13:K13),H13*I13-SUM(J13:K13))</f>
+        <f t="shared" si="0"/>
         <v>121900</v>
       </c>
       <c r="N13" s="19">
@@ -6977,7 +7020,7 @@
         <v>90</v>
       </c>
       <c r="M14" s="15">
-        <f>IF(G14="買付",H14*I14+SUM(J14:K14),H14*I14-SUM(J14:K14))</f>
+        <f t="shared" si="0"/>
         <v>74890</v>
       </c>
       <c r="N14" s="19">
@@ -7022,7 +7065,7 @@
         <v>31</v>
       </c>
       <c r="M15" s="15">
-        <f>IF(G15="買付",H15*I15+SUM(J15:K15),H15*I15-SUM(J15:K15))</f>
+        <f t="shared" si="0"/>
         <v>44990</v>
       </c>
       <c r="N15" s="19">
@@ -7067,7 +7110,7 @@
         <v>90</v>
       </c>
       <c r="M16" s="15">
-        <f>IF(G16="買付",H16*I16+SUM(J16:K16),H16*I16-SUM(J16:K16))</f>
+        <f t="shared" si="0"/>
         <v>122540.00000000001</v>
       </c>
       <c r="N16" s="19">
@@ -7112,7 +7155,7 @@
         <v>90</v>
       </c>
       <c r="M17" s="15">
-        <f>IF(G17="買付",H17*I17+SUM(J17:K17),H17*I17-SUM(J17:K17))</f>
+        <f t="shared" si="0"/>
         <v>45000</v>
       </c>
       <c r="N17" s="19">
@@ -7157,7 +7200,7 @@
         <v>31</v>
       </c>
       <c r="M18" s="15">
-        <f>IF(G18="買付",H18*I18+SUM(J18:K18),H18*I18-SUM(J18:K18))</f>
+        <f t="shared" si="0"/>
         <v>199300</v>
       </c>
       <c r="N18" s="19">
@@ -7202,7 +7245,7 @@
         <v>90</v>
       </c>
       <c r="M19" s="15">
-        <f>IF(G19="買付",H19*I19+SUM(J19:K19),H19*I19-SUM(J19:K19))</f>
+        <f t="shared" si="0"/>
         <v>193300</v>
       </c>
       <c r="N19" s="19">
@@ -7247,7 +7290,7 @@
         <v>31</v>
       </c>
       <c r="M20" s="15">
-        <f>IF(G20="買付",H20*I20+SUM(J20:K20),H20*I20-SUM(J20:K20))</f>
+        <f t="shared" si="0"/>
         <v>243000</v>
       </c>
       <c r="N20" s="19">
@@ -7292,7 +7335,7 @@
         <v>90</v>
       </c>
       <c r="M21" s="15">
-        <f>IF(G21="買付",H21*I21+SUM(J21:K21),H21*I21-SUM(J21:K21))</f>
+        <f t="shared" si="0"/>
         <v>244200</v>
       </c>
       <c r="N21" s="19">
@@ -7337,7 +7380,7 @@
         <v>31</v>
       </c>
       <c r="M22" s="15">
-        <f>IF(G22="買付",H22*I22+SUM(J22:K22),H22*I22-SUM(J22:K22))</f>
+        <f t="shared" si="0"/>
         <v>93300</v>
       </c>
       <c r="N22" s="19">
@@ -7382,7 +7425,7 @@
         <v>90</v>
       </c>
       <c r="M23" s="15">
-        <f>IF(G23="買付",H23*I23+SUM(J23:K23),H23*I23-SUM(J23:K23))</f>
+        <f t="shared" si="0"/>
         <v>94100</v>
       </c>
       <c r="N23" s="19">
@@ -7427,7 +7470,7 @@
         <v>31</v>
       </c>
       <c r="M24" s="15">
-        <f>IF(G24="買付",H24*I24+SUM(J24:K24),H24*I24-SUM(J24:K24))</f>
+        <f t="shared" si="0"/>
         <v>386500</v>
       </c>
       <c r="N24" s="19">
@@ -7472,7 +7515,7 @@
         <v>31</v>
       </c>
       <c r="M25" s="15">
-        <f>IF(G25="買付",H25*I25+SUM(J25:K25),H25*I25-SUM(J25:K25))</f>
+        <f t="shared" si="0"/>
         <v>167000</v>
       </c>
       <c r="N25" s="19">
@@ -7517,7 +7560,7 @@
         <v>31</v>
       </c>
       <c r="M26" s="15">
-        <f>IF(G26="買付",H26*I26+SUM(J26:K26),H26*I26-SUM(J26:K26))</f>
+        <f t="shared" si="0"/>
         <v>158240</v>
       </c>
       <c r="N26" s="19">
@@ -7562,7 +7605,7 @@
         <v>31</v>
       </c>
       <c r="M27" s="15">
-        <f>IF(G27="買付",H27*I27+SUM(J27:K27),H27*I27-SUM(J27:K27))</f>
+        <f t="shared" si="0"/>
         <v>136000</v>
       </c>
       <c r="N27" s="19">
@@ -7607,7 +7650,7 @@
         <v>90</v>
       </c>
       <c r="M28" s="15">
-        <f>IF(G28="買付",H28*I28+SUM(J28:K28),H28*I28-SUM(J28:K28))</f>
+        <f t="shared" si="0"/>
         <v>137000</v>
       </c>
       <c r="N28" s="19">
@@ -7652,7 +7695,7 @@
         <v>31</v>
       </c>
       <c r="M29" s="15">
-        <f>IF(G29="買付",H29*I29+SUM(J29:K29),H29*I29-SUM(J29:K29))</f>
+        <f t="shared" si="0"/>
         <v>36800</v>
       </c>
       <c r="N29" s="19">
@@ -7697,7 +7740,7 @@
         <v>31</v>
       </c>
       <c r="M30" s="15">
-        <f>IF(G30="買付",H30*I30+SUM(J30:K30),H30*I30-SUM(J30:K30))</f>
+        <f t="shared" si="0"/>
         <v>162000</v>
       </c>
       <c r="N30" s="19">
@@ -7742,7 +7785,7 @@
         <v>90</v>
       </c>
       <c r="M31" s="15">
-        <f>IF(G31="買付",H31*I31+SUM(J31:K31),H31*I31-SUM(J31:K31))</f>
+        <f t="shared" si="0"/>
         <v>37100</v>
       </c>
       <c r="N31" s="19">
@@ -7787,7 +7830,7 @@
         <v>90</v>
       </c>
       <c r="M32" s="15">
-        <f>IF(G32="買付",H32*I32+SUM(J32:K32),H32*I32-SUM(J32:K32))</f>
+        <f t="shared" si="0"/>
         <v>200700</v>
       </c>
       <c r="N32" s="19">
@@ -7832,7 +7875,7 @@
         <v>31</v>
       </c>
       <c r="M33" s="15">
-        <f>IF(G33="買付",H33*I33+SUM(J33:K33),H33*I33-SUM(J33:K33))</f>
+        <f t="shared" si="0"/>
         <v>423000</v>
       </c>
       <c r="N33" s="19">
@@ -7877,7 +7920,7 @@
         <v>31</v>
       </c>
       <c r="M34" s="15">
-        <f>IF(G34="買付",H34*I34+SUM(J34:K34),H34*I34-SUM(J34:K34))</f>
+        <f t="shared" ref="M34:M65" si="1">IF(G34="買付",H34*I34+SUM(J34:K34),H34*I34-SUM(J34:K34))</f>
         <v>58800</v>
       </c>
       <c r="N34" s="19">
@@ -7922,7 +7965,7 @@
         <v>31</v>
       </c>
       <c r="M35" s="15">
-        <f>IF(G35="買付",H35*I35+SUM(J35:K35),H35*I35-SUM(J35:K35))</f>
+        <f t="shared" si="1"/>
         <v>326000</v>
       </c>
       <c r="N35" s="19">
@@ -7967,7 +8010,7 @@
         <v>90</v>
       </c>
       <c r="M36" s="15">
-        <f>IF(G36="買付",H36*I36+SUM(J36:K36),H36*I36-SUM(J36:K36))</f>
+        <f t="shared" si="1"/>
         <v>424000</v>
       </c>
       <c r="N36" s="19">
@@ -8012,7 +8055,7 @@
         <v>90</v>
       </c>
       <c r="M37" s="15">
-        <f>IF(G37="買付",H37*I37+SUM(J37:K37),H37*I37-SUM(J37:K37))</f>
+        <f t="shared" si="1"/>
         <v>58220.000000000007</v>
       </c>
       <c r="N37" s="19">
@@ -8057,7 +8100,7 @@
         <v>90</v>
       </c>
       <c r="M38" s="15">
-        <f>IF(G38="買付",H38*I38+SUM(J38:K38),H38*I38-SUM(J38:K38))</f>
+        <f t="shared" si="1"/>
         <v>237100</v>
       </c>
       <c r="N38" s="19">
@@ -8102,7 +8145,7 @@
         <v>31</v>
       </c>
       <c r="M39" s="15">
-        <f>IF(G39="買付",H39*I39+SUM(J39:K39),H39*I39-SUM(J39:K39))</f>
+        <f t="shared" si="1"/>
         <v>427000</v>
       </c>
       <c r="N39" s="19">
@@ -8147,7 +8190,7 @@
         <v>90</v>
       </c>
       <c r="M40" s="15">
-        <f>IF(G40="買付",H40*I40+SUM(J40:K40),H40*I40-SUM(J40:K40))</f>
+        <f t="shared" si="1"/>
         <v>428500</v>
       </c>
       <c r="N40" s="19">
@@ -8192,7 +8235,7 @@
         <v>31</v>
       </c>
       <c r="M41" s="15">
-        <f>IF(G41="買付",H41*I41+SUM(J41:K41),H41*I41-SUM(J41:K41))</f>
+        <f t="shared" si="1"/>
         <v>413000</v>
       </c>
       <c r="N41" s="19">
@@ -8237,7 +8280,7 @@
         <v>90</v>
       </c>
       <c r="M42" s="15">
-        <f>IF(G42="買付",H42*I42+SUM(J42:K42),H42*I42-SUM(J42:K42))</f>
+        <f t="shared" si="1"/>
         <v>402338</v>
       </c>
       <c r="N42" s="19">
@@ -8282,7 +8325,7 @@
         <v>90</v>
       </c>
       <c r="M43" s="15">
-        <f>IF(G43="買付",H43*I43+SUM(J43:K43),H43*I43-SUM(J43:K43))</f>
+        <f t="shared" si="1"/>
         <v>416818</v>
       </c>
       <c r="N43" s="19">
@@ -8327,7 +8370,7 @@
         <v>90</v>
       </c>
       <c r="M44" s="15">
-        <f>IF(G44="買付",H44*I44+SUM(J44:K44),H44*I44-SUM(J44:K44))</f>
+        <f t="shared" si="1"/>
         <v>180735</v>
       </c>
       <c r="N44" s="19">
@@ -8372,7 +8415,7 @@
         <v>90</v>
       </c>
       <c r="M45" s="15">
-        <f>IF(G45="買付",H45*I45+SUM(J45:K45),H45*I45-SUM(J45:K45))</f>
+        <f t="shared" si="1"/>
         <v>168025</v>
       </c>
       <c r="N45" s="19">
@@ -8417,7 +8460,7 @@
         <v>90</v>
       </c>
       <c r="M46" s="15">
-        <f>IF(G46="買付",H46*I46+SUM(J46:K46),H46*I46-SUM(J46:K46))</f>
+        <f t="shared" si="1"/>
         <v>175114</v>
       </c>
       <c r="N46" s="19">
@@ -8462,7 +8505,7 @@
         <v>31</v>
       </c>
       <c r="M47" s="15">
-        <f>IF(G47="買付",H47*I47+SUM(J47:K47),H47*I47-SUM(J47:K47))</f>
+        <f t="shared" si="1"/>
         <v>409500</v>
       </c>
       <c r="N47" s="19">
@@ -8507,7 +8550,7 @@
         <v>31</v>
       </c>
       <c r="M48" s="15">
-        <f>IF(G48="買付",H48*I48+SUM(J48:K48),H48*I48-SUM(J48:K48))</f>
+        <f t="shared" si="1"/>
         <v>182300</v>
       </c>
       <c r="N48" s="19">
@@ -8552,7 +8595,7 @@
         <v>31</v>
       </c>
       <c r="M49" s="15">
-        <f>IF(G49="買付",H49*I49+SUM(J49:K49),H49*I49-SUM(J49:K49))</f>
+        <f t="shared" si="1"/>
         <v>347200</v>
       </c>
       <c r="N49" s="19">
@@ -8597,7 +8640,7 @@
         <v>90</v>
       </c>
       <c r="M50" s="15">
-        <f>IF(G50="買付",H50*I50+SUM(J50:K50),H50*I50-SUM(J50:K50))</f>
+        <f t="shared" si="1"/>
         <v>404500</v>
       </c>
       <c r="N50" s="19">
@@ -8642,7 +8685,7 @@
         <v>31</v>
       </c>
       <c r="M51" s="15">
-        <f>IF(G51="買付",H51*I51+SUM(J51:K51),H51*I51-SUM(J51:K51))</f>
+        <f t="shared" si="1"/>
         <v>199000</v>
       </c>
       <c r="N51" s="19">
@@ -8687,7 +8730,7 @@
         <v>31</v>
       </c>
       <c r="M52" s="15">
-        <f>IF(G52="買付",H52*I52+SUM(J52:K52),H52*I52-SUM(J52:K52))</f>
+        <f t="shared" si="1"/>
         <v>398000</v>
       </c>
       <c r="N52" s="19">
@@ -8732,7 +8775,7 @@
         <v>31</v>
       </c>
       <c r="M53" s="15">
-        <f>IF(G53="買付",H53*I53+SUM(J53:K53),H53*I53-SUM(J53:K53))</f>
+        <f t="shared" si="1"/>
         <v>168800</v>
       </c>
       <c r="N53" s="19">
@@ -8777,7 +8820,7 @@
         <v>31</v>
       </c>
       <c r="M54" s="15">
-        <f>IF(G54="買付",H54*I54+SUM(J54:K54),H54*I54-SUM(J54:K54))</f>
+        <f t="shared" si="1"/>
         <v>190000</v>
       </c>
       <c r="N54" s="19">
@@ -8822,7 +8865,7 @@
         <v>90</v>
       </c>
       <c r="M55" s="15">
-        <f>IF(G55="買付",H55*I55+SUM(J55:K55),H55*I55-SUM(J55:K55))</f>
+        <f t="shared" si="1"/>
         <v>399500</v>
       </c>
       <c r="N55" s="19">
@@ -8867,7 +8910,7 @@
         <v>90</v>
       </c>
       <c r="M56" s="15">
-        <f>IF(G56="買付",H56*I56+SUM(J56:K56),H56*I56-SUM(J56:K56))</f>
+        <f t="shared" si="1"/>
         <v>177300</v>
       </c>
       <c r="N56" s="19">
@@ -8912,7 +8955,7 @@
         <v>90</v>
       </c>
       <c r="M57" s="15">
-        <f>IF(G57="買付",H57*I57+SUM(J57:K57),H57*I57-SUM(J57:K57))</f>
+        <f t="shared" si="1"/>
         <v>326500</v>
       </c>
       <c r="N57" s="19">
@@ -8957,7 +9000,7 @@
         <v>31</v>
       </c>
       <c r="M58" s="15">
-        <f>IF(G58="買付",H58*I58+SUM(J58:K58),H58*I58-SUM(J58:K58))</f>
+        <f t="shared" si="1"/>
         <v>177500</v>
       </c>
       <c r="N58" s="19">
@@ -9002,7 +9045,7 @@
         <v>31</v>
       </c>
       <c r="M59" s="15">
-        <f>IF(G59="買付",H59*I59+SUM(J59:K59),H59*I59-SUM(J59:K59))</f>
+        <f t="shared" si="1"/>
         <v>435000</v>
       </c>
       <c r="N59" s="19">
@@ -9047,7 +9090,7 @@
         <v>31</v>
       </c>
       <c r="M60" s="15">
-        <f>IF(G60="買付",H60*I60+SUM(J60:K60),H60*I60-SUM(J60:K60))</f>
+        <f t="shared" si="1"/>
         <v>349500</v>
       </c>
       <c r="N60" s="19">
@@ -9092,7 +9135,7 @@
         <v>90</v>
       </c>
       <c r="M61" s="15">
-        <f>IF(G61="買付",H61*I61+SUM(J61:K61),H61*I61-SUM(J61:K61))</f>
+        <f t="shared" si="1"/>
         <v>348000</v>
       </c>
       <c r="N61" s="19">
@@ -9137,7 +9180,7 @@
         <v>31</v>
       </c>
       <c r="M62" s="15">
-        <f>IF(G62="買付",H62*I62+SUM(J62:K62),H62*I62-SUM(J62:K62))</f>
+        <f t="shared" si="1"/>
         <v>152800</v>
       </c>
       <c r="N62" s="19">
@@ -9182,7 +9225,7 @@
         <v>31</v>
       </c>
       <c r="M63" s="15">
-        <f>IF(G63="買付",H63*I63+SUM(J63:K63),H63*I63-SUM(J63:K63))</f>
+        <f t="shared" si="1"/>
         <v>161800</v>
       </c>
       <c r="N63" s="19">
@@ -9227,7 +9270,7 @@
         <v>31</v>
       </c>
       <c r="M64" s="15">
-        <f>IF(G64="買付",H64*I64+SUM(J64:K64),H64*I64-SUM(J64:K64))</f>
+        <f t="shared" si="1"/>
         <v>197000</v>
       </c>
       <c r="N64" s="19">
@@ -9272,7 +9315,7 @@
         <v>90</v>
       </c>
       <c r="M65" s="15">
-        <f>IF(G65="買付",H65*I65+SUM(J65:K65),H65*I65-SUM(J65:K65))</f>
+        <f t="shared" si="1"/>
         <v>184500</v>
       </c>
       <c r="N65" s="19">
@@ -9317,7 +9360,7 @@
         <v>31</v>
       </c>
       <c r="M66" s="15">
-        <f>IF(G66="買付",H66*I66+SUM(J66:K66),H66*I66-SUM(J66:K66))</f>
+        <f t="shared" ref="M66:M97" si="2">IF(G66="買付",H66*I66+SUM(J66:K66),H66*I66-SUM(J66:K66))</f>
         <v>332000</v>
       </c>
       <c r="N66" s="19">
@@ -9362,7 +9405,7 @@
         <v>90</v>
       </c>
       <c r="M67" s="15">
-        <f>IF(G67="買付",H67*I67+SUM(J67:K67),H67*I67-SUM(J67:K67))</f>
+        <f t="shared" si="2"/>
         <v>333200</v>
       </c>
       <c r="N67" s="19">
@@ -9407,7 +9450,7 @@
         <v>31</v>
       </c>
       <c r="M68" s="15">
-        <f>IF(G68="買付",H68*I68+SUM(J68:K68),H68*I68-SUM(J68:K68))</f>
+        <f t="shared" si="2"/>
         <v>245300</v>
       </c>
       <c r="N68" s="19">
@@ -9452,7 +9495,7 @@
         <v>31</v>
       </c>
       <c r="M69" s="15">
-        <f>IF(G69="買付",H69*I69+SUM(J69:K69),H69*I69-SUM(J69:K69))</f>
+        <f t="shared" si="2"/>
         <v>299700</v>
       </c>
       <c r="N69" s="19">
@@ -9497,7 +9540,7 @@
         <v>90</v>
       </c>
       <c r="M70" s="15">
-        <f>IF(G70="買付",H70*I70+SUM(J70:K70),H70*I70-SUM(J70:K70))</f>
+        <f t="shared" si="2"/>
         <v>301000</v>
       </c>
       <c r="N70" s="19">
@@ -9542,7 +9585,7 @@
         <v>31</v>
       </c>
       <c r="M71" s="15">
-        <f>IF(G71="買付",H71*I71+SUM(J71:K71),H71*I71-SUM(J71:K71))</f>
+        <f t="shared" si="2"/>
         <v>328200</v>
       </c>
       <c r="N71" s="19">
@@ -9587,7 +9630,7 @@
         <v>90</v>
       </c>
       <c r="M72" s="15">
-        <f>IF(G72="買付",H72*I72+SUM(J72:K72),H72*I72-SUM(J72:K72))</f>
+        <f t="shared" si="2"/>
         <v>356500</v>
       </c>
       <c r="N72" s="19">
@@ -9632,7 +9675,7 @@
         <v>90</v>
       </c>
       <c r="M73" s="15">
-        <f>IF(G73="買付",H73*I73+SUM(J73:K73),H73*I73-SUM(J73:K73))</f>
+        <f t="shared" si="2"/>
         <v>328700</v>
       </c>
       <c r="N73" s="19">
@@ -9677,7 +9720,7 @@
         <v>90</v>
       </c>
       <c r="M74" s="15">
-        <f>IF(G74="買付",H74*I74+SUM(J74:K74),H74*I74-SUM(J74:K74))</f>
+        <f t="shared" si="2"/>
         <v>435000</v>
       </c>
       <c r="N74" s="19">
@@ -9722,7 +9765,7 @@
         <v>31</v>
       </c>
       <c r="M75" s="15">
-        <f>IF(G75="買付",H75*I75+SUM(J75:K75),H75*I75-SUM(J75:K75))</f>
+        <f t="shared" si="2"/>
         <v>274000</v>
       </c>
       <c r="N75" s="19">
@@ -9767,7 +9810,7 @@
         <v>90</v>
       </c>
       <c r="M76" s="15">
-        <f>IF(G76="買付",H76*I76+SUM(J76:K76),H76*I76-SUM(J76:K76))</f>
+        <f t="shared" si="2"/>
         <v>274100</v>
       </c>
       <c r="N76" s="19">
@@ -9812,7 +9855,7 @@
         <v>90</v>
       </c>
       <c r="M77" s="15">
-        <f>IF(G77="買付",H77*I77+SUM(J77:K77),H77*I77-SUM(J77:K77))</f>
+        <f t="shared" si="2"/>
         <v>162300</v>
       </c>
       <c r="N77" s="19">
@@ -9857,7 +9900,7 @@
         <v>31</v>
       </c>
       <c r="M78" s="15">
-        <f>IF(G78="買付",H78*I78+SUM(J78:K78),H78*I78-SUM(J78:K78))</f>
+        <f t="shared" si="2"/>
         <v>356500</v>
       </c>
       <c r="N78" s="19">
@@ -9902,7 +9945,7 @@
         <v>31</v>
       </c>
       <c r="M79" s="15">
-        <f>IF(G79="買付",H79*I79+SUM(J79:K79),H79*I79-SUM(J79:K79))</f>
+        <f t="shared" si="2"/>
         <v>448400</v>
       </c>
       <c r="N79" s="19">
@@ -9947,7 +9990,7 @@
         <v>31</v>
       </c>
       <c r="M80" s="15">
-        <f>IF(G80="買付",H80*I80+SUM(J80:K80),H80*I80-SUM(J80:K80))</f>
+        <f t="shared" si="2"/>
         <v>362500</v>
       </c>
       <c r="N80" s="19">
@@ -9992,7 +10035,7 @@
         <v>90</v>
       </c>
       <c r="M81" s="15">
-        <f>IF(G81="買付",H81*I81+SUM(J81:K81),H81*I81-SUM(J81:K81))</f>
+        <f t="shared" si="2"/>
         <v>198500</v>
       </c>
       <c r="N81" s="19">
@@ -10037,7 +10080,7 @@
         <v>90</v>
       </c>
       <c r="M82" s="15">
-        <f>IF(G82="買付",H82*I82+SUM(J82:K82),H82*I82-SUM(J82:K82))</f>
+        <f t="shared" si="2"/>
         <v>245400</v>
       </c>
       <c r="N82" s="19">
@@ -10082,7 +10125,7 @@
         <v>90</v>
       </c>
       <c r="M83" s="15">
-        <f>IF(G83="買付",H83*I83+SUM(J83:K83),H83*I83-SUM(J83:K83))</f>
+        <f t="shared" si="2"/>
         <v>456000</v>
       </c>
       <c r="N83" s="19">
@@ -10127,7 +10170,7 @@
         <v>90</v>
       </c>
       <c r="M84" s="15">
-        <f>IF(G84="買付",H84*I84+SUM(J84:K84),H84*I84-SUM(J84:K84))</f>
+        <f t="shared" si="2"/>
         <v>191500</v>
       </c>
       <c r="N84" s="19">
@@ -10172,7 +10215,7 @@
         <v>31</v>
       </c>
       <c r="M85" s="15">
-        <f>IF(G85="買付",H85*I85+SUM(J85:K85),H85*I85-SUM(J85:K85))</f>
+        <f t="shared" si="2"/>
         <v>245000</v>
       </c>
       <c r="N85" s="19">
@@ -10217,7 +10260,7 @@
         <v>31</v>
       </c>
       <c r="M86" s="15">
-        <f>IF(G86="買付",H86*I86+SUM(J86:K86),H86*I86-SUM(J86:K86))</f>
+        <f t="shared" si="2"/>
         <v>446000</v>
       </c>
       <c r="N86" s="19">
@@ -10262,7 +10305,7 @@
         <v>90</v>
       </c>
       <c r="M87" s="15">
-        <f>IF(G87="買付",H87*I87+SUM(J87:K87),H87*I87-SUM(J87:K87))</f>
+        <f t="shared" si="2"/>
         <v>452000</v>
       </c>
       <c r="N87" s="19">
@@ -10307,7 +10350,7 @@
         <v>90</v>
       </c>
       <c r="M88" s="15">
-        <f>IF(G88="買付",H88*I88+SUM(J88:K88),H88*I88-SUM(J88:K88))</f>
+        <f t="shared" si="2"/>
         <v>247400</v>
       </c>
       <c r="N88" s="19">
@@ -10352,7 +10395,7 @@
         <v>31</v>
       </c>
       <c r="M89" s="15">
-        <f>IF(G89="買付",H89*I89+SUM(J89:K89),H89*I89-SUM(J89:K89))</f>
+        <f t="shared" si="2"/>
         <v>198000</v>
       </c>
       <c r="N89" s="19">
@@ -10397,7 +10440,7 @@
         <v>90</v>
       </c>
       <c r="M90" s="15">
-        <f>IF(G90="買付",H90*I90+SUM(J90:K90),H90*I90-SUM(J90:K90))</f>
+        <f t="shared" si="2"/>
         <v>201000</v>
       </c>
       <c r="N90" s="19">
@@ -10442,7 +10485,7 @@
         <v>31</v>
       </c>
       <c r="M91" s="15">
-        <f>IF(G91="買付",H91*I91+SUM(J91:K91),H91*I91-SUM(J91:K91))</f>
+        <f t="shared" si="2"/>
         <v>650000</v>
       </c>
       <c r="N91" s="19">
@@ -10487,7 +10530,7 @@
         <v>90</v>
       </c>
       <c r="M92" s="15">
-        <f>IF(G92="買付",H92*I92+SUM(J92:K92),H92*I92-SUM(J92:K92))</f>
+        <f t="shared" si="2"/>
         <v>308300</v>
       </c>
       <c r="N92" s="19">
@@ -10532,7 +10575,7 @@
         <v>31</v>
       </c>
       <c r="M93" s="15">
-        <f>IF(G93="買付",H93*I93+SUM(J93:K93),H93*I93-SUM(J93:K93))</f>
+        <f t="shared" si="2"/>
         <v>435900</v>
       </c>
       <c r="N93" s="19">
@@ -10577,7 +10620,7 @@
         <v>90</v>
       </c>
       <c r="M94" s="15">
-        <f>IF(G94="買付",H94*I94+SUM(J94:K94),H94*I94-SUM(J94:K94))</f>
+        <f t="shared" si="2"/>
         <v>430000</v>
       </c>
       <c r="N94" s="19" t="s">
@@ -10622,7 +10665,7 @@
         <v>31</v>
       </c>
       <c r="M95" s="15">
-        <f>IF(G95="買付",H95*I95+SUM(J95:K95),H95*I95-SUM(J95:K95))</f>
+        <f t="shared" si="2"/>
         <v>156200</v>
       </c>
       <c r="N95" s="19">
@@ -10667,7 +10710,7 @@
         <v>90</v>
       </c>
       <c r="M96" s="15">
-        <f>IF(G96="買付",H96*I96+SUM(J96:K96),H96*I96-SUM(J96:K96))</f>
+        <f t="shared" si="2"/>
         <v>171482</v>
       </c>
       <c r="N96" s="19">
@@ -10712,7 +10755,7 @@
         <v>90</v>
       </c>
       <c r="M97" s="15">
-        <f>IF(G97="買付",H97*I97+SUM(J97:K97),H97*I97-SUM(J97:K97))</f>
+        <f t="shared" si="2"/>
         <v>127239</v>
       </c>
       <c r="N97" s="19">
@@ -10757,7 +10800,7 @@
         <v>31</v>
       </c>
       <c r="M98" s="15">
-        <f>IF(G98="買付",H98*I98+SUM(J98:K98),H98*I98-SUM(J98:K98))</f>
+        <f t="shared" ref="M98:M129" si="3">IF(G98="買付",H98*I98+SUM(J98:K98),H98*I98-SUM(J98:K98))</f>
         <v>734635</v>
       </c>
       <c r="N98" s="19">
@@ -10802,7 +10845,7 @@
         <v>31</v>
       </c>
       <c r="M99" s="15">
-        <f>IF(G99="買付",H99*I99+SUM(J99:K99),H99*I99-SUM(J99:K99))</f>
+        <f t="shared" si="3"/>
         <v>692786</v>
       </c>
       <c r="N99" s="19">
@@ -10847,7 +10890,7 @@
         <v>90</v>
       </c>
       <c r="M100" s="15">
-        <f>IF(G100="買付",H100*I100+SUM(J100:K100),H100*I100-SUM(J100:K100))</f>
+        <f t="shared" si="3"/>
         <v>359500</v>
       </c>
       <c r="N100" s="19">
@@ -10892,7 +10935,7 @@
         <v>90</v>
       </c>
       <c r="M101" s="15">
-        <f>IF(G101="買付",H101*I101+SUM(J101:K101),H101*I101-SUM(J101:K101))</f>
+        <f t="shared" si="3"/>
         <v>151860</v>
       </c>
       <c r="N101" s="19">
@@ -10937,7 +10980,7 @@
         <v>31</v>
       </c>
       <c r="M102" s="15">
-        <f>IF(G102="買付",H102*I102+SUM(J102:K102),H102*I102-SUM(J102:K102))</f>
+        <f t="shared" si="3"/>
         <v>520000</v>
       </c>
       <c r="N102" s="19">
@@ -10982,7 +11025,7 @@
         <v>90</v>
       </c>
       <c r="M103" s="15">
-        <f>IF(G103="買付",H103*I103+SUM(J103:K103),H103*I103-SUM(J103:K103))</f>
+        <f t="shared" si="3"/>
         <v>222619.99999999997</v>
       </c>
       <c r="N103" s="19">
@@ -11027,7 +11070,7 @@
         <v>90</v>
       </c>
       <c r="M104" s="15">
-        <f>IF(G104="買付",H104*I104+SUM(J104:K104),H104*I104-SUM(J104:K104))</f>
+        <f t="shared" si="3"/>
         <v>684153</v>
       </c>
       <c r="N104" s="19">
@@ -11072,7 +11115,7 @@
         <v>90</v>
       </c>
       <c r="M105" s="15">
-        <f>IF(G105="買付",H105*I105+SUM(J105:K105),H105*I105-SUM(J105:K105))</f>
+        <f t="shared" si="3"/>
         <v>685172</v>
       </c>
       <c r="N105" s="19">
@@ -11117,7 +11160,7 @@
         <v>31</v>
       </c>
       <c r="M106" s="15">
-        <f>IF(G106="買付",H106*I106+SUM(J106:K106),H106*I106-SUM(J106:K106))</f>
+        <f t="shared" si="3"/>
         <v>637535</v>
       </c>
       <c r="N106" s="19">
@@ -11162,7 +11205,7 @@
         <v>90</v>
       </c>
       <c r="M107" s="15">
-        <f>IF(G107="買付",H107*I107+SUM(J107:K107),H107*I107-SUM(J107:K107))</f>
+        <f t="shared" si="3"/>
         <v>639270</v>
       </c>
       <c r="N107" s="19">
@@ -11207,7 +11250,7 @@
         <v>90</v>
       </c>
       <c r="M108" s="15">
-        <f>IF(G108="買付",H108*I108+SUM(J108:K108),H108*I108-SUM(J108:K108))</f>
+        <f t="shared" si="3"/>
         <v>790097</v>
       </c>
       <c r="N108" s="19">
@@ -11252,7 +11295,7 @@
         <v>90</v>
       </c>
       <c r="M109" s="15">
-        <f>IF(G109="買付",H109*I109+SUM(J109:K109),H109*I109-SUM(J109:K109))</f>
+        <f t="shared" si="3"/>
         <v>493433</v>
       </c>
       <c r="N109" s="19" t="s">
@@ -11297,7 +11340,7 @@
         <v>31</v>
       </c>
       <c r="M110" s="15">
-        <f>IF(G110="買付",H110*I110+SUM(J110:K110),H110*I110-SUM(J110:K110))</f>
+        <f t="shared" si="3"/>
         <v>483000</v>
       </c>
       <c r="N110" s="19">
@@ -11342,7 +11385,7 @@
         <v>90</v>
       </c>
       <c r="M111" s="15">
-        <f>IF(G111="買付",H111*I111+SUM(J111:K111),H111*I111-SUM(J111:K111))</f>
+        <f t="shared" si="3"/>
         <v>497000</v>
       </c>
       <c r="N111" s="19">
@@ -11387,7 +11430,7 @@
         <v>31</v>
       </c>
       <c r="M112" s="15">
-        <f>IF(G112="買付",H112*I112+SUM(J112:K112),H112*I112-SUM(J112:K112))</f>
+        <f t="shared" si="3"/>
         <v>846000</v>
       </c>
       <c r="N112" s="19">
@@ -11432,7 +11475,7 @@
         <v>90</v>
       </c>
       <c r="M113" s="15">
-        <f>IF(G113="買付",H113*I113+SUM(J113:K113),H113*I113-SUM(J113:K113))</f>
+        <f t="shared" si="3"/>
         <v>854000</v>
       </c>
       <c r="N113" s="19">
@@ -11477,7 +11520,7 @@
         <v>31</v>
       </c>
       <c r="M114" s="15">
-        <f>IF(G114="買付",H114*I114+SUM(J114:K114),H114*I114-SUM(J114:K114))</f>
+        <f t="shared" si="3"/>
         <v>893535</v>
       </c>
       <c r="N114" s="19">
@@ -11522,7 +11565,7 @@
         <v>31</v>
       </c>
       <c r="M115" s="15">
-        <f>IF(G115="買付",H115*I115+SUM(J115:K115),H115*I115-SUM(J115:K115))</f>
+        <f t="shared" si="3"/>
         <v>862535</v>
       </c>
       <c r="N115" s="19">
@@ -11567,7 +11610,7 @@
         <v>31</v>
       </c>
       <c r="M116" s="15">
-        <f>IF(G116="買付",H116*I116+SUM(J116:K116),H116*I116-SUM(J116:K116))</f>
+        <f t="shared" si="3"/>
         <v>232275</v>
       </c>
       <c r="N116" s="19">
@@ -11612,7 +11655,7 @@
         <v>90</v>
       </c>
       <c r="M117" s="15">
-        <f>IF(G117="買付",H117*I117+SUM(J117:K117),H117*I117-SUM(J117:K117))</f>
+        <f t="shared" si="3"/>
         <v>235783</v>
       </c>
       <c r="N117" s="19">
@@ -11657,7 +11700,7 @@
         <v>31</v>
       </c>
       <c r="M118" s="15">
-        <f>IF(G118="買付",H118*I118+SUM(J118:K118),H118*I118-SUM(J118:K118))</f>
+        <f t="shared" si="3"/>
         <v>731163</v>
       </c>
       <c r="N118" s="19">
@@ -11702,7 +11745,7 @@
         <v>90</v>
       </c>
       <c r="M119" s="15">
-        <f>IF(G119="買付",H119*I119+SUM(J119:K119),H119*I119-SUM(J119:K119))</f>
+        <f t="shared" si="3"/>
         <v>898940</v>
       </c>
       <c r="N119" s="19">
@@ -11747,7 +11790,7 @@
         <v>31</v>
       </c>
       <c r="M120" s="15">
-        <f>IF(G120="買付",H120*I120+SUM(J120:K120),H120*I120-SUM(J120:K120))</f>
+        <f t="shared" si="3"/>
         <v>237264</v>
       </c>
       <c r="N120" s="19">
@@ -11792,7 +11835,7 @@
         <v>90</v>
       </c>
       <c r="M121" s="15">
-        <f>IF(G121="買付",H121*I121+SUM(J121:K121),H121*I121-SUM(J121:K121))</f>
+        <f t="shared" si="3"/>
         <v>752460</v>
       </c>
       <c r="N121" s="19">
@@ -11837,7 +11880,7 @@
         <v>31</v>
       </c>
       <c r="M122" s="15">
-        <f>IF(G122="買付",H122*I122+SUM(J122:K122),H122*I122-SUM(J122:K122))</f>
+        <f t="shared" si="3"/>
         <v>981096</v>
       </c>
       <c r="N122" s="19">
@@ -11882,7 +11925,7 @@
         <v>90</v>
       </c>
       <c r="M123" s="15">
-        <f>IF(G123="買付",H123*I123+SUM(J123:K123),H123*I123-SUM(J123:K123))</f>
+        <f t="shared" si="3"/>
         <v>959300</v>
       </c>
       <c r="N123" s="19">
@@ -11927,7 +11970,7 @@
         <v>90</v>
       </c>
       <c r="M124" s="15">
-        <f>IF(G124="買付",H124*I124+SUM(J124:K124),H124*I124-SUM(J124:K124))</f>
+        <f t="shared" si="3"/>
         <v>239225</v>
       </c>
       <c r="N124" s="19">
@@ -11972,7 +12015,7 @@
         <v>31</v>
       </c>
       <c r="M125" s="15">
-        <f>IF(G125="買付",H125*I125+SUM(J125:K125),H125*I125-SUM(J125:K125))</f>
+        <f t="shared" si="3"/>
         <v>241275</v>
       </c>
       <c r="N125" s="19">
@@ -12017,7 +12060,7 @@
         <v>90</v>
       </c>
       <c r="M126" s="15">
-        <f>IF(G126="買付",H126*I126+SUM(J126:K126),H126*I126-SUM(J126:K126))</f>
+        <f t="shared" si="3"/>
         <v>242225</v>
       </c>
       <c r="N126" s="19">
@@ -12062,7 +12105,7 @@
         <v>31</v>
       </c>
       <c r="M127" s="15">
-        <f>IF(G127="買付",H127*I127+SUM(J127:K127),H127*I127-SUM(J127:K127))</f>
+        <f t="shared" si="3"/>
         <v>749535</v>
       </c>
       <c r="N127" s="19">
@@ -12107,7 +12150,7 @@
         <v>90</v>
       </c>
       <c r="M128" s="15">
-        <f>IF(G128="買付",H128*I128+SUM(J128:K128),H128*I128-SUM(J128:K128))</f>
+        <f t="shared" si="3"/>
         <v>726465</v>
       </c>
       <c r="N128" s="19">
@@ -12152,7 +12195,7 @@
         <v>31</v>
       </c>
       <c r="M129" s="15">
-        <f>IF(G129="買付",H129*I129+SUM(J129:K129),H129*I129-SUM(J129:K129))</f>
+        <f t="shared" si="3"/>
         <v>740535</v>
       </c>
       <c r="N129" s="19">
@@ -12197,7 +12240,7 @@
         <v>31</v>
       </c>
       <c r="M130" s="15">
-        <f>IF(G130="買付",H130*I130+SUM(J130:K130),H130*I130-SUM(J130:K130))</f>
+        <f t="shared" ref="M130:M164" si="4">IF(G130="買付",H130*I130+SUM(J130:K130),H130*I130-SUM(J130:K130))</f>
         <v>895535</v>
       </c>
       <c r="N130" s="19">
@@ -12242,7 +12285,7 @@
         <v>31</v>
       </c>
       <c r="M131" s="15">
-        <f>IF(G131="買付",H131*I131+SUM(J131:K131),H131*I131-SUM(J131:K131))</f>
+        <f t="shared" si="4"/>
         <v>244775</v>
       </c>
       <c r="N131" s="19">
@@ -12287,7 +12330,7 @@
         <v>31</v>
       </c>
       <c r="M132" s="15">
-        <f>IF(G132="買付",H132*I132+SUM(J132:K132),H132*I132-SUM(J132:K132))</f>
+        <f t="shared" si="4"/>
         <v>253275</v>
       </c>
       <c r="N132" s="19">
@@ -12332,7 +12375,7 @@
         <v>90</v>
       </c>
       <c r="M133" s="15">
-        <f>IF(G133="買付",H133*I133+SUM(J133:K133),H133*I133-SUM(J133:K133))</f>
+        <f t="shared" si="4"/>
         <v>248725</v>
       </c>
       <c r="N133" s="19">
@@ -12377,7 +12420,7 @@
         <v>31</v>
       </c>
       <c r="M134" s="15">
-        <f>IF(G134="買付",H134*I134+SUM(J134:K134),H134*I134-SUM(J134:K134))</f>
+        <f t="shared" si="4"/>
         <v>548535</v>
       </c>
       <c r="N134" s="19">
@@ -12422,7 +12465,7 @@
         <v>90</v>
       </c>
       <c r="M135" s="15">
-        <f>IF(G135="買付",H135*I135+SUM(J135:K135),H135*I135-SUM(J135:K135))</f>
+        <f t="shared" si="4"/>
         <v>747465</v>
       </c>
       <c r="N135" s="19">
@@ -12467,7 +12510,7 @@
         <v>31</v>
       </c>
       <c r="M136" s="15">
-        <f>IF(G136="買付",H136*I136+SUM(J136:K136),H136*I136-SUM(J136:K136))</f>
+        <f t="shared" si="4"/>
         <v>742535</v>
       </c>
       <c r="N136" s="19">
@@ -12512,7 +12555,7 @@
         <v>90</v>
       </c>
       <c r="M137" s="15">
-        <f>IF(G137="買付",H137*I137+SUM(J137:K137),H137*I137-SUM(J137:K137))</f>
+        <f t="shared" si="4"/>
         <v>261325</v>
       </c>
       <c r="N137" s="19">
@@ -12557,7 +12600,7 @@
         <v>90</v>
       </c>
       <c r="M138" s="15">
-        <f>IF(G138="買付",H138*I138+SUM(J138:K138),H138*I138-SUM(J138:K138))</f>
+        <f t="shared" si="4"/>
         <v>974465</v>
       </c>
       <c r="N138" s="19">
@@ -12602,7 +12645,7 @@
         <v>90</v>
       </c>
       <c r="M139" s="15">
-        <f>IF(G139="買付",H139*I139+SUM(J139:K139),H139*I139-SUM(J139:K139))</f>
+        <f t="shared" si="4"/>
         <v>1054360</v>
       </c>
       <c r="N139" s="19">
@@ -12647,7 +12690,7 @@
         <v>31</v>
       </c>
       <c r="M140" s="15">
-        <f>IF(G140="買付",H140*I140+SUM(J140:K140),H140*I140-SUM(J140:K140))</f>
+        <f t="shared" si="4"/>
         <v>264775</v>
       </c>
       <c r="N140" s="19">
@@ -12692,7 +12735,7 @@
         <v>31</v>
       </c>
       <c r="M141" s="15">
-        <f>IF(G141="買付",H141*I141+SUM(J141:K141),H141*I141-SUM(J141:K141))</f>
+        <f t="shared" si="4"/>
         <v>934535</v>
       </c>
       <c r="N141" s="19">
@@ -12737,7 +12780,7 @@
         <v>31</v>
       </c>
       <c r="M142" s="15">
-        <f>IF(G142="買付",H142*I142+SUM(J142:K142),H142*I142-SUM(J142:K142))</f>
+        <f t="shared" si="4"/>
         <v>279475</v>
       </c>
       <c r="N142" s="19">
@@ -12782,7 +12825,7 @@
         <v>90</v>
       </c>
       <c r="M143" s="15">
-        <f>IF(G143="買付",H143*I143+SUM(J143:K143),H143*I143-SUM(J143:K143))</f>
+        <f t="shared" si="4"/>
         <v>268725</v>
       </c>
       <c r="N143" s="19">
@@ -12827,7 +12870,7 @@
         <v>31</v>
       </c>
       <c r="M144" s="15">
-        <f>IF(G144="買付",H144*I144+SUM(J144:K144),H144*I144-SUM(J144:K144))</f>
+        <f t="shared" si="4"/>
         <v>783415</v>
       </c>
       <c r="N144" s="19">
@@ -12872,7 +12915,7 @@
         <v>90</v>
       </c>
       <c r="M145" s="15">
-        <f>IF(G145="買付",H145*I145+SUM(J145:K145),H145*I145-SUM(J145:K145))</f>
+        <f t="shared" si="4"/>
         <v>781865</v>
       </c>
       <c r="N145" s="19">
@@ -12917,7 +12960,7 @@
         <v>31</v>
       </c>
       <c r="M146" s="15">
-        <f>IF(G146="買付",H146*I146+SUM(J146:K146),H146*I146-SUM(J146:K146))</f>
+        <f t="shared" si="4"/>
         <v>671535</v>
       </c>
       <c r="N146" s="19">
@@ -12962,7 +13005,7 @@
         <v>90</v>
       </c>
       <c r="M147" s="15">
-        <f>IF(G147="買付",H147*I147+SUM(J147:K147),H147*I147-SUM(J147:K147))</f>
+        <f t="shared" si="4"/>
         <v>672265</v>
       </c>
       <c r="N147" s="19">
@@ -13007,7 +13050,7 @@
         <v>90</v>
       </c>
       <c r="M148" s="15">
-        <f>IF(G148="買付",H148*I148+SUM(J148:K148),H148*I148-SUM(J148:K148))</f>
+        <f t="shared" si="4"/>
         <v>280925</v>
       </c>
       <c r="N148" s="19">
@@ -13052,7 +13095,7 @@
         <v>31</v>
       </c>
       <c r="M149" s="15">
-        <f>IF(G149="買付",H149*I149+SUM(J149:K149),H149*I149-SUM(J149:K149))</f>
+        <f t="shared" si="4"/>
         <v>764035</v>
       </c>
       <c r="N149" s="19">
@@ -13097,7 +13140,7 @@
         <v>31</v>
       </c>
       <c r="M150" s="15">
-        <f>IF(G150="買付",H150*I150+SUM(J150:K150),H150*I150-SUM(J150:K150))</f>
+        <f t="shared" si="4"/>
         <v>277775</v>
       </c>
       <c r="N150" s="19">
@@ -13142,7 +13185,7 @@
         <v>31</v>
       </c>
       <c r="M151" s="15">
-        <f>IF(G151="買付",H151*I151+SUM(J151:K151),H151*I151-SUM(J151:K151))</f>
+        <f t="shared" si="4"/>
         <v>492000</v>
       </c>
       <c r="N151" s="19">
@@ -13187,7 +13230,7 @@
         <v>90</v>
       </c>
       <c r="M152" s="15">
-        <f>IF(G152="買付",H152*I152+SUM(J152:K152),H152*I152-SUM(J152:K152))</f>
+        <f t="shared" si="4"/>
         <v>488000</v>
       </c>
       <c r="N152" s="19">
@@ -13232,7 +13275,7 @@
         <v>90</v>
       </c>
       <c r="M153" s="15">
-        <f>IF(G153="買付",H153*I153+SUM(J153:K153),H153*I153-SUM(J153:K153))</f>
+        <f t="shared" si="4"/>
         <v>683865</v>
       </c>
       <c r="N153" s="19">
@@ -13277,7 +13320,7 @@
         <v>31</v>
       </c>
       <c r="M154" s="15">
-        <f>IF(G154="買付",H154*I154+SUM(J154:K154),H154*I154-SUM(J154:K154))</f>
+        <f t="shared" si="4"/>
         <v>705635</v>
       </c>
       <c r="N154" s="19">
@@ -13322,7 +13365,7 @@
         <v>90</v>
       </c>
       <c r="M155" s="15">
-        <f>IF(G155="買付",H155*I155+SUM(J155:K155),H155*I155-SUM(J155:K155))</f>
+        <f t="shared" si="4"/>
         <v>704065</v>
       </c>
       <c r="N155" s="19">
@@ -13367,7 +13410,7 @@
         <v>31</v>
       </c>
       <c r="M156" s="15">
-        <f>IF(G156="買付",H156*I156+SUM(J156:K156),H156*I156-SUM(J156:K156))</f>
+        <f t="shared" si="4"/>
         <v>238115</v>
       </c>
       <c r="N156" s="19">
@@ -13412,7 +13455,7 @@
         <v>90</v>
       </c>
       <c r="M157" s="15">
-        <f>IF(G157="買付",H157*I157+SUM(J157:K157),H157*I157-SUM(J157:K157))</f>
+        <f t="shared" si="4"/>
         <v>237575</v>
       </c>
       <c r="N157" s="19">
@@ -13457,7 +13500,7 @@
         <v>90</v>
       </c>
       <c r="M158" s="15">
-        <f>IF(G158="買付",H158*I158+SUM(J158:K158),H158*I158-SUM(J158:K158))</f>
+        <f t="shared" si="4"/>
         <v>907865</v>
       </c>
       <c r="N158" s="19">
@@ -13502,7 +13545,7 @@
         <v>31</v>
       </c>
       <c r="M159" s="15">
-        <f>IF(G159="買付",H159*I159+SUM(J159:K159),H159*I159-SUM(J159:K159))</f>
+        <f t="shared" si="4"/>
         <v>949335</v>
       </c>
       <c r="N159" s="19">
@@ -13547,7 +13590,7 @@
         <v>90</v>
       </c>
       <c r="M160" s="15">
-        <f>IF(G160="買付",H160*I160+SUM(J160:K160),H160*I160-SUM(J160:K160))</f>
+        <f t="shared" si="4"/>
         <v>1074360</v>
       </c>
       <c r="N160" s="19">
@@ -13592,7 +13635,7 @@
         <v>90</v>
       </c>
       <c r="M161" s="15">
-        <f>IF(G161="買付",H161*I161+SUM(J161:K161),H161*I161-SUM(J161:K161))</f>
+        <f t="shared" si="4"/>
         <v>541465</v>
       </c>
       <c r="N161" s="19">
@@ -13637,7 +13680,7 @@
         <v>31</v>
       </c>
       <c r="M162" s="15">
-        <f>IF(G162="買付",H162*I162+SUM(J162:K162),H162*I162-SUM(J162:K162))</f>
+        <f t="shared" si="4"/>
         <v>655435</v>
       </c>
       <c r="N162" s="19">
@@ -13682,7 +13725,7 @@
         <v>90</v>
       </c>
       <c r="M163" s="15">
-        <f>IF(G163="買付",H163*I163+SUM(J163:K163),H163*I163-SUM(J163:K163))</f>
+        <f t="shared" si="4"/>
         <v>702065</v>
       </c>
       <c r="N163" s="19">
@@ -13727,7 +13770,7 @@
         <v>31</v>
       </c>
       <c r="M164" s="15">
-        <f>IF(G164="買付",H164*I164+SUM(J164:K164),H164*I164-SUM(J164:K164))</f>
+        <f t="shared" si="4"/>
         <v>1112140</v>
       </c>
       <c r="N164" s="19">
@@ -13814,7 +13857,7 @@
         <v>31</v>
       </c>
       <c r="M166" s="15">
-        <f>IF(G166="買付",H166*I166+SUM(J166:K166),H166*I166-SUM(J166:K166))</f>
+        <f t="shared" ref="M166:M229" si="5">IF(G166="買付",H166*I166+SUM(J166:K166),H166*I166-SUM(J166:K166))</f>
         <v>1036140</v>
       </c>
       <c r="N166" s="19">
@@ -13859,7 +13902,7 @@
         <v>90</v>
       </c>
       <c r="M167" s="15">
-        <f>IF(G167="買付",H167*I167+SUM(J167:K167),H167*I167-SUM(J167:K167))</f>
+        <f t="shared" si="5"/>
         <v>965465</v>
       </c>
       <c r="N167" s="19">
@@ -13904,7 +13947,7 @@
         <v>90</v>
       </c>
       <c r="M168" s="15">
-        <f>IF(G168="買付",H168*I168+SUM(J168:K168),H168*I168-SUM(J168:K168))</f>
+        <f t="shared" si="5"/>
         <v>318725</v>
       </c>
       <c r="N168" s="19">
@@ -13949,7 +13992,7 @@
         <v>90</v>
       </c>
       <c r="M169" s="15">
-        <f>IF(G169="買付",H169*I169+SUM(J169:K169),H169*I169-SUM(J169:K169))</f>
+        <f t="shared" si="5"/>
         <v>317333</v>
       </c>
       <c r="N169" s="19">
@@ -13994,7 +14037,7 @@
         <v>90</v>
       </c>
       <c r="M170" s="15">
-        <f>IF(G170="買付",H170*I170+SUM(J170:K170),H170*I170-SUM(J170:K170))</f>
+        <f t="shared" si="5"/>
         <v>317232</v>
       </c>
       <c r="N170" s="19">
@@ -14039,7 +14082,7 @@
         <v>31</v>
       </c>
       <c r="M171" s="15">
-        <f>IF(G171="買付",H171*I171+SUM(J171:K171),H171*I171-SUM(J171:K171))</f>
+        <f t="shared" si="5"/>
         <v>992135</v>
       </c>
       <c r="N171" s="19">
@@ -14084,7 +14127,7 @@
         <v>90</v>
       </c>
       <c r="M172" s="15">
-        <f>IF(G172="買付",H172*I172+SUM(J172:K172),H172*I172-SUM(J172:K172))</f>
+        <f t="shared" si="5"/>
         <v>993465</v>
       </c>
       <c r="N172" s="19">
@@ -14129,7 +14172,7 @@
         <v>31</v>
       </c>
       <c r="M173" s="15">
-        <f>IF(G173="買付",H173*I173+SUM(J173:K173),H173*I173-SUM(J173:K173))</f>
+        <f t="shared" si="5"/>
         <v>766535</v>
       </c>
       <c r="N173" s="19">
@@ -14174,7 +14217,7 @@
         <v>90</v>
       </c>
       <c r="M174" s="15">
-        <f>IF(G174="買付",H174*I174+SUM(J174:K174),H174*I174-SUM(J174:K174))</f>
+        <f t="shared" si="5"/>
         <v>876465</v>
       </c>
       <c r="N174" s="19" t="s">
@@ -14219,7 +14262,7 @@
         <v>31</v>
       </c>
       <c r="M175" s="15">
-        <f>IF(G175="買付",H175*I175+SUM(J175:K175),H175*I175-SUM(J175:K175))</f>
+        <f t="shared" si="5"/>
         <v>455775</v>
       </c>
       <c r="N175" s="19">
@@ -14264,7 +14307,7 @@
         <v>31</v>
       </c>
       <c r="M176" s="15">
-        <f>IF(G176="買付",H176*I176+SUM(J176:K176),H176*I176-SUM(J176:K176))</f>
+        <f t="shared" si="5"/>
         <v>1036640</v>
       </c>
       <c r="N176" s="19">
@@ -14309,7 +14352,7 @@
         <v>90</v>
       </c>
       <c r="M177" s="15">
-        <f>IF(G177="買付",H177*I177+SUM(J177:K177),H177*I177-SUM(J177:K177))</f>
+        <f t="shared" si="5"/>
         <v>260225</v>
       </c>
       <c r="N177" s="19">
@@ -14354,7 +14397,7 @@
         <v>31</v>
       </c>
       <c r="M178" s="15">
-        <f>IF(G178="買付",H178*I178+SUM(J178:K178),H178*I178-SUM(J178:K178))</f>
+        <f t="shared" si="5"/>
         <v>529535</v>
       </c>
       <c r="N178" s="19">
@@ -14399,7 +14442,7 @@
         <v>31</v>
       </c>
       <c r="M179" s="15">
-        <f>IF(G179="買付",H179*I179+SUM(J179:K179),H179*I179-SUM(J179:K179))</f>
+        <f t="shared" si="5"/>
         <v>190115</v>
       </c>
       <c r="N179" s="19">
@@ -14444,7 +14487,7 @@
         <v>31</v>
       </c>
       <c r="M180" s="15">
-        <f>IF(G180="買付",H180*I180+SUM(J180:K180),H180*I180-SUM(J180:K180))</f>
+        <f t="shared" si="5"/>
         <v>297275</v>
       </c>
       <c r="N180" s="19">
@@ -14489,7 +14532,7 @@
         <v>31</v>
       </c>
       <c r="M181" s="15">
-        <f>IF(G181="買付",H181*I181+SUM(J181:K181),H181*I181-SUM(J181:K181))</f>
+        <f t="shared" si="5"/>
         <v>426275</v>
       </c>
       <c r="N181" s="19">
@@ -14534,7 +14577,7 @@
         <v>90</v>
       </c>
       <c r="M182" s="15">
-        <f>IF(G182="買付",H182*I182+SUM(J182:K182),H182*I182-SUM(J182:K182))</f>
+        <f t="shared" si="5"/>
         <v>1055360</v>
       </c>
       <c r="N182" s="19">
@@ -14579,7 +14622,7 @@
         <v>31</v>
       </c>
       <c r="M183" s="15">
-        <f>IF(G183="買付",H183*I183+SUM(J183:K183),H183*I183-SUM(J183:K183))</f>
+        <f t="shared" si="5"/>
         <v>985335</v>
       </c>
       <c r="N183" s="19">
@@ -14624,7 +14667,7 @@
         <v>90</v>
       </c>
       <c r="M184" s="15">
-        <f>IF(G184="買付",H184*I184+SUM(J184:K184),H184*I184-SUM(J184:K184))</f>
+        <f t="shared" si="5"/>
         <v>358925</v>
       </c>
       <c r="N184" s="19">
@@ -14669,7 +14712,7 @@
         <v>31</v>
       </c>
       <c r="M185" s="15">
-        <f>IF(G185="買付",H185*I185+SUM(J185:K185),H185*I185-SUM(J185:K185))</f>
+        <f t="shared" si="5"/>
         <v>401775</v>
       </c>
       <c r="N185" s="19">
@@ -14714,7 +14757,7 @@
         <v>31</v>
       </c>
       <c r="M186" s="15">
-        <f>IF(G186="買付",H186*I186+SUM(J186:K186),H186*I186-SUM(J186:K186))</f>
+        <f t="shared" si="5"/>
         <v>506535</v>
       </c>
       <c r="N186" s="19">
@@ -14759,7 +14802,7 @@
         <v>90</v>
       </c>
       <c r="M187" s="15">
-        <f>IF(G187="買付",H187*I187+SUM(J187:K187),H187*I187-SUM(J187:K187))</f>
+        <f t="shared" si="5"/>
         <v>375725</v>
       </c>
       <c r="N187" s="19">
@@ -14804,7 +14847,7 @@
         <v>31</v>
       </c>
       <c r="M188" s="15">
-        <f>IF(G188="買付",H188*I188+SUM(J188:K188),H188*I188-SUM(J188:K188))</f>
+        <f t="shared" si="5"/>
         <v>748235</v>
       </c>
       <c r="N188" s="19">
@@ -14849,7 +14892,7 @@
         <v>90</v>
       </c>
       <c r="M189" s="15">
-        <f>IF(G189="買付",H189*I189+SUM(J189:K189),H189*I189-SUM(J189:K189))</f>
+        <f t="shared" si="5"/>
         <v>175505</v>
       </c>
       <c r="N189" s="19">
@@ -14894,7 +14937,7 @@
         <v>90</v>
       </c>
       <c r="M190" s="15">
-        <f>IF(G190="買付",H190*I190+SUM(J190:K190),H190*I190-SUM(J190:K190))</f>
+        <f t="shared" si="5"/>
         <v>679465</v>
       </c>
       <c r="N190" s="19">
@@ -14939,7 +14982,7 @@
         <v>31</v>
       </c>
       <c r="M191" s="15">
-        <f>IF(G191="買付",H191*I191+SUM(J191:K191),H191*I191-SUM(J191:K191))</f>
+        <f t="shared" si="5"/>
         <v>302275</v>
       </c>
       <c r="N191" s="19">
@@ -14984,7 +15027,7 @@
         <v>90</v>
       </c>
       <c r="M192" s="15">
-        <f>IF(G192="買付",H192*I192+SUM(J192:K192),H192*I192-SUM(J192:K192))</f>
+        <f t="shared" si="5"/>
         <v>328925</v>
       </c>
       <c r="N192" s="19">
@@ -15029,7 +15072,7 @@
         <v>31</v>
       </c>
       <c r="M193" s="15">
-        <f>IF(G193="買付",H193*I193+SUM(J193:K193),H193*I193-SUM(J193:K193))</f>
+        <f t="shared" si="5"/>
         <v>333775</v>
       </c>
       <c r="N193" s="19">
@@ -15074,7 +15117,7 @@
         <v>90</v>
       </c>
       <c r="M194" s="15">
-        <f>IF(G194="買付",H194*I194+SUM(J194:K194),H194*I194-SUM(J194:K194))</f>
+        <f t="shared" si="5"/>
         <v>705165</v>
       </c>
       <c r="N194" s="19">
@@ -15119,7 +15162,7 @@
         <v>90</v>
       </c>
       <c r="M195" s="15">
-        <f>IF(G195="買付",H195*I195+SUM(J195:K195),H195*I195-SUM(J195:K195))</f>
+        <f t="shared" si="5"/>
         <v>519765</v>
       </c>
       <c r="N195" s="19">
@@ -15164,7 +15207,7 @@
         <v>31</v>
       </c>
       <c r="M196" s="15">
-        <f>IF(G196="買付",H196*I196+SUM(J196:K196),H196*I196-SUM(J196:K196))</f>
+        <f t="shared" si="5"/>
         <v>752785</v>
       </c>
       <c r="N196" s="19">
@@ -15209,7 +15252,7 @@
         <v>90</v>
       </c>
       <c r="M197" s="15">
-        <f>IF(G197="買付",H197*I197+SUM(J197:K197),H197*I197-SUM(J197:K197))</f>
+        <f t="shared" si="5"/>
         <v>609565</v>
       </c>
       <c r="N197" s="19">
@@ -15254,7 +15297,7 @@
         <v>90</v>
       </c>
       <c r="M198" s="15">
-        <f>IF(G198="買付",H198*I198+SUM(J198:K198),H198*I198-SUM(J198:K198))</f>
+        <f t="shared" si="5"/>
         <v>1037360</v>
       </c>
       <c r="N198" s="19">
@@ -15299,7 +15342,7 @@
         <v>31</v>
       </c>
       <c r="M199" s="15">
-        <f>IF(G199="買付",H199*I199+SUM(J199:K199),H199*I199-SUM(J199:K199))</f>
+        <f t="shared" si="5"/>
         <v>1067640</v>
       </c>
       <c r="N199" s="19">
@@ -15344,7 +15387,7 @@
         <v>31</v>
       </c>
       <c r="M200" s="15">
-        <f>IF(G200="買付",H200*I200+SUM(J200:K200),H200*I200-SUM(J200:K200))</f>
+        <f t="shared" si="5"/>
         <v>627035</v>
       </c>
       <c r="N200" s="19">
@@ -15389,7 +15432,7 @@
         <v>90</v>
       </c>
       <c r="M201" s="15">
-        <f>IF(G201="買付",H201*I201+SUM(J201:K201),H201*I201-SUM(J201:K201))</f>
+        <f t="shared" si="5"/>
         <v>345225</v>
       </c>
       <c r="N201" s="19">
@@ -15434,7 +15477,7 @@
         <v>31</v>
       </c>
       <c r="M202" s="15">
-        <f>IF(G202="買付",H202*I202+SUM(J202:K202),H202*I202-SUM(J202:K202))</f>
+        <f t="shared" si="5"/>
         <v>453955</v>
       </c>
       <c r="N202" s="19">
@@ -15479,7 +15522,7 @@
         <v>90</v>
       </c>
       <c r="M203" s="15">
-        <f>IF(G203="買付",H203*I203+SUM(J203:K203),H203*I203-SUM(J203:K203))</f>
+        <f t="shared" si="5"/>
         <v>455145</v>
       </c>
       <c r="N203" s="19">
@@ -15524,7 +15567,7 @@
         <v>90</v>
       </c>
       <c r="M204" s="15">
-        <f>IF(G204="買付",H204*I204+SUM(J204:K204),H204*I204-SUM(J204:K204))</f>
+        <f t="shared" si="5"/>
         <v>771565</v>
       </c>
       <c r="N204" s="19">
@@ -15569,7 +15612,7 @@
         <v>31</v>
       </c>
       <c r="M205" s="15">
-        <f>IF(G205="買付",H205*I205+SUM(J205:K205),H205*I205-SUM(J205:K205))</f>
+        <f t="shared" si="5"/>
         <v>216775</v>
       </c>
       <c r="N205" s="19">
@@ -15614,7 +15657,7 @@
         <v>31</v>
       </c>
       <c r="M206" s="15">
-        <f>IF(G206="買付",H206*I206+SUM(J206:K206),H206*I206-SUM(J206:K206))</f>
+        <f t="shared" si="5"/>
         <v>457755</v>
       </c>
       <c r="N206" s="19">
@@ -15659,7 +15702,7 @@
         <v>31</v>
       </c>
       <c r="M207" s="15">
-        <f>IF(G207="買付",H207*I207+SUM(J207:K207),H207*I207-SUM(J207:K207))</f>
+        <f t="shared" si="5"/>
         <v>979535</v>
       </c>
       <c r="N207" s="19">
@@ -15704,7 +15747,7 @@
         <v>90</v>
       </c>
       <c r="M208" s="15">
-        <f>IF(G208="買付",H208*I208+SUM(J208:K208),H208*I208-SUM(J208:K208))</f>
+        <f t="shared" si="5"/>
         <v>907465</v>
       </c>
       <c r="N208" s="21">
@@ -15749,7 +15792,7 @@
         <v>90</v>
       </c>
       <c r="M209" s="15">
-        <f>IF(G209="買付",H209*I209+SUM(J209:K209),H209*I209-SUM(J209:K209))</f>
+        <f t="shared" si="5"/>
         <v>897465</v>
       </c>
       <c r="N209" s="21">
@@ -15794,7 +15837,7 @@
         <v>31</v>
       </c>
       <c r="M210" s="15">
-        <f>IF(G210="買付",H210*I210+SUM(J210:K210),H210*I210-SUM(J210:K210))</f>
+        <f t="shared" si="5"/>
         <v>290575</v>
       </c>
       <c r="N210" s="19">
@@ -15839,7 +15882,7 @@
         <v>31</v>
       </c>
       <c r="M211" s="15">
-        <f>IF(G211="買付",H211*I211+SUM(J211:K211),H211*I211-SUM(J211:K211))</f>
+        <f t="shared" si="5"/>
         <v>663535</v>
       </c>
       <c r="N211" s="19">
@@ -15884,7 +15927,7 @@
         <v>31</v>
       </c>
       <c r="M212" s="15">
-        <f>IF(G212="買付",H212*I212+SUM(J212:K212),H212*I212-SUM(J212:K212))</f>
+        <f t="shared" si="5"/>
         <v>305275</v>
       </c>
       <c r="N212" s="19">
@@ -15929,7 +15972,7 @@
         <v>31</v>
       </c>
       <c r="M213" s="15">
-        <f>IF(G213="買付",H213*I213+SUM(J213:K213),H213*I213-SUM(J213:K213))</f>
+        <f t="shared" si="5"/>
         <v>388775</v>
       </c>
       <c r="N213" s="19">
@@ -15974,7 +16017,7 @@
         <v>31</v>
       </c>
       <c r="M214" s="15">
-        <f>IF(G214="買付",H214*I214+SUM(J214:K214),H214*I214-SUM(J214:K214))</f>
+        <f t="shared" si="5"/>
         <v>367775</v>
       </c>
       <c r="N214" s="19">
@@ -16019,7 +16062,7 @@
         <v>31</v>
       </c>
       <c r="M215" s="15">
-        <f>IF(G215="買付",H215*I215+SUM(J215:K215),H215*I215-SUM(J215:K215))</f>
+        <f t="shared" si="5"/>
         <v>507535</v>
       </c>
       <c r="N215" s="19">
@@ -16064,7 +16107,7 @@
         <v>90</v>
       </c>
       <c r="M216" s="15">
-        <f>IF(G216="買付",H216*I216+SUM(J216:K216),H216*I216-SUM(J216:K216))</f>
+        <f t="shared" si="5"/>
         <v>306725</v>
       </c>
       <c r="N216" s="19">
@@ -16109,7 +16152,7 @@
         <v>31</v>
       </c>
       <c r="M217" s="15">
-        <f>IF(G217="買付",H217*I217+SUM(J217:K217),H217*I217-SUM(J217:K217))</f>
+        <f t="shared" si="5"/>
         <v>484075</v>
       </c>
       <c r="N217" s="19">
@@ -16154,7 +16197,7 @@
         <v>31</v>
       </c>
       <c r="M218" s="15">
-        <f>IF(G218="買付",H218*I218+SUM(J218:K218),H218*I218-SUM(J218:K218))</f>
+        <f t="shared" si="5"/>
         <v>131115</v>
       </c>
       <c r="N218" s="19">
@@ -16199,7 +16242,7 @@
         <v>31</v>
       </c>
       <c r="M219" s="15">
-        <f>IF(G219="買付",H219*I219+SUM(J219:K219),H219*I219-SUM(J219:K219))</f>
+        <f t="shared" si="5"/>
         <v>433375</v>
       </c>
       <c r="N219" s="19">
@@ -16244,7 +16287,7 @@
         <v>31</v>
       </c>
       <c r="M220" s="15">
-        <f>IF(G220="買付",H220*I220+SUM(J220:K220),H220*I220-SUM(J220:K220))</f>
+        <f t="shared" si="5"/>
         <v>319275</v>
       </c>
       <c r="N220" s="19">
@@ -16289,7 +16332,7 @@
         <v>31</v>
       </c>
       <c r="M221" s="15">
-        <f>IF(G221="買付",H221*I221+SUM(J221:K221),H221*I221-SUM(J221:K221))</f>
+        <f t="shared" si="5"/>
         <v>235575</v>
       </c>
       <c r="N221" s="19">
@@ -16334,7 +16377,7 @@
         <v>31</v>
       </c>
       <c r="M222" s="15">
-        <f>IF(G222="買付",H222*I222+SUM(J222:K222),H222*I222-SUM(J222:K222))</f>
+        <f t="shared" si="5"/>
         <v>510535</v>
       </c>
       <c r="N222" s="19">
@@ -16379,7 +16422,7 @@
         <v>90</v>
       </c>
       <c r="M223" s="15">
-        <f>IF(G223="買付",H223*I223+SUM(J223:K223),H223*I223-SUM(J223:K223))</f>
+        <f t="shared" si="5"/>
         <v>923465</v>
       </c>
       <c r="N223" s="19">
@@ -16424,7 +16467,7 @@
         <v>90</v>
       </c>
       <c r="M224" s="15">
-        <f>IF(G224="買付",H224*I224+SUM(J224:K224),H224*I224-SUM(J224:K224))</f>
+        <f t="shared" si="5"/>
         <v>241825</v>
       </c>
       <c r="N224" s="19">
@@ -16470,7 +16513,7 @@
         <v>177</v>
       </c>
       <c r="M225" s="15">
-        <f>IF(G225="買付",H225*I225+SUM(J225:K225),H225*I225-SUM(J225:K225))</f>
+        <f t="shared" si="5"/>
         <v>558535</v>
       </c>
       <c r="N225" s="19">
@@ -16515,7 +16558,7 @@
         <v>90</v>
       </c>
       <c r="M226" s="15">
-        <f>IF(G226="買付",H226*I226+SUM(J226:K226),H226*I226-SUM(J226:K226))</f>
+        <f t="shared" si="5"/>
         <v>137215</v>
       </c>
       <c r="N226" s="19">
@@ -16560,7 +16603,7 @@
         <v>90</v>
       </c>
       <c r="M227" s="15">
-        <f>IF(G227="買付",H227*I227+SUM(J227:K227),H227*I227-SUM(J227:K227))</f>
+        <f t="shared" si="5"/>
         <v>320235</v>
       </c>
       <c r="N227" s="19">
@@ -16605,7 +16648,7 @@
         <v>90</v>
       </c>
       <c r="M228" s="15">
-        <f>IF(G228="買付",H228*I228+SUM(J228:K228),H228*I228-SUM(J228:K228))</f>
+        <f t="shared" si="5"/>
         <v>485725</v>
       </c>
       <c r="N228" s="19">
@@ -16650,7 +16693,7 @@
         <v>90</v>
       </c>
       <c r="M229" s="15">
-        <f>IF(G229="買付",H229*I229+SUM(J229:K229),H229*I229-SUM(J229:K229))</f>
+        <f t="shared" si="5"/>
         <v>464675</v>
       </c>
       <c r="N229" s="19">
@@ -16695,7 +16738,7 @@
         <v>90</v>
       </c>
       <c r="M230" s="15">
-        <f>IF(G230="買付",H230*I230+SUM(J230:K230),H230*I230-SUM(J230:K230))</f>
+        <f t="shared" ref="M230:M293" si="6">IF(G230="買付",H230*I230+SUM(J230:K230),H230*I230-SUM(J230:K230))</f>
         <v>464625</v>
       </c>
       <c r="N230" s="19">
@@ -16740,7 +16783,7 @@
         <v>177</v>
       </c>
       <c r="M231" s="15">
-        <f>IF(G231="買付",H231*I231+SUM(J231:K231),H231*I231-SUM(J231:K231))</f>
+        <f t="shared" si="6"/>
         <v>306960</v>
       </c>
       <c r="N231" s="19">
@@ -16785,7 +16828,7 @@
         <v>177</v>
       </c>
       <c r="M232" s="15">
-        <f>IF(G232="買付",H232*I232+SUM(J232:K232),H232*I232-SUM(J232:K232))</f>
+        <f t="shared" si="6"/>
         <v>189300</v>
       </c>
       <c r="N232" s="21">
@@ -16830,7 +16873,7 @@
         <v>90</v>
       </c>
       <c r="M233" s="15">
-        <f>IF(G233="買付",H233*I233+SUM(J233:K233),H233*I233-SUM(J233:K233))</f>
+        <f t="shared" si="6"/>
         <v>359500</v>
       </c>
       <c r="N233" s="19">
@@ -16875,7 +16918,7 @@
         <v>177</v>
       </c>
       <c r="M234" s="15">
-        <f>IF(G234="買付",H234*I234+SUM(J234:K234),H234*I234-SUM(J234:K234))</f>
+        <f t="shared" si="6"/>
         <v>481000</v>
       </c>
       <c r="N234" s="19">
@@ -16920,7 +16963,7 @@
         <v>90</v>
       </c>
       <c r="M235" s="15">
-        <f>IF(G235="買付",H235*I235+SUM(J235:K235),H235*I235-SUM(J235:K235))</f>
+        <f t="shared" si="6"/>
         <v>217600</v>
       </c>
       <c r="N235" s="19">
@@ -16965,7 +17008,7 @@
         <v>177</v>
       </c>
       <c r="M236" s="15">
-        <f>IF(G236="買付",H236*I236+SUM(J236:K236),H236*I236-SUM(J236:K236))</f>
+        <f t="shared" si="6"/>
         <v>288700</v>
       </c>
       <c r="N236" s="19">
@@ -17010,7 +17053,7 @@
         <v>177</v>
       </c>
       <c r="M237" s="15">
-        <f>IF(G237="買付",H237*I237+SUM(J237:K237),H237*I237-SUM(J237:K237))</f>
+        <f t="shared" si="6"/>
         <v>446950</v>
       </c>
       <c r="N237" s="19">
@@ -17055,7 +17098,7 @@
         <v>177</v>
       </c>
       <c r="M238" s="15">
-        <f>IF(G238="買付",H238*I238+SUM(J238:K238),H238*I238-SUM(J238:K238))</f>
+        <f t="shared" si="6"/>
         <v>283000</v>
       </c>
       <c r="N238" s="19">
@@ -17100,7 +17143,7 @@
         <v>177</v>
       </c>
       <c r="M239" s="15">
-        <f>IF(G239="買付",H239*I239+SUM(J239:K239),H239*I239-SUM(J239:K239))</f>
+        <f t="shared" si="6"/>
         <v>512500</v>
       </c>
       <c r="N239" s="19">
@@ -17145,7 +17188,7 @@
         <v>177</v>
       </c>
       <c r="M240" s="15">
-        <f>IF(G240="買付",H240*I240+SUM(J240:K240),H240*I240-SUM(J240:K240))</f>
+        <f t="shared" si="6"/>
         <v>305000</v>
       </c>
       <c r="N240" s="19">
@@ -17190,7 +17233,7 @@
         <v>90</v>
       </c>
       <c r="M241" s="15">
-        <f>IF(G241="買付",H241*I241+SUM(J241:K241),H241*I241-SUM(J241:K241))</f>
+        <f t="shared" si="6"/>
         <v>516530</v>
       </c>
       <c r="N241" s="19">
@@ -17235,7 +17278,7 @@
         <v>177</v>
       </c>
       <c r="M242" s="15">
-        <f>IF(G242="買付",H242*I242+SUM(J242:K242),H242*I242-SUM(J242:K242))</f>
+        <f t="shared" si="6"/>
         <v>479000</v>
       </c>
       <c r="N242" s="19">
@@ -17280,7 +17323,7 @@
         <v>90</v>
       </c>
       <c r="M243" s="15">
-        <f>IF(G243="買付",H243*I243+SUM(J243:K243),H243*I243-SUM(J243:K243))</f>
+        <f t="shared" si="6"/>
         <v>322500</v>
       </c>
       <c r="N243" s="19">
@@ -17325,7 +17368,7 @@
         <v>90</v>
       </c>
       <c r="M244" s="15">
-        <f>IF(G244="買付",H244*I244+SUM(J244:K244),H244*I244-SUM(J244:K244))</f>
+        <f t="shared" si="6"/>
         <v>298000</v>
       </c>
       <c r="N244" s="19">
@@ -17370,7 +17413,7 @@
         <v>177</v>
       </c>
       <c r="M245" s="15">
-        <f>IF(G245="買付",H245*I245+SUM(J245:K245),H245*I245-SUM(J245:K245))</f>
+        <f t="shared" si="6"/>
         <v>298000</v>
       </c>
       <c r="N245" s="19">
@@ -17415,7 +17458,7 @@
         <v>177</v>
       </c>
       <c r="M246" s="15">
-        <f>IF(G246="買付",H246*I246+SUM(J246:K246),H246*I246-SUM(J246:K246))</f>
+        <f t="shared" si="6"/>
         <v>261000</v>
       </c>
       <c r="N246" s="19">
@@ -17460,7 +17503,7 @@
         <v>177</v>
       </c>
       <c r="M247" s="15">
-        <f>IF(G247="買付",H247*I247+SUM(J247:K247),H247*I247-SUM(J247:K247))</f>
+        <f t="shared" si="6"/>
         <v>340000</v>
       </c>
       <c r="N247" s="19">
@@ -17505,7 +17548,7 @@
         <v>177</v>
       </c>
       <c r="M248" s="15">
-        <f>IF(G248="買付",H248*I248+SUM(J248:K248),H248*I248-SUM(J248:K248))</f>
+        <f t="shared" si="6"/>
         <v>394000</v>
       </c>
       <c r="N248" s="19">
@@ -17550,7 +17593,7 @@
         <v>177</v>
       </c>
       <c r="M249" s="15">
-        <f>IF(G249="買付",H249*I249+SUM(J249:K249),H249*I249-SUM(J249:K249))</f>
+        <f t="shared" si="6"/>
         <v>307500</v>
       </c>
       <c r="N249" s="19">
@@ -17595,7 +17638,7 @@
         <v>90</v>
       </c>
       <c r="M250" s="15">
-        <f>IF(G250="買付",H250*I250+SUM(J250:K250),H250*I250-SUM(J250:K250))</f>
+        <f t="shared" si="6"/>
         <v>350000</v>
       </c>
       <c r="N250" s="19">
@@ -17640,7 +17683,7 @@
         <v>90</v>
       </c>
       <c r="M251" s="15">
-        <f>IF(G251="買付",H251*I251+SUM(J251:K251),H251*I251-SUM(J251:K251))</f>
+        <f t="shared" si="6"/>
         <v>511000</v>
       </c>
       <c r="N251" s="19">
@@ -17685,7 +17728,7 @@
         <v>177</v>
       </c>
       <c r="M252" s="15">
-        <f>IF(G252="買付",H252*I252+SUM(J252:K252),H252*I252-SUM(J252:K252))</f>
+        <f t="shared" si="6"/>
         <v>181300</v>
       </c>
       <c r="N252" s="19">
@@ -17730,7 +17773,7 @@
         <v>90</v>
       </c>
       <c r="M253" s="15">
-        <f>IF(G253="買付",H253*I253+SUM(J253:K253),H253*I253-SUM(J253:K253))</f>
+        <f t="shared" si="6"/>
         <v>263000</v>
       </c>
       <c r="N253" s="19">
@@ -17775,7 +17818,7 @@
         <v>90</v>
       </c>
       <c r="M254" s="15">
-        <f>IF(G254="買付",H254*I254+SUM(J254:K254),H254*I254-SUM(J254:K254))</f>
+        <f t="shared" si="6"/>
         <v>290800</v>
       </c>
       <c r="N254" s="19">
@@ -17820,7 +17863,7 @@
         <v>177</v>
       </c>
       <c r="M255" s="15">
-        <f>IF(G255="買付",H255*I255+SUM(J255:K255),H255*I255-SUM(J255:K255))</f>
+        <f t="shared" si="6"/>
         <v>271100</v>
       </c>
       <c r="N255" s="19">
@@ -17865,7 +17908,7 @@
         <v>177</v>
       </c>
       <c r="M256" s="15">
-        <f>IF(G256="買付",H256*I256+SUM(J256:K256),H256*I256-SUM(J256:K256))</f>
+        <f t="shared" si="6"/>
         <v>457900</v>
       </c>
       <c r="N256" s="19">
@@ -17910,7 +17953,7 @@
         <v>177</v>
       </c>
       <c r="M257" s="15">
-        <f>IF(G257="買付",H257*I257+SUM(J257:K257),H257*I257-SUM(J257:K257))</f>
+        <f t="shared" si="6"/>
         <v>422000</v>
       </c>
       <c r="N257" s="19">
@@ -17955,7 +17998,7 @@
         <v>90</v>
       </c>
       <c r="M258" s="15">
-        <f>IF(G258="買付",H258*I258+SUM(J258:K258),H258*I258-SUM(J258:K258))</f>
+        <f t="shared" si="6"/>
         <v>448000</v>
       </c>
       <c r="N258" s="19">
@@ -18000,7 +18043,7 @@
         <v>90</v>
       </c>
       <c r="M259" s="15">
-        <f>IF(G259="買付",H259*I259+SUM(J259:K259),H259*I259-SUM(J259:K259))</f>
+        <f t="shared" si="6"/>
         <v>293800</v>
       </c>
       <c r="N259" s="19">
@@ -18045,7 +18088,7 @@
         <v>177</v>
       </c>
       <c r="M260" s="15">
-        <f>IF(G260="買付",H260*I260+SUM(J260:K260),H260*I260-SUM(J260:K260))</f>
+        <f t="shared" si="6"/>
         <v>386900</v>
       </c>
       <c r="N260" s="19">
@@ -18090,7 +18133,7 @@
         <v>90</v>
       </c>
       <c r="M261" s="15">
-        <f>IF(G261="買付",H261*I261+SUM(J261:K261),H261*I261-SUM(J261:K261))</f>
+        <f t="shared" si="6"/>
         <v>308500</v>
       </c>
       <c r="N261" s="19">
@@ -18135,7 +18178,7 @@
         <v>90</v>
       </c>
       <c r="M262" s="15">
-        <f>IF(G262="買付",H262*I262+SUM(J262:K262),H262*I262-SUM(J262:K262))</f>
+        <f t="shared" si="6"/>
         <v>276850</v>
       </c>
       <c r="N262" s="19">
@@ -18180,7 +18223,7 @@
         <v>177</v>
       </c>
       <c r="M263" s="15">
-        <f>IF(G263="買付",H263*I263+SUM(J263:K263),H263*I263-SUM(J263:K263))</f>
+        <f t="shared" si="6"/>
         <v>277600</v>
       </c>
       <c r="N263" s="19">
@@ -18225,7 +18268,7 @@
         <v>177</v>
       </c>
       <c r="M264" s="15">
-        <f>IF(G264="買付",H264*I264+SUM(J264:K264),H264*I264-SUM(J264:K264))</f>
+        <f t="shared" si="6"/>
         <v>292000</v>
       </c>
       <c r="N264" s="19">
@@ -18270,7 +18313,7 @@
         <v>90</v>
       </c>
       <c r="M265" s="15">
-        <f>IF(G265="買付",H265*I265+SUM(J265:K265),H265*I265-SUM(J265:K265))</f>
+        <f t="shared" si="6"/>
         <v>460000</v>
       </c>
       <c r="N265" s="21">
@@ -18315,7 +18358,7 @@
         <v>90</v>
       </c>
       <c r="M266" s="15">
-        <f>IF(G266="買付",H266*I266+SUM(J266:K266),H266*I266-SUM(J266:K266))</f>
+        <f t="shared" si="6"/>
         <v>285700</v>
       </c>
       <c r="N266" s="19">
@@ -18360,7 +18403,7 @@
         <v>90</v>
       </c>
       <c r="M267" s="15">
-        <f>IF(G267="買付",H267*I267+SUM(J267:K267),H267*I267-SUM(J267:K267))</f>
+        <f t="shared" si="6"/>
         <v>427500</v>
       </c>
       <c r="N267" s="19">
@@ -18405,7 +18448,7 @@
         <v>90</v>
       </c>
       <c r="M268" s="15">
-        <f>IF(G268="買付",H268*I268+SUM(J268:K268),H268*I268-SUM(J268:K268))</f>
+        <f t="shared" si="6"/>
         <v>197080</v>
       </c>
       <c r="N268" s="19">
@@ -18450,7 +18493,7 @@
         <v>90</v>
       </c>
       <c r="M269" s="15">
-        <f>IF(G269="買付",H269*I269+SUM(J269:K269),H269*I269-SUM(J269:K269))</f>
+        <f t="shared" si="6"/>
         <v>400500</v>
       </c>
       <c r="N269" s="19">
@@ -18495,7 +18538,7 @@
         <v>90</v>
       </c>
       <c r="M270" s="15">
-        <f>IF(G270="買付",H270*I270+SUM(J270:K270),H270*I270-SUM(J270:K270))</f>
+        <f t="shared" si="6"/>
         <v>399500</v>
       </c>
       <c r="N270" s="19">
@@ -18540,7 +18583,7 @@
         <v>90</v>
       </c>
       <c r="M271" s="15">
-        <f>IF(G271="買付",H271*I271+SUM(J271:K271),H271*I271-SUM(J271:K271))</f>
+        <f t="shared" si="6"/>
         <v>736800</v>
       </c>
       <c r="N271" s="19">
@@ -18585,7 +18628,7 @@
         <v>90</v>
       </c>
       <c r="M272" s="15">
-        <f>IF(G272="買付",H272*I272+SUM(J272:K272),H272*I272-SUM(J272:K272))</f>
+        <f t="shared" si="6"/>
         <v>552400</v>
       </c>
       <c r="N272" s="19">
@@ -18630,7 +18673,7 @@
         <v>90</v>
       </c>
       <c r="M273" s="15">
-        <f>IF(G273="買付",H273*I273+SUM(J273:K273),H273*I273-SUM(J273:K273))</f>
+        <f t="shared" si="6"/>
         <v>222900</v>
       </c>
       <c r="N273" s="19">
@@ -18675,7 +18718,7 @@
         <v>90</v>
       </c>
       <c r="M274" s="15">
-        <f>IF(G274="買付",H274*I274+SUM(J274:K274),H274*I274-SUM(J274:K274))</f>
+        <f t="shared" si="6"/>
         <v>597700</v>
       </c>
       <c r="N274" s="19">
@@ -18720,7 +18763,7 @@
         <v>90</v>
       </c>
       <c r="M275" s="15">
-        <f>IF(G275="買付",H275*I275+SUM(J275:K275),H275*I275-SUM(J275:K275))</f>
+        <f t="shared" si="6"/>
         <v>308550</v>
       </c>
       <c r="N275" s="19">
@@ -18765,7 +18808,7 @@
         <v>177</v>
       </c>
       <c r="M276" s="15">
-        <f>IF(G276="買付",H276*I276+SUM(J276:K276),H276*I276-SUM(J276:K276))</f>
+        <f t="shared" si="6"/>
         <v>582000</v>
       </c>
       <c r="N276" s="19">
@@ -18810,7 +18853,7 @@
         <v>177</v>
       </c>
       <c r="M277" s="15">
-        <f>IF(G277="買付",H277*I277+SUM(J277:K277),H277*I277-SUM(J277:K277))</f>
+        <f t="shared" si="6"/>
         <v>319600</v>
       </c>
       <c r="N277" s="19">
@@ -18855,7 +18898,7 @@
         <v>177</v>
       </c>
       <c r="M278" s="15">
-        <f>IF(G278="買付",H278*I278+SUM(J278:K278),H278*I278-SUM(J278:K278))</f>
+        <f t="shared" si="6"/>
         <v>281900</v>
       </c>
       <c r="N278" s="19">
@@ -18900,7 +18943,7 @@
         <v>177</v>
       </c>
       <c r="M279" s="15">
-        <f>IF(G279="買付",H279*I279+SUM(J279:K279),H279*I279-SUM(J279:K279))</f>
+        <f t="shared" si="6"/>
         <v>507000</v>
       </c>
       <c r="N279" s="19">
@@ -18945,7 +18988,7 @@
         <v>177</v>
       </c>
       <c r="M280" s="15">
-        <f>IF(G280="買付",H280*I280+SUM(J280:K280),H280*I280-SUM(J280:K280))</f>
+        <f t="shared" si="6"/>
         <v>482989.99999999994</v>
       </c>
       <c r="N280" s="19">
@@ -18990,7 +19033,7 @@
         <v>177</v>
       </c>
       <c r="M281" s="15">
-        <f>IF(G281="買付",H281*I281+SUM(J281:K281),H281*I281-SUM(J281:K281))</f>
+        <f t="shared" si="6"/>
         <v>480889.99999999994</v>
       </c>
       <c r="N281" s="19">
@@ -19035,7 +19078,7 @@
         <v>90</v>
       </c>
       <c r="M282" s="15">
-        <f>IF(G282="買付",H282*I282+SUM(J282:K282),H282*I282-SUM(J282:K282))</f>
+        <f t="shared" si="6"/>
         <v>481500</v>
       </c>
       <c r="N282" s="19">
@@ -19080,7 +19123,7 @@
         <v>177</v>
       </c>
       <c r="M283" s="15">
-        <f>IF(G283="買付",H283*I283+SUM(J283:K283),H283*I283-SUM(J283:K283))</f>
+        <f t="shared" si="6"/>
         <v>297000</v>
       </c>
       <c r="N283" s="19">
@@ -19125,7 +19168,7 @@
         <v>177</v>
       </c>
       <c r="M284" s="15">
-        <f>IF(G284="買付",H284*I284+SUM(J284:K284),H284*I284-SUM(J284:K284))</f>
+        <f t="shared" si="6"/>
         <v>386000</v>
       </c>
       <c r="N284" s="19">
@@ -19170,7 +19213,7 @@
         <v>90</v>
       </c>
       <c r="M285" s="15">
-        <f>IF(G285="買付",H285*I285+SUM(J285:K285),H285*I285-SUM(J285:K285))</f>
+        <f t="shared" si="6"/>
         <v>397480</v>
       </c>
       <c r="N285" s="19">
@@ -19215,7 +19258,7 @@
         <v>90</v>
       </c>
       <c r="M286" s="15">
-        <f>IF(G286="買付",H286*I286+SUM(J286:K286),H286*I286-SUM(J286:K286))</f>
+        <f t="shared" si="6"/>
         <v>311000</v>
       </c>
       <c r="N286" s="19">
@@ -19260,7 +19303,7 @@
         <v>177</v>
       </c>
       <c r="M287" s="15">
-        <f>IF(G287="買付",H287*I287+SUM(J287:K287),H287*I287-SUM(J287:K287))</f>
+        <f t="shared" si="6"/>
         <v>560000</v>
       </c>
       <c r="N287" s="19">
@@ -19305,7 +19348,7 @@
         <v>90</v>
       </c>
       <c r="M288" s="15">
-        <f>IF(G288="買付",H288*I288+SUM(J288:K288),H288*I288-SUM(J288:K288))</f>
+        <f t="shared" si="6"/>
         <v>518210.00000000006</v>
       </c>
       <c r="N288" s="19">
@@ -19350,7 +19393,7 @@
         <v>90</v>
       </c>
       <c r="M289" s="15">
-        <f>IF(G289="買付",H289*I289+SUM(J289:K289),H289*I289-SUM(J289:K289))</f>
+        <f t="shared" si="6"/>
         <v>282260</v>
       </c>
       <c r="N289" s="19">
@@ -19395,7 +19438,7 @@
         <v>177</v>
       </c>
       <c r="M290" s="15">
-        <f>IF(G290="買付",H290*I290+SUM(J290:K290),H290*I290-SUM(J290:K290))</f>
+        <f t="shared" si="6"/>
         <v>564000</v>
       </c>
       <c r="N290" s="19">
@@ -19440,7 +19483,7 @@
         <v>177</v>
       </c>
       <c r="M291" s="15">
-        <f>IF(G291="買付",H291*I291+SUM(J291:K291),H291*I291-SUM(J291:K291))</f>
+        <f t="shared" si="6"/>
         <v>486000</v>
       </c>
       <c r="N291" s="19">
@@ -19485,7 +19528,7 @@
         <v>177</v>
       </c>
       <c r="M292" s="15">
-        <f>IF(G292="買付",H292*I292+SUM(J292:K292),H292*I292-SUM(J292:K292))</f>
+        <f t="shared" si="6"/>
         <v>229600</v>
       </c>
       <c r="N292" s="19">
@@ -19530,7 +19573,7 @@
         <v>177</v>
       </c>
       <c r="M293" s="15">
-        <f>IF(G293="買付",H293*I293+SUM(J293:K293),H293*I293-SUM(J293:K293))</f>
+        <f t="shared" si="6"/>
         <v>480000</v>
       </c>
       <c r="N293" s="19">
@@ -19575,7 +19618,7 @@
         <v>177</v>
       </c>
       <c r="M294" s="15">
-        <f>IF(G294="買付",H294*I294+SUM(J294:K294),H294*I294-SUM(J294:K294))</f>
+        <f t="shared" ref="M294:M357" si="7">IF(G294="買付",H294*I294+SUM(J294:K294),H294*I294-SUM(J294:K294))</f>
         <v>562500</v>
       </c>
       <c r="N294" s="19">
@@ -19620,7 +19663,7 @@
         <v>90</v>
       </c>
       <c r="M295" s="15">
-        <f>IF(G295="買付",H295*I295+SUM(J295:K295),H295*I295-SUM(J295:K295))</f>
+        <f t="shared" si="7"/>
         <v>564900</v>
       </c>
       <c r="N295" s="19">
@@ -19665,7 +19708,7 @@
         <v>177</v>
       </c>
       <c r="M296" s="15">
-        <f>IF(G296="買付",H296*I296+SUM(J296:K296),H296*I296-SUM(J296:K296))</f>
+        <f t="shared" si="7"/>
         <v>346600</v>
       </c>
       <c r="N296" s="19">
@@ -19710,7 +19753,7 @@
         <v>177</v>
       </c>
       <c r="M297" s="15">
-        <f>IF(G297="買付",H297*I297+SUM(J297:K297),H297*I297-SUM(J297:K297))</f>
+        <f t="shared" si="7"/>
         <v>547500</v>
       </c>
       <c r="N297" s="19">
@@ -19755,7 +19798,7 @@
         <v>90</v>
       </c>
       <c r="M298" s="15">
-        <f>IF(G298="買付",H298*I298+SUM(J298:K298),H298*I298-SUM(J298:K298))</f>
+        <f t="shared" si="7"/>
         <v>574500</v>
       </c>
       <c r="N298" s="19">
@@ -19800,7 +19843,7 @@
         <v>177</v>
       </c>
       <c r="M299" s="15">
-        <f>IF(G299="買付",H299*I299+SUM(J299:K299),H299*I299-SUM(J299:K299))</f>
+        <f t="shared" si="7"/>
         <v>471500</v>
       </c>
       <c r="N299" s="19">
@@ -19845,7 +19888,7 @@
         <v>177</v>
       </c>
       <c r="M300" s="15">
-        <f>IF(G300="買付",H300*I300+SUM(J300:K300),H300*I300-SUM(J300:K300))</f>
+        <f t="shared" si="7"/>
         <v>209700</v>
       </c>
       <c r="N300" s="19">
@@ -19890,7 +19933,7 @@
         <v>177</v>
       </c>
       <c r="M301" s="15">
-        <f>IF(G301="買付",H301*I301+SUM(J301:K301),H301*I301-SUM(J301:K301))</f>
+        <f t="shared" si="7"/>
         <v>564500</v>
       </c>
       <c r="N301" s="19">
@@ -19935,7 +19978,7 @@
         <v>177</v>
       </c>
       <c r="M302" s="15">
-        <f>IF(G302="買付",H302*I302+SUM(J302:K302),H302*I302-SUM(J302:K302))</f>
+        <f t="shared" si="7"/>
         <v>471075</v>
       </c>
       <c r="N302" s="19">
@@ -19980,7 +20023,7 @@
         <v>177</v>
       </c>
       <c r="M303" s="15">
-        <f>IF(G303="買付",H303*I303+SUM(J303:K303),H303*I303-SUM(J303:K303))</f>
+        <f t="shared" si="7"/>
         <v>436275</v>
       </c>
       <c r="N303" s="19">
@@ -20025,7 +20068,7 @@
         <v>90</v>
       </c>
       <c r="M304" s="15">
-        <f>IF(G304="買付",H304*I304+SUM(J304:K304),H304*I304-SUM(J304:K304))</f>
+        <f t="shared" si="7"/>
         <v>660265</v>
       </c>
       <c r="N304" s="19">
@@ -20070,7 +20113,7 @@
         <v>90</v>
       </c>
       <c r="M305" s="15">
-        <f>IF(G305="買付",H305*I305+SUM(J305:K305),H305*I305-SUM(J305:K305))</f>
+        <f t="shared" si="7"/>
         <v>560665</v>
       </c>
       <c r="N305" s="19">
@@ -20115,7 +20158,7 @@
         <v>90</v>
       </c>
       <c r="M306" s="15">
-        <f>IF(G306="買付",H306*I306+SUM(J306:K306),H306*I306-SUM(J306:K306))</f>
+        <f t="shared" si="7"/>
         <v>405725</v>
       </c>
       <c r="N306" s="19">
@@ -20160,7 +20203,7 @@
         <v>90</v>
       </c>
       <c r="M307" s="15">
-        <f>IF(G307="買付",H307*I307+SUM(J307:K307),H307*I307-SUM(J307:K307))</f>
+        <f t="shared" si="7"/>
         <v>551265</v>
       </c>
       <c r="N307" s="19">
@@ -20205,7 +20248,7 @@
         <v>90</v>
       </c>
       <c r="M308" s="15">
-        <f>IF(G308="買付",H308*I308+SUM(J308:K308),H308*I308-SUM(J308:K308))</f>
+        <f t="shared" si="7"/>
         <v>1541587</v>
       </c>
       <c r="N308" s="19">
@@ -20250,7 +20293,7 @@
         <v>90</v>
       </c>
       <c r="M309" s="15">
-        <f>IF(G309="買付",H309*I309+SUM(J309:K309),H309*I309-SUM(J309:K309))</f>
+        <f t="shared" si="7"/>
         <v>684865</v>
       </c>
       <c r="N309" s="19">
@@ -20295,7 +20338,7 @@
         <v>90</v>
       </c>
       <c r="M310" s="15">
-        <f>IF(G310="買付",H310*I310+SUM(J310:K310),H310*I310-SUM(J310:K310))</f>
+        <f t="shared" si="7"/>
         <v>473700</v>
       </c>
       <c r="N310" s="19">
@@ -20340,7 +20383,7 @@
         <v>90</v>
       </c>
       <c r="M311" s="15">
-        <f>IF(G311="買付",H311*I311+SUM(J311:K311),H311*I311-SUM(J311:K311))</f>
+        <f t="shared" si="7"/>
         <v>307700</v>
       </c>
       <c r="N311" s="19">
@@ -20385,7 +20428,7 @@
         <v>90</v>
       </c>
       <c r="M312" s="15">
-        <f>IF(G312="買付",H312*I312+SUM(J312:K312),H312*I312-SUM(J312:K312))</f>
+        <f t="shared" si="7"/>
         <v>301100</v>
       </c>
       <c r="N312" s="19">
@@ -20430,7 +20473,7 @@
         <v>177</v>
       </c>
       <c r="M313" s="15">
-        <f>IF(G313="買付",H313*I313+SUM(J313:K313),H313*I313-SUM(J313:K313))</f>
+        <f t="shared" si="7"/>
         <v>634000</v>
       </c>
       <c r="N313" s="21">
@@ -20475,7 +20518,7 @@
         <v>177</v>
       </c>
       <c r="M314" s="15">
-        <f>IF(G314="買付",H314*I314+SUM(J314:K314),H314*I314-SUM(J314:K314))</f>
+        <f t="shared" si="7"/>
         <v>550500</v>
       </c>
       <c r="N314" s="21">
@@ -20520,7 +20563,7 @@
         <v>177</v>
       </c>
       <c r="M315" s="15">
-        <f>IF(G315="買付",H315*I315+SUM(J315:K315),H315*I315-SUM(J315:K315))</f>
+        <f t="shared" si="7"/>
         <v>581500</v>
       </c>
       <c r="N315" s="21">
@@ -20565,7 +20608,7 @@
         <v>177</v>
       </c>
       <c r="M316" s="15">
-        <f>IF(G316="買付",H316*I316+SUM(J316:K316),H316*I316-SUM(J316:K316))</f>
+        <f t="shared" si="7"/>
         <v>321250</v>
       </c>
       <c r="N316" s="21">
@@ -20610,7 +20653,7 @@
         <v>177</v>
       </c>
       <c r="M317" s="15">
-        <f>IF(G317="買付",H317*I317+SUM(J317:K317),H317*I317-SUM(J317:K317))</f>
+        <f t="shared" si="7"/>
         <v>726800</v>
       </c>
       <c r="N317" s="21">
@@ -20655,7 +20698,7 @@
         <v>177</v>
       </c>
       <c r="M318" s="15">
-        <f>IF(G318="買付",H318*I318+SUM(J318:K318),H318*I318-SUM(J318:K318))</f>
+        <f t="shared" si="7"/>
         <v>345900</v>
       </c>
       <c r="N318" s="21">
@@ -20700,7 +20743,7 @@
         <v>177</v>
       </c>
       <c r="M319" s="15">
-        <f>IF(G319="買付",H319*I319+SUM(J319:K319),H319*I319-SUM(J319:K319))</f>
+        <f t="shared" si="7"/>
         <v>562300</v>
       </c>
       <c r="N319" s="21">
@@ -20745,7 +20788,7 @@
         <v>177</v>
       </c>
       <c r="M320" s="15">
-        <f>IF(G320="買付",H320*I320+SUM(J320:K320),H320*I320-SUM(J320:K320))</f>
+        <f t="shared" si="7"/>
         <v>562700</v>
       </c>
       <c r="N320" s="21">
@@ -20790,7 +20833,7 @@
         <v>177</v>
       </c>
       <c r="M321" s="15">
-        <f>IF(G321="買付",H321*I321+SUM(J321:K321),H321*I321-SUM(J321:K321))</f>
+        <f t="shared" si="7"/>
         <v>284000</v>
       </c>
       <c r="N321" s="21">
@@ -20835,7 +20878,7 @@
         <v>177</v>
       </c>
       <c r="M322" s="15">
-        <f>IF(G322="買付",H322*I322+SUM(J322:K322),H322*I322-SUM(J322:K322))</f>
+        <f t="shared" si="7"/>
         <v>548170</v>
       </c>
       <c r="N322" s="21">
@@ -20880,7 +20923,7 @@
         <v>177</v>
       </c>
       <c r="M323" s="15">
-        <f>IF(G323="買付",H323*I323+SUM(J323:K323),H323*I323-SUM(J323:K323))</f>
+        <f t="shared" si="7"/>
         <v>927190</v>
       </c>
       <c r="N323" s="21">
@@ -20925,7 +20968,7 @@
         <v>90</v>
       </c>
       <c r="M324" s="15">
-        <f>IF(G324="買付",H324*I324+SUM(J324:K324),H324*I324-SUM(J324:K324))</f>
+        <f t="shared" si="7"/>
         <v>398500</v>
       </c>
       <c r="N324" s="19">
@@ -20970,7 +21013,7 @@
         <v>90</v>
       </c>
       <c r="M325" s="15">
-        <f>IF(G325="買付",H325*I325+SUM(J325:K325),H325*I325-SUM(J325:K325))</f>
+        <f t="shared" si="7"/>
         <v>565000</v>
       </c>
       <c r="N325" s="19">
@@ -21015,7 +21058,7 @@
         <v>90</v>
       </c>
       <c r="M326" s="15">
-        <f>IF(G326="買付",H326*I326+SUM(J326:K326),H326*I326-SUM(J326:K326))</f>
+        <f t="shared" si="7"/>
         <v>290720</v>
       </c>
       <c r="N326" s="19">
@@ -21060,7 +21103,7 @@
         <v>90</v>
       </c>
       <c r="M327" s="15">
-        <f>IF(G327="買付",H327*I327+SUM(J327:K327),H327*I327-SUM(J327:K327))</f>
+        <f t="shared" si="7"/>
         <v>556300</v>
       </c>
       <c r="N327" s="19">
@@ -21105,7 +21148,7 @@
         <v>90</v>
       </c>
       <c r="M328" s="15">
-        <f>IF(G328="買付",H328*I328+SUM(J328:K328),H328*I328-SUM(J328:K328))</f>
+        <f t="shared" si="7"/>
         <v>322840</v>
       </c>
       <c r="N328" s="21">
@@ -21150,7 +21193,7 @@
         <v>90</v>
       </c>
       <c r="M329" s="15">
-        <f>IF(G329="買付",H329*I329+SUM(J329:K329),H329*I329-SUM(J329:K329))</f>
+        <f t="shared" si="7"/>
         <v>728000</v>
       </c>
       <c r="N329" s="21">
@@ -21195,7 +21238,7 @@
         <v>90</v>
       </c>
       <c r="M330" s="15">
-        <f>IF(G330="買付",H330*I330+SUM(J330:K330),H330*I330-SUM(J330:K330))</f>
+        <f t="shared" si="7"/>
         <v>565200</v>
       </c>
       <c r="N330" s="21">
@@ -21240,7 +21283,7 @@
         <v>90</v>
       </c>
       <c r="M331" s="15">
-        <f>IF(G331="買付",H331*I331+SUM(J331:K331),H331*I331-SUM(J331:K331))</f>
+        <f t="shared" si="7"/>
         <v>636640</v>
       </c>
       <c r="N331" s="21">
@@ -21285,7 +21328,7 @@
         <v>90</v>
       </c>
       <c r="M332" s="15">
-        <f>IF(G332="買付",H332*I332+SUM(J332:K332),H332*I332-SUM(J332:K332))</f>
+        <f t="shared" si="7"/>
         <v>599500</v>
       </c>
       <c r="N332" s="19">
@@ -21330,7 +21373,7 @@
         <v>90</v>
       </c>
       <c r="M333" s="15">
-        <f>IF(G333="買付",H333*I333+SUM(J333:K333),H333*I333-SUM(J333:K333))</f>
+        <f t="shared" si="7"/>
         <v>910400</v>
       </c>
       <c r="N333" s="19">
@@ -21375,7 +21418,7 @@
         <v>177</v>
       </c>
       <c r="M334" s="15">
-        <f>IF(G334="買付",H334*I334+SUM(J334:K334),H334*I334-SUM(J334:K334))</f>
+        <f t="shared" si="7"/>
         <v>384350</v>
       </c>
       <c r="N334" s="19">
@@ -21420,7 +21463,7 @@
         <v>177</v>
       </c>
       <c r="M335" s="15">
-        <f>IF(G335="買付",H335*I335+SUM(J335:K335),H335*I335-SUM(J335:K335))</f>
+        <f t="shared" si="7"/>
         <v>298000</v>
       </c>
       <c r="N335" s="19">
@@ -21465,7 +21508,7 @@
         <v>177</v>
       </c>
       <c r="M336" s="15">
-        <f>IF(G336="買付",H336*I336+SUM(J336:K336),H336*I336-SUM(J336:K336))</f>
+        <f t="shared" si="7"/>
         <v>340500</v>
       </c>
       <c r="N336" s="19">
@@ -21510,7 +21553,7 @@
         <v>177</v>
       </c>
       <c r="M337" s="15">
-        <f>IF(G337="買付",H337*I337+SUM(J337:K337),H337*I337-SUM(J337:K337))</f>
+        <f t="shared" si="7"/>
         <v>478939.99999999994</v>
       </c>
       <c r="N337" s="19">
@@ -21555,7 +21598,7 @@
         <v>177</v>
       </c>
       <c r="M338" s="15">
-        <f>IF(G338="買付",H338*I338+SUM(J338:K338),H338*I338-SUM(J338:K338))</f>
+        <f t="shared" si="7"/>
         <v>333000</v>
       </c>
       <c r="N338" s="19">
@@ -21600,7 +21643,7 @@
         <v>177</v>
       </c>
       <c r="M339" s="15">
-        <f>IF(G339="買付",H339*I339+SUM(J339:K339),H339*I339-SUM(J339:K339))</f>
+        <f t="shared" si="7"/>
         <v>401700</v>
       </c>
       <c r="N339" s="19">
@@ -21645,7 +21688,7 @@
         <v>177</v>
       </c>
       <c r="M340" s="15">
-        <f>IF(G340="買付",H340*I340+SUM(J340:K340),H340*I340-SUM(J340:K340))</f>
+        <f t="shared" si="7"/>
         <v>344000</v>
       </c>
       <c r="N340" s="19">
@@ -21690,7 +21733,7 @@
         <v>177</v>
       </c>
       <c r="M341" s="15">
-        <f>IF(G341="買付",H341*I341+SUM(J341:K341),H341*I341-SUM(J341:K341))</f>
+        <f t="shared" si="7"/>
         <v>545000</v>
       </c>
       <c r="N341" s="19">
@@ -21735,7 +21778,7 @@
         <v>177</v>
       </c>
       <c r="M342" s="15">
-        <f>IF(G342="買付",H342*I342+SUM(J342:K342),H342*I342-SUM(J342:K342))</f>
+        <f t="shared" si="7"/>
         <v>265000</v>
       </c>
       <c r="N342" s="19">
@@ -21780,7 +21823,7 @@
         <v>90</v>
       </c>
       <c r="M343" s="15">
-        <f>IF(G343="買付",H343*I343+SUM(J343:K343),H343*I343-SUM(J343:K343))</f>
+        <f t="shared" si="7"/>
         <v>510600</v>
       </c>
       <c r="N343" s="19">
@@ -21825,7 +21868,7 @@
         <v>177</v>
       </c>
       <c r="M344" s="15">
-        <f>IF(G344="買付",H344*I344+SUM(J344:K344),H344*I344-SUM(J344:K344))</f>
+        <f t="shared" si="7"/>
         <v>542290</v>
       </c>
       <c r="N344" s="19">
@@ -21870,7 +21913,7 @@
         <v>177</v>
       </c>
       <c r="M345" s="15">
-        <f>IF(G345="買付",H345*I345+SUM(J345:K345),H345*I345-SUM(J345:K345))</f>
+        <f t="shared" si="7"/>
         <v>360000</v>
       </c>
       <c r="N345" s="19">
@@ -21915,7 +21958,7 @@
         <v>177</v>
       </c>
       <c r="M346" s="15">
-        <f>IF(G346="買付",H346*I346+SUM(J346:K346),H346*I346-SUM(J346:K346))</f>
+        <f t="shared" si="7"/>
         <v>539000</v>
       </c>
       <c r="N346" s="19">
@@ -21960,7 +22003,7 @@
         <v>177</v>
       </c>
       <c r="M347" s="15">
-        <f>IF(G347="買付",H347*I347+SUM(J347:K347),H347*I347-SUM(J347:K347))</f>
+        <f t="shared" si="7"/>
         <v>375800</v>
       </c>
       <c r="N347" s="19">
@@ -22005,7 +22048,7 @@
         <v>177</v>
       </c>
       <c r="M348" s="15">
-        <f>IF(G348="買付",H348*I348+SUM(J348:K348),H348*I348-SUM(J348:K348))</f>
+        <f t="shared" si="7"/>
         <v>229900</v>
       </c>
       <c r="N348" s="19">
@@ -22050,7 +22093,7 @@
         <v>177</v>
       </c>
       <c r="M349" s="15">
-        <f>IF(G349="買付",H349*I349+SUM(J349:K349),H349*I349-SUM(J349:K349))</f>
+        <f t="shared" si="7"/>
         <v>735700</v>
       </c>
       <c r="N349" s="19">
@@ -22095,7 +22138,7 @@
         <v>177</v>
       </c>
       <c r="M350" s="15">
-        <f>IF(G350="買付",H350*I350+SUM(J350:K350),H350*I350-SUM(J350:K350))</f>
+        <f t="shared" si="7"/>
         <v>576500</v>
       </c>
       <c r="N350" s="19">
@@ -22140,7 +22183,7 @@
         <v>177</v>
       </c>
       <c r="M351" s="15">
-        <f>IF(G351="買付",H351*I351+SUM(J351:K351),H351*I351-SUM(J351:K351))</f>
+        <f t="shared" si="7"/>
         <v>698000</v>
       </c>
       <c r="N351" s="19">
@@ -22185,7 +22228,7 @@
         <v>177</v>
       </c>
       <c r="M352" s="15">
-        <f>IF(G352="買付",H352*I352+SUM(J352:K352),H352*I352-SUM(J352:K352))</f>
+        <f t="shared" si="7"/>
         <v>254300</v>
       </c>
       <c r="N352" s="19">
@@ -22230,7 +22273,7 @@
         <v>177</v>
       </c>
       <c r="M353" s="15">
-        <f>IF(G353="買付",H353*I353+SUM(J353:K353),H353*I353-SUM(J353:K353))</f>
+        <f t="shared" si="7"/>
         <v>449000</v>
       </c>
       <c r="N353" s="19">
@@ -22275,7 +22318,7 @@
         <v>177</v>
       </c>
       <c r="M354" s="15">
-        <f>IF(G354="買付",H354*I354+SUM(J354:K354),H354*I354-SUM(J354:K354))</f>
+        <f t="shared" si="7"/>
         <v>360500</v>
       </c>
       <c r="N354" s="19">
@@ -22320,7 +22363,7 @@
         <v>177</v>
       </c>
       <c r="M355" s="15">
-        <f>IF(G355="買付",H355*I355+SUM(J355:K355),H355*I355-SUM(J355:K355))</f>
+        <f t="shared" si="7"/>
         <v>281850</v>
       </c>
       <c r="N355" s="19">
@@ -22365,7 +22408,7 @@
         <v>90</v>
       </c>
       <c r="M356" s="15">
-        <f>IF(G356="買付",H356*I356+SUM(J356:K356),H356*I356-SUM(J356:K356))</f>
+        <f t="shared" si="7"/>
         <v>750900</v>
       </c>
       <c r="N356" s="19">
@@ -22410,7 +22453,7 @@
         <v>177</v>
       </c>
       <c r="M357" s="15">
-        <f>IF(G357="買付",H357*I357+SUM(J357:K357),H357*I357-SUM(J357:K357))</f>
+        <f t="shared" si="7"/>
         <v>380300</v>
       </c>
       <c r="N357" s="19">
@@ -22455,7 +22498,7 @@
         <v>177</v>
       </c>
       <c r="M358" s="15">
-        <f>IF(G358="買付",H358*I358+SUM(J358:K358),H358*I358-SUM(J358:K358))</f>
+        <f t="shared" ref="M358:M381" si="8">IF(G358="買付",H358*I358+SUM(J358:K358),H358*I358-SUM(J358:K358))</f>
         <v>207300</v>
       </c>
       <c r="N358" s="19">
@@ -22500,7 +22543,7 @@
         <v>90</v>
       </c>
       <c r="M359" s="15">
-        <f>IF(G359="買付",H359*I359+SUM(J359:K359),H359*I359-SUM(J359:K359))</f>
+        <f t="shared" si="8"/>
         <v>208050</v>
       </c>
       <c r="N359" s="21">
@@ -22545,7 +22588,7 @@
         <v>177</v>
       </c>
       <c r="M360" s="15">
-        <f>IF(G360="買付",H360*I360+SUM(J360:K360),H360*I360-SUM(J360:K360))</f>
+        <f t="shared" si="8"/>
         <v>579900</v>
       </c>
       <c r="N360" s="19">
@@ -22590,7 +22633,7 @@
         <v>177</v>
       </c>
       <c r="M361" s="15">
-        <f>IF(G361="買付",H361*I361+SUM(J361:K361),H361*I361-SUM(J361:K361))</f>
+        <f t="shared" si="8"/>
         <v>524000</v>
       </c>
       <c r="N361" s="19">
@@ -22635,7 +22678,7 @@
         <v>90</v>
       </c>
       <c r="M362" s="15">
-        <f>IF(G362="買付",H362*I362+SUM(J362:K362),H362*I362-SUM(J362:K362))</f>
+        <f t="shared" si="8"/>
         <v>370800</v>
       </c>
       <c r="N362" s="19">
@@ -22680,7 +22723,7 @@
         <v>90</v>
       </c>
       <c r="M363" s="15">
-        <f>IF(G363="買付",H363*I363+SUM(J363:K363),H363*I363-SUM(J363:K363))</f>
+        <f t="shared" si="8"/>
         <v>287550</v>
       </c>
       <c r="N363" s="19">
@@ -22725,7 +22768,7 @@
         <v>90</v>
       </c>
       <c r="M364" s="15">
-        <f>IF(G364="買付",H364*I364+SUM(J364:K364),H364*I364-SUM(J364:K364))</f>
+        <f t="shared" si="8"/>
         <v>402700</v>
       </c>
       <c r="N364" s="19">
@@ -22770,7 +22813,7 @@
         <v>90</v>
       </c>
       <c r="M365" s="15">
-        <f>IF(G365="買付",H365*I365+SUM(J365:K365),H365*I365-SUM(J365:K365))</f>
+        <f t="shared" si="8"/>
         <v>773200</v>
       </c>
       <c r="N365" s="19">
@@ -22815,7 +22858,7 @@
         <v>90</v>
       </c>
       <c r="M366" s="15">
-        <f>IF(G366="買付",H366*I366+SUM(J366:K366),H366*I366-SUM(J366:K366))</f>
+        <f t="shared" si="8"/>
         <v>549600</v>
       </c>
       <c r="N366" s="19">
@@ -22860,7 +22903,7 @@
         <v>90</v>
       </c>
       <c r="M367" s="15">
-        <f>IF(G367="買付",H367*I367+SUM(J367:K367),H367*I367-SUM(J367:K367))</f>
+        <f t="shared" si="8"/>
         <v>414400</v>
       </c>
       <c r="N367" s="19">
@@ -22905,7 +22948,7 @@
         <v>90</v>
       </c>
       <c r="M368" s="15">
-        <f>IF(G368="買付",H368*I368+SUM(J368:K368),H368*I368-SUM(J368:K368))</f>
+        <f t="shared" si="8"/>
         <v>547500</v>
       </c>
       <c r="N368" s="19">
@@ -22950,7 +22993,7 @@
         <v>90</v>
       </c>
       <c r="M369" s="15">
-        <f>IF(G369="買付",H369*I369+SUM(J369:K369),H369*I369-SUM(J369:K369))</f>
+        <f t="shared" si="8"/>
         <v>582300</v>
       </c>
       <c r="N369" s="19">
@@ -22995,7 +23038,7 @@
         <v>90</v>
       </c>
       <c r="M370" s="15">
-        <f>IF(G370="買付",H370*I370+SUM(J370:K370),H370*I370-SUM(J370:K370))</f>
+        <f t="shared" si="8"/>
         <v>332700</v>
       </c>
       <c r="N370" s="19">
@@ -23040,7 +23083,7 @@
         <v>90</v>
       </c>
       <c r="M371" s="15">
-        <f>IF(G371="買付",H371*I371+SUM(J371:K371),H371*I371-SUM(J371:K371))</f>
+        <f t="shared" si="8"/>
         <v>305500</v>
       </c>
       <c r="N371" s="19">
@@ -23085,7 +23128,7 @@
         <v>90</v>
       </c>
       <c r="M372" s="15">
-        <f>IF(G372="買付",H372*I372+SUM(J372:K372),H372*I372-SUM(J372:K372))</f>
+        <f t="shared" si="8"/>
         <v>367000</v>
       </c>
       <c r="N372" s="21">
@@ -23130,7 +23173,7 @@
         <v>90</v>
       </c>
       <c r="M373" s="15">
-        <f>IF(G373="買付",H373*I373+SUM(J373:K373),H373*I373-SUM(J373:K373))</f>
+        <f t="shared" si="8"/>
         <v>417900</v>
       </c>
       <c r="N373" s="21">
@@ -23175,7 +23218,7 @@
         <v>90</v>
       </c>
       <c r="M374" s="15">
-        <f>IF(G374="買付",H374*I374+SUM(J374:K374),H374*I374-SUM(J374:K374))</f>
+        <f t="shared" si="8"/>
         <v>578400</v>
       </c>
       <c r="N374" s="21">
@@ -23220,7 +23263,7 @@
         <v>90</v>
       </c>
       <c r="M375" s="15">
-        <f>IF(G375="買付",H375*I375+SUM(J375:K375),H375*I375-SUM(J375:K375))</f>
+        <f t="shared" si="8"/>
         <v>539400</v>
       </c>
       <c r="N375" s="21">
@@ -23265,7 +23308,7 @@
         <v>177</v>
       </c>
       <c r="M376" s="15">
-        <f>IF(G376="買付",H376*I376+SUM(J376:K376),H376*I376-SUM(J376:K376))</f>
+        <f t="shared" si="8"/>
         <v>588000</v>
       </c>
       <c r="N376" s="19">
@@ -23310,7 +23353,7 @@
         <v>177</v>
       </c>
       <c r="M377" s="15">
-        <f>IF(G377="買付",H377*I377+SUM(J377:K377),H377*I377-SUM(J377:K377))</f>
+        <f t="shared" si="8"/>
         <v>347300</v>
       </c>
       <c r="N377" s="19">
@@ -23355,7 +23398,7 @@
         <v>90</v>
       </c>
       <c r="M378" s="15">
-        <f>IF(G378="買付",H378*I378+SUM(J378:K378),H378*I378-SUM(J378:K378))</f>
+        <f t="shared" si="8"/>
         <v>566500</v>
       </c>
       <c r="N378" s="19">
@@ -23400,7 +23443,7 @@
         <v>90</v>
       </c>
       <c r="M379" s="15">
-        <f>IF(G379="買付",H379*I379+SUM(J379:K379),H379*I379-SUM(J379:K379))</f>
+        <f t="shared" si="8"/>
         <v>560700</v>
       </c>
       <c r="N379" s="19">
@@ -23445,7 +23488,7 @@
         <v>177</v>
       </c>
       <c r="M380" s="15">
-        <f>IF(G380="買付",H380*I380+SUM(J380:K380),H380*I380-SUM(J380:K380))</f>
+        <f t="shared" si="8"/>
         <v>693600</v>
       </c>
       <c r="N380" s="21">
@@ -23490,7 +23533,7 @@
         <v>90</v>
       </c>
       <c r="M381" s="15">
-        <f>IF(G381="買付",H381*I381+SUM(J381:K381),H381*I381-SUM(J381:K381))</f>
+        <f t="shared" si="8"/>
         <v>587000</v>
       </c>
       <c r="N381" s="19">
@@ -23577,7 +23620,7 @@
         <v>177</v>
       </c>
       <c r="M383" s="15">
-        <f>IF(G383="買付",H383*I383+SUM(J383:K383),H383*I383-SUM(J383:K383))</f>
+        <f t="shared" ref="M383:M414" si="9">IF(G383="買付",H383*I383+SUM(J383:K383),H383*I383-SUM(J383:K383))</f>
         <v>582400</v>
       </c>
       <c r="N383" s="21">
@@ -23622,7 +23665,7 @@
         <v>177</v>
       </c>
       <c r="M384" s="15">
-        <f>IF(G384="買付",H384*I384+SUM(J384:K384),H384*I384-SUM(J384:K384))</f>
+        <f t="shared" si="9"/>
         <v>486100</v>
       </c>
       <c r="N384" s="21">
@@ -23668,7 +23711,7 @@
         <v>90</v>
       </c>
       <c r="M385" s="15">
-        <f>IF(G385="買付",H385*I385+SUM(J385:K385),H385*I385-SUM(J385:K385))</f>
+        <f t="shared" si="9"/>
         <v>461600</v>
       </c>
       <c r="N385" s="21">
@@ -23713,7 +23756,7 @@
         <v>90</v>
       </c>
       <c r="M386" s="15">
-        <f>IF(G386="買付",H386*I386+SUM(J386:K386),H386*I386-SUM(J386:K386))</f>
+        <f t="shared" si="9"/>
         <v>725600</v>
       </c>
       <c r="N386" s="21">
@@ -23758,7 +23801,7 @@
         <v>90</v>
       </c>
       <c r="M387" s="15">
-        <f>IF(G387="買付",H387*I387+SUM(J387:K387),H387*I387-SUM(J387:K387))</f>
+        <f t="shared" si="9"/>
         <v>487600</v>
       </c>
       <c r="N387" s="21">
@@ -23803,7 +23846,7 @@
         <v>90</v>
       </c>
       <c r="M388" s="15">
-        <f>IF(G388="買付",H388*I388+SUM(J388:K388),H388*I388-SUM(J388:K388))</f>
+        <f t="shared" si="9"/>
         <v>562200</v>
       </c>
       <c r="N388" s="21">
@@ -23848,7 +23891,7 @@
         <v>90</v>
       </c>
       <c r="M389" s="15">
-        <f>IF(G389="買付",H389*I389+SUM(J389:K389),H389*I389-SUM(J389:K389))</f>
+        <f t="shared" si="9"/>
         <v>1196000</v>
       </c>
       <c r="N389" s="21">
@@ -23893,7 +23936,7 @@
         <v>90</v>
       </c>
       <c r="M390" s="15">
-        <f>IF(G390="買付",H390*I390+SUM(J390:K390),H390*I390-SUM(J390:K390))</f>
+        <f t="shared" si="9"/>
         <v>233700</v>
       </c>
       <c r="N390" s="21">
@@ -23938,7 +23981,7 @@
         <v>90</v>
       </c>
       <c r="M391" s="15">
-        <f>IF(G391="買付",H391*I391+SUM(J391:K391),H391*I391-SUM(J391:K391))</f>
+        <f t="shared" si="9"/>
         <v>549200</v>
       </c>
       <c r="N391" s="21">
@@ -23983,7 +24026,7 @@
         <v>90</v>
       </c>
       <c r="M392" s="15">
-        <f>IF(G392="買付",H392*I392+SUM(J392:K392),H392*I392-SUM(J392:K392))</f>
+        <f t="shared" si="9"/>
         <v>466500</v>
       </c>
       <c r="N392" s="21">
@@ -24028,7 +24071,7 @@
         <v>90</v>
       </c>
       <c r="M393" s="15">
-        <f>IF(G393="買付",H393*I393+SUM(J393:K393),H393*I393-SUM(J393:K393))</f>
+        <f t="shared" si="9"/>
         <v>233250</v>
       </c>
       <c r="N393" s="21">
@@ -24073,7 +24116,7 @@
         <v>90</v>
       </c>
       <c r="M394" s="15">
-        <f>IF(G394="買付",H394*I394+SUM(J394:K394),H394*I394-SUM(J394:K394))</f>
+        <f t="shared" si="9"/>
         <v>539000</v>
       </c>
       <c r="N394" s="21">
@@ -24118,7 +24161,7 @@
         <v>90</v>
       </c>
       <c r="M395" s="15">
-        <f>IF(G395="買付",H395*I395+SUM(J395:K395),H395*I395-SUM(J395:K395))</f>
+        <f t="shared" si="9"/>
         <v>369300</v>
       </c>
       <c r="N395" s="21">
@@ -24163,7 +24206,7 @@
         <v>31</v>
       </c>
       <c r="M396" s="15">
-        <f>IF(G396="買付",H396*I396+SUM(J396:K396),H396*I396-SUM(J396:K396))</f>
+        <f t="shared" si="9"/>
         <v>589000</v>
       </c>
       <c r="N396" s="19">
@@ -24208,7 +24251,7 @@
         <v>90</v>
       </c>
       <c r="M397" s="15">
-        <f>IF(G397="買付",H397*I397+SUM(J397:K397),H397*I397-SUM(J397:K397))</f>
+        <f t="shared" si="9"/>
         <v>590800</v>
       </c>
       <c r="N397" s="21">
@@ -24253,7 +24296,7 @@
         <v>31</v>
       </c>
       <c r="M398" s="15">
-        <f>IF(G398="買付",H398*I398+SUM(J398:K398),H398*I398-SUM(J398:K398))</f>
+        <f t="shared" si="9"/>
         <v>455500</v>
       </c>
       <c r="N398" s="21">
@@ -24298,7 +24341,7 @@
         <v>31</v>
       </c>
       <c r="M399" s="15">
-        <f>IF(G399="買付",H399*I399+SUM(J399:K399),H399*I399-SUM(J399:K399))</f>
+        <f t="shared" si="9"/>
         <v>585000</v>
       </c>
       <c r="N399" s="21">
@@ -24343,7 +24386,7 @@
         <v>31</v>
       </c>
       <c r="M400" s="15">
-        <f>IF(G400="買付",H400*I400+SUM(J400:K400),H400*I400-SUM(J400:K400))</f>
+        <f t="shared" si="9"/>
         <v>382000</v>
       </c>
       <c r="N400" s="21">
@@ -24388,7 +24431,7 @@
         <v>31</v>
       </c>
       <c r="M401" s="15">
-        <f>IF(G401="買付",H401*I401+SUM(J401:K401),H401*I401-SUM(J401:K401))</f>
+        <f t="shared" si="9"/>
         <v>297000</v>
       </c>
       <c r="N401" s="21">
@@ -24433,7 +24476,7 @@
         <v>31</v>
       </c>
       <c r="M402" s="15">
-        <f>IF(G402="買付",H402*I402+SUM(J402:K402),H402*I402-SUM(J402:K402))</f>
+        <f t="shared" si="9"/>
         <v>498700</v>
       </c>
       <c r="N402" s="21">
@@ -24478,7 +24521,7 @@
         <v>31</v>
       </c>
       <c r="M403" s="15">
-        <f>IF(G403="買付",H403*I403+SUM(J403:K403),H403*I403-SUM(J403:K403))</f>
+        <f t="shared" si="9"/>
         <v>270200</v>
       </c>
       <c r="N403" s="21">
@@ -24523,7 +24566,7 @@
         <v>90</v>
       </c>
       <c r="M404" s="15">
-        <f>IF(G404="買付",H404*I404+SUM(J404:K404),H404*I404-SUM(J404:K404))</f>
+        <f t="shared" si="9"/>
         <v>736000</v>
       </c>
       <c r="N404" s="21">
@@ -24568,7 +24611,7 @@
         <v>90</v>
       </c>
       <c r="M405" s="15">
-        <f>IF(G405="買付",H405*I405+SUM(J405:K405),H405*I405-SUM(J405:K405))</f>
+        <f t="shared" si="9"/>
         <v>498800</v>
       </c>
       <c r="N405" s="21">
@@ -24613,7 +24656,7 @@
         <v>31</v>
       </c>
       <c r="M406" s="15">
-        <f>IF(G406="買付",H406*I406+SUM(J406:K406),H406*I406-SUM(J406:K406))</f>
+        <f t="shared" si="9"/>
         <v>439400</v>
       </c>
       <c r="N406" s="21">
@@ -24658,7 +24701,7 @@
         <v>177</v>
       </c>
       <c r="M407" s="15">
-        <f>IF(G407="買付",H407*I407+SUM(J407:K407),H407*I407-SUM(J407:K407))</f>
+        <f t="shared" si="9"/>
         <v>226180.00000000003</v>
       </c>
       <c r="N407" s="21">
@@ -24703,7 +24746,7 @@
         <v>177</v>
       </c>
       <c r="M408" s="15">
-        <f>IF(G408="買付",H408*I408+SUM(J408:K408),H408*I408-SUM(J408:K408))</f>
+        <f t="shared" si="9"/>
         <v>338000</v>
       </c>
       <c r="N408" s="21">
@@ -24748,7 +24791,7 @@
         <v>177</v>
       </c>
       <c r="M409" s="15">
-        <f>IF(G409="買付",H409*I409+SUM(J409:K409),H409*I409-SUM(J409:K409))</f>
+        <f t="shared" si="9"/>
         <v>634800</v>
       </c>
       <c r="N409" s="21">
@@ -24793,7 +24836,7 @@
         <v>177</v>
       </c>
       <c r="M410" s="15">
-        <f>IF(G410="買付",H410*I410+SUM(J410:K410),H410*I410-SUM(J410:K410))</f>
+        <f t="shared" si="9"/>
         <v>453500</v>
       </c>
       <c r="N410" s="19">
@@ -24838,7 +24881,7 @@
         <v>90</v>
       </c>
       <c r="M411" s="15">
-        <f>IF(G411="買付",H411*I411+SUM(J411:K411),H411*I411-SUM(J411:K411))</f>
+        <f t="shared" si="9"/>
         <v>293300</v>
       </c>
       <c r="N411" s="21">
@@ -24883,7 +24926,7 @@
         <v>177</v>
       </c>
       <c r="M412" s="15">
-        <f>IF(G412="買付",H412*I412+SUM(J412:K412),H412*I412-SUM(J412:K412))</f>
+        <f t="shared" si="9"/>
         <v>330000</v>
       </c>
       <c r="N412" s="21">
@@ -24928,7 +24971,7 @@
         <v>177</v>
       </c>
       <c r="M413" s="15">
-        <f>IF(G413="買付",H413*I413+SUM(J413:K413),H413*I413-SUM(J413:K413))</f>
+        <f t="shared" si="9"/>
         <v>200400</v>
       </c>
       <c r="N413" s="21">
@@ -24973,7 +25016,7 @@
         <v>90</v>
       </c>
       <c r="M414" s="15">
-        <f>IF(G414="買付",H414*I414+SUM(J414:K414),H414*I414-SUM(J414:K414))</f>
+        <f t="shared" si="9"/>
         <v>195500</v>
       </c>
       <c r="N414" s="19">
@@ -25018,7 +25061,7 @@
         <v>90</v>
       </c>
       <c r="M415" s="15">
-        <f>IF(G415="買付",H415*I415+SUM(J415:K415),H415*I415-SUM(J415:K415))</f>
+        <f t="shared" ref="M415:M446" si="10">IF(G415="買付",H415*I415+SUM(J415:K415),H415*I415-SUM(J415:K415))</f>
         <v>369300</v>
       </c>
       <c r="N415" s="19">
@@ -25063,7 +25106,7 @@
         <v>177</v>
       </c>
       <c r="M416" s="15">
-        <f>IF(G416="買付",H416*I416+SUM(J416:K416),H416*I416-SUM(J416:K416))</f>
+        <f t="shared" si="10"/>
         <v>896500</v>
       </c>
       <c r="N416" s="21">
@@ -25108,7 +25151,7 @@
         <v>177</v>
       </c>
       <c r="M417" s="15">
-        <f>IF(G417="買付",H417*I417+SUM(J417:K417),H417*I417-SUM(J417:K417))</f>
+        <f t="shared" si="10"/>
         <v>670000</v>
       </c>
       <c r="N417" s="21">
@@ -25153,7 +25196,7 @@
         <v>177</v>
       </c>
       <c r="M418" s="15">
-        <f>IF(G418="買付",H418*I418+SUM(J418:K418),H418*I418-SUM(J418:K418))</f>
+        <f t="shared" si="10"/>
         <v>662000</v>
       </c>
       <c r="N418" s="21">
@@ -25198,7 +25241,7 @@
         <v>177</v>
       </c>
       <c r="M419" s="15">
-        <f>IF(G419="買付",H419*I419+SUM(J419:K419),H419*I419-SUM(J419:K419))</f>
+        <f t="shared" si="10"/>
         <v>653500</v>
       </c>
       <c r="N419" s="21">
@@ -25243,7 +25286,7 @@
         <v>177</v>
       </c>
       <c r="M420" s="15">
-        <f>IF(G420="買付",H420*I420+SUM(J420:K420),H420*I420-SUM(J420:K420))</f>
+        <f t="shared" si="10"/>
         <v>351500</v>
       </c>
       <c r="N420" s="21">
@@ -25288,7 +25331,7 @@
         <v>177</v>
       </c>
       <c r="M421" s="15">
-        <f>IF(G421="買付",H421*I421+SUM(J421:K421),H421*I421-SUM(J421:K421))</f>
+        <f t="shared" si="10"/>
         <v>1989000</v>
       </c>
       <c r="N421" s="21">
@@ -25333,7 +25376,7 @@
         <v>177</v>
       </c>
       <c r="M422" s="15">
-        <f>IF(G422="買付",H422*I422+SUM(J422:K422),H422*I422-SUM(J422:K422))</f>
+        <f t="shared" si="10"/>
         <v>839400</v>
       </c>
       <c r="N422" s="21">
@@ -25378,7 +25421,7 @@
         <v>90</v>
       </c>
       <c r="M423" s="15">
-        <f>IF(G423="買付",H423*I423+SUM(J423:K423),H423*I423-SUM(J423:K423))</f>
+        <f t="shared" si="10"/>
         <v>239800</v>
       </c>
       <c r="N423" s="19">
@@ -25423,7 +25466,7 @@
         <v>90</v>
       </c>
       <c r="M424" s="15">
-        <f>IF(G424="買付",H424*I424+SUM(J424:K424),H424*I424-SUM(J424:K424))</f>
+        <f t="shared" si="10"/>
         <v>300000</v>
       </c>
       <c r="N424" s="19">
@@ -25468,7 +25511,7 @@
         <v>177</v>
       </c>
       <c r="M425" s="15">
-        <f>IF(G425="買付",H425*I425+SUM(J425:K425),H425*I425-SUM(J425:K425))</f>
+        <f t="shared" si="10"/>
         <v>139250</v>
       </c>
       <c r="N425" s="21">
@@ -25513,7 +25556,7 @@
         <v>177</v>
       </c>
       <c r="M426" s="15">
-        <f>IF(G426="買付",H426*I426+SUM(J426:K426),H426*I426-SUM(J426:K426))</f>
+        <f t="shared" si="10"/>
         <v>145300</v>
       </c>
       <c r="N426" s="21">
@@ -25558,7 +25601,7 @@
         <v>177</v>
       </c>
       <c r="M427" s="15">
-        <f>IF(G427="買付",H427*I427+SUM(J427:K427),H427*I427-SUM(J427:K427))</f>
+        <f t="shared" si="10"/>
         <v>149000</v>
       </c>
       <c r="N427" s="21">
@@ -25603,7 +25646,7 @@
         <v>90</v>
       </c>
       <c r="M428" s="15">
-        <f>IF(G428="買付",H428*I428+SUM(J428:K428),H428*I428-SUM(J428:K428))</f>
+        <f t="shared" si="10"/>
         <v>663700</v>
       </c>
       <c r="N428" s="19">
@@ -25648,7 +25691,7 @@
         <v>90</v>
       </c>
       <c r="M429" s="15">
-        <f>IF(G429="買付",H429*I429+SUM(J429:K429),H429*I429-SUM(J429:K429))</f>
+        <f t="shared" si="10"/>
         <v>335940</v>
       </c>
       <c r="N429" s="19">
@@ -25693,7 +25736,7 @@
         <v>177</v>
       </c>
       <c r="M430" s="15">
-        <f>IF(G430="買付",H430*I430+SUM(J430:K430),H430*I430-SUM(J430:K430))</f>
+        <f t="shared" si="10"/>
         <v>882000</v>
       </c>
       <c r="N430" s="19">
@@ -25738,7 +25781,7 @@
         <v>90</v>
       </c>
       <c r="M431" s="15">
-        <f>IF(G431="買付",H431*I431+SUM(J431:K431),H431*I431-SUM(J431:K431))</f>
+        <f t="shared" si="10"/>
         <v>784000</v>
       </c>
       <c r="N431" s="19">
@@ -25783,7 +25826,7 @@
         <v>90</v>
       </c>
       <c r="M432" s="15">
-        <f>IF(G432="買付",H432*I432+SUM(J432:K432),H432*I432-SUM(J432:K432))</f>
+        <f t="shared" si="10"/>
         <v>964000</v>
       </c>
       <c r="N432" s="19">
@@ -25828,7 +25871,7 @@
         <v>177</v>
       </c>
       <c r="M433" s="15">
-        <f>IF(G433="買付",H433*I433+SUM(J433:K433),H433*I433-SUM(J433:K433))</f>
+        <f t="shared" si="10"/>
         <v>328400</v>
       </c>
       <c r="N433" s="19">
@@ -25873,7 +25916,7 @@
         <v>177</v>
       </c>
       <c r="M434" s="15">
-        <f>IF(G434="買付",H434*I434+SUM(J434:K434),H434*I434-SUM(J434:K434))</f>
+        <f t="shared" si="10"/>
         <v>1566000</v>
       </c>
       <c r="N434" s="19">
@@ -25918,7 +25961,7 @@
         <v>90</v>
       </c>
       <c r="M435" s="15">
-        <f>IF(G435="買付",H435*I435+SUM(J435:K435),H435*I435-SUM(J435:K435))</f>
+        <f t="shared" si="10"/>
         <v>351600</v>
       </c>
       <c r="N435" s="21">
@@ -25963,7 +26006,7 @@
         <v>90</v>
       </c>
       <c r="M436" s="15">
-        <f>IF(G436="買付",H436*I436+SUM(J436:K436),H436*I436-SUM(J436:K436))</f>
+        <f t="shared" si="10"/>
         <v>638000</v>
       </c>
       <c r="N436" s="21">
@@ -26008,7 +26051,7 @@
         <v>177</v>
       </c>
       <c r="M437" s="15">
-        <f>IF(G437="買付",H437*I437+SUM(J437:K437),H437*I437-SUM(J437:K437))</f>
+        <f t="shared" si="10"/>
         <v>653500</v>
       </c>
       <c r="N437" s="21">
@@ -26053,7 +26096,7 @@
         <v>90</v>
       </c>
       <c r="M438" s="15">
-        <f>IF(G438="買付",H438*I438+SUM(J438:K438),H438*I438-SUM(J438:K438))</f>
+        <f t="shared" si="10"/>
         <v>394000</v>
       </c>
       <c r="N438" s="19">
@@ -26098,7 +26141,7 @@
         <v>90</v>
       </c>
       <c r="M439" s="15">
-        <f>IF(G439="買付",H439*I439+SUM(J439:K439),H439*I439-SUM(J439:K439))</f>
+        <f t="shared" si="10"/>
         <v>390000</v>
       </c>
       <c r="N439" s="21">
@@ -26143,7 +26186,7 @@
         <v>90</v>
       </c>
       <c r="M440" s="15">
-        <f>IF(G440="買付",H440*I440+SUM(J440:K440),H440*I440-SUM(J440:K440))</f>
+        <f t="shared" si="10"/>
         <v>663390</v>
       </c>
       <c r="N440" s="19">
@@ -26188,7 +26231,7 @@
         <v>90</v>
       </c>
       <c r="M441" s="15">
-        <f>IF(G441="買付",H441*I441+SUM(J441:K441),H441*I441-SUM(J441:K441))</f>
+        <f t="shared" si="10"/>
         <v>666200</v>
       </c>
       <c r="N441" s="19">
@@ -26233,7 +26276,7 @@
         <v>177</v>
       </c>
       <c r="M442" s="15">
-        <f>IF(G442="買付",H442*I442+SUM(J442:K442),H442*I442-SUM(J442:K442))</f>
+        <f t="shared" si="10"/>
         <v>253500</v>
       </c>
       <c r="N442" s="21">
@@ -26278,7 +26321,7 @@
         <v>90</v>
       </c>
       <c r="M443" s="15">
-        <f>IF(G443="買付",H443*I443+SUM(J443:K443),H443*I443-SUM(J443:K443))</f>
+        <f t="shared" si="10"/>
         <v>912320.00000000012</v>
       </c>
       <c r="N443" s="19">
@@ -26324,7 +26367,7 @@
         <v>90</v>
       </c>
       <c r="M444" s="15">
-        <f>IF(G444="買付",H444*I444+SUM(J444:K444),H444*I444-SUM(J444:K444))</f>
+        <f t="shared" si="10"/>
         <v>1582500</v>
       </c>
       <c r="N444" s="19">
@@ -26369,7 +26412,7 @@
         <v>90</v>
       </c>
       <c r="M445" s="15">
-        <f>IF(G445="買付",H445*I445+SUM(J445:K445),H445*I445-SUM(J445:K445))</f>
+        <f t="shared" si="10"/>
         <v>356500</v>
       </c>
       <c r="N445" s="19">
@@ -26414,7 +26457,7 @@
         <v>177</v>
       </c>
       <c r="M446" s="15">
-        <f>IF(G446="買付",H446*I446+SUM(J446:K446),H446*I446-SUM(J446:K446))</f>
+        <f t="shared" si="10"/>
         <v>640900</v>
       </c>
       <c r="N446" s="21">
@@ -26459,7 +26502,7 @@
         <v>177</v>
       </c>
       <c r="M447" s="15">
-        <f>IF(G447="買付",H447*I447+SUM(J447:K447),H447*I447-SUM(J447:K447))</f>
+        <f t="shared" ref="M447:M465" si="11">IF(G447="買付",H447*I447+SUM(J447:K447),H447*I447-SUM(J447:K447))</f>
         <v>656500</v>
       </c>
       <c r="N447" s="21">
@@ -26504,7 +26547,7 @@
         <v>177</v>
       </c>
       <c r="M448" s="15">
-        <f>IF(G448="買付",H448*I448+SUM(J448:K448),H448*I448-SUM(J448:K448))</f>
+        <f t="shared" si="11"/>
         <v>365200</v>
       </c>
       <c r="N448" s="21">
@@ -26549,7 +26592,7 @@
         <v>177</v>
       </c>
       <c r="M449" s="15">
-        <f>IF(G449="買付",H449*I449+SUM(J449:K449),H449*I449-SUM(J449:K449))</f>
+        <f t="shared" si="11"/>
         <v>691500</v>
       </c>
       <c r="N449" s="21">
@@ -26594,7 +26637,7 @@
         <v>177</v>
       </c>
       <c r="M450" s="15">
-        <f>IF(G450="買付",H450*I450+SUM(J450:K450),H450*I450-SUM(J450:K450))</f>
+        <f t="shared" si="11"/>
         <v>384000</v>
       </c>
       <c r="N450" s="21">
@@ -26639,7 +26682,7 @@
         <v>90</v>
       </c>
       <c r="M451" s="15">
-        <f>IF(G451="買付",H451*I451+SUM(J451:K451),H451*I451-SUM(J451:K451))</f>
+        <f t="shared" si="11"/>
         <v>779000</v>
       </c>
       <c r="N451" s="19">
@@ -26684,7 +26727,7 @@
         <v>90</v>
       </c>
       <c r="M452" s="15">
-        <f>IF(G452="買付",H452*I452+SUM(J452:K452),H452*I452-SUM(J452:K452))</f>
+        <f t="shared" si="11"/>
         <v>367400</v>
       </c>
       <c r="N452" s="19">
@@ -26729,7 +26772,7 @@
         <v>90</v>
       </c>
       <c r="M453" s="15">
-        <f>IF(G453="買付",H453*I453+SUM(J453:K453),H453*I453-SUM(J453:K453))</f>
+        <f t="shared" si="11"/>
         <v>386500</v>
       </c>
       <c r="N453" s="19">
@@ -26774,7 +26817,7 @@
         <v>90</v>
       </c>
       <c r="M454" s="15">
-        <f>IF(G454="買付",H454*I454+SUM(J454:K454),H454*I454-SUM(J454:K454))</f>
+        <f t="shared" si="11"/>
         <v>569600</v>
       </c>
       <c r="N454" s="19">
@@ -26819,7 +26862,7 @@
         <v>90</v>
       </c>
       <c r="M455" s="15">
-        <f>IF(G455="買付",H455*I455+SUM(J455:K455),H455*I455-SUM(J455:K455))</f>
+        <f t="shared" si="11"/>
         <v>753000</v>
       </c>
       <c r="N455" s="19">
@@ -26864,7 +26907,7 @@
         <v>90</v>
       </c>
       <c r="M456" s="15">
-        <f>IF(G456="買付",H456*I456+SUM(J456:K456),H456*I456-SUM(J456:K456))</f>
+        <f t="shared" si="11"/>
         <v>721500</v>
       </c>
       <c r="N456" s="19">
@@ -26909,7 +26952,7 @@
         <v>177</v>
       </c>
       <c r="M457" s="15">
-        <f>IF(G457="買付",H457*I457+SUM(J457:K457),H457*I457-SUM(J457:K457))</f>
+        <f t="shared" si="11"/>
         <v>723200</v>
       </c>
       <c r="N457" s="19">
@@ -26954,7 +26997,7 @@
         <v>90</v>
       </c>
       <c r="M458" s="15">
-        <f>IF(G458="買付",H458*I458+SUM(J458:K458),H458*I458-SUM(J458:K458))</f>
+        <f t="shared" si="11"/>
         <v>1600500</v>
       </c>
       <c r="N458" s="19">
@@ -26999,7 +27042,7 @@
         <v>90</v>
       </c>
       <c r="M459" s="15">
-        <f>IF(G459="買付",H459*I459+SUM(J459:K459),H459*I459-SUM(J459:K459))</f>
+        <f t="shared" si="11"/>
         <v>639300</v>
       </c>
       <c r="N459" s="19">
@@ -27044,7 +27087,7 @@
         <v>177</v>
       </c>
       <c r="M460" s="15">
-        <f>IF(G460="買付",H460*I460+SUM(J460:K460),H460*I460-SUM(J460:K460))</f>
+        <f t="shared" si="11"/>
         <v>530000</v>
       </c>
       <c r="N460" s="19">
@@ -27089,7 +27132,7 @@
         <v>90</v>
       </c>
       <c r="M461" s="15">
-        <f>IF(G461="買付",H461*I461+SUM(J461:K461),H461*I461-SUM(J461:K461))</f>
+        <f t="shared" si="11"/>
         <v>773200</v>
       </c>
       <c r="N461" s="19">
@@ -27134,7 +27177,7 @@
         <v>177</v>
       </c>
       <c r="M462" s="15">
-        <f>IF(G462="買付",H462*I462+SUM(J462:K462),H462*I462-SUM(J462:K462))</f>
+        <f t="shared" si="11"/>
         <v>494500</v>
       </c>
       <c r="N462" s="19">
@@ -27179,7 +27222,7 @@
         <v>177</v>
       </c>
       <c r="M463" s="15">
-        <f>IF(G463="買付",H463*I463+SUM(J463:K463),H463*I463-SUM(J463:K463))</f>
+        <f t="shared" si="11"/>
         <v>787600</v>
       </c>
       <c r="N463" s="19">
@@ -27224,7 +27267,7 @@
         <v>177</v>
       </c>
       <c r="M464" s="15">
-        <f>IF(G464="買付",H464*I464+SUM(J464:K464),H464*I464-SUM(J464:K464))</f>
+        <f t="shared" si="11"/>
         <v>682600</v>
       </c>
       <c r="N464" s="19">
@@ -27269,7 +27312,7 @@
         <v>177</v>
       </c>
       <c r="M465" s="15">
-        <f>IF(G465="買付",H465*I465+SUM(J465:K465),H465*I465-SUM(J465:K465))</f>
+        <f t="shared" si="11"/>
         <v>527600</v>
       </c>
       <c r="N465" s="19">
@@ -27356,7 +27399,7 @@
         <v>177</v>
       </c>
       <c r="M467" s="15">
-        <f>IF(G467="買付",H467*I467+SUM(J467:K467),H467*I467-SUM(J467:K467))</f>
+        <f t="shared" ref="M467:M498" si="12">IF(G467="買付",H467*I467+SUM(J467:K467),H467*I467-SUM(J467:K467))</f>
         <v>1297000</v>
       </c>
       <c r="N467" s="19">
@@ -27401,7 +27444,7 @@
         <v>90</v>
       </c>
       <c r="M468" s="15">
-        <f>IF(G468="買付",H468*I468+SUM(J468:K468),H468*I468-SUM(J468:K468))</f>
+        <f t="shared" si="12"/>
         <v>476850</v>
       </c>
       <c r="N468" s="19">
@@ -27447,7 +27490,7 @@
         <v>90</v>
       </c>
       <c r="M469" s="15">
-        <f>IF(G469="買付",H469*I469+SUM(J469:K469),H469*I469-SUM(J469:K469))</f>
+        <f t="shared" si="12"/>
         <v>1353500</v>
       </c>
       <c r="N469" s="19">
@@ -27492,7 +27535,7 @@
         <v>90</v>
       </c>
       <c r="M470" s="15">
-        <f>IF(G470="買付",H470*I470+SUM(J470:K470),H470*I470-SUM(J470:K470))</f>
+        <f t="shared" si="12"/>
         <v>1246800</v>
       </c>
       <c r="N470" s="19">
@@ -27538,7 +27581,7 @@
         <v>90</v>
       </c>
       <c r="M471" s="15">
-        <f>IF(G471="買付",H471*I471+SUM(J471:K471),H471*I471-SUM(J471:K471))</f>
+        <f t="shared" si="12"/>
         <v>458100</v>
       </c>
       <c r="N471" s="19">
@@ -27583,7 +27626,7 @@
         <v>90</v>
       </c>
       <c r="M472" s="15">
-        <f>IF(G472="買付",H472*I472+SUM(J472:K472),H472*I472-SUM(J472:K472))</f>
+        <f t="shared" si="12"/>
         <v>1347600</v>
       </c>
       <c r="N472" s="19">
@@ -27629,7 +27672,7 @@
         <v>177</v>
       </c>
       <c r="M473" s="15">
-        <f>IF(G473="買付",H473*I473+SUM(J473:K473),H473*I473-SUM(J473:K473))</f>
+        <f t="shared" si="12"/>
         <v>456000</v>
       </c>
       <c r="N473" s="19">
@@ -27674,7 +27717,7 @@
         <v>90</v>
       </c>
       <c r="M474" s="15">
-        <f>IF(G474="買付",H474*I474+SUM(J474:K474),H474*I474-SUM(J474:K474))</f>
+        <f t="shared" si="12"/>
         <v>478900</v>
       </c>
       <c r="N474" s="19">
@@ -27719,7 +27762,7 @@
         <v>177</v>
       </c>
       <c r="M475" s="15">
-        <f>IF(G475="買付",H475*I475+SUM(J475:K475),H475*I475-SUM(J475:K475))</f>
+        <f t="shared" si="12"/>
         <v>71650</v>
       </c>
       <c r="N475" s="21">
@@ -27764,7 +27807,7 @@
         <v>177</v>
       </c>
       <c r="M476" s="15">
-        <f>IF(G476="買付",H476*I476+SUM(J476:K476),H476*I476-SUM(J476:K476))</f>
+        <f t="shared" si="12"/>
         <v>143300</v>
       </c>
       <c r="N476" s="21">
@@ -27809,7 +27852,7 @@
         <v>177</v>
       </c>
       <c r="M477" s="15">
-        <f>IF(G477="買付",H477*I477+SUM(J477:K477),H477*I477-SUM(J477:K477))</f>
+        <f t="shared" si="12"/>
         <v>145600</v>
       </c>
       <c r="N477" s="21">
@@ -27854,7 +27897,7 @@
         <v>177</v>
       </c>
       <c r="M478" s="15">
-        <f>IF(G478="買付",H478*I478+SUM(J478:K478),H478*I478-SUM(J478:K478))</f>
+        <f t="shared" si="12"/>
         <v>705500</v>
       </c>
       <c r="N478" s="21">
@@ -27899,7 +27942,7 @@
         <v>177</v>
       </c>
       <c r="M479" s="15">
-        <f>IF(G479="買付",H479*I479+SUM(J479:K479),H479*I479-SUM(J479:K479))</f>
+        <f t="shared" si="12"/>
         <v>556800</v>
       </c>
       <c r="N479" s="21">
@@ -27944,7 +27987,7 @@
         <v>177</v>
       </c>
       <c r="M480" s="15">
-        <f>IF(G480="買付",H480*I480+SUM(J480:K480),H480*I480-SUM(J480:K480))</f>
+        <f t="shared" si="12"/>
         <v>420000</v>
       </c>
       <c r="N480" s="21">
@@ -27989,7 +28032,7 @@
         <v>177</v>
       </c>
       <c r="M481" s="15">
-        <f>IF(G481="買付",H481*I481+SUM(J481:K481),H481*I481-SUM(J481:K481))</f>
+        <f t="shared" si="12"/>
         <v>175000</v>
       </c>
       <c r="N481" s="21">
@@ -28034,7 +28077,7 @@
         <v>90</v>
       </c>
       <c r="M482" s="15">
-        <f>IF(G482="買付",H482*I482+SUM(J482:K482),H482*I482-SUM(J482:K482))</f>
+        <f t="shared" si="12"/>
         <v>420500</v>
       </c>
       <c r="N482" s="19">
@@ -28079,7 +28122,7 @@
         <v>90</v>
       </c>
       <c r="M483" s="15">
-        <f>IF(G483="買付",H483*I483+SUM(J483:K483),H483*I483-SUM(J483:K483))</f>
+        <f t="shared" si="12"/>
         <v>256850</v>
       </c>
       <c r="N483" s="19">
@@ -28124,7 +28167,7 @@
         <v>177</v>
       </c>
       <c r="M484" s="15">
-        <f>IF(G484="買付",H484*I484+SUM(J484:K484),H484*I484-SUM(J484:K484))</f>
+        <f t="shared" si="12"/>
         <v>172500</v>
       </c>
       <c r="N484" s="19">
@@ -28169,7 +28212,7 @@
         <v>177</v>
       </c>
       <c r="M485" s="15">
-        <f>IF(G485="買付",H485*I485+SUM(J485:K485),H485*I485-SUM(J485:K485))</f>
+        <f t="shared" si="12"/>
         <v>181590</v>
       </c>
       <c r="N485" s="19">
@@ -28214,7 +28257,7 @@
         <v>177</v>
       </c>
       <c r="M486" s="15">
-        <f>IF(G486="買付",H486*I486+SUM(J486:K486),H486*I486-SUM(J486:K486))</f>
+        <f t="shared" si="12"/>
         <v>581000</v>
       </c>
       <c r="N486" s="19">
@@ -28259,7 +28302,7 @@
         <v>177</v>
       </c>
       <c r="M487" s="15">
-        <f>IF(G487="買付",H487*I487+SUM(J487:K487),H487*I487-SUM(J487:K487))</f>
+        <f t="shared" si="12"/>
         <v>328200</v>
       </c>
       <c r="N487" s="19">
@@ -28304,7 +28347,7 @@
         <v>177</v>
       </c>
       <c r="M488" s="15">
-        <f>IF(G488="買付",H488*I488+SUM(J488:K488),H488*I488-SUM(J488:K488))</f>
+        <f t="shared" si="12"/>
         <v>339100</v>
       </c>
       <c r="N488" s="19">
@@ -28349,7 +28392,7 @@
         <v>177</v>
       </c>
       <c r="M489" s="15">
-        <f>IF(G489="買付",H489*I489+SUM(J489:K489),H489*I489-SUM(J489:K489))</f>
+        <f t="shared" si="12"/>
         <v>145200</v>
       </c>
       <c r="N489" s="19">
@@ -28394,7 +28437,7 @@
         <v>177</v>
       </c>
       <c r="M490" s="15">
-        <f>IF(G490="買付",H490*I490+SUM(J490:K490),H490*I490-SUM(J490:K490))</f>
+        <f t="shared" si="12"/>
         <v>400400</v>
       </c>
       <c r="N490" s="19">
@@ -28439,7 +28482,7 @@
         <v>177</v>
       </c>
       <c r="M491" s="15">
-        <f>IF(G491="買付",H491*I491+SUM(J491:K491),H491*I491-SUM(J491:K491))</f>
+        <f t="shared" si="12"/>
         <v>488900</v>
       </c>
       <c r="N491" s="19">
@@ -28484,7 +28527,7 @@
         <v>177</v>
       </c>
       <c r="M492" s="15">
-        <f>IF(G492="買付",H492*I492+SUM(J492:K492),H492*I492-SUM(J492:K492))</f>
+        <f t="shared" si="12"/>
         <v>177350</v>
       </c>
       <c r="N492" s="19">
@@ -28529,7 +28572,7 @@
         <v>90</v>
       </c>
       <c r="M493" s="15">
-        <f>IF(G493="買付",H493*I493+SUM(J493:K493),H493*I493-SUM(J493:K493))</f>
+        <f t="shared" si="12"/>
         <v>650800</v>
       </c>
       <c r="N493" s="19">
@@ -28574,7 +28617,7 @@
         <v>177</v>
       </c>
       <c r="M494" s="15">
-        <f>IF(G494="買付",H494*I494+SUM(J494:K494),H494*I494-SUM(J494:K494))</f>
+        <f t="shared" si="12"/>
         <v>289000</v>
       </c>
       <c r="N494" s="21">
@@ -28619,7 +28662,7 @@
         <v>177</v>
       </c>
       <c r="M495" s="15">
-        <f>IF(G495="買付",H495*I495+SUM(J495:K495),H495*I495-SUM(J495:K495))</f>
+        <f t="shared" si="12"/>
         <v>323300</v>
       </c>
       <c r="N495" s="21">
@@ -28664,7 +28707,7 @@
         <v>177</v>
       </c>
       <c r="M496" s="15">
-        <f>IF(G496="買付",H496*I496+SUM(J496:K496),H496*I496-SUM(J496:K496))</f>
+        <f t="shared" si="12"/>
         <v>949350</v>
       </c>
       <c r="N496" s="21">
@@ -28709,7 +28752,7 @@
         <v>177</v>
       </c>
       <c r="M497" s="15">
-        <f>IF(G497="買付",H497*I497+SUM(J497:K497),H497*I497-SUM(J497:K497))</f>
+        <f t="shared" si="12"/>
         <v>616000</v>
       </c>
       <c r="N497" s="21">
@@ -28754,7 +28797,7 @@
         <v>177</v>
       </c>
       <c r="M498" s="15">
-        <f>IF(G498="買付",H498*I498+SUM(J498:K498),H498*I498-SUM(J498:K498))</f>
+        <f t="shared" si="12"/>
         <v>802000</v>
       </c>
       <c r="N498" s="21">
@@ -28799,7 +28842,7 @@
         <v>177</v>
       </c>
       <c r="M499" s="15">
-        <f>IF(G499="買付",H499*I499+SUM(J499:K499),H499*I499-SUM(J499:K499))</f>
+        <f t="shared" ref="M499:M530" si="13">IF(G499="買付",H499*I499+SUM(J499:K499),H499*I499-SUM(J499:K499))</f>
         <v>154950</v>
       </c>
       <c r="N499" s="21">
@@ -28844,7 +28887,7 @@
         <v>177</v>
       </c>
       <c r="M500" s="15">
-        <f>IF(G500="買付",H500*I500+SUM(J500:K500),H500*I500-SUM(J500:K500))</f>
+        <f t="shared" si="13"/>
         <v>431100</v>
       </c>
       <c r="N500" s="21">
@@ -28889,7 +28932,7 @@
         <v>177</v>
       </c>
       <c r="M501" s="15">
-        <f>IF(G501="買付",H501*I501+SUM(J501:K501),H501*I501-SUM(J501:K501))</f>
+        <f t="shared" si="13"/>
         <v>140800</v>
       </c>
       <c r="N501" s="21">
@@ -28934,7 +28977,7 @@
         <v>177</v>
       </c>
       <c r="M502" s="15">
-        <f>IF(G502="買付",H502*I502+SUM(J502:K502),H502*I502-SUM(J502:K502))</f>
+        <f t="shared" si="13"/>
         <v>582100</v>
       </c>
       <c r="N502" s="21">
@@ -28979,7 +29022,7 @@
         <v>90</v>
       </c>
       <c r="M503" s="15">
-        <f>IF(G503="買付",H503*I503+SUM(J503:K503),H503*I503-SUM(J503:K503))</f>
+        <f t="shared" si="13"/>
         <v>783000</v>
       </c>
       <c r="N503" s="19">
@@ -29024,7 +29067,7 @@
         <v>177</v>
       </c>
       <c r="M504" s="15">
-        <f>IF(G504="買付",H504*I504+SUM(J504:K504),H504*I504-SUM(J504:K504))</f>
+        <f t="shared" si="13"/>
         <v>419700</v>
       </c>
       <c r="N504" s="21">
@@ -29069,7 +29112,7 @@
         <v>90</v>
       </c>
       <c r="M505" s="15">
-        <f>IF(G505="買付",H505*I505+SUM(J505:K505),H505*I505-SUM(J505:K505))</f>
+        <f t="shared" si="13"/>
         <v>506600</v>
       </c>
       <c r="N505" s="19">
@@ -29114,7 +29157,7 @@
         <v>177</v>
       </c>
       <c r="M506" s="15">
-        <f>IF(G506="買付",H506*I506+SUM(J506:K506),H506*I506-SUM(J506:K506))</f>
+        <f t="shared" si="13"/>
         <v>547500</v>
       </c>
       <c r="N506" s="21">
@@ -29159,7 +29202,7 @@
         <v>177</v>
       </c>
       <c r="M507" s="15">
-        <f>IF(G507="買付",H507*I507+SUM(J507:K507),H507*I507-SUM(J507:K507))</f>
+        <f t="shared" si="13"/>
         <v>627300</v>
       </c>
       <c r="N507" s="21">
@@ -29204,7 +29247,7 @@
         <v>177</v>
       </c>
       <c r="M508" s="15">
-        <f>IF(G508="買付",H508*I508+SUM(J508:K508),H508*I508-SUM(J508:K508))</f>
+        <f t="shared" si="13"/>
         <v>595500</v>
       </c>
       <c r="N508" s="21">
@@ -29249,7 +29292,7 @@
         <v>177</v>
       </c>
       <c r="M509" s="15">
-        <f>IF(G509="買付",H509*I509+SUM(J509:K509),H509*I509-SUM(J509:K509))</f>
+        <f t="shared" si="13"/>
         <v>373700</v>
       </c>
       <c r="N509" s="21">
@@ -29294,7 +29337,7 @@
         <v>90</v>
       </c>
       <c r="M510" s="15">
-        <f>IF(G510="買付",H510*I510+SUM(J510:K510),H510*I510-SUM(J510:K510))</f>
+        <f t="shared" si="13"/>
         <v>366200</v>
       </c>
       <c r="N510" s="19">
@@ -29340,7 +29383,7 @@
         <v>90</v>
       </c>
       <c r="M511" s="15">
-        <f>IF(G511="買付",H511*I511+SUM(J511:K511),H511*I511-SUM(J511:K511))</f>
+        <f t="shared" si="13"/>
         <v>182400</v>
       </c>
       <c r="N511" s="19">
@@ -29385,7 +29428,7 @@
         <v>273</v>
       </c>
       <c r="M512" s="15">
-        <f>IF(G512="買付",H512*I512+SUM(J512:K512),H512*I512-SUM(J512:K512))</f>
+        <f t="shared" si="13"/>
         <v>753300</v>
       </c>
       <c r="N512" s="19">
@@ -29430,7 +29473,7 @@
         <v>273</v>
       </c>
       <c r="M513" s="15">
-        <f>IF(G513="買付",H513*I513+SUM(J513:K513),H513*I513-SUM(J513:K513))</f>
+        <f t="shared" si="13"/>
         <v>800300</v>
       </c>
       <c r="N513" s="19">
@@ -29475,7 +29518,7 @@
         <v>90</v>
       </c>
       <c r="M514" s="15">
-        <f>IF(G514="買付",H514*I514+SUM(J514:K514),H514*I514-SUM(J514:K514))</f>
+        <f t="shared" si="13"/>
         <v>329600</v>
       </c>
       <c r="N514" s="19">
@@ -29520,7 +29563,7 @@
         <v>90</v>
       </c>
       <c r="M515" s="15">
-        <f>IF(G515="買付",H515*I515+SUM(J515:K515),H515*I515-SUM(J515:K515))</f>
+        <f t="shared" si="13"/>
         <v>431800</v>
       </c>
       <c r="N515" s="19">
@@ -29565,7 +29608,7 @@
         <v>90</v>
       </c>
       <c r="M516" s="15">
-        <f>IF(G516="買付",H516*I516+SUM(J516:K516),H516*I516-SUM(J516:K516))</f>
+        <f t="shared" si="13"/>
         <v>372100</v>
       </c>
       <c r="N516" s="19">
@@ -29610,7 +29653,7 @@
         <v>274</v>
       </c>
       <c r="M517" s="15">
-        <f>IF(G517="買付",H517*I517+SUM(J517:K517),H517*I517-SUM(J517:K517))</f>
+        <f t="shared" si="13"/>
         <v>422000</v>
       </c>
       <c r="N517" s="19">
@@ -29655,7 +29698,7 @@
         <v>90</v>
       </c>
       <c r="M518" s="15">
-        <f>IF(G518="買付",H518*I518+SUM(J518:K518),H518*I518-SUM(J518:K518))</f>
+        <f t="shared" si="13"/>
         <v>292000</v>
       </c>
       <c r="N518" s="19">
@@ -29701,7 +29744,7 @@
         <v>90</v>
       </c>
       <c r="M519" s="15">
-        <f>IF(G519="買付",H519*I519+SUM(J519:K519),H519*I519-SUM(J519:K519))</f>
+        <f t="shared" si="13"/>
         <v>701500</v>
       </c>
       <c r="N519" s="19">
@@ -29746,7 +29789,7 @@
         <v>90</v>
       </c>
       <c r="M520" s="15">
-        <f>IF(G520="買付",H520*I520+SUM(J520:K520),H520*I520-SUM(J520:K520))</f>
+        <f t="shared" si="13"/>
         <v>1635200</v>
       </c>
       <c r="N520" s="19">
@@ -29792,7 +29835,7 @@
         <v>90</v>
       </c>
       <c r="M521" s="15">
-        <f>IF(G521="買付",H521*I521+SUM(J521:K521),H521*I521-SUM(J521:K521))</f>
+        <f t="shared" si="13"/>
         <v>162800</v>
       </c>
       <c r="N521" s="19">
@@ -29837,7 +29880,7 @@
         <v>90</v>
       </c>
       <c r="M522" s="15">
-        <f>IF(G522="買付",H522*I522+SUM(J522:K522),H522*I522-SUM(J522:K522))</f>
+        <f t="shared" si="13"/>
         <v>595200</v>
       </c>
       <c r="N522" s="19">
@@ -29882,7 +29925,7 @@
         <v>90</v>
       </c>
       <c r="M523" s="15">
-        <f>IF(G523="買付",H523*I523+SUM(J523:K523),H523*I523-SUM(J523:K523))</f>
+        <f t="shared" si="13"/>
         <v>613800</v>
       </c>
       <c r="N523" s="19">
@@ -29927,7 +29970,7 @@
         <v>275</v>
       </c>
       <c r="M524" s="15">
-        <f>IF(G524="買付",H524*I524+SUM(J524:K524),H524*I524-SUM(J524:K524))</f>
+        <f t="shared" si="13"/>
         <v>731300</v>
       </c>
       <c r="N524" s="21">
@@ -29972,7 +30015,7 @@
         <v>275</v>
       </c>
       <c r="M525" s="15">
-        <f>IF(G525="買付",H525*I525+SUM(J525:K525),H525*I525-SUM(J525:K525))</f>
+        <f t="shared" si="13"/>
         <v>489000</v>
       </c>
       <c r="N525" s="21">
@@ -30017,7 +30060,7 @@
         <v>276</v>
       </c>
       <c r="M526" s="15">
-        <f>IF(G526="買付",H526*I526+SUM(J526:K526),H526*I526-SUM(J526:K526))</f>
+        <f t="shared" si="13"/>
         <v>807000</v>
       </c>
       <c r="N526" s="21">
@@ -30062,7 +30105,7 @@
         <v>276</v>
       </c>
       <c r="M527" s="15">
-        <f>IF(G527="買付",H527*I527+SUM(J527:K527),H527*I527-SUM(J527:K527))</f>
+        <f t="shared" si="13"/>
         <v>226900</v>
       </c>
       <c r="N527" s="21">
@@ -30107,7 +30150,7 @@
         <v>276</v>
       </c>
       <c r="M528" s="15">
-        <f>IF(G528="買付",H528*I528+SUM(J528:K528),H528*I528-SUM(J528:K528))</f>
+        <f t="shared" si="13"/>
         <v>91350</v>
       </c>
       <c r="N528" s="21">
@@ -30152,7 +30195,7 @@
         <v>276</v>
       </c>
       <c r="M529" s="15">
-        <f>IF(G529="買付",H529*I529+SUM(J529:K529),H529*I529-SUM(J529:K529))</f>
+        <f t="shared" si="13"/>
         <v>370000</v>
       </c>
       <c r="N529" s="21">
@@ -30197,7 +30240,7 @@
         <v>90</v>
       </c>
       <c r="M530" s="15">
-        <f>IF(G530="買付",H530*I530+SUM(J530:K530),H530*I530-SUM(J530:K530))</f>
+        <f t="shared" si="13"/>
         <v>588000</v>
       </c>
       <c r="N530" s="19">
@@ -30242,7 +30285,7 @@
         <v>276</v>
       </c>
       <c r="M531" s="15">
-        <f>IF(G531="買付",H531*I531+SUM(J531:K531),H531*I531-SUM(J531:K531))</f>
+        <f t="shared" ref="M531:M569" si="14">IF(G531="買付",H531*I531+SUM(J531:K531),H531*I531-SUM(J531:K531))</f>
         <v>98750</v>
       </c>
       <c r="N531" s="21">
@@ -30287,7 +30330,7 @@
         <v>276</v>
       </c>
       <c r="M532" s="15">
-        <f>IF(G532="買付",H532*I532+SUM(J532:K532),H532*I532-SUM(J532:K532))</f>
+        <f t="shared" si="14"/>
         <v>236800</v>
       </c>
       <c r="N532" s="21">
@@ -30332,7 +30375,7 @@
         <v>276</v>
       </c>
       <c r="M533" s="15">
-        <f>IF(G533="買付",H533*I533+SUM(J533:K533),H533*I533-SUM(J533:K533))</f>
+        <f t="shared" si="14"/>
         <v>406800</v>
       </c>
       <c r="N533" s="21">
@@ -30377,7 +30420,7 @@
         <v>177</v>
       </c>
       <c r="M534" s="15">
-        <f>IF(G534="買付",H534*I534+SUM(J534:K534),H534*I534-SUM(J534:K534))</f>
+        <f t="shared" si="14"/>
         <v>239900</v>
       </c>
       <c r="N534" s="19">
@@ -30422,7 +30465,7 @@
         <v>177</v>
       </c>
       <c r="M535" s="15">
-        <f>IF(G535="買付",H535*I535+SUM(J535:K535),H535*I535-SUM(J535:K535))</f>
+        <f t="shared" si="14"/>
         <v>643300</v>
       </c>
       <c r="N535" s="19">
@@ -30467,7 +30510,7 @@
         <v>177</v>
       </c>
       <c r="M536" s="15">
-        <f>IF(G536="買付",H536*I536+SUM(J536:K536),H536*I536-SUM(J536:K536))</f>
+        <f t="shared" si="14"/>
         <v>98900</v>
       </c>
       <c r="N536" s="19">
@@ -30512,7 +30555,7 @@
         <v>177</v>
       </c>
       <c r="M537" s="15">
-        <f>IF(G537="買付",H537*I537+SUM(J537:K537),H537*I537-SUM(J537:K537))</f>
+        <f t="shared" si="14"/>
         <v>345300</v>
       </c>
       <c r="N537" s="19">
@@ -30557,7 +30600,7 @@
         <v>177</v>
       </c>
       <c r="M538" s="15">
-        <f>IF(G538="買付",H538*I538+SUM(J538:K538),H538*I538-SUM(J538:K538))</f>
+        <f t="shared" si="14"/>
         <v>564500</v>
       </c>
       <c r="N538" s="19">
@@ -30602,7 +30645,7 @@
         <v>90</v>
       </c>
       <c r="M539" s="15">
-        <f>IF(G539="買付",H539*I539+SUM(J539:K539),H539*I539-SUM(J539:K539))</f>
+        <f t="shared" si="14"/>
         <v>673000</v>
       </c>
       <c r="N539" s="19">
@@ -30647,7 +30690,7 @@
         <v>90</v>
       </c>
       <c r="M540" s="15">
-        <f>IF(G540="買付",H540*I540+SUM(J540:K540),H540*I540-SUM(J540:K540))</f>
+        <f t="shared" si="14"/>
         <v>737400</v>
       </c>
       <c r="N540" s="19">
@@ -30693,7 +30736,7 @@
         <v>90</v>
       </c>
       <c r="M541" s="15">
-        <f>IF(G541="買付",H541*I541+SUM(J541:K541),H541*I541-SUM(J541:K541))</f>
+        <f t="shared" si="14"/>
         <v>424000</v>
       </c>
       <c r="N541" s="19">
@@ -30738,7 +30781,7 @@
         <v>90</v>
       </c>
       <c r="M542" s="15">
-        <f>IF(G542="買付",H542*I542+SUM(J542:K542),H542*I542-SUM(J542:K542))</f>
+        <f t="shared" si="14"/>
         <v>346500</v>
       </c>
       <c r="N542" s="19">
@@ -30783,7 +30826,7 @@
         <v>90</v>
       </c>
       <c r="M543" s="15">
-        <f>IF(G543="買付",H543*I543+SUM(J543:K543),H543*I543-SUM(J543:K543))</f>
+        <f t="shared" si="14"/>
         <v>879000</v>
       </c>
       <c r="N543" s="19">
@@ -30829,7 +30872,7 @@
         <v>90</v>
       </c>
       <c r="M544" s="15">
-        <f>IF(G544="買付",H544*I544+SUM(J544:K544),H544*I544-SUM(J544:K544))</f>
+        <f t="shared" si="14"/>
         <v>897000</v>
       </c>
       <c r="N544" s="19">
@@ -30874,7 +30917,7 @@
         <v>90</v>
       </c>
       <c r="M545" s="15">
-        <f>IF(G545="買付",H545*I545+SUM(J545:K545),H545*I545-SUM(J545:K545))</f>
+        <f t="shared" si="14"/>
         <v>387400</v>
       </c>
       <c r="N545" s="19">
@@ -30919,7 +30962,7 @@
         <v>90</v>
       </c>
       <c r="M546" s="15">
-        <f>IF(G546="買付",H546*I546+SUM(J546:K546),H546*I546-SUM(J546:K546))</f>
+        <f t="shared" si="14"/>
         <v>501500</v>
       </c>
       <c r="N546" s="19">
@@ -30964,7 +31007,7 @@
         <v>283</v>
       </c>
       <c r="M547" s="15">
-        <f>IF(G547="買付",H547*I547+SUM(J547:K547),H547*I547-SUM(J547:K547))</f>
+        <f t="shared" si="14"/>
         <v>658500</v>
       </c>
       <c r="N547" s="19">
@@ -31009,7 +31052,7 @@
         <v>90</v>
       </c>
       <c r="M548" s="15">
-        <f>IF(G548="買付",H548*I548+SUM(J548:K548),H548*I548-SUM(J548:K548))</f>
+        <f t="shared" si="14"/>
         <v>157680</v>
       </c>
       <c r="N548" s="19">
@@ -31054,7 +31097,7 @@
         <v>288</v>
       </c>
       <c r="M549" s="15">
-        <f>IF(G549="買付",H549*I549+SUM(J549:K549),H549*I549-SUM(J549:K549))</f>
+        <f t="shared" si="14"/>
         <v>364000</v>
       </c>
       <c r="N549" s="19">
@@ -31099,7 +31142,7 @@
         <v>90</v>
       </c>
       <c r="M550" s="15">
-        <f>IF(G550="買付",H550*I550+SUM(J550:K550),H550*I550-SUM(J550:K550))</f>
+        <f t="shared" si="14"/>
         <v>291600</v>
       </c>
       <c r="N550" s="19">
@@ -31145,7 +31188,7 @@
         <v>90</v>
       </c>
       <c r="M551" s="15">
-        <f>IF(G551="買付",H551*I551+SUM(J551:K551),H551*I551-SUM(J551:K551))</f>
+        <f t="shared" si="14"/>
         <v>388500</v>
       </c>
       <c r="N551" s="19">
@@ -31190,7 +31233,7 @@
         <v>90</v>
       </c>
       <c r="M552" s="15">
-        <f>IF(G552="買付",H552*I552+SUM(J552:K552),H552*I552-SUM(J552:K552))</f>
+        <f t="shared" si="14"/>
         <v>706600</v>
       </c>
       <c r="N552" s="19">
@@ -31235,7 +31278,7 @@
         <v>90</v>
       </c>
       <c r="M553" s="15">
-        <f>IF(G553="買付",H553*I553+SUM(J553:K553),H553*I553-SUM(J553:K553))</f>
+        <f t="shared" si="14"/>
         <v>1132750</v>
       </c>
       <c r="N553" s="19">
@@ -31280,7 +31323,7 @@
         <v>290</v>
       </c>
       <c r="M554" s="15">
-        <f>IF(G554="買付",H554*I554+SUM(J554:K554),H554*I554-SUM(J554:K554))</f>
+        <f t="shared" si="14"/>
         <v>317000</v>
       </c>
       <c r="N554" s="19">
@@ -31323,7 +31366,7 @@
         <v>290</v>
       </c>
       <c r="M555" s="15">
-        <f>IF(G555="買付",H555*I555+SUM(J555:K555),H555*I555-SUM(J555:K555))</f>
+        <f t="shared" si="14"/>
         <v>1111500</v>
       </c>
       <c r="N555" s="19">
@@ -31368,7 +31411,7 @@
         <v>290</v>
       </c>
       <c r="M556" s="15">
-        <f>IF(G556="買付",H556*I556+SUM(J556:K556),H556*I556-SUM(J556:K556))</f>
+        <f t="shared" si="14"/>
         <v>314000</v>
       </c>
       <c r="N556" s="19">
@@ -31411,7 +31454,7 @@
         <v>290</v>
       </c>
       <c r="M557" s="15">
-        <f>IF(G557="買付",H557*I557+SUM(J557:K557),H557*I557-SUM(J557:K557))</f>
+        <f t="shared" si="14"/>
         <v>516100</v>
       </c>
       <c r="N557" s="19">
@@ -31456,7 +31499,7 @@
         <v>290</v>
       </c>
       <c r="M558" s="15">
-        <f>IF(G558="買付",H558*I558+SUM(J558:K558),H558*I558-SUM(J558:K558))</f>
+        <f t="shared" si="14"/>
         <v>453300</v>
       </c>
       <c r="N558" s="19">
@@ -31501,7 +31544,7 @@
         <v>290</v>
       </c>
       <c r="M559" s="15">
-        <f>IF(G559="買付",H559*I559+SUM(J559:K559),H559*I559-SUM(J559:K559))</f>
+        <f t="shared" si="14"/>
         <v>934000</v>
       </c>
       <c r="N559" s="19">
@@ -31546,7 +31589,7 @@
         <v>290</v>
       </c>
       <c r="M560" s="15">
-        <f>IF(G560="買付",H560*I560+SUM(J560:K560),H560*I560-SUM(J560:K560))</f>
+        <f t="shared" si="14"/>
         <v>782800</v>
       </c>
       <c r="N560" s="19">
@@ -31591,7 +31634,7 @@
         <v>290</v>
       </c>
       <c r="M561" s="15">
-        <f>IF(G561="買付",H561*I561+SUM(J561:K561),H561*I561-SUM(J561:K561))</f>
+        <f t="shared" si="14"/>
         <v>614500</v>
       </c>
       <c r="N561" s="19">
@@ -31636,7 +31679,7 @@
         <v>299</v>
       </c>
       <c r="M562" s="15">
-        <f>IF(G562="買付",H562*I562+SUM(J562:K562),H562*I562-SUM(J562:K562))</f>
+        <f t="shared" si="14"/>
         <v>287850</v>
       </c>
       <c r="N562" s="19">
@@ -31671,7 +31714,7 @@
       <c r="I563" s="25">
         <v>938.6</v>
       </c>
-      <c r="J563" s="55">
+      <c r="J563" s="9">
         <v>0</v>
       </c>
       <c r="K563" s="14">
@@ -31681,7 +31724,7 @@
         <v>301</v>
       </c>
       <c r="M563" s="15">
-        <f>IF(G563="買付",H563*I563+SUM(J563:K563),H563*I563-SUM(J563:K563))</f>
+        <f t="shared" si="14"/>
         <v>187720</v>
       </c>
       <c r="N563" s="19">
@@ -31716,7 +31759,7 @@
       <c r="I564" s="25">
         <v>752.5</v>
       </c>
-      <c r="J564" s="55">
+      <c r="J564" s="9">
         <v>0</v>
       </c>
       <c r="K564" s="14">
@@ -31726,7 +31769,7 @@
         <v>90</v>
       </c>
       <c r="M564" s="15">
-        <f>IF(G564="買付",H564*I564+SUM(J564:K564),H564*I564-SUM(J564:K564))</f>
+        <f t="shared" si="14"/>
         <v>75250</v>
       </c>
       <c r="N564" s="19">
@@ -31771,7 +31814,7 @@
         <v>90</v>
       </c>
       <c r="M565" s="15">
-        <f>IF(G565="買付",H565*I565+SUM(J565:K565),H565*I565-SUM(J565:K565))</f>
+        <f t="shared" si="14"/>
         <v>150480</v>
       </c>
       <c r="N565" s="19">
@@ -31779,16 +31822,184 @@
       </c>
     </row>
     <row r="566" spans="1:14" x14ac:dyDescent="0.7">
-      <c r="I566" s="27"/>
+      <c r="A566" s="4">
+        <v>45679</v>
+      </c>
+      <c r="B566" s="4">
+        <v>45681</v>
+      </c>
+      <c r="C566" s="5">
+        <v>9984</v>
+      </c>
+      <c r="D566" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E566" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F566" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G566" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H566" s="5">
+        <v>100</v>
+      </c>
+      <c r="I566" s="25">
+        <v>10135</v>
+      </c>
+      <c r="J566" s="9">
+        <v>0</v>
+      </c>
+      <c r="K566" s="14">
+        <v>0</v>
+      </c>
+      <c r="L566" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M566" s="15">
+        <f t="shared" si="14"/>
+        <v>1013500</v>
+      </c>
+      <c r="N566" s="19">
+        <v>64150</v>
+      </c>
     </row>
     <row r="567" spans="1:14" x14ac:dyDescent="0.7">
-      <c r="I567" s="27"/>
+      <c r="A567" s="4">
+        <v>45680</v>
+      </c>
+      <c r="B567" s="4">
+        <v>45684</v>
+      </c>
+      <c r="C567" s="5">
+        <v>9602</v>
+      </c>
+      <c r="D567" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E567" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F567" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G567" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H567" s="5">
+        <v>100</v>
+      </c>
+      <c r="I567" s="25">
+        <v>6607</v>
+      </c>
+      <c r="J567" s="9">
+        <v>0</v>
+      </c>
+      <c r="K567" s="14">
+        <v>0</v>
+      </c>
+      <c r="L567" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M567" s="15">
+        <f t="shared" si="14"/>
+        <v>660700</v>
+      </c>
+      <c r="N567" s="19">
+        <v>24200</v>
+      </c>
     </row>
     <row r="568" spans="1:14" x14ac:dyDescent="0.7">
-      <c r="I568" s="27"/>
+      <c r="A568" s="4">
+        <v>45680</v>
+      </c>
+      <c r="B568" s="4">
+        <v>45684</v>
+      </c>
+      <c r="C568" s="5">
+        <v>9602</v>
+      </c>
+      <c r="D568" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E568" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F568" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G568" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H568" s="5">
+        <v>100</v>
+      </c>
+      <c r="I568" s="25">
+        <v>6603</v>
+      </c>
+      <c r="J568" s="9">
+        <v>0</v>
+      </c>
+      <c r="K568" s="14">
+        <v>0</v>
+      </c>
+      <c r="L568" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M568" s="15">
+        <f t="shared" si="14"/>
+        <v>660300</v>
+      </c>
+      <c r="N568" s="19">
+        <v>23800</v>
+      </c>
     </row>
     <row r="569" spans="1:14" x14ac:dyDescent="0.7">
-      <c r="I569" s="27"/>
+      <c r="A569" s="4">
+        <v>45680</v>
+      </c>
+      <c r="B569" s="4">
+        <v>45684</v>
+      </c>
+      <c r="C569" s="5">
+        <v>7974</v>
+      </c>
+      <c r="D569" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E569" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F569" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G569" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H569" s="5">
+        <v>100</v>
+      </c>
+      <c r="I569" s="25">
+        <v>9611</v>
+      </c>
+      <c r="J569" s="9">
+        <v>0</v>
+      </c>
+      <c r="K569" s="14">
+        <v>0</v>
+      </c>
+      <c r="L569" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M569" s="15">
+        <f t="shared" si="14"/>
+        <v>961100</v>
+      </c>
+      <c r="N569" s="19">
+        <v>27100</v>
+      </c>
     </row>
     <row r="570" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I570" s="27"/>
@@ -44158,13 +44369,13 @@
   <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -45595,6 +45806,41 @@
         <v>48494</v>
       </c>
     </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A42" s="4">
+        <v>45672</v>
+      </c>
+      <c r="B42" s="4">
+        <v>45678</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H42" s="21">
+        <v>18423</v>
+      </c>
+      <c r="I42" s="21">
+        <v>27141</v>
+      </c>
+      <c r="J42" s="21">
+        <v>50000</v>
+      </c>
+      <c r="K42" s="21">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K32" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <phoneticPr fontId="18"/>

--- a/data/02_運用_rakuten.xlsx
+++ b/data/02_運用_rakuten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ca29965d2a6599a/01_資産管理/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="379" documentId="13_ncr:1_{1CCB16D9-864A-481B-A34B-A3476BEF7488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28E9C51A-0F73-42D9-AF60-9FAFB10B34BE}"/>
+  <xr:revisionPtr revIDLastSave="416" documentId="13_ncr:1_{1CCB16D9-864A-481B-A34B-A3476BEF7488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB971FD3-34E2-43C3-A6AD-0787B42B6B5A}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="758" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6450" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="10" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="投資信託" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">国内株式_NISA!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">国内株式_NISA!$A$1:$N$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">国内株式_NISA_配当!$A$1:$K$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">国内株式_信用!$A$1:$AA$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">国内株式_特定!$A$1:$N$539</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4636" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4710" uniqueCount="308">
   <si>
     <t>約定日</t>
   </si>
@@ -1364,15 +1364,42 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>投資信託</t>
+    <rPh sb="0" eb="2">
+      <t>トウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンタク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>NISA</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.0;[Red]\-#,##0.0"/>
     <numFmt numFmtId="178" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00000000000000_ "/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1758,7 +1785,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1927,6 +1954,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2059,7 +2097,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2204,6 +2242,9 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2219,11 +2260,29 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2494,109 +2553,133 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="10.5625" style="2" customWidth="1"/>
-    <col min="2" max="15" width="10.5625" customWidth="1"/>
+    <col min="2" max="19" width="10.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="B1" s="51" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.7">
+      <c r="B1" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="37" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="37" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="B2" s="52" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.7">
+      <c r="B2" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="50" t="s">
+      <c r="L2" s="53"/>
+      <c r="M2" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="51" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.7">
+      <c r="R2" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="S2" s="49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.7">
       <c r="B3" s="33" t="s">
         <v>207</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="32" t="s">
         <v>207</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
       <c r="K3" s="32" t="s">
         <v>207</v>
       </c>
       <c r="L3" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="48"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.7">
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="49"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A4" s="34" t="s">
         <v>216</v>
       </c>
@@ -2652,21 +2735,37 @@
         <f>SUM(N5:N100)</f>
         <v>-474014</v>
       </c>
-      <c r="O4" s="38">
-        <f>SUM(E4,J4,N4)</f>
-        <v>4641690.3193999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.7">
+      <c r="O4" s="20">
+        <f>SUM(O5:O100)</f>
+        <v>55860</v>
+      </c>
+      <c r="P4" s="20">
+        <f>SUM(P5:P100)</f>
+        <v>-1498</v>
+      </c>
+      <c r="Q4" s="35">
+        <f>SUM(O4:P4)</f>
+        <v>54362</v>
+      </c>
+      <c r="R4" s="35">
+        <f>SUM(R5:R100)</f>
+        <v>43318.359700000001</v>
+      </c>
+      <c r="S4" s="38">
+        <f>SUM(E4,J4,N4,R4)</f>
+        <v>4685008.6790999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A5" s="34" t="s">
         <v>209</v>
       </c>
       <c r="B5" s="19">
-        <f>SUMIFS(国内株式_NISA!$K$2:$K$1000,国内株式_NISA!$B$2:$B$1000,"&gt;=2021/1/1",国内株式_NISA!$B$2:$B$1000,"&lt;=2021/12/31",国内株式_NISA!$K$2:$K$1000,"&gt;=0")</f>
+        <f>SUMIFS(国内株式_NISA!$N$2:$N$996,国内株式_NISA!$B$2:$B$996,"&gt;=2021/1/1",国内株式_NISA!$B$2:$B$996,"&lt;=2021/12/31",国内株式_NISA!$N$2:$N$996,"&gt;=0")</f>
         <v>132360</v>
       </c>
       <c r="C5" s="19">
-        <f>SUMIFS(国内株式_NISA!$K$2:$K$1000,国内株式_NISA!$B$2:$B$1000,"&gt;=2021/1/1",国内株式_NISA!$B$2:$B$1000,"&lt;=2021/12/31",国内株式_NISA!$K$2:$K$1000,"&lt;0")</f>
+        <f>SUMIFS(国内株式_NISA!$N$2:$N$996,国内株式_NISA!$B$2:$B$996,"&gt;=2021/1/1",国内株式_NISA!$B$2:$B$996,"&lt;=2021/12/31",国内株式_NISA!$N$2:$N$996,"&lt;0")</f>
         <v>0</v>
       </c>
       <c r="D5" s="19">
@@ -2706,28 +2805,44 @@
         <v>-130800</v>
       </c>
       <c r="M5" s="35">
-        <f t="shared" ref="M5:M7" si="1">SUM(K5:L5)</f>
+        <f>SUM(K5:L5)</f>
         <v>-68778</v>
       </c>
       <c r="N5" s="36">
         <f>IF(M5&gt;0,M5-M5*0.20315,M5)</f>
         <v>-68778</v>
       </c>
-      <c r="O5" s="38">
-        <f t="shared" ref="O5:O7" si="2">SUM(E5,J5,N5)</f>
-        <v>149055.2187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.7">
+      <c r="O5" s="19">
+        <f>SUMIFS(投資信託!$K$2:$K$1000,投資信託!$B$2:$B$1000,"&gt;=2021/1/1",投資信託!$B$2:$B$1000,"&lt;=2021/12/31",投資信託!$K$2:$K$1000,"&gt;=0")</f>
+        <v>7366</v>
+      </c>
+      <c r="P5" s="19">
+        <f>SUMIFS(投資信託!$K$2:$K$1000,投資信託!$B$2:$B$1000,"&gt;=2021/1/1",投資信託!$B$2:$B$1000,"&lt;=2021/12/31",投資信託!$K$2:$K$1000,"&lt;0")</f>
+        <v>-1498</v>
+      </c>
+      <c r="Q5" s="35">
+        <f>SUM(O5:P5)</f>
+        <v>5868</v>
+      </c>
+      <c r="R5" s="36">
+        <f>IF(Q5&gt;0,Q5-Q5*0.20315,Q5)</f>
+        <v>4675.9157999999998</v>
+      </c>
+      <c r="S5" s="38">
+        <f>SUM(E5,J5,N5,R5)</f>
+        <v>153731.13449999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A6" s="34" t="s">
         <v>210</v>
       </c>
       <c r="B6" s="19">
-        <f>SUMIFS(国内株式_NISA!$K$2:$K$1000,国内株式_NISA!$B$2:$B$1000,"&gt;=2022/1/1",国内株式_NISA!$B$2:$B$1000,"&lt;=2022/12/31",国内株式_NISA!$K$2:$K$1000,"&gt;=0")</f>
+        <f>SUMIFS(国内株式_NISA!$N$2:$N$996,国内株式_NISA!$B$2:$B$996,"&gt;=2022/1/1",国内株式_NISA!$B$2:$B$996,"&lt;=2022/12/31",国内株式_NISA!$N$2:$N$996,"&gt;=0")</f>
         <v>0</v>
       </c>
       <c r="C6" s="19">
-        <f>SUMIFS(国内株式_NISA!$K$2:$K$1000,国内株式_NISA!$B$2:$B$1000,"&gt;=2022/1/1",国内株式_NISA!$B$2:$B$1000,"&lt;=2022/12/31",国内株式_NISA!$K$2:$K$1000,"&lt;0")</f>
+        <f>SUMIFS(国内株式_NISA!$N$2:$N$996,国内株式_NISA!$B$2:$B$996,"&gt;=2022/1/1",国内株式_NISA!$B$2:$B$996,"&lt;=2022/12/31",国内株式_NISA!$N$2:$N$996,"&lt;0")</f>
         <v>0</v>
       </c>
       <c r="D6" s="19">
@@ -2751,7 +2866,7 @@
         <v>245200</v>
       </c>
       <c r="I6" s="35">
-        <f t="shared" ref="I6:I7" si="3">SUM(F6:H6)</f>
+        <f t="shared" ref="I6:I7" si="1">SUM(F6:H6)</f>
         <v>166095</v>
       </c>
       <c r="J6" s="36">
@@ -2767,28 +2882,44 @@
         <v>-187960</v>
       </c>
       <c r="M6" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M6:M7" si="2">SUM(K6:L6)</f>
         <v>-106573</v>
       </c>
       <c r="N6" s="36">
-        <f t="shared" ref="N6:N7" si="4">IF(M6&gt;0,M6-M6*0.20315,M6)</f>
+        <f t="shared" ref="N6:N7" si="3">IF(M6&gt;0,M6-M6*0.20315,M6)</f>
         <v>-106573</v>
       </c>
-      <c r="O6" s="38">
-        <f t="shared" si="2"/>
+      <c r="O6" s="19">
+        <f>SUMIFS(投資信託!$K$2:$K$1000,投資信託!$B$2:$B$1000,"&gt;=2022/1/1",投資信託!$B$2:$B$1000,"&lt;=2022/12/31",投資信託!$K$2:$K$1000,"&gt;=0")</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="19">
+        <f>SUMIFS(投資信託!$K$2:$K$1000,投資信託!$B$2:$B$1000,"&gt;=2022/1/1",投資信託!$B$2:$B$1000,"&lt;=2022/12/31",投資信託!$K$2:$K$1000,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="35">
+        <f>SUM(O6:P6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="36">
+        <f>IF(Q6&gt;0,Q6-Q6*0.20315,Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="38">
+        <f>SUM(E6,J6,N6,R6)</f>
         <v>61499.800749999995</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A7" s="34" t="s">
         <v>211</v>
       </c>
       <c r="B7" s="19">
-        <f>SUMIFS(国内株式_NISA!$K$2:$K$1000,国内株式_NISA!$B$2:$B$1000,"&gt;=2023/1/1",国内株式_NISA!$B$2:$B$1000,"&lt;=2023/12/31",国内株式_NISA!$K$2:$K$1000,"&gt;=0")</f>
+        <f>SUMIFS(国内株式_NISA!$N$2:$N$996,国内株式_NISA!$B$2:$B$996,"&gt;=2023/1/1",国内株式_NISA!$B$2:$B$996,"&lt;=2023/12/31",国内株式_NISA!$N$2:$N$996,"&gt;=0")</f>
         <v>125420</v>
       </c>
       <c r="C7" s="19">
-        <f>SUMIFS(国内株式_NISA!$K$2:$K$1000,国内株式_NISA!$B$2:$B$1000,"&gt;=2023/1/1",国内株式_NISA!$B$2:$B$1000,"&lt;=2023/12/31",国内株式_NISA!$K$2:$K$1000,"&lt;0")</f>
+        <f>SUMIFS(国内株式_NISA!$N$2:$N$996,国内株式_NISA!$B$2:$B$996,"&gt;=2023/1/1",国内株式_NISA!$B$2:$B$996,"&lt;=2023/12/31",国内株式_NISA!$N$2:$N$996,"&lt;0")</f>
         <v>0</v>
       </c>
       <c r="D7" s="19">
@@ -2812,7 +2943,7 @@
         <v>167100</v>
       </c>
       <c r="I7" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1443887</v>
       </c>
       <c r="J7" s="36">
@@ -2828,28 +2959,44 @@
         <v>-50703</v>
       </c>
       <c r="M7" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-50703</v>
       </c>
       <c r="N7" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-50703</v>
       </c>
-      <c r="O7" s="38">
-        <f t="shared" si="2"/>
+      <c r="O7" s="19">
+        <f>SUMIFS(投資信託!$K$2:$K$1000,投資信託!$B$2:$B$1000,"&gt;=2023/1/1",投資信託!$B$2:$B$1000,"&lt;=2023/12/31",投資信託!$K$2:$K$1000,"&gt;=0")</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="19">
+        <f>SUMIFS(投資信託!$K$2:$K$1000,投資信託!$B$2:$B$1000,"&gt;=2023/1/1",投資信託!$B$2:$B$1000,"&lt;=2023/12/31",投資信託!$K$2:$K$1000,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="35">
+        <f>SUM(O7:P7)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="36">
+        <f t="shared" ref="R7:R9" si="4">IF(Q7&gt;0,Q7-Q7*0.20315,Q7)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="38">
+        <f t="shared" ref="S7:S8" si="5">SUM(E7,J7,N7,R7)</f>
         <v>1314178.35595</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A8" s="34" t="s">
         <v>233</v>
       </c>
       <c r="B8" s="19">
-        <f>SUMIFS(国内株式_NISA!$K$2:$K$1000,国内株式_NISA!$B$2:$B$1000,"&gt;=2024/1/1",国内株式_NISA!$B$2:$B$1000,"&lt;=2024/12/31",国内株式_NISA!$K$2:$K$1000,"&gt;=0")</f>
+        <f>SUMIFS(国内株式_NISA!$N$2:$N$996,国内株式_NISA!$B$2:$B$996,"&gt;=2024/1/1",国内株式_NISA!$B$2:$B$996,"&lt;=2024/12/31",国内株式_NISA!$N$2:$N$996,"&gt;=0")</f>
         <v>24600</v>
       </c>
       <c r="C8" s="19">
-        <f>SUMIFS(国内株式_NISA!$K$2:$K$1000,国内株式_NISA!$B$2:$B$1000,"&gt;=2024/1/1",国内株式_NISA!$B$2:$B$1000,"&lt;=2024/12/31",国内株式_NISA!$K$2:$K$1000,"&lt;0")</f>
+        <f>SUMIFS(国内株式_NISA!$N$2:$N$996,国内株式_NISA!$B$2:$B$996,"&gt;=2024/1/1",国内株式_NISA!$B$2:$B$996,"&lt;=2024/12/31",国内株式_NISA!$N$2:$N$996,"&lt;0")</f>
         <v>-49300</v>
       </c>
       <c r="D8" s="19">
@@ -2857,7 +3004,7 @@
         <v>136475</v>
       </c>
       <c r="E8" s="35">
-        <f t="shared" ref="E8:E9" si="5">SUM(B8:D8)</f>
+        <f t="shared" ref="E8:E9" si="6">SUM(B8:D8)</f>
         <v>111775</v>
       </c>
       <c r="F8" s="19">
@@ -2873,7 +3020,7 @@
         <v>116750</v>
       </c>
       <c r="I8" s="35">
-        <f t="shared" ref="I8" si="6">SUM(F8:H8)</f>
+        <f t="shared" ref="I8" si="7">SUM(F8:H8)</f>
         <v>1052340</v>
       </c>
       <c r="J8" s="36">
@@ -2889,28 +3036,44 @@
         <v>-304780</v>
       </c>
       <c r="M8" s="35">
-        <f t="shared" ref="M8" si="7">SUM(K8:L8)</f>
+        <f t="shared" ref="M8" si="8">SUM(K8:L8)</f>
         <v>-247960</v>
       </c>
       <c r="N8" s="36">
-        <f t="shared" ref="N8" si="8">IF(M8&gt;0,M8-M8*0.20315,M8)</f>
+        <f t="shared" ref="N8" si="9">IF(M8&gt;0,M8-M8*0.20315,M8)</f>
         <v>-247960</v>
       </c>
-      <c r="O8" s="38">
-        <f>SUM(E8,J8,N8)</f>
+      <c r="O8" s="19">
+        <f>SUMIFS(投資信託!$K$2:$K$1000,投資信託!$B$2:$B$1000,"&gt;=2024/1/1",投資信託!$B$2:$B$1000,"&lt;=2024/12/31",投資信託!$K$2:$K$1000,"&gt;=0")</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="19">
+        <f>SUMIFS(投資信託!$K$2:$K$1000,投資信託!$B$2:$B$1000,"&gt;=2024/1/1",投資信託!$B$2:$B$1000,"&lt;=2024/12/31",投資信託!$K$2:$K$1000,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="35">
+        <f>SUM(O8:P8)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="38">
+        <f t="shared" si="5"/>
         <v>702372.12899999996</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A9" s="34" t="s">
         <v>293</v>
       </c>
       <c r="B9" s="19">
-        <f>SUMIFS(国内株式_NISA!$K$2:$K$1000,国内株式_NISA!$B$2:$B$1000,"&gt;=2025/1/1",国内株式_NISA!$B$2:$B$1000,"&lt;=2025/12/31",国内株式_NISA!$K$2:$K$1000,"&gt;=0")</f>
+        <f>SUMIFS(国内株式_NISA!$N$2:$N$996,国内株式_NISA!$B$2:$B$996,"&gt;=2025/1/1",国内株式_NISA!$B$2:$B$996,"&lt;=2025/12/31",国内株式_NISA!$N$2:$N$996,"&gt;=0")</f>
         <v>2279200</v>
       </c>
       <c r="C9" s="19">
-        <f>SUMIFS(国内株式_NISA!$K$2:$K$1000,国内株式_NISA!$B$2:$B$1000,"&gt;=2025/1/1",国内株式_NISA!$B$2:$B$1000,"&lt;=2025/12/31",国内株式_NISA!$K$2:$K$1000,"&lt;0")</f>
+        <f>SUMIFS(国内株式_NISA!$N$2:$N$996,国内株式_NISA!$B$2:$B$996,"&gt;=2025/1/1",国内株式_NISA!$B$2:$B$996,"&lt;=2025/12/31",国内株式_NISA!$N$2:$N$996,"&lt;0")</f>
         <v>0</v>
       </c>
       <c r="D9" s="19">
@@ -2918,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2279200</v>
       </c>
       <c r="F9" s="19">
@@ -2934,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="35">
-        <f t="shared" ref="I9" si="9">SUM(F9:H9)</f>
+        <f t="shared" ref="I9" si="10">SUM(F9:H9)</f>
         <v>169900</v>
       </c>
       <c r="J9" s="36">
@@ -2950,20 +3113,36 @@
         <v>0</v>
       </c>
       <c r="M9" s="35">
-        <f t="shared" ref="M9" si="10">SUM(K9:L9)</f>
+        <f t="shared" ref="M9" si="11">SUM(K9:L9)</f>
         <v>0</v>
       </c>
       <c r="N9" s="36">
-        <f t="shared" ref="N9" si="11">IF(M9&gt;0,M9-M9*0.20315,M9)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="38">
-        <f>SUM(E9,J9,N9)</f>
-        <v>2414584.8149999999</v>
+        <f t="shared" ref="N9" si="12">IF(M9&gt;0,M9-M9*0.20315,M9)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="19">
+        <f>SUMIFS(投資信託!$K$2:$K$1000,投資信託!$B$2:$B$1000,"&gt;=2025/1/1",投資信託!$B$2:$B$1000,"&lt;=2025/12/31",投資信託!$K$2:$K$1000,"&gt;=0")</f>
+        <v>48494</v>
+      </c>
+      <c r="P9" s="19">
+        <f>SUMIFS(投資信託!$K$2:$K$1000,投資信託!$B$2:$B$1000,"&gt;=2025/1/1",投資信託!$B$2:$B$1000,"&lt;=2025/12/31",投資信託!$K$2:$K$1000,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="35">
+        <f t="shared" ref="Q9" si="13">SUM(O9:P9)</f>
+        <v>48494</v>
+      </c>
+      <c r="R9" s="36">
+        <f t="shared" si="4"/>
+        <v>38642.443899999998</v>
+      </c>
+      <c r="S9" s="38">
+        <f>SUM(E9,J9,N9,R9)</f>
+        <v>2453227.2588999998</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="18">
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="F1:J1"/>
@@ -2972,16 +3151,20 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2990,13 +3173,13 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -3008,11 +3191,12 @@
     <col min="6" max="7" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1875" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.125" style="27" customWidth="1"/>
+    <col min="13" max="13" width="19.1875" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.7">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3041,13 +3225,22 @@
         <v>10</v>
       </c>
       <c r="J1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A2" s="4">
         <v>44202</v>
       </c>
@@ -3075,15 +3268,24 @@
       <c r="I2" s="25">
         <v>875</v>
       </c>
-      <c r="J2" s="19">
-        <f t="shared" ref="J2:J18" si="0">H2*I2</f>
+      <c r="J2" s="61">
+        <v>0</v>
+      </c>
+      <c r="K2" s="61">
+        <v>0</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M2" s="19">
+        <f t="shared" ref="M2:M18" si="0">H2*I2</f>
         <v>87500</v>
       </c>
-      <c r="K2" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A3" s="4">
         <v>44426</v>
       </c>
@@ -3111,15 +3313,24 @@
       <c r="I3" s="25">
         <v>925</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="61">
+        <v>0</v>
+      </c>
+      <c r="K3" s="61">
+        <v>0</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="M3" s="19">
         <f t="shared" si="0"/>
         <v>92500</v>
       </c>
-      <c r="K3" s="15">
+      <c r="N3" s="15">
         <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A4" s="4">
         <v>44204</v>
       </c>
@@ -3147,15 +3358,24 @@
       <c r="I4" s="25">
         <v>1094</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="61">
+        <v>0</v>
+      </c>
+      <c r="K4" s="61">
+        <v>0</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M4" s="19">
         <f t="shared" si="0"/>
         <v>109400</v>
       </c>
-      <c r="K4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A5" s="4">
         <v>44260</v>
       </c>
@@ -3183,15 +3403,24 @@
       <c r="I5" s="25">
         <v>1307</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="61">
+        <v>0</v>
+      </c>
+      <c r="K5" s="61">
+        <v>0</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="M5" s="19">
         <f t="shared" si="0"/>
         <v>130700</v>
       </c>
-      <c r="K5" s="15">
+      <c r="N5" s="15">
         <v>21300</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A6" s="4">
         <v>44160</v>
       </c>
@@ -3219,15 +3448,24 @@
       <c r="I6" s="25">
         <v>1506.6</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="61">
+        <v>0</v>
+      </c>
+      <c r="K6" s="61">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M6" s="19">
         <f t="shared" si="0"/>
         <v>150660</v>
       </c>
-      <c r="K6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A7" s="4">
         <v>44427</v>
       </c>
@@ -3255,15 +3493,24 @@
       <c r="I7" s="25">
         <v>1635</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="61">
+        <v>0</v>
+      </c>
+      <c r="K7" s="61">
+        <v>0</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="M7" s="19">
         <f t="shared" si="0"/>
         <v>163500</v>
       </c>
-      <c r="K7" s="15">
+      <c r="N7" s="15">
         <v>12840</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A8" s="4">
         <v>44165</v>
       </c>
@@ -3291,15 +3538,24 @@
       <c r="I8" s="25">
         <v>580</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="61">
+        <v>0</v>
+      </c>
+      <c r="K8" s="61">
+        <v>0</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M8" s="19">
         <f t="shared" si="0"/>
         <v>58000</v>
       </c>
-      <c r="K8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A9" s="4">
         <v>44256</v>
       </c>
@@ -3327,15 +3583,24 @@
       <c r="I9" s="25">
         <v>700</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="61">
+        <v>0</v>
+      </c>
+      <c r="K9" s="61">
+        <v>0</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="M9" s="19">
         <f t="shared" si="0"/>
         <v>70000</v>
       </c>
-      <c r="K9" s="15">
+      <c r="N9" s="15">
         <v>12000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A10" s="4">
         <v>44918</v>
       </c>
@@ -3363,15 +3628,24 @@
       <c r="I10" s="25">
         <v>4170</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="61">
+        <v>0</v>
+      </c>
+      <c r="K10" s="61">
+        <v>0</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M10" s="19">
         <f t="shared" si="0"/>
         <v>417000</v>
       </c>
-      <c r="K10" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A11" s="4">
         <v>45089</v>
       </c>
@@ -3399,15 +3673,24 @@
       <c r="I11" s="25">
         <v>4615</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="61">
+        <v>0</v>
+      </c>
+      <c r="K11" s="61">
+        <v>0</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="M11" s="19">
         <f t="shared" si="0"/>
         <v>461500</v>
       </c>
-      <c r="K11" s="30">
+      <c r="N11" s="30">
         <v>44500</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A12" s="4">
         <v>45211</v>
       </c>
@@ -3435,15 +3718,24 @@
       <c r="I12" s="25">
         <v>4440</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="61">
+        <v>0</v>
+      </c>
+      <c r="K12" s="61">
+        <v>0</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M12" s="19">
         <f t="shared" si="0"/>
         <v>444000</v>
       </c>
-      <c r="K12" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N12" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A13" s="4">
         <v>45561</v>
       </c>
@@ -3471,15 +3763,24 @@
       <c r="I13" s="25">
         <v>4530</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="61">
+        <v>0</v>
+      </c>
+      <c r="K13" s="61">
+        <v>0</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="M13" s="19">
         <f t="shared" si="0"/>
         <v>453000</v>
       </c>
-      <c r="K13" s="15">
+      <c r="N13" s="15">
         <v>9000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A14" s="4">
         <v>44537</v>
       </c>
@@ -3507,15 +3808,24 @@
       <c r="I14" s="25">
         <v>3115</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="61">
+        <v>0</v>
+      </c>
+      <c r="K14" s="61">
+        <v>0</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M14" s="19">
         <f t="shared" si="0"/>
         <v>311500</v>
       </c>
-      <c r="K14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A15" s="4">
         <v>45314</v>
       </c>
@@ -3543,15 +3853,24 @@
       <c r="I15" s="25">
         <v>4405</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="61">
+        <v>0</v>
+      </c>
+      <c r="K15" s="61">
+        <v>0</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M15" s="19">
         <f t="shared" si="0"/>
         <v>440500</v>
       </c>
-      <c r="K15" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N15" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A16" s="4">
         <v>44146</v>
       </c>
@@ -3579,15 +3898,24 @@
       <c r="I16" s="25">
         <v>1703.8</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="61">
+        <v>0</v>
+      </c>
+      <c r="K16" s="61">
+        <v>0</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M16" s="19">
         <f t="shared" si="0"/>
         <v>170380</v>
       </c>
-      <c r="K16" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A17" s="4">
         <v>44501</v>
       </c>
@@ -3615,15 +3943,24 @@
       <c r="I17" s="25">
         <v>1790</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="61">
+        <v>0</v>
+      </c>
+      <c r="K17" s="61">
+        <v>0</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="M17" s="19">
         <f t="shared" si="0"/>
         <v>179000</v>
       </c>
-      <c r="K17" s="15">
+      <c r="N17" s="15">
         <v>8620</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A18" s="4">
         <v>45140</v>
       </c>
@@ -3651,15 +3988,24 @@
       <c r="I18" s="25">
         <v>2988.5</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="61">
+        <v>0</v>
+      </c>
+      <c r="K18" s="61">
+        <v>0</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M18" s="19">
         <f t="shared" si="0"/>
         <v>298850</v>
       </c>
-      <c r="K18" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N18" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A19" s="4">
         <v>45287</v>
       </c>
@@ -3685,14 +4031,23 @@
       <c r="I19" s="25">
         <v>597.70000000000005</v>
       </c>
-      <c r="J19" s="19">
-        <v>0</v>
-      </c>
-      <c r="K19" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="J19" s="61">
+        <v>0</v>
+      </c>
+      <c r="K19" s="61">
+        <v>0</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M19" s="19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A20" s="4">
         <v>44862</v>
       </c>
@@ -3720,15 +4075,24 @@
       <c r="I20" s="25">
         <v>4620</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="61">
+        <v>0</v>
+      </c>
+      <c r="K20" s="61">
+        <v>0</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M20" s="19">
         <f>H20*I20</f>
         <v>462000</v>
       </c>
-      <c r="K20" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A21" s="4">
         <v>45342</v>
       </c>
@@ -3756,15 +4120,24 @@
       <c r="I21" s="25">
         <v>3818</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="61">
+        <v>0</v>
+      </c>
+      <c r="K21" s="61">
+        <v>0</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M21" s="19">
         <f>H21*I21</f>
         <v>381800</v>
       </c>
-      <c r="K21" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N21" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A22" s="4">
         <v>45404</v>
       </c>
@@ -3792,15 +4165,24 @@
       <c r="I22" s="25">
         <v>3954</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="61">
+        <v>0</v>
+      </c>
+      <c r="K22" s="61">
+        <v>0</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="M22" s="19">
         <f>H22*I22</f>
         <v>395400</v>
       </c>
-      <c r="K22" s="30">
+      <c r="N22" s="30">
         <v>13600</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A23" s="4">
         <v>44172</v>
       </c>
@@ -3828,15 +4210,24 @@
       <c r="I23" s="25">
         <v>2590</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="61">
+        <v>0</v>
+      </c>
+      <c r="K23" s="61">
+        <v>0</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M23" s="19">
         <f>H23*I23</f>
         <v>259000</v>
       </c>
-      <c r="K23" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A24" s="4">
         <v>45378</v>
       </c>
@@ -3862,14 +4253,23 @@
       <c r="I24" s="25">
         <v>259</v>
       </c>
-      <c r="J24" s="19">
-        <v>0</v>
-      </c>
-      <c r="K24" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="J24" s="61">
+        <v>0</v>
+      </c>
+      <c r="K24" s="61">
+        <v>0</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M24" s="19">
+        <v>0</v>
+      </c>
+      <c r="N24" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A25" s="4">
         <v>45656</v>
       </c>
@@ -3895,14 +4295,23 @@
       <c r="I25" s="25">
         <v>259</v>
       </c>
-      <c r="J25" s="19">
-        <v>0</v>
-      </c>
-      <c r="K25" s="15">
+      <c r="J25" s="61">
+        <v>0</v>
+      </c>
+      <c r="K25" s="61">
+        <v>0</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M25" s="19">
+        <v>0</v>
+      </c>
+      <c r="N25" s="15">
         <v>982000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A26" s="4">
         <v>45656</v>
       </c>
@@ -3928,14 +4337,23 @@
       <c r="I26" s="25">
         <v>259</v>
       </c>
-      <c r="J26" s="19">
-        <v>0</v>
-      </c>
-      <c r="K26" s="15">
+      <c r="J26" s="61">
+        <v>0</v>
+      </c>
+      <c r="K26" s="61">
+        <v>0</v>
+      </c>
+      <c r="L26" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M26" s="19">
+        <v>0</v>
+      </c>
+      <c r="N26" s="15">
         <v>982000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A27" s="4">
         <v>44172</v>
       </c>
@@ -3963,15 +4381,24 @@
       <c r="I27" s="25">
         <v>2009</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="61">
+        <v>0</v>
+      </c>
+      <c r="K27" s="61">
+        <v>0</v>
+      </c>
+      <c r="L27" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M27" s="19">
         <f>H27*I27</f>
         <v>200900</v>
       </c>
-      <c r="K27" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N27" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A28" s="4">
         <v>45656</v>
       </c>
@@ -3997,14 +4424,23 @@
       <c r="I28" s="25">
         <v>2009</v>
       </c>
-      <c r="J28" s="19">
-        <v>0</v>
-      </c>
-      <c r="K28" s="15">
+      <c r="J28" s="61">
+        <v>0</v>
+      </c>
+      <c r="K28" s="61">
+        <v>0</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M28" s="19">
+        <v>0</v>
+      </c>
+      <c r="N28" s="15">
         <v>315200</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A29" s="4">
         <v>44204</v>
       </c>
@@ -4032,15 +4468,24 @@
       <c r="I29" s="25">
         <v>895</v>
       </c>
-      <c r="J29" s="19">
-        <f t="shared" ref="J29:J47" si="1">H29*I29</f>
+      <c r="J29" s="61">
+        <v>0</v>
+      </c>
+      <c r="K29" s="61">
+        <v>0</v>
+      </c>
+      <c r="L29" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M29" s="19">
+        <f t="shared" ref="M29:M47" si="1">H29*I29</f>
         <v>89500</v>
       </c>
-      <c r="K29" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N29" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A30" s="4">
         <v>44425</v>
       </c>
@@ -4068,15 +4513,24 @@
       <c r="I30" s="25">
         <v>1047</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="61">
+        <v>0</v>
+      </c>
+      <c r="K30" s="61">
+        <v>0</v>
+      </c>
+      <c r="L30" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="M30" s="19">
         <f t="shared" si="1"/>
         <v>104700</v>
       </c>
-      <c r="K30" s="15">
+      <c r="N30" s="15">
         <v>15200</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A31" s="4">
         <v>44186</v>
       </c>
@@ -4104,15 +4558,24 @@
       <c r="I31" s="25">
         <v>1890</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J31" s="61">
+        <v>0</v>
+      </c>
+      <c r="K31" s="61">
+        <v>0</v>
+      </c>
+      <c r="L31" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M31" s="19">
         <f t="shared" si="1"/>
         <v>189000</v>
       </c>
-      <c r="K31" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N31" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A32" s="4">
         <v>44270</v>
       </c>
@@ -4140,15 +4603,24 @@
       <c r="I32" s="25">
         <v>2325</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="61">
+        <v>0</v>
+      </c>
+      <c r="K32" s="61">
+        <v>0</v>
+      </c>
+      <c r="L32" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="M32" s="19">
         <f t="shared" si="1"/>
         <v>232500</v>
       </c>
-      <c r="K32" s="15">
+      <c r="N32" s="15">
         <v>43500</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A33" s="4">
         <v>45471</v>
       </c>
@@ -4176,15 +4648,24 @@
       <c r="I33" s="25">
         <v>2686</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J33" s="61">
+        <v>0</v>
+      </c>
+      <c r="K33" s="61">
+        <v>0</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M33" s="19">
         <f t="shared" si="1"/>
         <v>268600</v>
       </c>
-      <c r="K33" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N33" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A34" s="4">
         <v>44187</v>
       </c>
@@ -4212,15 +4693,24 @@
       <c r="I34" s="25">
         <v>454</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="61">
+        <v>0</v>
+      </c>
+      <c r="K34" s="61">
+        <v>0</v>
+      </c>
+      <c r="L34" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M34" s="19">
         <f t="shared" si="1"/>
         <v>45400</v>
       </c>
-      <c r="K34" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N34" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A35" s="4">
         <v>44266</v>
       </c>
@@ -4248,15 +4738,24 @@
       <c r="I35" s="25">
         <v>593</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="61">
+        <v>0</v>
+      </c>
+      <c r="K35" s="61">
+        <v>0</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="M35" s="19">
         <f t="shared" si="1"/>
         <v>59300</v>
       </c>
-      <c r="K35" s="15">
+      <c r="N35" s="15">
         <v>13900</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A36" s="4">
         <v>45020</v>
       </c>
@@ -4284,15 +4783,24 @@
       <c r="I36" s="25">
         <v>688</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J36" s="61">
+        <v>0</v>
+      </c>
+      <c r="K36" s="61">
+        <v>0</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M36" s="19">
         <f t="shared" si="1"/>
         <v>68800</v>
       </c>
-      <c r="K36" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N36" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A37" s="4">
         <v>45069</v>
       </c>
@@ -4320,15 +4828,24 @@
       <c r="I37" s="25">
         <v>763.4</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="61">
+        <v>0</v>
+      </c>
+      <c r="K37" s="61">
+        <v>0</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="M37" s="19">
         <f t="shared" si="1"/>
         <v>76340</v>
       </c>
-      <c r="K37" s="30">
+      <c r="N37" s="30">
         <v>7540</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A38" s="4">
         <v>45645</v>
       </c>
@@ -4356,15 +4873,24 @@
       <c r="I38" s="25">
         <v>1008</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J38" s="61">
+        <v>0</v>
+      </c>
+      <c r="K38" s="61">
+        <v>0</v>
+      </c>
+      <c r="L38" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M38" s="19">
         <f t="shared" si="1"/>
         <v>302400</v>
       </c>
-      <c r="K38" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N38" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A39" s="4">
         <v>44866</v>
       </c>
@@ -4392,15 +4918,24 @@
       <c r="I39" s="25">
         <v>2713.4</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="61">
+        <v>0</v>
+      </c>
+      <c r="K39" s="61">
+        <v>0</v>
+      </c>
+      <c r="L39" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M39" s="19">
         <f t="shared" si="1"/>
         <v>271340</v>
       </c>
-      <c r="K39" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N39" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A40" s="4">
         <v>45069</v>
       </c>
@@ -4428,15 +4963,24 @@
       <c r="I40" s="25">
         <v>3004.6</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J40" s="61">
+        <v>0</v>
+      </c>
+      <c r="K40" s="61">
+        <v>0</v>
+      </c>
+      <c r="L40" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="M40" s="19">
         <f t="shared" si="1"/>
         <v>300460</v>
       </c>
-      <c r="K40" s="30">
+      <c r="N40" s="30">
         <v>29120</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A41" s="4">
         <v>45341</v>
       </c>
@@ -4464,15 +5008,24 @@
       <c r="I41" s="25">
         <v>4775</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J41" s="61">
+        <v>0</v>
+      </c>
+      <c r="K41" s="61">
+        <v>0</v>
+      </c>
+      <c r="L41" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M41" s="19">
         <f t="shared" si="1"/>
         <v>477500</v>
       </c>
-      <c r="K41" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N41" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A42" s="4">
         <v>45364</v>
       </c>
@@ -4500,15 +5053,24 @@
       <c r="I42" s="25">
         <v>4282</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J42" s="61">
+        <v>0</v>
+      </c>
+      <c r="K42" s="61">
+        <v>0</v>
+      </c>
+      <c r="L42" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="M42" s="19">
         <f t="shared" si="1"/>
         <v>428200</v>
       </c>
-      <c r="K42" s="15">
+      <c r="N42" s="15">
         <v>-49300</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A43" s="4">
         <v>45141</v>
       </c>
@@ -4536,15 +5098,24 @@
       <c r="I43" s="25">
         <v>3869.4</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J43" s="61">
+        <v>0</v>
+      </c>
+      <c r="K43" s="61">
+        <v>0</v>
+      </c>
+      <c r="L43" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M43" s="19">
         <f t="shared" si="1"/>
         <v>386940</v>
       </c>
-      <c r="K43" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N43" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A44" s="4">
         <v>45175</v>
       </c>
@@ -4572,15 +5143,24 @@
       <c r="I44" s="25">
         <v>4312</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J44" s="61">
+        <v>0</v>
+      </c>
+      <c r="K44" s="61">
+        <v>0</v>
+      </c>
+      <c r="L44" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="M44" s="19">
         <f t="shared" si="1"/>
         <v>431200</v>
       </c>
-      <c r="K44" s="15">
+      <c r="N44" s="15">
         <v>44260</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A45" s="4">
         <v>45341</v>
       </c>
@@ -4608,15 +5188,24 @@
       <c r="I45" s="25">
         <v>4600</v>
       </c>
-      <c r="J45" s="19">
+      <c r="J45" s="61">
+        <v>0</v>
+      </c>
+      <c r="K45" s="61">
+        <v>0</v>
+      </c>
+      <c r="L45" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M45" s="19">
         <f t="shared" si="1"/>
         <v>460000</v>
       </c>
-      <c r="K45" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="N45" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A46" s="4">
         <v>45520</v>
       </c>
@@ -4644,15 +5233,24 @@
       <c r="I46" s="25">
         <v>4620</v>
       </c>
-      <c r="J46" s="19">
+      <c r="J46" s="61">
+        <v>0</v>
+      </c>
+      <c r="K46" s="61">
+        <v>0</v>
+      </c>
+      <c r="L46" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="M46" s="19">
         <f t="shared" si="1"/>
         <v>462000</v>
       </c>
-      <c r="K46" s="15">
+      <c r="N46" s="15">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A47" s="4">
         <v>45674</v>
       </c>
@@ -4680,23 +5278,32 @@
       <c r="I47" s="25">
         <v>2457.5</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J47" s="61">
+        <v>0</v>
+      </c>
+      <c r="K47" s="61">
+        <v>0</v>
+      </c>
+      <c r="L47" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M47" s="19">
         <f t="shared" si="1"/>
         <v>245750</v>
       </c>
-      <c r="K47" s="23">
+      <c r="N47" s="23">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K46">
+  <autoFilter ref="A1:N47" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N46">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="36" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6375,11 +6982,11 @@
   </sheetPr>
   <dimension ref="A1:O601"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E543" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N570" sqref="N570"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -30285,7 +30892,7 @@
         <v>276</v>
       </c>
       <c r="M531" s="15">
-        <f t="shared" ref="M531:M569" si="14">IF(G531="買付",H531*I531+SUM(J531:K531),H531*I531-SUM(J531:K531))</f>
+        <f t="shared" ref="M531:M570" si="14">IF(G531="買付",H531*I531+SUM(J531:K531),H531*I531-SUM(J531:K531))</f>
         <v>98750</v>
       </c>
       <c r="N531" s="21">
@@ -32002,7 +32609,49 @@
       </c>
     </row>
     <row r="570" spans="1:14" x14ac:dyDescent="0.7">
-      <c r="I570" s="27"/>
+      <c r="A570" s="4">
+        <v>45688</v>
+      </c>
+      <c r="B570" s="4">
+        <v>45692</v>
+      </c>
+      <c r="C570" s="5">
+        <v>7012</v>
+      </c>
+      <c r="D570" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E570" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F570" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G570" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H570" s="5">
+        <v>100</v>
+      </c>
+      <c r="I570" s="25">
+        <v>6965</v>
+      </c>
+      <c r="J570" s="9">
+        <v>0</v>
+      </c>
+      <c r="K570" s="14">
+        <v>0</v>
+      </c>
+      <c r="L570" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="M570" s="15">
+        <f t="shared" si="14"/>
+        <v>696500</v>
+      </c>
+      <c r="N570" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="571" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I571" s="27"/>
@@ -32117,7 +32766,7 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
@@ -39547,10 +40196,10 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R37" sqref="R37"/>
+      <selection pane="bottomRight" activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -41359,7 +42008,7 @@
         <v>177</v>
       </c>
       <c r="Q32" s="9">
-        <v>8.48</v>
+        <v>12.64</v>
       </c>
       <c r="R32" s="9">
         <v>0</v>
@@ -41590,25 +42239,116 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.7">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
-      <c r="C37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="P37" s="39"/>
+      <c r="A37" s="4">
+        <v>45682</v>
+      </c>
+      <c r="B37" s="4">
+        <v>45686</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" s="9">
+        <v>8</v>
+      </c>
+      <c r="J37" s="9">
+        <v>199.33099999999999</v>
+      </c>
+      <c r="K37" s="9">
+        <v>1594.64</v>
+      </c>
+      <c r="L37" s="9">
+        <v>155.41</v>
+      </c>
+      <c r="M37" s="9">
+        <v>7.22</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0.71</v>
+      </c>
+      <c r="O37" s="9">
+        <v>1586.72</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>183.31</v>
+      </c>
+      <c r="R37" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.7">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="K38" s="39"/>
-      <c r="O38" s="39"/>
+      <c r="A38" s="4">
+        <v>45687</v>
+      </c>
+      <c r="B38" s="4">
+        <v>45691</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I38" s="9">
+        <v>4</v>
+      </c>
+      <c r="J38" s="12">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="K38" s="7">
+        <v>314.27999999999997</v>
+      </c>
+      <c r="L38" s="9">
+        <v>154.37</v>
+      </c>
+      <c r="M38" s="9">
+        <v>1.42</v>
+      </c>
+      <c r="N38" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O38" s="7">
+        <v>312.72000000000003</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>2.88</v>
+      </c>
+      <c r="R38" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A39" s="46"/>
@@ -41620,6 +42360,7 @@
       <c r="H39"/>
       <c r="K39" s="39"/>
       <c r="O39" s="39"/>
+      <c r="Q39" s="48"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A40" s="46"/>
@@ -44428,34 +45169,34 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A2" s="4">
-        <v>44368</v>
+        <v>45601</v>
       </c>
       <c r="B2" s="4">
-        <v>44371</v>
+        <v>45607</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="8">
-        <v>21735</v>
-      </c>
-      <c r="I2" s="8">
-        <v>13803</v>
-      </c>
-      <c r="J2" s="8">
-        <v>30000</v>
+        <v>286</v>
+      </c>
+      <c r="H2" s="19">
+        <v>19146</v>
+      </c>
+      <c r="I2" s="19">
+        <v>26115</v>
+      </c>
+      <c r="J2" s="19">
+        <v>50000</v>
       </c>
       <c r="K2" s="21">
         <v>0</v>
@@ -44463,34 +45204,34 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A3" s="4">
-        <v>44377</v>
+        <v>45609</v>
       </c>
       <c r="B3" s="4">
-        <v>44382</v>
+        <v>45615</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="8">
-        <v>7034</v>
-      </c>
-      <c r="I3" s="8">
-        <v>14217</v>
-      </c>
-      <c r="J3" s="8">
-        <v>10000</v>
+        <v>286</v>
+      </c>
+      <c r="H3" s="19">
+        <v>18359</v>
+      </c>
+      <c r="I3" s="19">
+        <v>27235</v>
+      </c>
+      <c r="J3" s="19">
+        <v>50000</v>
       </c>
       <c r="K3" s="21">
         <v>0</v>
@@ -44498,34 +45239,34 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A4" s="4">
-        <v>44403</v>
+        <v>45629</v>
       </c>
       <c r="B4" s="4">
-        <v>44406</v>
+        <v>45635</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>67</v>
+        <v>285</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="8">
-        <v>7310</v>
-      </c>
-      <c r="I4" s="8">
-        <v>13681</v>
-      </c>
-      <c r="J4" s="8">
-        <v>10000</v>
+        <v>286</v>
+      </c>
+      <c r="H4" s="19">
+        <v>18746</v>
+      </c>
+      <c r="I4" s="19">
+        <v>26673</v>
+      </c>
+      <c r="J4" s="19">
+        <v>50000</v>
       </c>
       <c r="K4" s="21">
         <v>0</v>
@@ -44533,100 +45274,104 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A5" s="4">
-        <v>44525</v>
+        <v>45639</v>
       </c>
       <c r="B5" s="4">
-        <v>44530</v>
+        <v>45645</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>67</v>
+        <v>285</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="8">
-        <v>7310</v>
-      </c>
-      <c r="I5" s="8">
-        <v>13973</v>
-      </c>
-      <c r="J5" s="8">
-        <v>10214</v>
-      </c>
-      <c r="K5" s="19">
-        <v>214</v>
+        <v>30</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5" s="19">
+        <v>18324</v>
+      </c>
+      <c r="I5" s="19">
+        <v>27287</v>
+      </c>
+      <c r="J5" s="19">
+        <v>50000</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A6" s="4">
-        <v>44529</v>
+        <v>45664</v>
       </c>
       <c r="B6" s="4">
-        <v>44532</v>
+        <v>45671</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="8">
-        <v>28769</v>
-      </c>
-      <c r="I6" s="8">
-        <v>13383</v>
-      </c>
-      <c r="J6" s="8">
-        <v>38502</v>
-      </c>
-      <c r="K6" s="19">
-        <v>-1498</v>
+        <v>30</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H6" s="21">
+        <v>18006</v>
+      </c>
+      <c r="I6" s="21">
+        <v>27769</v>
+      </c>
+      <c r="J6" s="21">
+        <v>50000</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A7" s="4">
-        <v>44165</v>
+        <v>45672</v>
       </c>
       <c r="B7" s="4">
-        <v>44168</v>
+        <v>45678</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>158</v>
+        <v>284</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="8">
-        <v>3846</v>
-      </c>
-      <c r="I7" s="8">
-        <v>13000</v>
-      </c>
-      <c r="J7" s="8">
-        <v>5000</v>
+        <v>286</v>
+      </c>
+      <c r="H7" s="21">
+        <v>18423</v>
+      </c>
+      <c r="I7" s="21">
+        <v>27141</v>
+      </c>
+      <c r="J7" s="21">
+        <v>50000</v>
       </c>
       <c r="K7" s="21">
         <v>0</v>
@@ -44634,13 +45379,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A8" s="4">
-        <v>44201</v>
+        <v>44368</v>
       </c>
       <c r="B8" s="4">
-        <v>44204</v>
+        <v>44371</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>159</v>
@@ -44655,13 +45400,13 @@
         <v>160</v>
       </c>
       <c r="H8" s="8">
-        <v>7604</v>
+        <v>21735</v>
       </c>
       <c r="I8" s="8">
-        <v>13152</v>
+        <v>13803</v>
       </c>
       <c r="J8" s="8">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K8" s="21">
         <v>0</v>
@@ -44669,13 +45414,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A9" s="4">
-        <v>44236</v>
+        <v>44377</v>
       </c>
       <c r="B9" s="4">
-        <v>44242</v>
+        <v>44382</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>159</v>
@@ -44690,10 +45435,10 @@
         <v>160</v>
       </c>
       <c r="H9" s="8">
-        <v>7041</v>
+        <v>7034</v>
       </c>
       <c r="I9" s="8">
-        <v>14202</v>
+        <v>14217</v>
       </c>
       <c r="J9" s="8">
         <v>10000</v>
@@ -44704,19 +45449,19 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A10" s="4">
-        <v>44257</v>
+        <v>44403</v>
       </c>
       <c r="B10" s="4">
-        <v>44260</v>
+        <v>44406</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>297</v>
+        <v>67</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>30</v>
@@ -44725,10 +45470,10 @@
         <v>160</v>
       </c>
       <c r="H10" s="8">
-        <v>6947</v>
+        <v>7310</v>
       </c>
       <c r="I10" s="8">
-        <v>14394</v>
+        <v>13681</v>
       </c>
       <c r="J10" s="8">
         <v>10000</v>
@@ -44739,48 +45484,46 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A11" s="4">
-        <v>44295</v>
+        <v>44525</v>
       </c>
       <c r="B11" s="4">
-        <v>44300</v>
+        <v>44530</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>297</v>
+        <v>67</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>160</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="8">
-        <v>6460</v>
+        <v>7310</v>
       </c>
       <c r="I11" s="8">
-        <v>15481</v>
+        <v>13973</v>
       </c>
       <c r="J11" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K11" s="21">
-        <v>0</v>
+        <v>10214</v>
+      </c>
+      <c r="K11" s="19">
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A12" s="4">
-        <v>44327</v>
+        <v>44529</v>
       </c>
       <c r="B12" s="4">
-        <v>44330</v>
+        <v>44532</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>159</v>
@@ -44789,30 +45532,28 @@
         <v>297</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>160</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="8">
-        <v>3167</v>
+        <v>28769</v>
       </c>
       <c r="I12" s="8">
-        <v>15789</v>
+        <v>13383</v>
       </c>
       <c r="J12" s="8">
-        <v>5000</v>
-      </c>
-      <c r="K12" s="21">
-        <v>0</v>
+        <v>38502</v>
+      </c>
+      <c r="K12" s="19">
+        <v>-1498</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A13" s="4">
-        <v>44350</v>
+        <v>44165</v>
       </c>
       <c r="B13" s="4">
-        <v>44355</v>
+        <v>44168</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>158</v>
@@ -44830,13 +45571,13 @@
         <v>160</v>
       </c>
       <c r="H13" s="8">
-        <v>6263</v>
+        <v>3846</v>
       </c>
       <c r="I13" s="8">
-        <v>15967</v>
+        <v>13000</v>
       </c>
       <c r="J13" s="8">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="K13" s="21">
         <v>0</v>
@@ -44844,10 +45585,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A14" s="4">
-        <v>44377</v>
+        <v>44201</v>
       </c>
       <c r="B14" s="4">
-        <v>44382</v>
+        <v>44204</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>158</v>
@@ -44865,10 +45606,10 @@
         <v>160</v>
       </c>
       <c r="H14" s="8">
-        <v>6081</v>
+        <v>7604</v>
       </c>
       <c r="I14" s="8">
-        <v>16444</v>
+        <v>13152</v>
       </c>
       <c r="J14" s="8">
         <v>10000</v>
@@ -44879,10 +45620,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A15" s="4">
-        <v>44404</v>
+        <v>44236</v>
       </c>
       <c r="B15" s="4">
-        <v>44407</v>
+        <v>44242</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>158</v>
@@ -44891,7 +45632,7 @@
         <v>159</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>67</v>
+        <v>297</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>30</v>
@@ -44900,13 +45641,13 @@
         <v>160</v>
       </c>
       <c r="H15" s="8">
-        <v>11832</v>
+        <v>7041</v>
       </c>
       <c r="I15" s="8">
-        <v>16903</v>
+        <v>14202</v>
       </c>
       <c r="J15" s="8">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="K15" s="21">
         <v>0</v>
@@ -44914,10 +45655,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A16" s="4">
-        <v>44435</v>
+        <v>44257</v>
       </c>
       <c r="B16" s="4">
-        <v>44440</v>
+        <v>44260</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>158</v>
@@ -44926,31 +45667,33 @@
         <v>159</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>67</v>
+        <v>297</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G16" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="H16" s="8">
-        <v>11832</v>
+        <v>6947</v>
       </c>
       <c r="I16" s="8">
-        <v>17067</v>
+        <v>14394</v>
       </c>
       <c r="J16" s="8">
-        <v>20194</v>
-      </c>
-      <c r="K16" s="19">
-        <v>194</v>
+        <v>10000</v>
+      </c>
+      <c r="K16" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A17" s="4">
-        <v>44921</v>
+        <v>44295</v>
       </c>
       <c r="B17" s="4">
-        <v>44924</v>
+        <v>44300</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>158</v>
@@ -44968,13 +45711,13 @@
         <v>160</v>
       </c>
       <c r="H17" s="8">
-        <v>24940</v>
+        <v>6460</v>
       </c>
       <c r="I17" s="8">
-        <v>17961</v>
+        <v>15481</v>
       </c>
       <c r="J17" s="8">
-        <v>44794</v>
+        <v>10000</v>
       </c>
       <c r="K17" s="21">
         <v>0</v>
@@ -44982,10 +45725,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A18" s="4">
-        <v>45243</v>
+        <v>44327</v>
       </c>
       <c r="B18" s="4">
-        <v>45246</v>
+        <v>44330</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>158</v>
@@ -45003,13 +45746,13 @@
         <v>160</v>
       </c>
       <c r="H18" s="8">
-        <v>590</v>
+        <v>3167</v>
       </c>
       <c r="I18" s="8">
-        <v>23925</v>
+        <v>15789</v>
       </c>
       <c r="J18" s="8">
-        <v>1410</v>
+        <v>5000</v>
       </c>
       <c r="K18" s="21">
         <v>0</v>
@@ -45017,13 +45760,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A19" s="4">
-        <v>44188</v>
+        <v>44350</v>
       </c>
       <c r="B19" s="4">
-        <v>44193</v>
+        <v>44355</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>159</v>
@@ -45038,10 +45781,10 @@
         <v>160</v>
       </c>
       <c r="H19" s="8">
-        <v>4490</v>
+        <v>6263</v>
       </c>
       <c r="I19" s="8">
-        <v>22273</v>
+        <v>15967</v>
       </c>
       <c r="J19" s="8">
         <v>10000</v>
@@ -45052,13 +45795,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A20" s="4">
-        <v>44224</v>
+        <v>44377</v>
       </c>
       <c r="B20" s="4">
-        <v>44229</v>
+        <v>44382</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>159</v>
@@ -45073,13 +45816,13 @@
         <v>160</v>
       </c>
       <c r="H20" s="8">
-        <v>2108</v>
+        <v>6081</v>
       </c>
       <c r="I20" s="8">
-        <v>23721</v>
+        <v>16444</v>
       </c>
       <c r="J20" s="8">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K20" s="21">
         <v>0</v>
@@ -45087,19 +45830,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A21" s="4">
-        <v>44257</v>
+        <v>44404</v>
       </c>
       <c r="B21" s="4">
-        <v>44260</v>
+        <v>44407</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>297</v>
+        <v>67</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>30</v>
@@ -45108,13 +45851,13 @@
         <v>160</v>
       </c>
       <c r="H21" s="8">
-        <v>1938</v>
+        <v>11832</v>
       </c>
       <c r="I21" s="8">
-        <v>25804</v>
+        <v>16903</v>
       </c>
       <c r="J21" s="8">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="K21" s="21">
         <v>0</v>
@@ -45122,48 +45865,46 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A22" s="4">
-        <v>44295</v>
+        <v>44435</v>
       </c>
       <c r="B22" s="4">
-        <v>44300</v>
+        <v>44440</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>297</v>
+        <v>67</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>160</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G22" s="5"/>
       <c r="H22" s="8">
-        <v>1920</v>
+        <v>11832</v>
       </c>
       <c r="I22" s="8">
-        <v>26043</v>
+        <v>17067</v>
       </c>
       <c r="J22" s="8">
-        <v>5000</v>
-      </c>
-      <c r="K22" s="21">
-        <v>0</v>
+        <v>20194</v>
+      </c>
+      <c r="K22" s="19">
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A23" s="4">
-        <v>44327</v>
+        <v>44921</v>
       </c>
       <c r="B23" s="4">
-        <v>44330</v>
+        <v>44924</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>159</v>
@@ -45178,13 +45919,13 @@
         <v>160</v>
       </c>
       <c r="H23" s="8">
-        <v>4166</v>
+        <v>24940</v>
       </c>
       <c r="I23" s="8">
-        <v>24007</v>
+        <v>17961</v>
       </c>
       <c r="J23" s="8">
-        <v>10000</v>
+        <v>44794</v>
       </c>
       <c r="K23" s="21">
         <v>0</v>
@@ -45192,13 +45933,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A24" s="4">
-        <v>44350</v>
+        <v>45243</v>
       </c>
       <c r="B24" s="4">
-        <v>44355</v>
+        <v>45246</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>159</v>
@@ -45213,13 +45954,13 @@
         <v>160</v>
       </c>
       <c r="H24" s="8">
-        <v>1983</v>
+        <v>590</v>
       </c>
       <c r="I24" s="8">
-        <v>25216</v>
+        <v>23925</v>
       </c>
       <c r="J24" s="8">
-        <v>5000</v>
+        <v>1410</v>
       </c>
       <c r="K24" s="21">
         <v>0</v>
@@ -45227,13 +45968,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A25" s="4">
-        <v>44362</v>
+        <v>45656</v>
       </c>
       <c r="B25" s="4">
-        <v>44365</v>
+        <v>45663</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>159</v>
@@ -45242,66 +45983,60 @@
         <v>297</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G25" s="5"/>
-      <c r="H25" s="8">
-        <v>16605</v>
-      </c>
-      <c r="I25" s="8">
-        <v>26019</v>
-      </c>
-      <c r="J25" s="8">
-        <v>43205</v>
-      </c>
-      <c r="K25" s="19">
-        <v>3205</v>
+      <c r="H25" s="21">
+        <v>3846</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A26" s="4">
-        <v>44187</v>
+        <v>45656</v>
       </c>
       <c r="B26" s="4">
-        <v>44190</v>
+        <v>45663</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H26" s="8">
-        <v>6447</v>
-      </c>
-      <c r="I26" s="8">
-        <v>15511</v>
-      </c>
-      <c r="J26" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K26" s="19">
+        <v>298</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="21">
+        <v>3846</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A27" s="4">
-        <v>44224</v>
+        <v>44188</v>
       </c>
       <c r="B27" s="4">
-        <v>44229</v>
+        <v>44193</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>159</v>
@@ -45316,27 +46051,27 @@
         <v>160</v>
       </c>
       <c r="H27" s="8">
-        <v>3093</v>
+        <v>4490</v>
       </c>
       <c r="I27" s="8">
-        <v>16167</v>
+        <v>22273</v>
       </c>
       <c r="J27" s="8">
-        <v>5000</v>
-      </c>
-      <c r="K27" s="19">
+        <v>10000</v>
+      </c>
+      <c r="K27" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A28" s="4">
-        <v>44257</v>
+        <v>44224</v>
       </c>
       <c r="B28" s="4">
-        <v>44260</v>
+        <v>44229</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>159</v>
@@ -45351,27 +46086,27 @@
         <v>160</v>
       </c>
       <c r="H28" s="8">
-        <v>2978</v>
+        <v>2108</v>
       </c>
       <c r="I28" s="8">
-        <v>16792</v>
+        <v>23721</v>
       </c>
       <c r="J28" s="8">
         <v>5000</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A29" s="4">
-        <v>44295</v>
+        <v>44257</v>
       </c>
       <c r="B29" s="4">
-        <v>44300</v>
+        <v>44260</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>159</v>
@@ -45386,27 +46121,27 @@
         <v>160</v>
       </c>
       <c r="H29" s="8">
-        <v>2810</v>
+        <v>1938</v>
       </c>
       <c r="I29" s="8">
-        <v>17792</v>
+        <v>25804</v>
       </c>
       <c r="J29" s="8">
         <v>5000</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A30" s="4">
-        <v>44327</v>
+        <v>44295</v>
       </c>
       <c r="B30" s="4">
-        <v>44330</v>
+        <v>44300</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>159</v>
@@ -45421,27 +46156,27 @@
         <v>160</v>
       </c>
       <c r="H30" s="8">
-        <v>2903</v>
+        <v>1920</v>
       </c>
       <c r="I30" s="8">
-        <v>17225</v>
+        <v>26043</v>
       </c>
       <c r="J30" s="8">
         <v>5000</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A31" s="4">
-        <v>44350</v>
+        <v>44327</v>
       </c>
       <c r="B31" s="4">
-        <v>44355</v>
+        <v>44330</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>159</v>
@@ -45456,27 +46191,27 @@
         <v>160</v>
       </c>
       <c r="H31" s="8">
-        <v>2819</v>
+        <v>4166</v>
       </c>
       <c r="I31" s="8">
-        <v>17736</v>
+        <v>24007</v>
       </c>
       <c r="J31" s="8">
-        <v>5000</v>
-      </c>
-      <c r="K31" s="19">
+        <v>10000</v>
+      </c>
+      <c r="K31" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A32" s="4">
-        <v>44362</v>
+        <v>44350</v>
       </c>
       <c r="B32" s="4">
-        <v>44365</v>
+        <v>44355</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>159</v>
@@ -45485,206 +46220,206 @@
         <v>297</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G32" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="H32" s="8">
-        <v>21050</v>
+        <v>1983</v>
       </c>
       <c r="I32" s="8">
-        <v>18410</v>
+        <v>25216</v>
       </c>
       <c r="J32" s="8">
-        <v>38753</v>
-      </c>
-      <c r="K32" s="19">
-        <v>3753</v>
+        <v>5000</v>
+      </c>
+      <c r="K32" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A33" s="4">
-        <v>45243</v>
+        <v>44362</v>
       </c>
       <c r="B33" s="4">
-        <v>45247</v>
+        <v>44365</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>67</v>
+        <v>297</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H33" s="19">
-        <v>180143</v>
-      </c>
-      <c r="I33" s="19">
-        <v>12456</v>
+        <v>300</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="8">
+        <v>16605</v>
+      </c>
+      <c r="I33" s="8">
+        <v>26019</v>
       </c>
       <c r="J33" s="8">
-        <v>224386</v>
-      </c>
-      <c r="K33" s="21">
-        <v>0</v>
+        <v>43205</v>
+      </c>
+      <c r="K33" s="19">
+        <v>3205</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A34" s="4">
-        <v>45601</v>
+        <v>44187</v>
       </c>
       <c r="B34" s="4">
-        <v>45607</v>
+        <v>44190</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>284</v>
+        <v>161</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="H34" s="19">
-        <v>19146</v>
-      </c>
-      <c r="I34" s="19">
-        <v>26115</v>
-      </c>
-      <c r="J34" s="19">
-        <v>50000</v>
-      </c>
-      <c r="K34" s="21">
+        <v>160</v>
+      </c>
+      <c r="H34" s="8">
+        <v>6447</v>
+      </c>
+      <c r="I34" s="8">
+        <v>15511</v>
+      </c>
+      <c r="J34" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K34" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A35" s="4">
-        <v>45609</v>
+        <v>44224</v>
       </c>
       <c r="B35" s="4">
-        <v>45615</v>
+        <v>44229</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>284</v>
+        <v>161</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="H35" s="19">
-        <v>18359</v>
-      </c>
-      <c r="I35" s="19">
-        <v>27235</v>
-      </c>
-      <c r="J35" s="19">
-        <v>50000</v>
-      </c>
-      <c r="K35" s="21">
+        <v>160</v>
+      </c>
+      <c r="H35" s="8">
+        <v>3093</v>
+      </c>
+      <c r="I35" s="8">
+        <v>16167</v>
+      </c>
+      <c r="J35" s="8">
+        <v>5000</v>
+      </c>
+      <c r="K35" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A36" s="4">
-        <v>45629</v>
+        <v>44257</v>
       </c>
       <c r="B36" s="4">
-        <v>45635</v>
+        <v>44260</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>284</v>
+        <v>161</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="H36" s="19">
-        <v>18746</v>
-      </c>
-      <c r="I36" s="19">
-        <v>26673</v>
-      </c>
-      <c r="J36" s="19">
-        <v>50000</v>
-      </c>
-      <c r="K36" s="21">
+        <v>160</v>
+      </c>
+      <c r="H36" s="8">
+        <v>2978</v>
+      </c>
+      <c r="I36" s="8">
+        <v>16792</v>
+      </c>
+      <c r="J36" s="8">
+        <v>5000</v>
+      </c>
+      <c r="K36" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A37" s="4">
-        <v>45639</v>
+        <v>44295</v>
       </c>
       <c r="B37" s="4">
-        <v>45645</v>
+        <v>44300</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>284</v>
+        <v>161</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="H37" s="19">
-        <v>18324</v>
-      </c>
-      <c r="I37" s="19">
-        <v>27287</v>
-      </c>
-      <c r="J37" s="19">
-        <v>50000</v>
-      </c>
-      <c r="K37" s="21">
+        <v>160</v>
+      </c>
+      <c r="H37" s="8">
+        <v>2810</v>
+      </c>
+      <c r="I37" s="8">
+        <v>17792</v>
+      </c>
+      <c r="J37" s="8">
+        <v>5000</v>
+      </c>
+      <c r="K37" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A38" s="4">
-        <v>45656</v>
+        <v>44327</v>
       </c>
       <c r="B38" s="4">
-        <v>45663</v>
+        <v>44330</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>159</v>
@@ -45693,92 +46428,98 @@
         <v>297</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="21">
-        <v>3846</v>
-      </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9">
-        <v>0</v>
-      </c>
-      <c r="K38" s="21">
+        <v>30</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H38" s="8">
+        <v>2903</v>
+      </c>
+      <c r="I38" s="8">
+        <v>17225</v>
+      </c>
+      <c r="J38" s="8">
+        <v>5000</v>
+      </c>
+      <c r="K38" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A39" s="4">
-        <v>45656</v>
+        <v>44350</v>
       </c>
       <c r="B39" s="4">
-        <v>45663</v>
+        <v>44355</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="21">
-        <v>3846</v>
-      </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9">
-        <v>0</v>
-      </c>
-      <c r="K39" s="21">
+        <v>30</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H39" s="8">
+        <v>2819</v>
+      </c>
+      <c r="I39" s="8">
+        <v>17736</v>
+      </c>
+      <c r="J39" s="8">
+        <v>5000</v>
+      </c>
+      <c r="K39" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A40" s="4">
-        <v>45664</v>
+        <v>44362</v>
       </c>
       <c r="B40" s="4">
-        <v>45671</v>
+        <v>44365</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>284</v>
+        <v>161</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="H40" s="21">
-        <v>18006</v>
-      </c>
-      <c r="I40" s="21">
-        <v>27769</v>
-      </c>
-      <c r="J40" s="21">
-        <v>50000</v>
-      </c>
-      <c r="K40" s="21">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="8">
+        <v>21050</v>
+      </c>
+      <c r="I40" s="8">
+        <v>18410</v>
+      </c>
+      <c r="J40" s="8">
+        <v>38753</v>
+      </c>
+      <c r="K40" s="19">
+        <v>3753</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A41" s="4">
-        <v>45664</v>
+        <v>45243</v>
       </c>
       <c r="B41" s="4">
-        <v>45671</v>
+        <v>45247</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>231</v>
@@ -45790,59 +46531,63 @@
         <v>67</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="21">
+        <v>30</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H41" s="19">
         <v>180143</v>
       </c>
-      <c r="I41" s="21">
-        <v>15148</v>
-      </c>
-      <c r="J41" s="21">
-        <v>272881</v>
-      </c>
-      <c r="K41" s="19">
-        <v>48494</v>
+      <c r="I41" s="19">
+        <v>12456</v>
+      </c>
+      <c r="J41" s="8">
+        <v>224386</v>
+      </c>
+      <c r="K41" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A42" s="4">
-        <v>45672</v>
+        <v>45664</v>
       </c>
       <c r="B42" s="4">
-        <v>45678</v>
+        <v>45671</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>285</v>
+        <v>67</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>286</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G42" s="5"/>
       <c r="H42" s="21">
-        <v>18423</v>
+        <v>180143</v>
       </c>
       <c r="I42" s="21">
-        <v>27141</v>
+        <v>15148</v>
       </c>
       <c r="J42" s="21">
-        <v>50000</v>
-      </c>
-      <c r="K42" s="21">
-        <v>0</v>
+        <v>272881</v>
+      </c>
+      <c r="K42" s="19">
+        <v>48494</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K32" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A1:K32" xr:uid="{00000000-0009-0000-0000-000007000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K42">
+      <sortCondition ref="C1:C32"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/02_運用_rakuten.xlsx
+++ b/data/02_運用_rakuten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ca29965d2a6599a/01_資産管理/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="416" documentId="13_ncr:1_{1CCB16D9-864A-481B-A34B-A3476BEF7488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB971FD3-34E2-43C3-A6AD-0787B42B6B5A}"/>
+  <xr:revisionPtr revIDLastSave="430" documentId="13_ncr:1_{1CCB16D9-864A-481B-A34B-A3476BEF7488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD5BCDD4-E43E-4426-A868-90B9CA7468B4}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">国内株式_信用!$A$1:$AA$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">国内株式_特定!$A$1:$N$539</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">国内株式_特定_配当!$A$1:$K$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">投資信託!$A$1:$K$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">投資信託!$A$1:$K$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">米国株式!$A$1:$R$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">米国株式_配当!$A$1:$K$65</definedName>
   </definedNames>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4710" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4755" uniqueCount="311">
   <si>
     <t>約定日</t>
   </si>
@@ -1390,6 +1390,30 @@
     <t>NISA</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>日本製鉄</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイテツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大和工業</t>
+    <rPh sb="0" eb="2">
+      <t>ダイワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
@@ -2097,7 +2121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2280,9 +2304,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2555,9 +2576,7 @@
   </sheetPr>
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
@@ -2701,7 +2720,7 @@
       </c>
       <c r="F4" s="20">
         <f>SUM(F5:F100)</f>
-        <v>5158828</v>
+        <v>5197828</v>
       </c>
       <c r="G4" s="20">
         <f>SUM(G5:G100)</f>
@@ -2713,11 +2732,11 @@
       </c>
       <c r="I4" s="35">
         <f>SUM(F4:H4)</f>
-        <v>2904724</v>
+        <v>2943724</v>
       </c>
       <c r="J4" s="35">
         <f>SUM(J5:J100)</f>
-        <v>2314629.3193999999</v>
+        <v>2345706.4693999998</v>
       </c>
       <c r="K4" s="20">
         <f>SUM(K5:K100)</f>
@@ -2753,7 +2772,7 @@
       </c>
       <c r="S4" s="38">
         <f>SUM(E4,J4,N4,R4)</f>
-        <v>4685008.6790999994</v>
+        <v>4716085.8290999997</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.7">
@@ -2777,11 +2796,11 @@
         <v>160060</v>
       </c>
       <c r="F5" s="19">
-        <f>SUMIFS(国内株式_特定!$N$2:$N$1000,国内株式_特定!$B$2:$B$1000,"&gt;=2021/1/1",国内株式_特定!$B$2:$B$1000,"&lt;=2021/12/31",国内株式_特定!$N$2:$N$1000,"&gt;=0")</f>
+        <f>SUMIFS(国内株式_特定!$N$2:$N$999,国内株式_特定!$B$2:$B$999,"&gt;=2021/1/1",国内株式_特定!$B$2:$B$999,"&lt;=2021/12/31",国内株式_特定!$N$2:$N$999,"&gt;=0")</f>
         <v>630746</v>
       </c>
       <c r="G5" s="19">
-        <f>SUMIFS(国内株式_特定!$N$2:$N$1000,国内株式_特定!$B$2:$B$1000,"&gt;=2021/1/1",国内株式_特定!$B$2:$B$1000,"&lt;=2021/12/31",国内株式_特定!$N$2:$N$1000,"&lt;0")</f>
+        <f>SUMIFS(国内株式_特定!$N$2:$N$999,国内株式_特定!$B$2:$B$999,"&gt;=2021/1/1",国内株式_特定!$B$2:$B$999,"&lt;=2021/12/31",国内株式_特定!$N$2:$N$999,"&lt;0")</f>
         <v>-601144</v>
       </c>
       <c r="H5" s="19">
@@ -2813,11 +2832,11 @@
         <v>-68778</v>
       </c>
       <c r="O5" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1000,投資信託!$B$2:$B$1000,"&gt;=2021/1/1",投資信託!$B$2:$B$1000,"&lt;=2021/12/31",投資信託!$K$2:$K$1000,"&gt;=0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1001,投資信託!$B$2:$B$1001,"&gt;=2021/1/1",投資信託!$B$2:$B$1001,"&lt;=2021/12/31",投資信託!$K$2:$K$1001,"&gt;=0")</f>
         <v>7366</v>
       </c>
       <c r="P5" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1000,投資信託!$B$2:$B$1000,"&gt;=2021/1/1",投資信託!$B$2:$B$1000,"&lt;=2021/12/31",投資信託!$K$2:$K$1000,"&lt;0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1001,投資信託!$B$2:$B$1001,"&gt;=2021/1/1",投資信託!$B$2:$B$1001,"&lt;=2021/12/31",投資信託!$K$2:$K$1001,"&lt;0")</f>
         <v>-1498</v>
       </c>
       <c r="Q5" s="35">
@@ -2854,11 +2873,11 @@
         <v>35720</v>
       </c>
       <c r="F6" s="19">
-        <f>SUMIFS(国内株式_特定!$N$2:$N$1000,国内株式_特定!$B$2:$B$1000,"&gt;=2022/1/1",国内株式_特定!$B$2:$B$1000,"&lt;=2022/12/31",国内株式_特定!$N$2:$N$1000,"&gt;=0")</f>
+        <f>SUMIFS(国内株式_特定!$N$2:$N$999,国内株式_特定!$B$2:$B$999,"&gt;=2022/1/1",国内株式_特定!$B$2:$B$999,"&lt;=2022/12/31",国内株式_特定!$N$2:$N$999,"&gt;=0")</f>
         <v>619915</v>
       </c>
       <c r="G6" s="19">
-        <f>SUMIFS(国内株式_特定!$N$2:$N$1000,国内株式_特定!$B$2:$B$1000,"&gt;=2022/1/1",国内株式_特定!$B$2:$B$1000,"&lt;=2022/12/31",国内株式_特定!$N$2:$N$1000,"&lt;0")</f>
+        <f>SUMIFS(国内株式_特定!$N$2:$N$999,国内株式_特定!$B$2:$B$999,"&gt;=2022/1/1",国内株式_特定!$B$2:$B$999,"&lt;=2022/12/31",国内株式_特定!$N$2:$N$999,"&lt;0")</f>
         <v>-699020</v>
       </c>
       <c r="H6" s="19">
@@ -2890,11 +2909,11 @@
         <v>-106573</v>
       </c>
       <c r="O6" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1000,投資信託!$B$2:$B$1000,"&gt;=2022/1/1",投資信託!$B$2:$B$1000,"&lt;=2022/12/31",投資信託!$K$2:$K$1000,"&gt;=0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1001,投資信託!$B$2:$B$1001,"&gt;=2022/1/1",投資信託!$B$2:$B$1001,"&lt;=2022/12/31",投資信託!$K$2:$K$1001,"&gt;=0")</f>
         <v>0</v>
       </c>
       <c r="P6" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1000,投資信託!$B$2:$B$1000,"&gt;=2022/1/1",投資信託!$B$2:$B$1000,"&lt;=2022/12/31",投資信託!$K$2:$K$1000,"&lt;0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1001,投資信託!$B$2:$B$1001,"&gt;=2022/1/1",投資信託!$B$2:$B$1001,"&lt;=2022/12/31",投資信託!$K$2:$K$1001,"&lt;0")</f>
         <v>0</v>
       </c>
       <c r="Q6" s="35">
@@ -2931,11 +2950,11 @@
         <v>214320</v>
       </c>
       <c r="F7" s="19">
-        <f>SUMIFS(国内株式_特定!$N$2:$N$1000,国内株式_特定!$B$2:$B$1000,"&gt;=2023/1/1",国内株式_特定!$B$2:$B$1000,"&lt;=2023/12/31",国内株式_特定!$N$2:$N$1000,"&gt;=0")</f>
+        <f>SUMIFS(国内株式_特定!$N$2:$N$999,国内株式_特定!$B$2:$B$999,"&gt;=2023/1/1",国内株式_特定!$B$2:$B$999,"&lt;=2023/12/31",国内株式_特定!$N$2:$N$999,"&gt;=0")</f>
         <v>1679057</v>
       </c>
       <c r="G7" s="19">
-        <f>SUMIFS(国内株式_特定!$N$2:$N$1000,国内株式_特定!$B$2:$B$1000,"&gt;=2023/1/1",国内株式_特定!$B$2:$B$1000,"&lt;=2023/12/31",国内株式_特定!$N$2:$N$1000,"&lt;0")</f>
+        <f>SUMIFS(国内株式_特定!$N$2:$N$999,国内株式_特定!$B$2:$B$999,"&gt;=2023/1/1",国内株式_特定!$B$2:$B$999,"&lt;=2023/12/31",国内株式_特定!$N$2:$N$999,"&lt;0")</f>
         <v>-402270</v>
       </c>
       <c r="H7" s="19">
@@ -2967,11 +2986,11 @@
         <v>-50703</v>
       </c>
       <c r="O7" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1000,投資信託!$B$2:$B$1000,"&gt;=2023/1/1",投資信託!$B$2:$B$1000,"&lt;=2023/12/31",投資信託!$K$2:$K$1000,"&gt;=0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1001,投資信託!$B$2:$B$1001,"&gt;=2023/1/1",投資信託!$B$2:$B$1001,"&lt;=2023/12/31",投資信託!$K$2:$K$1001,"&gt;=0")</f>
         <v>0</v>
       </c>
       <c r="P7" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1000,投資信託!$B$2:$B$1000,"&gt;=2023/1/1",投資信託!$B$2:$B$1000,"&lt;=2023/12/31",投資信託!$K$2:$K$1000,"&lt;0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1001,投資信託!$B$2:$B$1001,"&gt;=2023/1/1",投資信託!$B$2:$B$1001,"&lt;=2023/12/31",投資信託!$K$2:$K$1001,"&lt;0")</f>
         <v>0</v>
       </c>
       <c r="Q7" s="35">
@@ -3008,11 +3027,11 @@
         <v>111775</v>
       </c>
       <c r="F8" s="19">
-        <f>SUMIFS(国内株式_特定!$N$2:$N$1000,国内株式_特定!$B$2:$B$1000,"&gt;=2024/1/1",国内株式_特定!$B$2:$B$1000,"&lt;=2024/12/31",国内株式_特定!$N$2:$N$1000,"&gt;=0")</f>
+        <f>SUMIFS(国内株式_特定!$N$2:$N$999,国内株式_特定!$B$2:$B$999,"&gt;=2024/1/1",国内株式_特定!$B$2:$B$999,"&lt;=2024/12/31",国内株式_特定!$N$2:$N$999,"&gt;=0")</f>
         <v>2059210</v>
       </c>
       <c r="G8" s="19">
-        <f>SUMIFS(国内株式_特定!$N$2:$N$1000,国内株式_特定!$B$2:$B$1000,"&gt;=2024/1/1",国内株式_特定!$B$2:$B$1000,"&lt;=2024/12/31",国内株式_特定!$N$2:$N$1000,"&lt;0")</f>
+        <f>SUMIFS(国内株式_特定!$N$2:$N$999,国内株式_特定!$B$2:$B$999,"&gt;=2024/1/1",国内株式_特定!$B$2:$B$999,"&lt;=2024/12/31",国内株式_特定!$N$2:$N$999,"&lt;0")</f>
         <v>-1123620</v>
       </c>
       <c r="H8" s="19">
@@ -3044,11 +3063,11 @@
         <v>-247960</v>
       </c>
       <c r="O8" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1000,投資信託!$B$2:$B$1000,"&gt;=2024/1/1",投資信託!$B$2:$B$1000,"&lt;=2024/12/31",投資信託!$K$2:$K$1000,"&gt;=0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1001,投資信託!$B$2:$B$1001,"&gt;=2024/1/1",投資信託!$B$2:$B$1001,"&lt;=2024/12/31",投資信託!$K$2:$K$1001,"&gt;=0")</f>
         <v>0</v>
       </c>
       <c r="P8" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1000,投資信託!$B$2:$B$1000,"&gt;=2024/1/1",投資信託!$B$2:$B$1000,"&lt;=2024/12/31",投資信託!$K$2:$K$1000,"&lt;0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1001,投資信託!$B$2:$B$1001,"&gt;=2024/1/1",投資信託!$B$2:$B$1001,"&lt;=2024/12/31",投資信託!$K$2:$K$1001,"&lt;0")</f>
         <v>0</v>
       </c>
       <c r="Q8" s="35">
@@ -3085,11 +3104,11 @@
         <v>2279200</v>
       </c>
       <c r="F9" s="19">
-        <f>SUMIFS(国内株式_特定!$N$2:$N$1000,国内株式_特定!$B$2:$B$1000,"&gt;=2025/1/1",国内株式_特定!$B$2:$B$1000,"&lt;=2025/12/31",国内株式_特定!$N$2:$N$1000,"&gt;=0")</f>
-        <v>169900</v>
+        <f>SUMIFS(国内株式_特定!$N$2:$N$999,国内株式_特定!$B$2:$B$999,"&gt;=2025/1/1",国内株式_特定!$B$2:$B$999,"&lt;=2025/12/31",国内株式_特定!$N$2:$N$999,"&gt;=0")</f>
+        <v>208900</v>
       </c>
       <c r="G9" s="19">
-        <f>SUMIFS(国内株式_特定!$N$2:$N$1000,国内株式_特定!$B$2:$B$1000,"&gt;=2025/1/1",国内株式_特定!$B$2:$B$1000,"&lt;=2025/12/31",国内株式_特定!$N$2:$N$1000,"&lt;0")</f>
+        <f>SUMIFS(国内株式_特定!$N$2:$N$999,国内株式_特定!$B$2:$B$999,"&gt;=2025/1/1",国内株式_特定!$B$2:$B$999,"&lt;=2025/12/31",国内株式_特定!$N$2:$N$999,"&lt;0")</f>
         <v>0</v>
       </c>
       <c r="H9" s="19">
@@ -3098,11 +3117,11 @@
       </c>
       <c r="I9" s="35">
         <f t="shared" ref="I9" si="10">SUM(F9:H9)</f>
-        <v>169900</v>
+        <v>208900</v>
       </c>
       <c r="J9" s="36">
         <f>IF(I9&gt;0,I9-I9*0.20315,I9)</f>
-        <v>135384.815</v>
+        <v>166461.965</v>
       </c>
       <c r="K9" s="19">
         <f>SUMIFS(国内株式_信用!$P$2:$P$1000,国内株式_信用!$B$2:$B$1000,"&gt;=2025/1/1",国内株式_信用!$B$2:$B$1000,"&lt;=2025/12/31",国内株式_信用!$P$2:$P$1000,"&gt;=0")</f>
@@ -3121,11 +3140,11 @@
         <v>0</v>
       </c>
       <c r="O9" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1000,投資信託!$B$2:$B$1000,"&gt;=2025/1/1",投資信託!$B$2:$B$1000,"&lt;=2025/12/31",投資信託!$K$2:$K$1000,"&gt;=0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1001,投資信託!$B$2:$B$1001,"&gt;=2025/1/1",投資信託!$B$2:$B$1001,"&lt;=2025/12/31",投資信託!$K$2:$K$1001,"&gt;=0")</f>
         <v>48494</v>
       </c>
       <c r="P9" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1000,投資信託!$B$2:$B$1000,"&gt;=2025/1/1",投資信託!$B$2:$B$1000,"&lt;=2025/12/31",投資信託!$K$2:$K$1000,"&lt;0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1001,投資信託!$B$2:$B$1001,"&gt;=2025/1/1",投資信託!$B$2:$B$1001,"&lt;=2025/12/31",投資信託!$K$2:$K$1001,"&lt;0")</f>
         <v>0</v>
       </c>
       <c r="Q9" s="35">
@@ -3138,7 +3157,7 @@
       </c>
       <c r="S9" s="38">
         <f>SUM(E9,J9,N9,R9)</f>
-        <v>2453227.2588999998</v>
+        <v>2484304.4088999997</v>
       </c>
     </row>
   </sheetData>
@@ -3173,13 +3192,13 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -3268,10 +3287,10 @@
       <c r="I2" s="25">
         <v>875</v>
       </c>
-      <c r="J2" s="61">
-        <v>0</v>
-      </c>
-      <c r="K2" s="61">
+      <c r="J2" s="19">
+        <v>0</v>
+      </c>
+      <c r="K2" s="19">
         <v>0</v>
       </c>
       <c r="L2" s="25" t="s">
@@ -3313,10 +3332,10 @@
       <c r="I3" s="25">
         <v>925</v>
       </c>
-      <c r="J3" s="61">
-        <v>0</v>
-      </c>
-      <c r="K3" s="61">
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+      <c r="K3" s="19">
         <v>0</v>
       </c>
       <c r="L3" s="25" t="s">
@@ -3358,10 +3377,10 @@
       <c r="I4" s="25">
         <v>1094</v>
       </c>
-      <c r="J4" s="61">
-        <v>0</v>
-      </c>
-      <c r="K4" s="61">
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19">
         <v>0</v>
       </c>
       <c r="L4" s="25" t="s">
@@ -3403,10 +3422,10 @@
       <c r="I5" s="25">
         <v>1307</v>
       </c>
-      <c r="J5" s="61">
-        <v>0</v>
-      </c>
-      <c r="K5" s="61">
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19">
         <v>0</v>
       </c>
       <c r="L5" s="25" t="s">
@@ -3448,10 +3467,10 @@
       <c r="I6" s="25">
         <v>1506.6</v>
       </c>
-      <c r="J6" s="61">
-        <v>0</v>
-      </c>
-      <c r="K6" s="61">
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
         <v>0</v>
       </c>
       <c r="L6" s="25" t="s">
@@ -3493,10 +3512,10 @@
       <c r="I7" s="25">
         <v>1635</v>
       </c>
-      <c r="J7" s="61">
-        <v>0</v>
-      </c>
-      <c r="K7" s="61">
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
         <v>0</v>
       </c>
       <c r="L7" s="25" t="s">
@@ -3538,10 +3557,10 @@
       <c r="I8" s="25">
         <v>580</v>
       </c>
-      <c r="J8" s="61">
-        <v>0</v>
-      </c>
-      <c r="K8" s="61">
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
         <v>0</v>
       </c>
       <c r="L8" s="25" t="s">
@@ -3583,10 +3602,10 @@
       <c r="I9" s="25">
         <v>700</v>
       </c>
-      <c r="J9" s="61">
-        <v>0</v>
-      </c>
-      <c r="K9" s="61">
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
         <v>0</v>
       </c>
       <c r="L9" s="25" t="s">
@@ -3628,10 +3647,10 @@
       <c r="I10" s="25">
         <v>4170</v>
       </c>
-      <c r="J10" s="61">
-        <v>0</v>
-      </c>
-      <c r="K10" s="61">
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
         <v>0</v>
       </c>
       <c r="L10" s="25" t="s">
@@ -3673,10 +3692,10 @@
       <c r="I11" s="25">
         <v>4615</v>
       </c>
-      <c r="J11" s="61">
-        <v>0</v>
-      </c>
-      <c r="K11" s="61">
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+      <c r="K11" s="19">
         <v>0</v>
       </c>
       <c r="L11" s="25" t="s">
@@ -3718,10 +3737,10 @@
       <c r="I12" s="25">
         <v>4440</v>
       </c>
-      <c r="J12" s="61">
-        <v>0</v>
-      </c>
-      <c r="K12" s="61">
+      <c r="J12" s="19">
+        <v>0</v>
+      </c>
+      <c r="K12" s="19">
         <v>0</v>
       </c>
       <c r="L12" s="25" t="s">
@@ -3763,10 +3782,10 @@
       <c r="I13" s="25">
         <v>4530</v>
       </c>
-      <c r="J13" s="61">
-        <v>0</v>
-      </c>
-      <c r="K13" s="61">
+      <c r="J13" s="19">
+        <v>0</v>
+      </c>
+      <c r="K13" s="19">
         <v>0</v>
       </c>
       <c r="L13" s="25" t="s">
@@ -3808,10 +3827,10 @@
       <c r="I14" s="25">
         <v>3115</v>
       </c>
-      <c r="J14" s="61">
-        <v>0</v>
-      </c>
-      <c r="K14" s="61">
+      <c r="J14" s="19">
+        <v>0</v>
+      </c>
+      <c r="K14" s="19">
         <v>0</v>
       </c>
       <c r="L14" s="25" t="s">
@@ -3853,10 +3872,10 @@
       <c r="I15" s="25">
         <v>4405</v>
       </c>
-      <c r="J15" s="61">
-        <v>0</v>
-      </c>
-      <c r="K15" s="61">
+      <c r="J15" s="19">
+        <v>0</v>
+      </c>
+      <c r="K15" s="19">
         <v>0</v>
       </c>
       <c r="L15" s="25" t="s">
@@ -3898,10 +3917,10 @@
       <c r="I16" s="25">
         <v>1703.8</v>
       </c>
-      <c r="J16" s="61">
-        <v>0</v>
-      </c>
-      <c r="K16" s="61">
+      <c r="J16" s="19">
+        <v>0</v>
+      </c>
+      <c r="K16" s="19">
         <v>0</v>
       </c>
       <c r="L16" s="25" t="s">
@@ -3943,10 +3962,10 @@
       <c r="I17" s="25">
         <v>1790</v>
       </c>
-      <c r="J17" s="61">
-        <v>0</v>
-      </c>
-      <c r="K17" s="61">
+      <c r="J17" s="19">
+        <v>0</v>
+      </c>
+      <c r="K17" s="19">
         <v>0</v>
       </c>
       <c r="L17" s="25" t="s">
@@ -3988,10 +4007,10 @@
       <c r="I18" s="25">
         <v>2988.5</v>
       </c>
-      <c r="J18" s="61">
-        <v>0</v>
-      </c>
-      <c r="K18" s="61">
+      <c r="J18" s="19">
+        <v>0</v>
+      </c>
+      <c r="K18" s="19">
         <v>0</v>
       </c>
       <c r="L18" s="25" t="s">
@@ -4031,10 +4050,10 @@
       <c r="I19" s="25">
         <v>597.70000000000005</v>
       </c>
-      <c r="J19" s="61">
-        <v>0</v>
-      </c>
-      <c r="K19" s="61">
+      <c r="J19" s="19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="19">
         <v>0</v>
       </c>
       <c r="L19" s="25" t="s">
@@ -4075,10 +4094,10 @@
       <c r="I20" s="25">
         <v>4620</v>
       </c>
-      <c r="J20" s="61">
-        <v>0</v>
-      </c>
-      <c r="K20" s="61">
+      <c r="J20" s="19">
+        <v>0</v>
+      </c>
+      <c r="K20" s="19">
         <v>0</v>
       </c>
       <c r="L20" s="25" t="s">
@@ -4120,10 +4139,10 @@
       <c r="I21" s="25">
         <v>3818</v>
       </c>
-      <c r="J21" s="61">
-        <v>0</v>
-      </c>
-      <c r="K21" s="61">
+      <c r="J21" s="19">
+        <v>0</v>
+      </c>
+      <c r="K21" s="19">
         <v>0</v>
       </c>
       <c r="L21" s="25" t="s">
@@ -4165,10 +4184,10 @@
       <c r="I22" s="25">
         <v>3954</v>
       </c>
-      <c r="J22" s="61">
-        <v>0</v>
-      </c>
-      <c r="K22" s="61">
+      <c r="J22" s="19">
+        <v>0</v>
+      </c>
+      <c r="K22" s="19">
         <v>0</v>
       </c>
       <c r="L22" s="25" t="s">
@@ -4210,10 +4229,10 @@
       <c r="I23" s="25">
         <v>2590</v>
       </c>
-      <c r="J23" s="61">
-        <v>0</v>
-      </c>
-      <c r="K23" s="61">
+      <c r="J23" s="19">
+        <v>0</v>
+      </c>
+      <c r="K23" s="19">
         <v>0</v>
       </c>
       <c r="L23" s="25" t="s">
@@ -4253,10 +4272,10 @@
       <c r="I24" s="25">
         <v>259</v>
       </c>
-      <c r="J24" s="61">
-        <v>0</v>
-      </c>
-      <c r="K24" s="61">
+      <c r="J24" s="19">
+        <v>0</v>
+      </c>
+      <c r="K24" s="19">
         <v>0</v>
       </c>
       <c r="L24" s="25" t="s">
@@ -4295,10 +4314,10 @@
       <c r="I25" s="25">
         <v>259</v>
       </c>
-      <c r="J25" s="61">
-        <v>0</v>
-      </c>
-      <c r="K25" s="61">
+      <c r="J25" s="19">
+        <v>0</v>
+      </c>
+      <c r="K25" s="19">
         <v>0</v>
       </c>
       <c r="L25" s="25" t="s">
@@ -4337,10 +4356,10 @@
       <c r="I26" s="25">
         <v>259</v>
       </c>
-      <c r="J26" s="61">
-        <v>0</v>
-      </c>
-      <c r="K26" s="61">
+      <c r="J26" s="19">
+        <v>0</v>
+      </c>
+      <c r="K26" s="19">
         <v>0</v>
       </c>
       <c r="L26" s="25" t="s">
@@ -4381,10 +4400,10 @@
       <c r="I27" s="25">
         <v>2009</v>
       </c>
-      <c r="J27" s="61">
-        <v>0</v>
-      </c>
-      <c r="K27" s="61">
+      <c r="J27" s="19">
+        <v>0</v>
+      </c>
+      <c r="K27" s="19">
         <v>0</v>
       </c>
       <c r="L27" s="25" t="s">
@@ -4424,10 +4443,10 @@
       <c r="I28" s="25">
         <v>2009</v>
       </c>
-      <c r="J28" s="61">
-        <v>0</v>
-      </c>
-      <c r="K28" s="61">
+      <c r="J28" s="19">
+        <v>0</v>
+      </c>
+      <c r="K28" s="19">
         <v>0</v>
       </c>
       <c r="L28" s="25" t="s">
@@ -4468,17 +4487,17 @@
       <c r="I29" s="25">
         <v>895</v>
       </c>
-      <c r="J29" s="61">
-        <v>0</v>
-      </c>
-      <c r="K29" s="61">
+      <c r="J29" s="19">
+        <v>0</v>
+      </c>
+      <c r="K29" s="19">
         <v>0</v>
       </c>
       <c r="L29" s="25" t="s">
         <v>306</v>
       </c>
       <c r="M29" s="19">
-        <f t="shared" ref="M29:M47" si="1">H29*I29</f>
+        <f t="shared" ref="M29:M49" si="1">H29*I29</f>
         <v>89500</v>
       </c>
       <c r="N29" s="14">
@@ -4513,10 +4532,10 @@
       <c r="I30" s="25">
         <v>1047</v>
       </c>
-      <c r="J30" s="61">
-        <v>0</v>
-      </c>
-      <c r="K30" s="61">
+      <c r="J30" s="19">
+        <v>0</v>
+      </c>
+      <c r="K30" s="19">
         <v>0</v>
       </c>
       <c r="L30" s="25" t="s">
@@ -4558,10 +4577,10 @@
       <c r="I31" s="25">
         <v>1890</v>
       </c>
-      <c r="J31" s="61">
-        <v>0</v>
-      </c>
-      <c r="K31" s="61">
+      <c r="J31" s="19">
+        <v>0</v>
+      </c>
+      <c r="K31" s="19">
         <v>0</v>
       </c>
       <c r="L31" s="25" t="s">
@@ -4603,10 +4622,10 @@
       <c r="I32" s="25">
         <v>2325</v>
       </c>
-      <c r="J32" s="61">
-        <v>0</v>
-      </c>
-      <c r="K32" s="61">
+      <c r="J32" s="19">
+        <v>0</v>
+      </c>
+      <c r="K32" s="19">
         <v>0</v>
       </c>
       <c r="L32" s="25" t="s">
@@ -4648,10 +4667,10 @@
       <c r="I33" s="25">
         <v>2686</v>
       </c>
-      <c r="J33" s="61">
-        <v>0</v>
-      </c>
-      <c r="K33" s="61">
+      <c r="J33" s="19">
+        <v>0</v>
+      </c>
+      <c r="K33" s="19">
         <v>0</v>
       </c>
       <c r="L33" s="25" t="s">
@@ -4693,10 +4712,10 @@
       <c r="I34" s="25">
         <v>454</v>
       </c>
-      <c r="J34" s="61">
-        <v>0</v>
-      </c>
-      <c r="K34" s="61">
+      <c r="J34" s="19">
+        <v>0</v>
+      </c>
+      <c r="K34" s="19">
         <v>0</v>
       </c>
       <c r="L34" s="25" t="s">
@@ -4738,10 +4757,10 @@
       <c r="I35" s="25">
         <v>593</v>
       </c>
-      <c r="J35" s="61">
-        <v>0</v>
-      </c>
-      <c r="K35" s="61">
+      <c r="J35" s="19">
+        <v>0</v>
+      </c>
+      <c r="K35" s="19">
         <v>0</v>
       </c>
       <c r="L35" s="25" t="s">
@@ -4783,10 +4802,10 @@
       <c r="I36" s="25">
         <v>688</v>
       </c>
-      <c r="J36" s="61">
-        <v>0</v>
-      </c>
-      <c r="K36" s="61">
+      <c r="J36" s="19">
+        <v>0</v>
+      </c>
+      <c r="K36" s="19">
         <v>0</v>
       </c>
       <c r="L36" s="25" t="s">
@@ -4828,10 +4847,10 @@
       <c r="I37" s="25">
         <v>763.4</v>
       </c>
-      <c r="J37" s="61">
-        <v>0</v>
-      </c>
-      <c r="K37" s="61">
+      <c r="J37" s="19">
+        <v>0</v>
+      </c>
+      <c r="K37" s="19">
         <v>0</v>
       </c>
       <c r="L37" s="25" t="s">
@@ -4873,10 +4892,10 @@
       <c r="I38" s="25">
         <v>1008</v>
       </c>
-      <c r="J38" s="61">
-        <v>0</v>
-      </c>
-      <c r="K38" s="61">
+      <c r="J38" s="19">
+        <v>0</v>
+      </c>
+      <c r="K38" s="19">
         <v>0</v>
       </c>
       <c r="L38" s="25" t="s">
@@ -4918,10 +4937,10 @@
       <c r="I39" s="25">
         <v>2713.4</v>
       </c>
-      <c r="J39" s="61">
-        <v>0</v>
-      </c>
-      <c r="K39" s="61">
+      <c r="J39" s="19">
+        <v>0</v>
+      </c>
+      <c r="K39" s="19">
         <v>0</v>
       </c>
       <c r="L39" s="25" t="s">
@@ -4963,10 +4982,10 @@
       <c r="I40" s="25">
         <v>3004.6</v>
       </c>
-      <c r="J40" s="61">
-        <v>0</v>
-      </c>
-      <c r="K40" s="61">
+      <c r="J40" s="19">
+        <v>0</v>
+      </c>
+      <c r="K40" s="19">
         <v>0</v>
       </c>
       <c r="L40" s="25" t="s">
@@ -5008,10 +5027,10 @@
       <c r="I41" s="25">
         <v>4775</v>
       </c>
-      <c r="J41" s="61">
-        <v>0</v>
-      </c>
-      <c r="K41" s="61">
+      <c r="J41" s="19">
+        <v>0</v>
+      </c>
+      <c r="K41" s="19">
         <v>0</v>
       </c>
       <c r="L41" s="25" t="s">
@@ -5053,10 +5072,10 @@
       <c r="I42" s="25">
         <v>4282</v>
       </c>
-      <c r="J42" s="61">
-        <v>0</v>
-      </c>
-      <c r="K42" s="61">
+      <c r="J42" s="19">
+        <v>0</v>
+      </c>
+      <c r="K42" s="19">
         <v>0</v>
       </c>
       <c r="L42" s="25" t="s">
@@ -5098,10 +5117,10 @@
       <c r="I43" s="25">
         <v>3869.4</v>
       </c>
-      <c r="J43" s="61">
-        <v>0</v>
-      </c>
-      <c r="K43" s="61">
+      <c r="J43" s="19">
+        <v>0</v>
+      </c>
+      <c r="K43" s="19">
         <v>0</v>
       </c>
       <c r="L43" s="25" t="s">
@@ -5143,10 +5162,10 @@
       <c r="I44" s="25">
         <v>4312</v>
       </c>
-      <c r="J44" s="61">
-        <v>0</v>
-      </c>
-      <c r="K44" s="61">
+      <c r="J44" s="19">
+        <v>0</v>
+      </c>
+      <c r="K44" s="19">
         <v>0</v>
       </c>
       <c r="L44" s="25" t="s">
@@ -5188,10 +5207,10 @@
       <c r="I45" s="25">
         <v>4600</v>
       </c>
-      <c r="J45" s="61">
-        <v>0</v>
-      </c>
-      <c r="K45" s="61">
+      <c r="J45" s="19">
+        <v>0</v>
+      </c>
+      <c r="K45" s="19">
         <v>0</v>
       </c>
       <c r="L45" s="25" t="s">
@@ -5233,10 +5252,10 @@
       <c r="I46" s="25">
         <v>4620</v>
       </c>
-      <c r="J46" s="61">
-        <v>0</v>
-      </c>
-      <c r="K46" s="61">
+      <c r="J46" s="19">
+        <v>0</v>
+      </c>
+      <c r="K46" s="19">
         <v>0</v>
       </c>
       <c r="L46" s="25" t="s">
@@ -5278,10 +5297,10 @@
       <c r="I47" s="25">
         <v>2457.5</v>
       </c>
-      <c r="J47" s="61">
-        <v>0</v>
-      </c>
-      <c r="K47" s="61">
+      <c r="J47" s="19">
+        <v>0</v>
+      </c>
+      <c r="K47" s="19">
         <v>0</v>
       </c>
       <c r="L47" s="25" t="s">
@@ -5292,6 +5311,96 @@
         <v>245750</v>
       </c>
       <c r="N47" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A48" s="4">
+        <v>45691</v>
+      </c>
+      <c r="B48" s="4">
+        <v>45693</v>
+      </c>
+      <c r="C48" s="5">
+        <v>4204</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="5">
+        <v>100</v>
+      </c>
+      <c r="I48" s="25">
+        <v>2535</v>
+      </c>
+      <c r="J48" s="19">
+        <v>0</v>
+      </c>
+      <c r="K48" s="19">
+        <v>0</v>
+      </c>
+      <c r="L48" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="M48" s="19">
+        <f t="shared" si="1"/>
+        <v>253500</v>
+      </c>
+      <c r="N48" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A49" s="4">
+        <v>45695</v>
+      </c>
+      <c r="B49" s="4">
+        <v>45700</v>
+      </c>
+      <c r="C49" s="5">
+        <v>5444</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="5">
+        <v>100</v>
+      </c>
+      <c r="I49" s="25">
+        <v>7753</v>
+      </c>
+      <c r="J49" s="19">
+        <v>0</v>
+      </c>
+      <c r="K49" s="19">
+        <v>0</v>
+      </c>
+      <c r="L49" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="M49" s="19">
+        <f t="shared" si="1"/>
+        <v>775300</v>
+      </c>
+      <c r="N49" s="23">
         <v>0</v>
       </c>
     </row>
@@ -6980,13 +7089,13 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:O601"/>
+  <dimension ref="A1:O600"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E561" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="A1:N1"/>
+      <selection pane="bottomRight" activeCell="N577" sqref="N577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -30892,7 +31001,7 @@
         <v>276</v>
       </c>
       <c r="M531" s="15">
-        <f t="shared" ref="M531:M570" si="14">IF(G531="買付",H531*I531+SUM(J531:K531),H531*I531-SUM(J531:K531))</f>
+        <f t="shared" ref="M531:M576" si="14">IF(G531="買付",H531*I531+SUM(J531:K531),H531*I531-SUM(J531:K531))</f>
         <v>98750</v>
       </c>
       <c r="N531" s="21">
@@ -32654,69 +32763,335 @@
       </c>
     </row>
     <row r="571" spans="1:14" x14ac:dyDescent="0.7">
-      <c r="I571" s="27"/>
+      <c r="A571" s="4">
+        <v>45691</v>
+      </c>
+      <c r="B571" s="4">
+        <v>45693</v>
+      </c>
+      <c r="C571" s="5">
+        <v>2432</v>
+      </c>
+      <c r="D571" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E571" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F571" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G571" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H571" s="5">
+        <v>100</v>
+      </c>
+      <c r="I571" s="25">
+        <v>2826</v>
+      </c>
+      <c r="J571" s="9">
+        <v>0</v>
+      </c>
+      <c r="K571" s="14">
+        <v>0</v>
+      </c>
+      <c r="L571" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="M571" s="15">
+        <f t="shared" si="14"/>
+        <v>282600</v>
+      </c>
+      <c r="N571" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="572" spans="1:14" x14ac:dyDescent="0.7">
-      <c r="I572" s="27"/>
+      <c r="A572" s="4">
+        <v>45691</v>
+      </c>
+      <c r="B572" s="4">
+        <v>45693</v>
+      </c>
+      <c r="C572" s="5">
+        <v>5401</v>
+      </c>
+      <c r="D572" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E572" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F572" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G572" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H572" s="5">
+        <v>100</v>
+      </c>
+      <c r="I572" s="25">
+        <v>3184</v>
+      </c>
+      <c r="J572" s="9">
+        <v>0</v>
+      </c>
+      <c r="K572" s="14">
+        <v>0</v>
+      </c>
+      <c r="L572" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="M572" s="15">
+        <f t="shared" si="14"/>
+        <v>318400</v>
+      </c>
+      <c r="N572" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="573" spans="1:14" x14ac:dyDescent="0.7">
-      <c r="I573" s="27"/>
+      <c r="A573" s="4">
+        <v>45691</v>
+      </c>
+      <c r="B573" s="4">
+        <v>45693</v>
+      </c>
+      <c r="C573" s="5">
+        <v>8316</v>
+      </c>
+      <c r="D573" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E573" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F573" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G573" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H573" s="5">
+        <v>100</v>
+      </c>
+      <c r="I573" s="25">
+        <v>3756</v>
+      </c>
+      <c r="J573" s="9">
+        <v>0</v>
+      </c>
+      <c r="K573" s="14">
+        <v>0</v>
+      </c>
+      <c r="L573" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="M573" s="15">
+        <f t="shared" si="14"/>
+        <v>375600</v>
+      </c>
+      <c r="N573" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="574" spans="1:14" x14ac:dyDescent="0.7">
-      <c r="I574" s="27"/>
+      <c r="A574" s="4">
+        <v>45692</v>
+      </c>
+      <c r="B574" s="4">
+        <v>45694</v>
+      </c>
+      <c r="C574" s="5">
+        <v>7867</v>
+      </c>
+      <c r="D574" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E574" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F574" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G574" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H574" s="5">
+        <v>100</v>
+      </c>
+      <c r="I574" s="25">
+        <v>4241</v>
+      </c>
+      <c r="J574" s="9">
+        <v>0</v>
+      </c>
+      <c r="K574" s="14">
+        <v>0</v>
+      </c>
+      <c r="L574" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M574" s="15">
+        <f t="shared" si="14"/>
+        <v>424100</v>
+      </c>
+      <c r="N574" s="19">
+        <v>18800</v>
+      </c>
     </row>
     <row r="575" spans="1:14" x14ac:dyDescent="0.7">
-      <c r="I575" s="27"/>
+      <c r="A575" s="4">
+        <v>45692</v>
+      </c>
+      <c r="B575" s="4">
+        <v>45694</v>
+      </c>
+      <c r="C575" s="5">
+        <v>8316</v>
+      </c>
+      <c r="D575" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E575" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F575" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G575" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H575" s="5">
+        <v>100</v>
+      </c>
+      <c r="I575" s="25">
+        <v>3787</v>
+      </c>
+      <c r="J575" s="9">
+        <v>0</v>
+      </c>
+      <c r="K575" s="14">
+        <v>0</v>
+      </c>
+      <c r="L575" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M575" s="15">
+        <f t="shared" si="14"/>
+        <v>378700</v>
+      </c>
+      <c r="N575" s="19">
+        <v>3100</v>
+      </c>
     </row>
     <row r="576" spans="1:14" x14ac:dyDescent="0.7">
-      <c r="I576" s="27"/>
-    </row>
-    <row r="577" spans="9:9" x14ac:dyDescent="0.7">
-      <c r="I577" s="27"/>
-    </row>
-    <row r="578" spans="9:9" x14ac:dyDescent="0.7">
+      <c r="A576" s="4">
+        <v>45695</v>
+      </c>
+      <c r="B576" s="4">
+        <v>45700</v>
+      </c>
+      <c r="C576" s="5">
+        <v>2432</v>
+      </c>
+      <c r="D576" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E576" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F576" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G576" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H576" s="5">
+        <v>300</v>
+      </c>
+      <c r="I576" s="25">
+        <v>3016</v>
+      </c>
+      <c r="J576" s="9">
+        <v>0</v>
+      </c>
+      <c r="K576" s="14">
+        <v>0</v>
+      </c>
+      <c r="L576" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M576" s="15">
+        <f t="shared" si="14"/>
+        <v>904800</v>
+      </c>
+      <c r="N576" s="19">
+        <f>5700*3</f>
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="577" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="A577" s="6"/>
+      <c r="B577" s="6"/>
+      <c r="C577" s="5"/>
+      <c r="D577" s="9"/>
+      <c r="E577" s="5"/>
+      <c r="F577" s="5"/>
+      <c r="G577" s="5"/>
+      <c r="H577" s="5"/>
+      <c r="I577" s="25"/>
+      <c r="J577" s="9"/>
+      <c r="K577" s="14"/>
+      <c r="L577" s="9"/>
+      <c r="M577" s="15"/>
+      <c r="N577" s="19"/>
+    </row>
+    <row r="578" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I578" s="27"/>
     </row>
-    <row r="579" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="579" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I579" s="27"/>
     </row>
-    <row r="580" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I580" s="27"/>
     </row>
-    <row r="581" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I581" s="27"/>
     </row>
-    <row r="582" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I582" s="27"/>
     </row>
-    <row r="583" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="583" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I583" s="27"/>
     </row>
-    <row r="584" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I584" s="27"/>
     </row>
-    <row r="585" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="585" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I585" s="27"/>
     </row>
-    <row r="586" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I586" s="27"/>
     </row>
-    <row r="587" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="587" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I587" s="27"/>
     </row>
-    <row r="588" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="588" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I588" s="27"/>
     </row>
-    <row r="589" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="589" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I589" s="27"/>
     </row>
-    <row r="590" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="590" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I590" s="27"/>
     </row>
-    <row r="591" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="591" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I591" s="27"/>
     </row>
-    <row r="592" spans="9:9" x14ac:dyDescent="0.7">
+    <row r="592" spans="1:14" x14ac:dyDescent="0.7">
       <c r="I592" s="27"/>
     </row>
     <row r="593" spans="9:9" x14ac:dyDescent="0.7">
@@ -32742,9 +33117,6 @@
     </row>
     <row r="600" spans="9:9" x14ac:dyDescent="0.7">
       <c r="I600" s="27"/>
-    </row>
-    <row r="601" spans="9:9" x14ac:dyDescent="0.7">
-      <c r="I601" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N539" xr:uid="{00000000-0009-0000-0000-000002000000}">
@@ -45110,13 +45482,13 @@
   <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -45379,34 +45751,34 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A8" s="4">
-        <v>44368</v>
+        <v>45692</v>
       </c>
       <c r="B8" s="4">
-        <v>44371</v>
+        <v>45698</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H8" s="8">
-        <v>21735</v>
-      </c>
-      <c r="I8" s="8">
-        <v>13803</v>
-      </c>
-      <c r="J8" s="8">
-        <v>30000</v>
+        <v>286</v>
+      </c>
+      <c r="H8" s="21">
+        <v>18189</v>
+      </c>
+      <c r="I8" s="21">
+        <v>27489</v>
+      </c>
+      <c r="J8" s="21">
+        <v>50000</v>
       </c>
       <c r="K8" s="21">
         <v>0</v>
@@ -45414,10 +45786,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A9" s="4">
-        <v>44377</v>
+        <v>44368</v>
       </c>
       <c r="B9" s="4">
-        <v>44382</v>
+        <v>44371</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>163</v>
@@ -45435,13 +45807,13 @@
         <v>160</v>
       </c>
       <c r="H9" s="8">
-        <v>7034</v>
+        <v>21735</v>
       </c>
       <c r="I9" s="8">
-        <v>14217</v>
+        <v>13803</v>
       </c>
       <c r="J9" s="8">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K9" s="21">
         <v>0</v>
@@ -45449,10 +45821,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A10" s="4">
-        <v>44403</v>
+        <v>44377</v>
       </c>
       <c r="B10" s="4">
-        <v>44406</v>
+        <v>44382</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>163</v>
@@ -45461,7 +45833,7 @@
         <v>159</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>67</v>
+        <v>297</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>30</v>
@@ -45470,10 +45842,10 @@
         <v>160</v>
       </c>
       <c r="H10" s="8">
-        <v>7310</v>
+        <v>7034</v>
       </c>
       <c r="I10" s="8">
-        <v>13681</v>
+        <v>14217</v>
       </c>
       <c r="J10" s="8">
         <v>10000</v>
@@ -45484,10 +45856,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A11" s="4">
-        <v>44525</v>
+        <v>44403</v>
       </c>
       <c r="B11" s="4">
-        <v>44530</v>
+        <v>44406</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>163</v>
@@ -45499,28 +45871,30 @@
         <v>67</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="H11" s="8">
         <v>7310</v>
       </c>
       <c r="I11" s="8">
-        <v>13973</v>
+        <v>13681</v>
       </c>
       <c r="J11" s="8">
-        <v>10214</v>
-      </c>
-      <c r="K11" s="19">
-        <v>214</v>
+        <v>10000</v>
+      </c>
+      <c r="K11" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A12" s="4">
-        <v>44529</v>
+        <v>44525</v>
       </c>
       <c r="B12" s="4">
-        <v>44532</v>
+        <v>44530</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>163</v>
@@ -45529,34 +45903,34 @@
         <v>159</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>297</v>
+        <v>67</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>300</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="8">
-        <v>28769</v>
+        <v>7310</v>
       </c>
       <c r="I12" s="8">
-        <v>13383</v>
+        <v>13973</v>
       </c>
       <c r="J12" s="8">
-        <v>38502</v>
+        <v>10214</v>
       </c>
       <c r="K12" s="19">
-        <v>-1498</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A13" s="4">
-        <v>44165</v>
+        <v>44529</v>
       </c>
       <c r="B13" s="4">
-        <v>44168</v>
+        <v>44532</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>159</v>
@@ -45565,30 +45939,28 @@
         <v>297</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>160</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="8">
-        <v>3846</v>
+        <v>28769</v>
       </c>
       <c r="I13" s="8">
-        <v>13000</v>
+        <v>13383</v>
       </c>
       <c r="J13" s="8">
-        <v>5000</v>
-      </c>
-      <c r="K13" s="21">
-        <v>0</v>
+        <v>38502</v>
+      </c>
+      <c r="K13" s="19">
+        <v>-1498</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A14" s="4">
-        <v>44201</v>
+        <v>44165</v>
       </c>
       <c r="B14" s="4">
-        <v>44204</v>
+        <v>44168</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>158</v>
@@ -45606,13 +45978,13 @@
         <v>160</v>
       </c>
       <c r="H14" s="8">
-        <v>7604</v>
+        <v>3846</v>
       </c>
       <c r="I14" s="8">
-        <v>13152</v>
+        <v>13000</v>
       </c>
       <c r="J14" s="8">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="K14" s="21">
         <v>0</v>
@@ -45620,10 +45992,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A15" s="4">
-        <v>44236</v>
+        <v>44201</v>
       </c>
       <c r="B15" s="4">
-        <v>44242</v>
+        <v>44204</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>158</v>
@@ -45641,10 +46013,10 @@
         <v>160</v>
       </c>
       <c r="H15" s="8">
-        <v>7041</v>
+        <v>7604</v>
       </c>
       <c r="I15" s="8">
-        <v>14202</v>
+        <v>13152</v>
       </c>
       <c r="J15" s="8">
         <v>10000</v>
@@ -45655,10 +46027,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A16" s="4">
-        <v>44257</v>
+        <v>44236</v>
       </c>
       <c r="B16" s="4">
-        <v>44260</v>
+        <v>44242</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>158</v>
@@ -45676,10 +46048,10 @@
         <v>160</v>
       </c>
       <c r="H16" s="8">
-        <v>6947</v>
+        <v>7041</v>
       </c>
       <c r="I16" s="8">
-        <v>14394</v>
+        <v>14202</v>
       </c>
       <c r="J16" s="8">
         <v>10000</v>
@@ -45690,10 +46062,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A17" s="4">
-        <v>44295</v>
+        <v>44257</v>
       </c>
       <c r="B17" s="4">
-        <v>44300</v>
+        <v>44260</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>158</v>
@@ -45711,10 +46083,10 @@
         <v>160</v>
       </c>
       <c r="H17" s="8">
-        <v>6460</v>
+        <v>6947</v>
       </c>
       <c r="I17" s="8">
-        <v>15481</v>
+        <v>14394</v>
       </c>
       <c r="J17" s="8">
         <v>10000</v>
@@ -45725,10 +46097,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A18" s="4">
-        <v>44327</v>
+        <v>44295</v>
       </c>
       <c r="B18" s="4">
-        <v>44330</v>
+        <v>44300</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>158</v>
@@ -45746,13 +46118,13 @@
         <v>160</v>
       </c>
       <c r="H18" s="8">
-        <v>3167</v>
+        <v>6460</v>
       </c>
       <c r="I18" s="8">
-        <v>15789</v>
+        <v>15481</v>
       </c>
       <c r="J18" s="8">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K18" s="21">
         <v>0</v>
@@ -45760,10 +46132,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A19" s="4">
-        <v>44350</v>
+        <v>44327</v>
       </c>
       <c r="B19" s="4">
-        <v>44355</v>
+        <v>44330</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>158</v>
@@ -45781,13 +46153,13 @@
         <v>160</v>
       </c>
       <c r="H19" s="8">
-        <v>6263</v>
+        <v>3167</v>
       </c>
       <c r="I19" s="8">
-        <v>15967</v>
+        <v>15789</v>
       </c>
       <c r="J19" s="8">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="K19" s="21">
         <v>0</v>
@@ -45795,10 +46167,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A20" s="4">
-        <v>44377</v>
+        <v>44350</v>
       </c>
       <c r="B20" s="4">
-        <v>44382</v>
+        <v>44355</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>158</v>
@@ -45816,10 +46188,10 @@
         <v>160</v>
       </c>
       <c r="H20" s="8">
-        <v>6081</v>
+        <v>6263</v>
       </c>
       <c r="I20" s="8">
-        <v>16444</v>
+        <v>15967</v>
       </c>
       <c r="J20" s="8">
         <v>10000</v>
@@ -45830,10 +46202,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A21" s="4">
-        <v>44404</v>
+        <v>44377</v>
       </c>
       <c r="B21" s="4">
-        <v>44407</v>
+        <v>44382</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>158</v>
@@ -45842,7 +46214,7 @@
         <v>159</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>67</v>
+        <v>297</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>30</v>
@@ -45851,13 +46223,13 @@
         <v>160</v>
       </c>
       <c r="H21" s="8">
-        <v>11832</v>
+        <v>6081</v>
       </c>
       <c r="I21" s="8">
-        <v>16903</v>
+        <v>16444</v>
       </c>
       <c r="J21" s="8">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="K21" s="21">
         <v>0</v>
@@ -45865,10 +46237,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A22" s="4">
-        <v>44435</v>
+        <v>44404</v>
       </c>
       <c r="B22" s="4">
-        <v>44440</v>
+        <v>44407</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>158</v>
@@ -45880,28 +46252,30 @@
         <v>67</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G22" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="H22" s="8">
         <v>11832</v>
       </c>
       <c r="I22" s="8">
-        <v>17067</v>
+        <v>16903</v>
       </c>
       <c r="J22" s="8">
-        <v>20194</v>
-      </c>
-      <c r="K22" s="19">
-        <v>194</v>
+        <v>20000</v>
+      </c>
+      <c r="K22" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A23" s="4">
-        <v>44921</v>
+        <v>44435</v>
       </c>
       <c r="B23" s="4">
-        <v>44924</v>
+        <v>44440</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>158</v>
@@ -45910,33 +46284,31 @@
         <v>159</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>297</v>
+        <v>67</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>160</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G23" s="5"/>
       <c r="H23" s="8">
-        <v>24940</v>
+        <v>11832</v>
       </c>
       <c r="I23" s="8">
-        <v>17961</v>
+        <v>17067</v>
       </c>
       <c r="J23" s="8">
-        <v>44794</v>
-      </c>
-      <c r="K23" s="21">
-        <v>0</v>
+        <v>20194</v>
+      </c>
+      <c r="K23" s="19">
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A24" s="4">
-        <v>45243</v>
+        <v>44921</v>
       </c>
       <c r="B24" s="4">
-        <v>45246</v>
+        <v>44924</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>158</v>
@@ -45954,13 +46326,13 @@
         <v>160</v>
       </c>
       <c r="H24" s="8">
-        <v>590</v>
+        <v>24940</v>
       </c>
       <c r="I24" s="8">
-        <v>23925</v>
+        <v>17961</v>
       </c>
       <c r="J24" s="8">
-        <v>1410</v>
+        <v>44794</v>
       </c>
       <c r="K24" s="21">
         <v>0</v>
@@ -45968,10 +46340,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A25" s="4">
-        <v>45656</v>
+        <v>45243</v>
       </c>
       <c r="B25" s="4">
-        <v>45663</v>
+        <v>45246</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>158</v>
@@ -45983,15 +46355,19 @@
         <v>297</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="21">
-        <v>3846</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="8">
+        <v>590</v>
+      </c>
+      <c r="I25" s="8">
+        <v>23925</v>
+      </c>
+      <c r="J25" s="8">
+        <v>1410</v>
       </c>
       <c r="K25" s="21">
         <v>0</v>
@@ -46011,10 +46387,10 @@
         <v>159</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="21">
@@ -46030,34 +46406,30 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A27" s="4">
-        <v>44188</v>
+        <v>45656</v>
       </c>
       <c r="B27" s="4">
-        <v>44193</v>
+        <v>45663</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H27" s="8">
-        <v>4490</v>
-      </c>
-      <c r="I27" s="8">
-        <v>22273</v>
-      </c>
-      <c r="J27" s="8">
-        <v>10000</v>
+        <v>298</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="21">
+        <v>3846</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9">
+        <v>0</v>
       </c>
       <c r="K27" s="21">
         <v>0</v>
@@ -46065,10 +46437,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A28" s="4">
-        <v>44224</v>
+        <v>44188</v>
       </c>
       <c r="B28" s="4">
-        <v>44229</v>
+        <v>44193</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>162</v>
@@ -46086,13 +46458,13 @@
         <v>160</v>
       </c>
       <c r="H28" s="8">
-        <v>2108</v>
+        <v>4490</v>
       </c>
       <c r="I28" s="8">
-        <v>23721</v>
+        <v>22273</v>
       </c>
       <c r="J28" s="8">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K28" s="21">
         <v>0</v>
@@ -46100,10 +46472,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A29" s="4">
-        <v>44257</v>
+        <v>44224</v>
       </c>
       <c r="B29" s="4">
-        <v>44260</v>
+        <v>44229</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>162</v>
@@ -46121,10 +46493,10 @@
         <v>160</v>
       </c>
       <c r="H29" s="8">
-        <v>1938</v>
+        <v>2108</v>
       </c>
       <c r="I29" s="8">
-        <v>25804</v>
+        <v>23721</v>
       </c>
       <c r="J29" s="8">
         <v>5000</v>
@@ -46135,10 +46507,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A30" s="4">
-        <v>44295</v>
+        <v>44257</v>
       </c>
       <c r="B30" s="4">
-        <v>44300</v>
+        <v>44260</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>162</v>
@@ -46156,10 +46528,10 @@
         <v>160</v>
       </c>
       <c r="H30" s="8">
-        <v>1920</v>
+        <v>1938</v>
       </c>
       <c r="I30" s="8">
-        <v>26043</v>
+        <v>25804</v>
       </c>
       <c r="J30" s="8">
         <v>5000</v>
@@ -46170,10 +46542,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A31" s="4">
-        <v>44327</v>
+        <v>44295</v>
       </c>
       <c r="B31" s="4">
-        <v>44330</v>
+        <v>44300</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>162</v>
@@ -46191,13 +46563,13 @@
         <v>160</v>
       </c>
       <c r="H31" s="8">
-        <v>4166</v>
+        <v>1920</v>
       </c>
       <c r="I31" s="8">
-        <v>24007</v>
+        <v>26043</v>
       </c>
       <c r="J31" s="8">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="K31" s="21">
         <v>0</v>
@@ -46205,10 +46577,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A32" s="4">
-        <v>44350</v>
+        <v>44327</v>
       </c>
       <c r="B32" s="4">
-        <v>44355</v>
+        <v>44330</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>162</v>
@@ -46226,13 +46598,13 @@
         <v>160</v>
       </c>
       <c r="H32" s="8">
-        <v>1983</v>
+        <v>4166</v>
       </c>
       <c r="I32" s="8">
-        <v>25216</v>
+        <v>24007</v>
       </c>
       <c r="J32" s="8">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K32" s="21">
         <v>0</v>
@@ -46240,10 +46612,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A33" s="4">
-        <v>44362</v>
+        <v>44350</v>
       </c>
       <c r="B33" s="4">
-        <v>44365</v>
+        <v>44355</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>162</v>
@@ -46255,31 +46627,33 @@
         <v>297</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G33" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="H33" s="8">
-        <v>16605</v>
+        <v>1983</v>
       </c>
       <c r="I33" s="8">
-        <v>26019</v>
+        <v>25216</v>
       </c>
       <c r="J33" s="8">
-        <v>43205</v>
-      </c>
-      <c r="K33" s="19">
-        <v>3205</v>
+        <v>5000</v>
+      </c>
+      <c r="K33" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A34" s="4">
-        <v>44187</v>
+        <v>44362</v>
       </c>
       <c r="B34" s="4">
-        <v>44190</v>
+        <v>44365</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>159</v>
@@ -46288,30 +46662,28 @@
         <v>297</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>160</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G34" s="5"/>
       <c r="H34" s="8">
-        <v>6447</v>
+        <v>16605</v>
       </c>
       <c r="I34" s="8">
-        <v>15511</v>
+        <v>26019</v>
       </c>
       <c r="J34" s="8">
-        <v>10000</v>
+        <v>43205</v>
       </c>
       <c r="K34" s="19">
-        <v>0</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A35" s="4">
-        <v>44224</v>
+        <v>44187</v>
       </c>
       <c r="B35" s="4">
-        <v>44229</v>
+        <v>44190</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>161</v>
@@ -46329,13 +46701,13 @@
         <v>160</v>
       </c>
       <c r="H35" s="8">
-        <v>3093</v>
+        <v>6447</v>
       </c>
       <c r="I35" s="8">
-        <v>16167</v>
+        <v>15511</v>
       </c>
       <c r="J35" s="8">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K35" s="19">
         <v>0</v>
@@ -46343,10 +46715,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A36" s="4">
-        <v>44257</v>
+        <v>44224</v>
       </c>
       <c r="B36" s="4">
-        <v>44260</v>
+        <v>44229</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>161</v>
@@ -46364,10 +46736,10 @@
         <v>160</v>
       </c>
       <c r="H36" s="8">
-        <v>2978</v>
+        <v>3093</v>
       </c>
       <c r="I36" s="8">
-        <v>16792</v>
+        <v>16167</v>
       </c>
       <c r="J36" s="8">
         <v>5000</v>
@@ -46378,10 +46750,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A37" s="4">
-        <v>44295</v>
+        <v>44257</v>
       </c>
       <c r="B37" s="4">
-        <v>44300</v>
+        <v>44260</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>161</v>
@@ -46399,10 +46771,10 @@
         <v>160</v>
       </c>
       <c r="H37" s="8">
-        <v>2810</v>
+        <v>2978</v>
       </c>
       <c r="I37" s="8">
-        <v>17792</v>
+        <v>16792</v>
       </c>
       <c r="J37" s="8">
         <v>5000</v>
@@ -46413,10 +46785,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A38" s="4">
-        <v>44327</v>
+        <v>44295</v>
       </c>
       <c r="B38" s="4">
-        <v>44330</v>
+        <v>44300</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>161</v>
@@ -46434,10 +46806,10 @@
         <v>160</v>
       </c>
       <c r="H38" s="8">
-        <v>2903</v>
+        <v>2810</v>
       </c>
       <c r="I38" s="8">
-        <v>17225</v>
+        <v>17792</v>
       </c>
       <c r="J38" s="8">
         <v>5000</v>
@@ -46448,10 +46820,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A39" s="4">
-        <v>44350</v>
+        <v>44327</v>
       </c>
       <c r="B39" s="4">
-        <v>44355</v>
+        <v>44330</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>161</v>
@@ -46469,10 +46841,10 @@
         <v>160</v>
       </c>
       <c r="H39" s="8">
-        <v>2819</v>
+        <v>2903</v>
       </c>
       <c r="I39" s="8">
-        <v>17736</v>
+        <v>17225</v>
       </c>
       <c r="J39" s="8">
         <v>5000</v>
@@ -46483,10 +46855,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A40" s="4">
-        <v>44362</v>
+        <v>44350</v>
       </c>
       <c r="B40" s="4">
-        <v>44365</v>
+        <v>44355</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>161</v>
@@ -46498,63 +46870,63 @@
         <v>297</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G40" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="H40" s="8">
-        <v>21050</v>
+        <v>2819</v>
       </c>
       <c r="I40" s="8">
-        <v>18410</v>
+        <v>17736</v>
       </c>
       <c r="J40" s="8">
-        <v>38753</v>
+        <v>5000</v>
       </c>
       <c r="K40" s="19">
-        <v>3753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A41" s="4">
-        <v>45243</v>
+        <v>44362</v>
       </c>
       <c r="B41" s="4">
-        <v>45247</v>
+        <v>44365</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>67</v>
+        <v>297</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H41" s="19">
-        <v>180143</v>
-      </c>
-      <c r="I41" s="19">
-        <v>12456</v>
+        <v>300</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="8">
+        <v>21050</v>
+      </c>
+      <c r="I41" s="8">
+        <v>18410</v>
       </c>
       <c r="J41" s="8">
-        <v>224386</v>
-      </c>
-      <c r="K41" s="21">
-        <v>0</v>
+        <v>38753</v>
+      </c>
+      <c r="K41" s="19">
+        <v>3753</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A42" s="4">
-        <v>45664</v>
+        <v>45243</v>
       </c>
       <c r="B42" s="4">
-        <v>45671</v>
+        <v>45247</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>231</v>
@@ -46566,26 +46938,61 @@
         <v>67</v>
       </c>
       <c r="F42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H42" s="19">
+        <v>180143</v>
+      </c>
+      <c r="I42" s="19">
+        <v>12456</v>
+      </c>
+      <c r="J42" s="8">
+        <v>224386</v>
+      </c>
+      <c r="K42" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A43" s="4">
+        <v>45664</v>
+      </c>
+      <c r="B43" s="4">
+        <v>45671</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="21">
+      <c r="G43" s="5"/>
+      <c r="H43" s="21">
         <v>180143</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I43" s="21">
         <v>15148</v>
       </c>
-      <c r="J42" s="21">
+      <c r="J43" s="21">
         <v>272881</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K43" s="19">
         <v>48494</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K32" xr:uid="{00000000-0009-0000-0000-000007000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K42">
-      <sortCondition ref="C1:C32"/>
+  <autoFilter ref="A1:K33" xr:uid="{00000000-0009-0000-0000-000007000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K43">
+      <sortCondition ref="C1:C33"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18"/>

--- a/data/02_運用_rakuten.xlsx
+++ b/data/02_運用_rakuten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ca29965d2a6599a/01_資産管理/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="307" documentId="13_ncr:1_{F23918F6-93A0-4FFC-9C54-3B208A91E086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF25A274-6445-407F-804B-879844F0B80E}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="13_ncr:1_{F23918F6-93A0-4FFC-9C54-3B208A91E086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D773F06B-6CDF-448E-83CE-8DFAD65DDF61}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6335" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6461" uniqueCount="439">
   <si>
     <t>約定日</t>
   </si>
@@ -1932,13 +1932,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>配当</t>
-    <rPh sb="0" eb="2">
-      <t>ハイトウ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>ｉＦｒｅｅＥＴＦ　東証ＲＥＩＴ指数</t>
   </si>
   <si>
@@ -1979,6 +1972,28 @@
   </si>
   <si>
     <t>ファナック</t>
+  </si>
+  <si>
+    <t>RDW</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>REDWIRE CORP</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ＯＮＥＥＴＦ東証ＲＥＩＴ</t>
+  </si>
+  <si>
+    <t>東京瓦斯</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -2377,7 +2392,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2568,19 +2583,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2713,7 +2715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2831,9 +2833,6 @@
     <xf numFmtId="38" fontId="0" fillId="39" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2851,9 +2850,6 @@
     </xf>
     <xf numFmtId="38" fontId="0" fillId="33" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2882,16 +2878,22 @@
     <xf numFmtId="40" fontId="0" fillId="39" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2915,28 +2917,19 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3210,7 +3203,9 @@
   </sheetPr>
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3220,25 +3215,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56" t="s">
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
       <c r="O1" s="64" t="s">
         <v>302</v>
       </c>
@@ -3248,42 +3243,42 @@
       <c r="S1" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="V1" s="50" t="s">
+      <c r="V1" s="48" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="56" t="s">
         <v>214</v>
       </c>
       <c r="J2" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="56" t="s">
         <v>214</v>
       </c>
       <c r="N2" s="61" t="s">
@@ -3293,7 +3288,7 @@
         <v>212</v>
       </c>
       <c r="P2" s="63"/>
-      <c r="Q2" s="59" t="s">
+      <c r="Q2" s="56" t="s">
         <v>214</v>
       </c>
       <c r="R2" s="61" t="s">
@@ -3302,12 +3297,12 @@
       <c r="S2" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="U2" s="51">
+      <c r="U2" s="49">
         <v>44145</v>
       </c>
-      <c r="V2" s="51">
+      <c r="V2" s="49">
         <f ca="1">TODAY()</f>
-        <v>46039</v>
+        <v>46057</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
@@ -3317,38 +3312,38 @@
       <c r="C3" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="32" t="s">
         <v>206</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
       <c r="K3" s="32" t="s">
         <v>206</v>
       </c>
       <c r="L3" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
       <c r="O3" s="32" t="s">
         <v>206</v>
       </c>
       <c r="P3" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
       <c r="S3" s="60"/>
-      <c r="U3" s="56" t="s">
+      <c r="U3" s="58" t="s">
         <v>364</v>
       </c>
-      <c r="V3" s="56"/>
+      <c r="V3" s="58"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="34" t="s">
@@ -3372,11 +3367,11 @@
       </c>
       <c r="F4" s="20">
         <f>SUM(F5:F100)</f>
-        <v>7971493</v>
+        <v>8362963</v>
       </c>
       <c r="G4" s="20">
         <f>SUM(G5:G100)</f>
-        <v>-3522579</v>
+        <v>-3705029</v>
       </c>
       <c r="H4" s="20">
         <f>SUM(H5:H100)</f>
@@ -3384,11 +3379,11 @@
       </c>
       <c r="I4" s="35">
         <f>SUM(F4:H4)</f>
-        <v>5251069</v>
+        <v>5460089</v>
       </c>
       <c r="J4" s="35">
         <f>SUM(J5:J100)</f>
-        <v>4184314.3326499998</v>
+        <v>4350871.9196499996</v>
       </c>
       <c r="K4" s="20">
         <f>SUM(K5:K100)</f>
@@ -3424,13 +3419,13 @@
       </c>
       <c r="S4" s="38">
         <f>SUM(E4,J4,N4,R4)</f>
-        <v>7039533.8711000001</v>
-      </c>
-      <c r="U4" s="57">
+        <v>7206091.4580999995</v>
+      </c>
+      <c r="U4" s="59">
         <f ca="1">(V2-U2)/365</f>
-        <v>5.1890410958904107</v>
-      </c>
-      <c r="V4" s="57"/>
+        <v>5.2383561643835614</v>
+      </c>
+      <c r="V4" s="59"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="34" t="s">
@@ -3839,11 +3834,11 @@
       </c>
       <c r="F10" s="19">
         <f>SUMIFS(国内株式_特定!$N$2:$N$998,国内株式_特定!$B$2:$B$998,"&gt;=2026/1/1",国内株式_特定!$B$2:$B$998,"&lt;=2026/12/31",国内株式_特定!$N$2:$N$998,"&gt;=0")</f>
-        <v>325100</v>
+        <v>716570</v>
       </c>
       <c r="G10" s="19">
         <f>SUMIFS(国内株式_特定!$N$2:$N$998,国内株式_特定!$B$2:$B$998,"&gt;=2026/1/1",国内株式_特定!$B$2:$B$998,"&lt;=2026/12/31",国内株式_特定!$N$2:$N$998,"&lt;0")</f>
-        <v>-97280</v>
+        <v>-279730</v>
       </c>
       <c r="H10" s="19">
         <f>SUMIFS(国内株式_特定_配当!$H$2:$H$999,国内株式_特定_配当!$A$2:$A$999,"&gt;=2026/1/1",国内株式_特定_配当!$A$2:$A$999,"&lt;=2026/12/31")</f>
@@ -3851,11 +3846,11 @@
       </c>
       <c r="I10" s="35">
         <f t="shared" si="11"/>
-        <v>227820</v>
+        <v>436840</v>
       </c>
       <c r="J10" s="36">
         <f t="shared" si="1"/>
-        <v>181538.367</v>
+        <v>348095.95400000003</v>
       </c>
       <c r="K10" s="19">
         <f>SUMIFS(国内株式_信用!$P$2:$P$1000,国内株式_信用!$B$2:$B$1000,"&gt;=2026/1/1",国内株式_信用!$B$2:$B$1000,"&lt;=2026/12/31",国内株式_信用!$P$2:$P$1000,"&gt;=0")</f>
@@ -3891,25 +3886,20 @@
       </c>
       <c r="S10" s="38">
         <f>SUM(E10,J10,N10,R10)</f>
-        <v>181538.367</v>
+        <v>348095.95400000003</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="G16" s="49"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G17" s="49"/>
+      <c r="G17" s="47"/>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.45">
       <c r="H18" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="H2:H3"/>
@@ -3925,6 +3915,11 @@
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6534,7 +6529,7 @@
       <c r="H70" s="9">
         <v>7.65</v>
       </c>
-      <c r="I70" s="48">
+      <c r="I70" s="46">
         <f t="shared" si="6"/>
         <v>0.77000000000000046</v>
       </c>
@@ -6608,7 +6603,7 @@
       <c r="H72" s="9">
         <v>7.65</v>
       </c>
-      <c r="I72" s="48">
+      <c r="I72" s="46">
         <f t="shared" ref="I72:I74" si="7">H72-J72</f>
         <v>0.77000000000000046</v>
       </c>
@@ -6645,7 +6640,7 @@
       <c r="H73" s="9">
         <v>7.65</v>
       </c>
-      <c r="I73" s="48">
+      <c r="I73" s="46">
         <f t="shared" si="7"/>
         <v>0.77000000000000046</v>
       </c>
@@ -6682,7 +6677,7 @@
       <c r="H74" s="9">
         <v>15.83</v>
       </c>
-      <c r="I74" s="48">
+      <c r="I74" s="46">
         <f t="shared" si="7"/>
         <v>4.4499999999999993</v>
       </c>
@@ -6714,53 +6709,54 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.59765625" style="2" customWidth="1"/>
     <col min="2" max="11" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="58" t="s">
         <v>418</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56" t="s">
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58" t="s">
         <v>417</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="70" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="L1" s="70"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="69" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="67" t="s">
         <v>419</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="69" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="67" t="s">
         <v>419</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="56" t="s">
         <v>214</v>
       </c>
       <c r="J2" s="61" t="s">
@@ -6769,8 +6765,8 @@
       <c r="K2" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="L2" s="71" t="s">
-        <v>420</v>
+      <c r="L2" s="69" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
@@ -6780,19 +6776,19 @@
       <c r="C3" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="32" t="s">
         <v>206</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
       <c r="K3" s="60"/>
-      <c r="L3" s="72"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="34" t="s">
@@ -6806,7 +6802,7 @@
         <f>SUM(C5:C100)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="51">
         <f>SUM(D5:D100)</f>
         <v>243.62</v>
       </c>
@@ -6816,29 +6812,29 @@
       </c>
       <c r="F4" s="20">
         <f>SUM(F5:F100)</f>
-        <v>576818.71481333324</v>
+        <v>814317.63481333316</v>
       </c>
       <c r="G4" s="20">
         <f>SUM(G5:G100)</f>
         <v>-64355.0412</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="51">
         <f>SUM(H5:H100)</f>
         <v>374.22</v>
       </c>
       <c r="I4" s="35">
         <f>SUM(F4:G4)</f>
-        <v>512463.67361333326</v>
+        <v>749962.59361333319</v>
       </c>
       <c r="J4" s="35">
         <f>SUM(J5:J100)</f>
-        <v>407350.30052214465</v>
+        <v>596601.31492414465</v>
       </c>
       <c r="K4" s="38">
         <f>SUM(E4,J4)</f>
-        <v>678440.30052214465</v>
-      </c>
-      <c r="L4" s="55">
+        <v>867691.31492414465</v>
+      </c>
+      <c r="L4" s="53">
         <f>D4+H4</f>
         <v>617.84</v>
       </c>
@@ -6887,7 +6883,7 @@
         <f t="shared" ref="K5:K10" si="2">SUM(E5,J5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="54"/>
+      <c r="L5" s="52"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="34" t="s">
@@ -6933,7 +6929,7 @@
         <f t="shared" si="2"/>
         <v>170325.89595128468</v>
       </c>
-      <c r="L6" s="54"/>
+      <c r="L6" s="52"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="34" t="s">
@@ -7092,7 +7088,7 @@
       </c>
       <c r="F10" s="19">
         <f>SUMIFS(米国株式!$S$2:$S$1000,米国株式!$B$2:$B$1000,"&gt;=2026/1/1",米国株式!$B$2:$B$1000,"&lt;=2026/12/31",米国株式!$E$2:$E$1000,"=特定",米国株式!$S$2:$S$1000,"&gt;=0")</f>
-        <v>0</v>
+        <v>237498.91999999998</v>
       </c>
       <c r="G10" s="19">
         <f>SUMIFS(米国株式!$S$2:$S$1000,米国株式!$B$2:$B$1000,"&gt;=2026/1/1",米国株式!$B$2:$B$1000,"&lt;=2026/12/31",米国株式!$E$2:$E$1000,"=特定",米国株式!$S$2:$S$1000,"&lt;0")</f>
@@ -7104,22 +7100,22 @@
       </c>
       <c r="I10" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>237498.91999999998</v>
       </c>
       <c r="J10" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>189251.014402</v>
       </c>
       <c r="K10" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>189251.014402</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="G16" s="49"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G17" s="49"/>
+      <c r="G17" s="47"/>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.45">
       <c r="H18" s="26"/>
@@ -12238,13 +12234,13 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:O793"/>
+  <dimension ref="A1:O812"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E777" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E798" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N793" sqref="N793"/>
+      <selection pane="bottomRight" activeCell="N808" sqref="N808"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12258,7 +12254,7 @@
     <col min="9" max="9" width="15.09765625" customWidth="1"/>
     <col min="10" max="11" width="17.09765625" customWidth="1"/>
     <col min="12" max="12" width="11.19921875" customWidth="1"/>
-    <col min="13" max="13" width="19.19921875" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.19921875" style="42" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.69921875" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12299,10 +12295,10 @@
       <c r="L1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="44" t="s">
         <v>165</v>
       </c>
     </row>
@@ -29535,7 +29531,7 @@
       <c r="N384" s="21">
         <v>0</v>
       </c>
-      <c r="O384" s="42"/>
+      <c r="O384" s="41"/>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A385" s="4">
@@ -45913,7 +45909,7 @@
         <v>90</v>
       </c>
       <c r="M748" s="15">
-        <f t="shared" ref="M748:M793" si="18">IF(G748="買付",H748*I748+SUM(J748:K748),H748*I748-SUM(J748:K748))</f>
+        <f t="shared" ref="M748:M812" si="18">IF(G748="買付",H748*I748+SUM(J748:K748),H748*I748-SUM(J748:K748))</f>
         <v>233370</v>
       </c>
       <c r="N748" s="19">
@@ -46879,7 +46875,7 @@
         <v>1488</v>
       </c>
       <c r="D770" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E770" s="5" t="s">
         <v>67</v>
@@ -46969,7 +46965,7 @@
         <v>6758</v>
       </c>
       <c r="D772" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E772" s="5" t="s">
         <v>67</v>
@@ -47014,7 +47010,7 @@
         <v>6330</v>
       </c>
       <c r="D773" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E773" s="5" t="s">
         <v>67</v>
@@ -47059,7 +47055,7 @@
         <v>6758</v>
       </c>
       <c r="D774" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E774" s="5" t="s">
         <v>67</v>
@@ -47149,7 +47145,7 @@
         <v>8001</v>
       </c>
       <c r="D776" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E776" s="5" t="s">
         <v>67</v>
@@ -47194,7 +47190,7 @@
         <v>1605</v>
       </c>
       <c r="D777" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E777" s="5" t="s">
         <v>67</v>
@@ -47236,10 +47232,10 @@
         <v>46030</v>
       </c>
       <c r="C778" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D778" s="9" t="s">
         <v>426</v>
-      </c>
-      <c r="D778" s="9" t="s">
-        <v>427</v>
       </c>
       <c r="E778" s="5" t="s">
         <v>67</v>
@@ -47281,10 +47277,10 @@
         <v>46030</v>
       </c>
       <c r="C779" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D779" s="9" t="s">
         <v>426</v>
-      </c>
-      <c r="D779" s="9" t="s">
-        <v>427</v>
       </c>
       <c r="E779" s="5" t="s">
         <v>67</v>
@@ -47326,10 +47322,10 @@
         <v>46030</v>
       </c>
       <c r="C780" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D780" s="9" t="s">
         <v>426</v>
-      </c>
-      <c r="D780" s="9" t="s">
-        <v>427</v>
       </c>
       <c r="E780" s="5" t="s">
         <v>67</v>
@@ -47464,7 +47460,7 @@
         <v>6330</v>
       </c>
       <c r="D783" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E783" s="5" t="s">
         <v>67</v>
@@ -47600,7 +47596,7 @@
         <v>1488</v>
       </c>
       <c r="D786" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E786" s="5" t="s">
         <v>67</v>
@@ -47642,10 +47638,10 @@
         <v>46038</v>
       </c>
       <c r="C787" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D787" s="9" t="s">
         <v>426</v>
-      </c>
-      <c r="D787" s="9" t="s">
-        <v>427</v>
       </c>
       <c r="E787" s="5" t="s">
         <v>67</v>
@@ -47690,7 +47686,7 @@
         <v>6269</v>
       </c>
       <c r="D788" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E788" s="5" t="s">
         <v>67</v>
@@ -47735,7 +47731,7 @@
         <v>6758</v>
       </c>
       <c r="D789" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E789" s="5" t="s">
         <v>67</v>
@@ -47781,7 +47777,7 @@
         <v>2768</v>
       </c>
       <c r="D790" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E790" s="5" t="s">
         <v>67</v>
@@ -47826,7 +47822,7 @@
         <v>6954</v>
       </c>
       <c r="D791" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E791" s="5" t="s">
         <v>67</v>
@@ -47885,13 +47881,13 @@
       <c r="H792" s="5">
         <v>100</v>
       </c>
-      <c r="I792" s="73">
+      <c r="I792" s="7">
         <v>1982</v>
       </c>
-      <c r="J792" s="74">
-        <v>0</v>
-      </c>
-      <c r="K792" s="74">
+      <c r="J792" s="9">
+        <v>0</v>
+      </c>
+      <c r="K792" s="9">
         <v>0</v>
       </c>
       <c r="L792" s="9" t="s">
@@ -47930,13 +47926,13 @@
       <c r="H793" s="5">
         <v>500</v>
       </c>
-      <c r="I793" s="73">
+      <c r="I793" s="7">
         <v>1982</v>
       </c>
       <c r="J793" s="9">
         <v>0</v>
       </c>
-      <c r="K793" s="74">
+      <c r="K793" s="9">
         <v>0</v>
       </c>
       <c r="L793" s="9" t="s">
@@ -47949,6 +47945,861 @@
       <c r="N793" s="19">
         <f>24300+97200</f>
         <v>121500</v>
+      </c>
+    </row>
+    <row r="794" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A794" s="4">
+        <v>46041</v>
+      </c>
+      <c r="B794" s="4">
+        <v>46043</v>
+      </c>
+      <c r="C794" s="5">
+        <v>3692</v>
+      </c>
+      <c r="D794" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E794" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F794" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G794" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H794" s="5">
+        <v>100</v>
+      </c>
+      <c r="I794" s="9">
+        <v>9950</v>
+      </c>
+      <c r="J794" s="9">
+        <v>0</v>
+      </c>
+      <c r="K794" s="9">
+        <v>0</v>
+      </c>
+      <c r="L794" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M794" s="15">
+        <f t="shared" si="18"/>
+        <v>995000</v>
+      </c>
+      <c r="N794" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A795" s="4">
+        <v>46041</v>
+      </c>
+      <c r="B795" s="4">
+        <v>46043</v>
+      </c>
+      <c r="C795" s="5">
+        <v>3741</v>
+      </c>
+      <c r="D795" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E795" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F795" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G795" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H795" s="5">
+        <v>100</v>
+      </c>
+      <c r="I795" s="9">
+        <v>3669.5</v>
+      </c>
+      <c r="J795" s="9">
+        <v>0</v>
+      </c>
+      <c r="K795" s="9">
+        <v>0</v>
+      </c>
+      <c r="L795" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M795" s="15">
+        <f t="shared" si="18"/>
+        <v>366950</v>
+      </c>
+      <c r="N795" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A796" s="4">
+        <v>46041</v>
+      </c>
+      <c r="B796" s="4">
+        <v>46043</v>
+      </c>
+      <c r="C796" s="5">
+        <v>8001</v>
+      </c>
+      <c r="D796" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="E796" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F796" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G796" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H796" s="5">
+        <v>100</v>
+      </c>
+      <c r="I796" s="9">
+        <v>2098.5</v>
+      </c>
+      <c r="J796" s="9">
+        <v>0</v>
+      </c>
+      <c r="K796" s="9">
+        <v>0</v>
+      </c>
+      <c r="L796" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M796" s="15">
+        <f t="shared" si="18"/>
+        <v>209850</v>
+      </c>
+      <c r="N796" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A797" s="4">
+        <v>46041</v>
+      </c>
+      <c r="B797" s="4">
+        <v>46043</v>
+      </c>
+      <c r="C797" s="5">
+        <v>8031</v>
+      </c>
+      <c r="D797" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E797" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F797" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G797" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H797" s="5">
+        <v>100</v>
+      </c>
+      <c r="I797" s="9">
+        <v>5094</v>
+      </c>
+      <c r="J797" s="9">
+        <v>0</v>
+      </c>
+      <c r="K797" s="9">
+        <v>0</v>
+      </c>
+      <c r="L797" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M797" s="15">
+        <f t="shared" si="18"/>
+        <v>509400</v>
+      </c>
+      <c r="N797" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A798" s="4">
+        <v>46042</v>
+      </c>
+      <c r="B798" s="4">
+        <v>46044</v>
+      </c>
+      <c r="C798" s="5">
+        <v>6269</v>
+      </c>
+      <c r="D798" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E798" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F798" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G798" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H798" s="5">
+        <v>100</v>
+      </c>
+      <c r="I798" s="9">
+        <v>13830</v>
+      </c>
+      <c r="J798" s="9">
+        <v>0</v>
+      </c>
+      <c r="K798" s="9">
+        <v>0</v>
+      </c>
+      <c r="L798" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M798" s="15">
+        <f t="shared" si="18"/>
+        <v>1383000</v>
+      </c>
+      <c r="N798" s="19">
+        <v>-150000</v>
+      </c>
+    </row>
+    <row r="799" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A799" s="4">
+        <v>46045</v>
+      </c>
+      <c r="B799" s="4">
+        <v>46049</v>
+      </c>
+      <c r="C799" s="5">
+        <v>1605</v>
+      </c>
+      <c r="D799" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="E799" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F799" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G799" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H799" s="5">
+        <v>100</v>
+      </c>
+      <c r="I799" s="9">
+        <v>3229</v>
+      </c>
+      <c r="J799" s="9">
+        <v>0</v>
+      </c>
+      <c r="K799" s="9">
+        <v>0</v>
+      </c>
+      <c r="L799" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M799" s="15">
+        <f t="shared" si="18"/>
+        <v>322900</v>
+      </c>
+      <c r="N799" s="19">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="800" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A800" s="4">
+        <v>46048</v>
+      </c>
+      <c r="B800" s="4">
+        <v>46050</v>
+      </c>
+      <c r="C800" s="5">
+        <v>2556</v>
+      </c>
+      <c r="D800" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="E800" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F800" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G800" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H800" s="5">
+        <v>50</v>
+      </c>
+      <c r="I800" s="7">
+        <v>2036.5</v>
+      </c>
+      <c r="J800" s="9">
+        <v>0</v>
+      </c>
+      <c r="K800" s="9">
+        <v>0</v>
+      </c>
+      <c r="L800" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M800" s="15">
+        <f t="shared" si="18"/>
+        <v>101825</v>
+      </c>
+      <c r="N800" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A801" s="4">
+        <v>46048</v>
+      </c>
+      <c r="B801" s="4">
+        <v>46050</v>
+      </c>
+      <c r="C801" s="5">
+        <v>6269</v>
+      </c>
+      <c r="D801" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E801" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F801" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G801" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H801" s="5">
+        <v>100</v>
+      </c>
+      <c r="I801" s="7">
+        <v>14100</v>
+      </c>
+      <c r="J801" s="9">
+        <v>0</v>
+      </c>
+      <c r="K801" s="9">
+        <v>0</v>
+      </c>
+      <c r="L801" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M801" s="15">
+        <f t="shared" si="18"/>
+        <v>1410000</v>
+      </c>
+      <c r="N801" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A802" s="4">
+        <v>46048</v>
+      </c>
+      <c r="B802" s="4">
+        <v>46050</v>
+      </c>
+      <c r="C802" s="5">
+        <v>9531</v>
+      </c>
+      <c r="D802" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E802" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F802" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G802" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H802" s="5">
+        <v>100</v>
+      </c>
+      <c r="I802" s="7">
+        <v>6713</v>
+      </c>
+      <c r="J802" s="9">
+        <v>0</v>
+      </c>
+      <c r="K802" s="9">
+        <v>0</v>
+      </c>
+      <c r="L802" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M802" s="15">
+        <f t="shared" si="18"/>
+        <v>671300</v>
+      </c>
+      <c r="N802" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A803" s="4">
+        <v>46049</v>
+      </c>
+      <c r="B803" s="4">
+        <v>46051</v>
+      </c>
+      <c r="C803" s="5">
+        <v>6330</v>
+      </c>
+      <c r="D803" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="E803" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F803" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G803" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H803" s="5">
+        <v>100</v>
+      </c>
+      <c r="I803" s="7">
+        <v>5880</v>
+      </c>
+      <c r="J803" s="9">
+        <v>0</v>
+      </c>
+      <c r="K803" s="9">
+        <v>0</v>
+      </c>
+      <c r="L803" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M803" s="15">
+        <f t="shared" si="18"/>
+        <v>588000</v>
+      </c>
+      <c r="N803" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A804" s="4">
+        <v>46051</v>
+      </c>
+      <c r="B804" s="4">
+        <v>46055</v>
+      </c>
+      <c r="C804" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D804" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="E804" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F804" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G804" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H804" s="5">
+        <v>200</v>
+      </c>
+      <c r="I804" s="7">
+        <v>1076.7</v>
+      </c>
+      <c r="J804" s="9">
+        <v>0</v>
+      </c>
+      <c r="K804" s="9">
+        <v>0</v>
+      </c>
+      <c r="L804" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M804" s="15">
+        <f t="shared" si="18"/>
+        <v>215340</v>
+      </c>
+      <c r="N804" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A805" s="4">
+        <v>46051</v>
+      </c>
+      <c r="B805" s="4">
+        <v>46055</v>
+      </c>
+      <c r="C805" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D805" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="E805" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F805" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G805" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H805" s="5">
+        <v>100</v>
+      </c>
+      <c r="I805" s="7">
+        <v>1076.5999999999999</v>
+      </c>
+      <c r="J805" s="9">
+        <v>0</v>
+      </c>
+      <c r="K805" s="9">
+        <v>0</v>
+      </c>
+      <c r="L805" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M805" s="15">
+        <f t="shared" si="18"/>
+        <v>107659.99999999999</v>
+      </c>
+      <c r="N805" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A806" s="4">
+        <v>46052</v>
+      </c>
+      <c r="B806" s="4">
+        <v>46056</v>
+      </c>
+      <c r="C806" s="5">
+        <v>1540</v>
+      </c>
+      <c r="D806" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E806" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F806" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G806" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H806" s="5">
+        <v>25</v>
+      </c>
+      <c r="I806" s="7">
+        <v>24380</v>
+      </c>
+      <c r="J806" s="9">
+        <v>0</v>
+      </c>
+      <c r="K806" s="9">
+        <v>0</v>
+      </c>
+      <c r="L806" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M806" s="15">
+        <f t="shared" si="18"/>
+        <v>609500</v>
+      </c>
+      <c r="N806" s="19">
+        <v>110750</v>
+      </c>
+    </row>
+    <row r="807" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A807" s="4">
+        <v>46055</v>
+      </c>
+      <c r="B807" s="4">
+        <v>46057</v>
+      </c>
+      <c r="C807" s="5">
+        <v>6269</v>
+      </c>
+      <c r="D807" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E807" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F807" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G807" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H807" s="5">
+        <v>100</v>
+      </c>
+      <c r="I807" s="71">
+        <v>15690</v>
+      </c>
+      <c r="J807" s="9">
+        <v>0</v>
+      </c>
+      <c r="K807" s="9">
+        <v>0</v>
+      </c>
+      <c r="L807" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M807" s="15">
+        <f t="shared" si="18"/>
+        <v>1569000</v>
+      </c>
+      <c r="N807" s="19">
+        <v>159000</v>
+      </c>
+    </row>
+    <row r="808" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A808" s="4">
+        <v>46055</v>
+      </c>
+      <c r="B808" s="4">
+        <v>46057</v>
+      </c>
+      <c r="C808" s="5">
+        <v>9684</v>
+      </c>
+      <c r="D808" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="E808" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F808" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G808" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H808" s="5">
+        <v>100</v>
+      </c>
+      <c r="I808" s="71">
+        <v>2573.5</v>
+      </c>
+      <c r="J808" s="9">
+        <v>0</v>
+      </c>
+      <c r="K808" s="9">
+        <v>0</v>
+      </c>
+      <c r="L808" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M808" s="15">
+        <f t="shared" si="18"/>
+        <v>257350</v>
+      </c>
+      <c r="N808" s="19">
+        <v>-32450</v>
+      </c>
+    </row>
+    <row r="809" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A809" s="4">
+        <v>46056</v>
+      </c>
+      <c r="B809" s="4">
+        <v>46058</v>
+      </c>
+      <c r="C809" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D809" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="E809" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F809" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G809" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H809" s="5">
+        <v>300</v>
+      </c>
+      <c r="I809" s="71">
+        <v>1077</v>
+      </c>
+      <c r="J809" s="9">
+        <v>0</v>
+      </c>
+      <c r="K809" s="9">
+        <v>0</v>
+      </c>
+      <c r="L809" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M809" s="15">
+        <f t="shared" si="18"/>
+        <v>323100</v>
+      </c>
+      <c r="N809" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A810" s="4">
+        <v>46057</v>
+      </c>
+      <c r="B810" s="4">
+        <v>46059</v>
+      </c>
+      <c r="C810" s="5">
+        <v>5802</v>
+      </c>
+      <c r="D810" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="E810" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F810" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G810" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H810" s="5">
+        <v>100</v>
+      </c>
+      <c r="I810" s="71">
+        <v>7863</v>
+      </c>
+      <c r="J810" s="9">
+        <v>0</v>
+      </c>
+      <c r="K810" s="9">
+        <v>0</v>
+      </c>
+      <c r="L810" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M810" s="15">
+        <f t="shared" si="18"/>
+        <v>786300</v>
+      </c>
+      <c r="N810" s="19">
+        <v>68420</v>
+      </c>
+    </row>
+    <row r="811" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A811" s="4">
+        <v>46057</v>
+      </c>
+      <c r="B811" s="4">
+        <v>46059</v>
+      </c>
+      <c r="C811" s="5">
+        <v>9531</v>
+      </c>
+      <c r="D811" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E811" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F811" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G811" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H811" s="5">
+        <v>100</v>
+      </c>
+      <c r="I811" s="71">
+        <v>7197</v>
+      </c>
+      <c r="J811" s="9">
+        <v>0</v>
+      </c>
+      <c r="K811" s="9">
+        <v>0</v>
+      </c>
+      <c r="L811" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M811" s="15">
+        <f t="shared" si="18"/>
+        <v>719700</v>
+      </c>
+      <c r="N811" s="19">
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="812" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A812" s="4">
+        <v>46057</v>
+      </c>
+      <c r="B812" s="4">
+        <v>46059</v>
+      </c>
+      <c r="C812" s="5">
+        <v>6330</v>
+      </c>
+      <c r="D812" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="E812" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F812" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G812" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H812" s="5">
+        <v>100</v>
+      </c>
+      <c r="I812" s="71">
+        <v>5880</v>
+      </c>
+      <c r="J812" s="9">
+        <v>0</v>
+      </c>
+      <c r="K812" s="9">
+        <v>0</v>
+      </c>
+      <c r="L812" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M812" s="15">
+        <f t="shared" si="18"/>
+        <v>588000</v>
+      </c>
+      <c r="N812" s="19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -49391,8 +50242,8 @@
         <f t="shared" si="5"/>
         <v>5977</v>
       </c>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
@@ -49487,7 +50338,7 @@
       <c r="E40" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="F40" s="41">
+      <c r="F40" s="40">
         <v>37.5</v>
       </c>
       <c r="G40" s="5">
@@ -55316,7 +56167,7 @@
       <c r="Q50" s="4">
         <v>45398</v>
       </c>
-      <c r="R50" s="41">
+      <c r="R50" s="40">
         <v>5763.4</v>
       </c>
       <c r="S50" s="9">
@@ -55980,7 +56831,7 @@
       <c r="Q58" s="4">
         <v>45398</v>
       </c>
-      <c r="R58" s="41">
+      <c r="R58" s="40">
         <v>5700.3</v>
       </c>
       <c r="S58" s="9">
@@ -56063,7 +56914,7 @@
       <c r="Q59" s="4">
         <v>45404</v>
       </c>
-      <c r="R59" s="41">
+      <c r="R59" s="40">
         <v>32225</v>
       </c>
       <c r="S59" s="9">
@@ -56146,7 +56997,7 @@
       <c r="Q60" s="4">
         <v>45404</v>
       </c>
-      <c r="R60" s="41">
+      <c r="R60" s="40">
         <v>16002.5</v>
       </c>
       <c r="S60" s="9">
@@ -56229,7 +57080,7 @@
       <c r="Q61" s="4">
         <v>45400</v>
       </c>
-      <c r="R61" s="41">
+      <c r="R61" s="40">
         <v>0</v>
       </c>
       <c r="S61" s="9">
@@ -56312,7 +57163,7 @@
       <c r="Q62" s="4">
         <v>45398</v>
       </c>
-      <c r="R62" s="41">
+      <c r="R62" s="40">
         <v>0</v>
       </c>
       <c r="S62" s="9">
@@ -56395,7 +57246,7 @@
       <c r="Q63" s="4">
         <v>45400</v>
       </c>
-      <c r="R63" s="41">
+      <c r="R63" s="40">
         <v>5840.6</v>
       </c>
       <c r="S63" s="9">
@@ -56534,7 +57385,7 @@
       <c r="J65" s="5">
         <v>100</v>
       </c>
-      <c r="K65" s="47">
+      <c r="K65" s="45">
         <v>29.639700000000001</v>
       </c>
       <c r="L65" s="9">
@@ -59029,13 +59880,13 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="N45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomRight" activeCell="S54" sqref="S54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -59112,12 +59963,12 @@
       <c r="R1" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="S1" s="50" t="s">
         <v>414</v>
       </c>
-      <c r="T1" s="42">
+      <c r="T1" s="41">
         <f>SUM(S2:S100)</f>
-        <v>783553.67361333326</v>
+        <v>1021052.5936133333</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
@@ -59236,7 +60087,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="19">
-        <f t="shared" ref="S3:S54" si="0">IF(H3="USD",Q3*L3,R3)</f>
+        <f t="shared" ref="S3:S58" si="0">IF(H3="USD",Q3*L3,R3)</f>
         <v>150.21300000000002</v>
       </c>
     </row>
@@ -59286,7 +60137,7 @@
       <c r="O4" s="9">
         <v>919.99</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="P4" s="39" t="s">
         <v>177</v>
       </c>
       <c r="Q4" s="25">
@@ -62184,7 +63035,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A53" s="4">
-        <v>46032</v>
+        <v>46035</v>
       </c>
       <c r="B53" s="4">
         <v>46037</v>
@@ -62229,7 +63080,7 @@
         <v>868.36</v>
       </c>
       <c r="P53" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q53" s="9">
         <v>0</v>
@@ -62244,16 +63095,16 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A54" s="4">
-        <v>46032</v>
+        <v>46035</v>
       </c>
       <c r="B54" s="4">
         <v>46037</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>428</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>429</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>67</v>
@@ -62289,7 +63140,7 @@
         <v>769.38</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q54" s="9">
         <v>0</v>
@@ -62303,26 +63154,244 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A55" s="46"/>
-      <c r="B55" s="46"/>
-      <c r="C55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="K55" s="39"/>
-      <c r="O55" s="39"/>
+      <c r="A55" s="4">
+        <v>46041</v>
+      </c>
+      <c r="B55" s="4">
+        <v>46043</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I55" s="9">
+        <v>100</v>
+      </c>
+      <c r="J55" s="9">
+        <v>12.4171</v>
+      </c>
+      <c r="K55" s="7">
+        <v>1241.71</v>
+      </c>
+      <c r="L55" s="9">
+        <v>157.85</v>
+      </c>
+      <c r="M55" s="9">
+        <v>5.58</v>
+      </c>
+      <c r="N55" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P55" s="21">
+        <v>196971</v>
+      </c>
+      <c r="Q55" s="9">
+        <v>0</v>
+      </c>
+      <c r="R55" s="9">
+        <v>0</v>
+      </c>
+      <c r="S55" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A56" s="46"/>
-      <c r="B56" s="46"/>
-      <c r="C56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="K56" s="39"/>
-      <c r="O56" s="39"/>
+      <c r="A56" s="4">
+        <v>46052</v>
+      </c>
+      <c r="B56" s="4">
+        <v>46057</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I56" s="9">
+        <v>25</v>
+      </c>
+      <c r="J56" s="9">
+        <v>100.97499999999999</v>
+      </c>
+      <c r="K56" s="7">
+        <v>2524.37</v>
+      </c>
+      <c r="L56" s="9">
+        <v>154.12</v>
+      </c>
+      <c r="M56" s="9">
+        <v>11.35</v>
+      </c>
+      <c r="N56" s="9">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="O56" s="7">
+        <v>2511.9</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q56" s="9">
+        <v>1481.75</v>
+      </c>
+      <c r="R56" s="9">
+        <v>0</v>
+      </c>
+      <c r="S56" s="19">
+        <f>IF(H56="USD",Q56*L56,R56)</f>
+        <v>228367.31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A57" s="4">
+        <v>46052</v>
+      </c>
+      <c r="B57" s="4">
+        <v>46057</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I57" s="9">
+        <v>100</v>
+      </c>
+      <c r="J57" s="9">
+        <v>13.0701</v>
+      </c>
+      <c r="K57" s="7">
+        <v>1307.01</v>
+      </c>
+      <c r="L57" s="9">
+        <v>154.12</v>
+      </c>
+      <c r="M57" s="9">
+        <v>5.88</v>
+      </c>
+      <c r="N57" s="9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O57" s="7">
+        <v>1300.55</v>
+      </c>
+      <c r="P57" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q57" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="R57" s="9">
+        <v>0</v>
+      </c>
+      <c r="S57" s="19">
+        <f t="shared" si="0"/>
+        <v>12.329600000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A58" s="4">
+        <v>46052</v>
+      </c>
+      <c r="B58" s="4">
+        <v>46057</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I58" s="9">
+        <v>20</v>
+      </c>
+      <c r="J58" s="9">
+        <v>43.421999999999997</v>
+      </c>
+      <c r="K58" s="7">
+        <v>868.44</v>
+      </c>
+      <c r="L58" s="9">
+        <v>154.12</v>
+      </c>
+      <c r="M58" s="9">
+        <v>3.9</v>
+      </c>
+      <c r="N58" s="9">
+        <v>0.39</v>
+      </c>
+      <c r="O58" s="7">
+        <v>864.15</v>
+      </c>
+      <c r="P58" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q58" s="9">
+        <v>59.17</v>
+      </c>
+      <c r="R58" s="9">
+        <v>0</v>
+      </c>
+      <c r="S58" s="19">
+        <f t="shared" si="0"/>
+        <v>9119.2803999999996</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S1" xr:uid="{00000000-0001-0000-0500-000000000000}"/>

--- a/data/02_運用_rakuten.xlsx
+++ b/data/02_運用_rakuten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ca29965d2a6599a/01_資産管理/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="13_ncr:1_{F23918F6-93A0-4FFC-9C54-3B208A91E086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D773F06B-6CDF-448E-83CE-8DFAD65DDF61}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="13_ncr:1_{F23918F6-93A0-4FFC-9C54-3B208A91E086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F695F851-9A9D-4210-A143-33E2ABC3DF33}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="819" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ_日本" sheetId="10" r:id="rId1"/>
@@ -28,9 +28,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">国内株式_NISA!$A$1:$N$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">国内株式_NISA_配当!$A$1:$K$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">国内株式_信用!$A$1:$AA$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">国内株式_特定!$A$1:$N$677</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">国内株式_特定!$A$1:$N$814</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">国内株式_特定_配当!$A$1:$K$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">投資信託!$A$1:$K$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">投資信託!$A$1:$K$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">米国株式!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">米国株式_配当!$A$1:$K$74</definedName>
   </definedNames>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6461" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6554" uniqueCount="441">
   <si>
     <t>約定日</t>
   </si>
@@ -1624,10 +1624,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>20205/7/2</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1994,6 +1990,15 @@
   <si>
     <t>-</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>石油資源開発</t>
+  </si>
+  <si>
+    <t>ＪＸ金属</t>
+  </si>
+  <si>
+    <t>みずほフィナンシャルＧ</t>
   </si>
 </sst>
 </file>
@@ -2929,7 +2934,7 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3203,8 +3208,8 @@
   </sheetPr>
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3244,10 +3249,10 @@
         <v>219</v>
       </c>
       <c r="U1" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="V1" s="48" t="s">
         <v>362</v>
-      </c>
-      <c r="V1" s="48" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
@@ -3302,7 +3307,7 @@
       </c>
       <c r="V2" s="49">
         <f ca="1">TODAY()</f>
-        <v>46057</v>
+        <v>46068</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
@@ -3341,7 +3346,7 @@
       <c r="R3" s="56"/>
       <c r="S3" s="60"/>
       <c r="U3" s="58" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="V3" s="58"/>
     </row>
@@ -3367,7 +3372,7 @@
       </c>
       <c r="F4" s="20">
         <f>SUM(F5:F100)</f>
-        <v>8362963</v>
+        <v>8598063</v>
       </c>
       <c r="G4" s="20">
         <f>SUM(G5:G100)</f>
@@ -3379,11 +3384,11 @@
       </c>
       <c r="I4" s="35">
         <f>SUM(F4:H4)</f>
-        <v>5460089</v>
+        <v>5695189</v>
       </c>
       <c r="J4" s="35">
         <f>SUM(J5:J100)</f>
-        <v>4350871.9196499996</v>
+        <v>4538211.3546500001</v>
       </c>
       <c r="K4" s="20">
         <f>SUM(K5:K100)</f>
@@ -3419,11 +3424,11 @@
       </c>
       <c r="S4" s="38">
         <f>SUM(E4,J4,N4,R4)</f>
-        <v>7206091.4580999995</v>
+        <v>7393430.8931</v>
       </c>
       <c r="U4" s="59">
         <f ca="1">(V2-U2)/365</f>
-        <v>5.2383561643835614</v>
+        <v>5.2684931506849315</v>
       </c>
       <c r="V4" s="59"/>
     </row>
@@ -3484,11 +3489,11 @@
         <v>-68778</v>
       </c>
       <c r="O5" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1023,投資信託!$B$2:$B$1023,"&gt;=2021/1/1",投資信託!$B$2:$B$1023,"&lt;=2021/12/31",投資信託!$K$2:$K$1023,"&gt;=0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1025,投資信託!$B$2:$B$1025,"&gt;=2021/1/1",投資信託!$B$2:$B$1025,"&lt;=2021/12/31",投資信託!$K$2:$K$1025,"&gt;=0")</f>
         <v>7366</v>
       </c>
       <c r="P5" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1023,投資信託!$B$2:$B$1023,"&gt;=2021/1/1",投資信託!$B$2:$B$1023,"&lt;=2021/12/31",投資信託!$K$2:$K$1023,"&lt;0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1025,投資信託!$B$2:$B$1025,"&gt;=2021/1/1",投資信託!$B$2:$B$1025,"&lt;=2021/12/31",投資信託!$K$2:$K$1025,"&lt;0")</f>
         <v>-1498</v>
       </c>
       <c r="Q5" s="35">
@@ -3561,11 +3566,11 @@
         <v>-106573</v>
       </c>
       <c r="O6" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1023,投資信託!$B$2:$B$1023,"&gt;=2022/1/1",投資信託!$B$2:$B$1023,"&lt;=2022/12/31",投資信託!$K$2:$K$1023,"&gt;=0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1025,投資信託!$B$2:$B$1025,"&gt;=2022/1/1",投資信託!$B$2:$B$1025,"&lt;=2022/12/31",投資信託!$K$2:$K$1025,"&gt;=0")</f>
         <v>0</v>
       </c>
       <c r="P6" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1023,投資信託!$B$2:$B$1023,"&gt;=2022/1/1",投資信託!$B$2:$B$1023,"&lt;=2022/12/31",投資信託!$K$2:$K$1023,"&lt;0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1025,投資信託!$B$2:$B$1025,"&gt;=2022/1/1",投資信託!$B$2:$B$1025,"&lt;=2022/12/31",投資信託!$K$2:$K$1025,"&lt;0")</f>
         <v>0</v>
       </c>
       <c r="Q6" s="35">
@@ -3638,11 +3643,11 @@
         <v>-50703</v>
       </c>
       <c r="O7" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1023,投資信託!$B$2:$B$1023,"&gt;=2023/1/1",投資信託!$B$2:$B$1023,"&lt;=2023/12/31",投資信託!$K$2:$K$1023,"&gt;=0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1025,投資信託!$B$2:$B$1025,"&gt;=2023/1/1",投資信託!$B$2:$B$1025,"&lt;=2023/12/31",投資信託!$K$2:$K$1025,"&gt;=0")</f>
         <v>0</v>
       </c>
       <c r="P7" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1023,投資信託!$B$2:$B$1023,"&gt;=2023/1/1",投資信託!$B$2:$B$1023,"&lt;=2023/12/31",投資信託!$K$2:$K$1023,"&lt;0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1025,投資信託!$B$2:$B$1025,"&gt;=2023/1/1",投資信託!$B$2:$B$1025,"&lt;=2023/12/31",投資信託!$K$2:$K$1025,"&lt;0")</f>
         <v>0</v>
       </c>
       <c r="Q7" s="35">
@@ -3715,11 +3720,11 @@
         <v>-247960</v>
       </c>
       <c r="O8" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1023,投資信託!$B$2:$B$1023,"&gt;=2024/1/1",投資信託!$B$2:$B$1023,"&lt;=2024/12/31",投資信託!$K$2:$K$1023,"&gt;=0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1025,投資信託!$B$2:$B$1025,"&gt;=2024/1/1",投資信託!$B$2:$B$1025,"&lt;=2024/12/31",投資信託!$K$2:$K$1025,"&gt;=0")</f>
         <v>0</v>
       </c>
       <c r="P8" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1023,投資信託!$B$2:$B$1023,"&gt;=2024/1/1",投資信託!$B$2:$B$1023,"&lt;=2024/12/31",投資信託!$K$2:$K$1023,"&lt;0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1025,投資信託!$B$2:$B$1025,"&gt;=2024/1/1",投資信託!$B$2:$B$1025,"&lt;=2024/12/31",投資信託!$K$2:$K$1025,"&lt;0")</f>
         <v>0</v>
       </c>
       <c r="Q8" s="35">
@@ -3792,11 +3797,11 @@
         <v>8063.3251500000006</v>
       </c>
       <c r="O9" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1023,投資信託!$B$2:$B$1023,"&gt;=2025/1/1",投資信託!$B$2:$B$1023,"&lt;=2025/12/31",投資信託!$K$2:$K$1023,"&gt;=0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1025,投資信託!$B$2:$B$1025,"&gt;=2025/1/1",投資信託!$B$2:$B$1025,"&lt;=2025/12/31",投資信託!$K$2:$K$1025,"&gt;=0")</f>
         <v>185421</v>
       </c>
       <c r="P9" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1023,投資信託!$B$2:$B$1023,"&gt;=2025/1/1",投資信託!$B$2:$B$1023,"&lt;=2025/12/31",投資信託!$K$2:$K$1023,"&lt;0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1025,投資信託!$B$2:$B$1025,"&gt;=2025/1/1",投資信託!$B$2:$B$1025,"&lt;=2025/12/31",投資信託!$K$2:$K$1025,"&lt;0")</f>
         <v>-1071</v>
       </c>
       <c r="Q9" s="35">
@@ -3814,7 +3819,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="34" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B10" s="19">
         <f>SUMIFS(国内株式_NISA!$N$2:$N$996,国内株式_NISA!$B$2:$B$996,"&gt;=2026/1/1",国内株式_NISA!$B$2:$B$996,"&lt;=2026/12/31",国内株式_NISA!$N$2:$N$996,"&gt;=0")</f>
@@ -3834,7 +3839,7 @@
       </c>
       <c r="F10" s="19">
         <f>SUMIFS(国内株式_特定!$N$2:$N$998,国内株式_特定!$B$2:$B$998,"&gt;=2026/1/1",国内株式_特定!$B$2:$B$998,"&lt;=2026/12/31",国内株式_特定!$N$2:$N$998,"&gt;=0")</f>
-        <v>716570</v>
+        <v>951670</v>
       </c>
       <c r="G10" s="19">
         <f>SUMIFS(国内株式_特定!$N$2:$N$998,国内株式_特定!$B$2:$B$998,"&gt;=2026/1/1",国内株式_特定!$B$2:$B$998,"&lt;=2026/12/31",国内株式_特定!$N$2:$N$998,"&lt;0")</f>
@@ -3846,11 +3851,11 @@
       </c>
       <c r="I10" s="35">
         <f t="shared" si="11"/>
-        <v>436840</v>
+        <v>671940</v>
       </c>
       <c r="J10" s="36">
         <f t="shared" si="1"/>
-        <v>348095.95400000003</v>
+        <v>535435.38899999997</v>
       </c>
       <c r="K10" s="19">
         <f>SUMIFS(国内株式_信用!$P$2:$P$1000,国内株式_信用!$B$2:$B$1000,"&gt;=2026/1/1",国内株式_信用!$B$2:$B$1000,"&lt;=2026/12/31",国内株式_信用!$P$2:$P$1000,"&gt;=0")</f>
@@ -3869,11 +3874,11 @@
         <v>0</v>
       </c>
       <c r="O10" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1023,投資信託!$B$2:$B$1023,"&gt;=2026/1/1",投資信託!$B$2:$B$1023,"&lt;=2026/12/31",投資信託!$K$2:$K$1023,"&gt;=0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1025,投資信託!$B$2:$B$1025,"&gt;=2026/1/1",投資信託!$B$2:$B$1025,"&lt;=2026/12/31",投資信託!$K$2:$K$1025,"&gt;=0")</f>
         <v>0</v>
       </c>
       <c r="P10" s="19">
-        <f>SUMIFS(投資信託!$K$2:$K$1023,投資信託!$B$2:$B$1023,"&gt;=2026/1/1",投資信託!$B$2:$B$1023,"&lt;=2026/12/31",投資信託!$K$2:$K$1023,"&lt;0")</f>
+        <f>SUMIFS(投資信託!$K$2:$K$1025,投資信託!$B$2:$B$1025,"&gt;=2026/1/1",投資信託!$B$2:$B$1025,"&lt;=2026/12/31",投資信託!$K$2:$K$1025,"&lt;0")</f>
         <v>0</v>
       </c>
       <c r="Q10" s="35">
@@ -3886,7 +3891,7 @@
       </c>
       <c r="S10" s="38">
         <f>SUM(E10,J10,N10,R10)</f>
-        <v>348095.95400000003</v>
+        <v>535435.38899999997</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
@@ -6721,13 +6726,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B1" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C1" s="58"/>
       <c r="D1" s="58"/>
       <c r="E1" s="58"/>
       <c r="F1" s="58" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G1" s="58"/>
       <c r="H1" s="58"/>
@@ -6744,7 +6749,7 @@
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E2" s="56" t="s">
         <v>214</v>
@@ -6754,7 +6759,7 @@
       </c>
       <c r="G2" s="54"/>
       <c r="H2" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I2" s="56" t="s">
         <v>214</v>
@@ -6766,7 +6771,7 @@
         <v>214</v>
       </c>
       <c r="L2" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
@@ -7068,7 +7073,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="34" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B10" s="19">
         <f>SUMIFS(米国株式!$S$2:$S$996,米国株式!$B$2:$B$996,"&gt;=2026/1/1",米国株式!$B$2:$B$996,"&lt;=2026/12/31",米国株式!$E$2:$E$996,"=NISA",米国株式!$S$2:$S$996,"&gt;=0")</f>
@@ -7152,7 +7157,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="K48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomRight" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9772,7 +9777,7 @@
         <v>1542</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>257</v>
@@ -9907,7 +9912,7 @@
         <v>6506</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>257</v>
@@ -12234,13 +12239,13 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:O812"/>
+  <dimension ref="A1:O829"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E798" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E813" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N808" sqref="N808"/>
+      <selection pane="bottomRight" activeCell="D817" sqref="D817"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -41916,8 +41921,8 @@
       <c r="A660" s="4">
         <v>45838</v>
       </c>
-      <c r="B660" s="6" t="s">
-        <v>357</v>
+      <c r="B660" s="4">
+        <v>45840</v>
       </c>
       <c r="C660" s="5">
         <v>6920</v>
@@ -41947,7 +41952,7 @@
         <v>0</v>
       </c>
       <c r="L660" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M660" s="15">
         <f t="shared" si="15"/>
@@ -41961,14 +41966,14 @@
       <c r="A661" s="4">
         <v>45838</v>
       </c>
-      <c r="B661" s="6" t="s">
-        <v>357</v>
+      <c r="B661" s="4">
+        <v>45840</v>
       </c>
       <c r="C661" s="5">
         <v>8035</v>
       </c>
       <c r="D661" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E661" s="5" t="s">
         <v>68</v>
@@ -41992,7 +41997,7 @@
         <v>0</v>
       </c>
       <c r="L661" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M661" s="15">
         <f t="shared" si="15"/>
@@ -42262,7 +42267,7 @@
         <v>0</v>
       </c>
       <c r="L667" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M667" s="15">
         <f t="shared" si="15"/>
@@ -42508,7 +42513,7 @@
         <v>5602</v>
       </c>
       <c r="D673" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E673" s="5" t="s">
         <v>68</v>
@@ -42532,7 +42537,7 @@
         <v>0</v>
       </c>
       <c r="L673" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M673" s="15">
         <f t="shared" si="15"/>
@@ -42577,7 +42582,7 @@
         <v>0</v>
       </c>
       <c r="L674" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M674" s="15">
         <f t="shared" si="15"/>
@@ -42598,7 +42603,7 @@
         <v>5021</v>
       </c>
       <c r="D675" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E675" s="5" t="s">
         <v>67</v>
@@ -42640,7 +42645,7 @@
         <v>5602</v>
       </c>
       <c r="D676" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E676" s="5" t="s">
         <v>67</v>
@@ -42679,10 +42684,10 @@
         <v>45931</v>
       </c>
       <c r="C677" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D677" s="9" t="s">
         <v>367</v>
-      </c>
-      <c r="D677" s="9" t="s">
-        <v>368</v>
       </c>
       <c r="E677" s="5" t="s">
         <v>67</v>
@@ -42772,7 +42777,7 @@
         <v>1541</v>
       </c>
       <c r="D679" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E679" s="5" t="s">
         <v>67</v>
@@ -42817,7 +42822,7 @@
         <v>1541</v>
       </c>
       <c r="D680" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E680" s="5" t="s">
         <v>67</v>
@@ -42862,7 +42867,7 @@
         <v>6590</v>
       </c>
       <c r="D681" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E681" s="5" t="s">
         <v>67</v>
@@ -42907,7 +42912,7 @@
         <v>1540</v>
       </c>
       <c r="D682" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E682" s="5" t="s">
         <v>67</v>
@@ -42952,7 +42957,7 @@
         <v>6268</v>
       </c>
       <c r="D683" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E683" s="5" t="s">
         <v>67</v>
@@ -42997,7 +43002,7 @@
         <v>7013</v>
       </c>
       <c r="D684" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E684" s="5" t="s">
         <v>67</v>
@@ -43042,7 +43047,7 @@
         <v>3692</v>
       </c>
       <c r="D685" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E685" s="5" t="s">
         <v>67</v>
@@ -43132,7 +43137,7 @@
         <v>1540</v>
       </c>
       <c r="D687" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E687" s="5" t="s">
         <v>67</v>
@@ -43177,7 +43182,7 @@
         <v>1541</v>
       </c>
       <c r="D688" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E688" s="5" t="s">
         <v>67</v>
@@ -43222,7 +43227,7 @@
         <v>1540</v>
       </c>
       <c r="D689" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E689" s="5" t="s">
         <v>67</v>
@@ -43267,7 +43272,7 @@
         <v>1543</v>
       </c>
       <c r="D690" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E690" s="5" t="s">
         <v>67</v>
@@ -43312,7 +43317,7 @@
         <v>6590</v>
       </c>
       <c r="D691" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E691" s="5" t="s">
         <v>67</v>
@@ -43402,7 +43407,7 @@
         <v>1540</v>
       </c>
       <c r="D693" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E693" s="5" t="s">
         <v>67</v>
@@ -43447,7 +43452,7 @@
         <v>1541</v>
       </c>
       <c r="D694" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E694" s="5" t="s">
         <v>67</v>
@@ -43492,7 +43497,7 @@
         <v>1543</v>
       </c>
       <c r="D695" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E695" s="5" t="s">
         <v>67</v>
@@ -43537,7 +43542,7 @@
         <v>1662</v>
       </c>
       <c r="D696" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E696" s="5" t="s">
         <v>67</v>
@@ -43582,7 +43587,7 @@
         <v>6590</v>
       </c>
       <c r="D697" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E697" s="5" t="s">
         <v>67</v>
@@ -43627,7 +43632,7 @@
         <v>1540</v>
       </c>
       <c r="D698" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E698" s="5" t="s">
         <v>67</v>
@@ -43673,7 +43678,7 @@
         <v>1541</v>
       </c>
       <c r="D699" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E699" s="5" t="s">
         <v>67</v>
@@ -43719,7 +43724,7 @@
         <v>1541</v>
       </c>
       <c r="D700" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E700" s="5" t="s">
         <v>67</v>
@@ -43765,7 +43770,7 @@
         <v>1540</v>
       </c>
       <c r="D701" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E701" s="5" t="s">
         <v>67</v>
@@ -43810,7 +43815,7 @@
         <v>1543</v>
       </c>
       <c r="D702" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E702" s="5" t="s">
         <v>67</v>
@@ -43856,7 +43861,7 @@
         <v>3692</v>
       </c>
       <c r="D703" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E703" s="5" t="s">
         <v>67</v>
@@ -43901,7 +43906,7 @@
         <v>6268</v>
       </c>
       <c r="D704" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E704" s="5" t="s">
         <v>67</v>
@@ -44081,7 +44086,7 @@
         <v>1662</v>
       </c>
       <c r="D708" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E708" s="5" t="s">
         <v>67</v>
@@ -44126,7 +44131,7 @@
         <v>5602</v>
       </c>
       <c r="D709" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E709" s="5" t="s">
         <v>67</v>
@@ -44150,7 +44155,7 @@
         <v>0</v>
       </c>
       <c r="L709" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M709" s="15">
         <f t="shared" si="16"/>
@@ -44171,7 +44176,7 @@
         <v>7013</v>
       </c>
       <c r="D710" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E710" s="5" t="s">
         <v>67</v>
@@ -44216,7 +44221,7 @@
         <v>1802</v>
       </c>
       <c r="D711" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E711" s="5" t="s">
         <v>67</v>
@@ -44240,7 +44245,7 @@
         <v>0</v>
       </c>
       <c r="L711" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M711" s="15">
         <f t="shared" si="16"/>
@@ -44261,7 +44266,7 @@
         <v>4493</v>
       </c>
       <c r="D712" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E712" s="5" t="s">
         <v>67</v>
@@ -44285,7 +44290,7 @@
         <v>0</v>
       </c>
       <c r="L712" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M712" s="15">
         <f t="shared" si="16"/>
@@ -44375,7 +44380,7 @@
         <v>0</v>
       </c>
       <c r="L714" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M714" s="15">
         <f t="shared" si="16"/>
@@ -44442,7 +44447,7 @@
         <v>7203</v>
       </c>
       <c r="D716" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E716" s="5" t="s">
         <v>67</v>
@@ -44487,7 +44492,7 @@
         <v>8316</v>
       </c>
       <c r="D717" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E717" s="5" t="s">
         <v>67</v>
@@ -44511,7 +44516,7 @@
         <v>0</v>
       </c>
       <c r="L717" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M717" s="15">
         <f t="shared" si="16"/>
@@ -44532,7 +44537,7 @@
         <v>1343</v>
       </c>
       <c r="D718" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E718" s="5" t="s">
         <v>67</v>
@@ -44556,7 +44561,7 @@
         <v>0</v>
       </c>
       <c r="L718" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M718" s="15">
         <f t="shared" si="16"/>
@@ -44577,7 +44582,7 @@
         <v>1540</v>
       </c>
       <c r="D719" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E719" s="5" t="s">
         <v>67</v>
@@ -44601,7 +44606,7 @@
         <v>0</v>
       </c>
       <c r="L719" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M719" s="15">
         <f t="shared" si="16"/>
@@ -44622,7 +44627,7 @@
         <v>1541</v>
       </c>
       <c r="D720" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E720" s="5" t="s">
         <v>67</v>
@@ -44646,7 +44651,7 @@
         <v>0</v>
       </c>
       <c r="L720" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M720" s="15">
         <f t="shared" si="16"/>
@@ -44667,7 +44672,7 @@
         <v>3741</v>
       </c>
       <c r="D721" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E721" s="5" t="s">
         <v>67</v>
@@ -44691,7 +44696,7 @@
         <v>0</v>
       </c>
       <c r="L721" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M721" s="15">
         <f t="shared" si="16"/>
@@ -44712,7 +44717,7 @@
         <v>6506</v>
       </c>
       <c r="D722" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E722" s="5" t="s">
         <v>67</v>
@@ -44736,7 +44741,7 @@
         <v>0</v>
       </c>
       <c r="L722" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M722" s="15">
         <f t="shared" si="16"/>
@@ -44781,7 +44786,7 @@
         <v>0</v>
       </c>
       <c r="L723" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M723" s="15">
         <f t="shared" si="16"/>
@@ -44802,7 +44807,7 @@
         <v>5801</v>
       </c>
       <c r="D724" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E724" s="5" t="s">
         <v>67</v>
@@ -44826,7 +44831,7 @@
         <v>0</v>
       </c>
       <c r="L724" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M724" s="15">
         <f t="shared" si="16"/>
@@ -44871,7 +44876,7 @@
         <v>0</v>
       </c>
       <c r="L725" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M725" s="15">
         <f t="shared" si="16"/>
@@ -44892,7 +44897,7 @@
         <v>5801</v>
       </c>
       <c r="D726" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E726" s="5" t="s">
         <v>67</v>
@@ -44982,7 +44987,7 @@
         <v>9882</v>
       </c>
       <c r="D728" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E728" s="5" t="s">
         <v>67</v>
@@ -45027,7 +45032,7 @@
         <v>1540</v>
       </c>
       <c r="D729" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E729" s="5" t="s">
         <v>67</v>
@@ -45072,7 +45077,7 @@
         <v>1542</v>
       </c>
       <c r="D730" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E730" s="5" t="s">
         <v>67</v>
@@ -45117,7 +45122,7 @@
         <v>3741</v>
       </c>
       <c r="D731" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E731" s="5" t="s">
         <v>67</v>
@@ -45162,7 +45167,7 @@
         <v>9882</v>
       </c>
       <c r="D732" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E732" s="5" t="s">
         <v>67</v>
@@ -45207,7 +45212,7 @@
         <v>1541</v>
       </c>
       <c r="D733" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E733" s="5" t="s">
         <v>67</v>
@@ -45297,7 +45302,7 @@
         <v>3692</v>
       </c>
       <c r="D735" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E735" s="5" t="s">
         <v>67</v>
@@ -45342,7 +45347,7 @@
         <v>4519</v>
       </c>
       <c r="D736" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E736" s="5" t="s">
         <v>67</v>
@@ -45432,7 +45437,7 @@
         <v>2802</v>
       </c>
       <c r="D738" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E738" s="5" t="s">
         <v>67</v>
@@ -45477,7 +45482,7 @@
         <v>5803</v>
       </c>
       <c r="D739" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E739" s="5" t="s">
         <v>67</v>
@@ -45567,7 +45572,7 @@
         <v>5803</v>
       </c>
       <c r="D741" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E741" s="5" t="s">
         <v>67</v>
@@ -45612,7 +45617,7 @@
         <v>9882</v>
       </c>
       <c r="D742" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E742" s="5" t="s">
         <v>67</v>
@@ -45657,7 +45662,7 @@
         <v>9882</v>
       </c>
       <c r="D743" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E743" s="5" t="s">
         <v>67</v>
@@ -45747,7 +45752,7 @@
         <v>8316</v>
       </c>
       <c r="D745" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E745" s="5" t="s">
         <v>67</v>
@@ -45792,7 +45797,7 @@
         <v>4519</v>
       </c>
       <c r="D746" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E746" s="5" t="s">
         <v>67</v>
@@ -45882,7 +45887,7 @@
         <v>1542</v>
       </c>
       <c r="D748" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E748" s="5" t="s">
         <v>67</v>
@@ -45909,7 +45914,7 @@
         <v>90</v>
       </c>
       <c r="M748" s="15">
-        <f t="shared" ref="M748:M812" si="18">IF(G748="買付",H748*I748+SUM(J748:K748),H748*I748-SUM(J748:K748))</f>
+        <f t="shared" ref="M748:M815" si="18">IF(G748="買付",H748*I748+SUM(J748:K748),H748*I748-SUM(J748:K748))</f>
         <v>233370</v>
       </c>
       <c r="N748" s="19">
@@ -45927,7 +45932,7 @@
         <v>9882</v>
       </c>
       <c r="D749" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E749" s="5" t="s">
         <v>67</v>
@@ -45997,7 +46002,7 @@
         <v>0</v>
       </c>
       <c r="L750" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M750" s="15">
         <f t="shared" si="18"/>
@@ -46109,7 +46114,7 @@
         <v>5802</v>
       </c>
       <c r="D753" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E753" s="5" t="s">
         <v>67</v>
@@ -46154,7 +46159,7 @@
         <v>5803</v>
       </c>
       <c r="D754" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E754" s="5" t="s">
         <v>67</v>
@@ -46199,7 +46204,7 @@
         <v>6965</v>
       </c>
       <c r="D755" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E755" s="5" t="s">
         <v>67</v>
@@ -46289,7 +46294,7 @@
         <v>6506</v>
       </c>
       <c r="D757" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E757" s="5" t="s">
         <v>67</v>
@@ -46379,7 +46384,7 @@
         <v>3741</v>
       </c>
       <c r="D759" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E759" s="5" t="s">
         <v>67</v>
@@ -46425,7 +46430,7 @@
         <v>8031</v>
       </c>
       <c r="D760" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E760" s="5" t="s">
         <v>67</v>
@@ -46470,7 +46475,7 @@
         <v>8267</v>
       </c>
       <c r="D761" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E761" s="5" t="s">
         <v>67</v>
@@ -46515,7 +46520,7 @@
         <v>1541</v>
       </c>
       <c r="D762" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E762" s="5" t="s">
         <v>67</v>
@@ -46560,7 +46565,7 @@
         <v>1541</v>
       </c>
       <c r="D763" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E763" s="5" t="s">
         <v>67</v>
@@ -46605,7 +46610,7 @@
         <v>2802</v>
       </c>
       <c r="D764" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E764" s="5" t="s">
         <v>67</v>
@@ -46650,7 +46655,7 @@
         <v>6590</v>
       </c>
       <c r="D765" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E765" s="5" t="s">
         <v>67</v>
@@ -46695,7 +46700,7 @@
         <v>6965</v>
       </c>
       <c r="D766" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E766" s="5" t="s">
         <v>67</v>
@@ -46740,7 +46745,7 @@
         <v>8267</v>
       </c>
       <c r="D767" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E767" s="5" t="s">
         <v>67</v>
@@ -46785,7 +46790,7 @@
         <v>5803</v>
       </c>
       <c r="D768" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E768" s="5" t="s">
         <v>67</v>
@@ -46830,7 +46835,7 @@
         <v>9684</v>
       </c>
       <c r="D769" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E769" s="5" t="s">
         <v>67</v>
@@ -46875,7 +46880,7 @@
         <v>1488</v>
       </c>
       <c r="D770" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E770" s="5" t="s">
         <v>67</v>
@@ -46920,7 +46925,7 @@
         <v>1540</v>
       </c>
       <c r="D771" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E771" s="5" t="s">
         <v>67</v>
@@ -46965,7 +46970,7 @@
         <v>6758</v>
       </c>
       <c r="D772" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E772" s="5" t="s">
         <v>67</v>
@@ -47010,7 +47015,7 @@
         <v>6330</v>
       </c>
       <c r="D773" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E773" s="5" t="s">
         <v>67</v>
@@ -47055,7 +47060,7 @@
         <v>6758</v>
       </c>
       <c r="D774" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E774" s="5" t="s">
         <v>67</v>
@@ -47145,7 +47150,7 @@
         <v>8001</v>
       </c>
       <c r="D776" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E776" s="5" t="s">
         <v>67</v>
@@ -47190,7 +47195,7 @@
         <v>1605</v>
       </c>
       <c r="D777" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E777" s="5" t="s">
         <v>67</v>
@@ -47232,10 +47237,10 @@
         <v>46030</v>
       </c>
       <c r="C778" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D778" s="9" t="s">
         <v>425</v>
-      </c>
-      <c r="D778" s="9" t="s">
-        <v>426</v>
       </c>
       <c r="E778" s="5" t="s">
         <v>67</v>
@@ -47277,10 +47282,10 @@
         <v>46030</v>
       </c>
       <c r="C779" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D779" s="9" t="s">
         <v>425</v>
-      </c>
-      <c r="D779" s="9" t="s">
-        <v>426</v>
       </c>
       <c r="E779" s="5" t="s">
         <v>67</v>
@@ -47322,10 +47327,10 @@
         <v>46030</v>
       </c>
       <c r="C780" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D780" s="9" t="s">
         <v>425</v>
-      </c>
-      <c r="D780" s="9" t="s">
-        <v>426</v>
       </c>
       <c r="E780" s="5" t="s">
         <v>67</v>
@@ -47460,7 +47465,7 @@
         <v>6330</v>
       </c>
       <c r="D783" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E783" s="5" t="s">
         <v>67</v>
@@ -47505,7 +47510,7 @@
         <v>8267</v>
       </c>
       <c r="D784" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E784" s="5" t="s">
         <v>67</v>
@@ -47551,7 +47556,7 @@
         <v>8316</v>
       </c>
       <c r="D785" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E785" s="5" t="s">
         <v>67</v>
@@ -47596,7 +47601,7 @@
         <v>1488</v>
       </c>
       <c r="D786" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E786" s="5" t="s">
         <v>67</v>
@@ -47638,10 +47643,10 @@
         <v>46038</v>
       </c>
       <c r="C787" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D787" s="9" t="s">
         <v>425</v>
-      </c>
-      <c r="D787" s="9" t="s">
-        <v>426</v>
       </c>
       <c r="E787" s="5" t="s">
         <v>67</v>
@@ -47686,7 +47691,7 @@
         <v>6269</v>
       </c>
       <c r="D788" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E788" s="5" t="s">
         <v>67</v>
@@ -47731,7 +47736,7 @@
         <v>6758</v>
       </c>
       <c r="D789" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E789" s="5" t="s">
         <v>67</v>
@@ -47777,7 +47782,7 @@
         <v>2768</v>
       </c>
       <c r="D790" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E790" s="5" t="s">
         <v>67</v>
@@ -47822,7 +47827,7 @@
         <v>6954</v>
       </c>
       <c r="D791" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E791" s="5" t="s">
         <v>67</v>
@@ -47867,7 +47872,7 @@
         <v>5602</v>
       </c>
       <c r="D792" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E792" s="5" t="s">
         <v>67</v>
@@ -47912,7 +47917,7 @@
         <v>5602</v>
       </c>
       <c r="D793" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E793" s="5" t="s">
         <v>67</v>
@@ -47958,7 +47963,7 @@
         <v>3692</v>
       </c>
       <c r="D794" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E794" s="5" t="s">
         <v>67</v>
@@ -48003,7 +48008,7 @@
         <v>3741</v>
       </c>
       <c r="D795" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E795" s="5" t="s">
         <v>67</v>
@@ -48048,7 +48053,7 @@
         <v>8001</v>
       </c>
       <c r="D796" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E796" s="5" t="s">
         <v>67</v>
@@ -48093,7 +48098,7 @@
         <v>8031</v>
       </c>
       <c r="D797" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E797" s="5" t="s">
         <v>67</v>
@@ -48138,7 +48143,7 @@
         <v>6269</v>
       </c>
       <c r="D798" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E798" s="5" t="s">
         <v>67</v>
@@ -48183,7 +48188,7 @@
         <v>1605</v>
       </c>
       <c r="D799" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E799" s="5" t="s">
         <v>67</v>
@@ -48228,7 +48233,7 @@
         <v>2556</v>
       </c>
       <c r="D800" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E800" s="5" t="s">
         <v>67</v>
@@ -48273,7 +48278,7 @@
         <v>6269</v>
       </c>
       <c r="D801" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E801" s="5" t="s">
         <v>67</v>
@@ -48318,7 +48323,7 @@
         <v>9531</v>
       </c>
       <c r="D802" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E802" s="5" t="s">
         <v>67</v>
@@ -48363,7 +48368,7 @@
         <v>6330</v>
       </c>
       <c r="D803" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E803" s="5" t="s">
         <v>67</v>
@@ -48405,10 +48410,10 @@
         <v>46055</v>
       </c>
       <c r="C804" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D804" s="9" t="s">
         <v>425</v>
-      </c>
-      <c r="D804" s="9" t="s">
-        <v>426</v>
       </c>
       <c r="E804" s="5" t="s">
         <v>67</v>
@@ -48450,10 +48455,10 @@
         <v>46055</v>
       </c>
       <c r="C805" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D805" s="9" t="s">
         <v>425</v>
-      </c>
-      <c r="D805" s="9" t="s">
-        <v>426</v>
       </c>
       <c r="E805" s="5" t="s">
         <v>67</v>
@@ -48498,7 +48503,7 @@
         <v>1540</v>
       </c>
       <c r="D806" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E806" s="5" t="s">
         <v>67</v>
@@ -48543,7 +48548,7 @@
         <v>6269</v>
       </c>
       <c r="D807" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E807" s="5" t="s">
         <v>67</v>
@@ -48557,7 +48562,7 @@
       <c r="H807" s="5">
         <v>100</v>
       </c>
-      <c r="I807" s="71">
+      <c r="I807" s="7">
         <v>15690</v>
       </c>
       <c r="J807" s="9">
@@ -48588,7 +48593,7 @@
         <v>9684</v>
       </c>
       <c r="D808" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E808" s="5" t="s">
         <v>67</v>
@@ -48602,7 +48607,7 @@
       <c r="H808" s="5">
         <v>100</v>
       </c>
-      <c r="I808" s="71">
+      <c r="I808" s="7">
         <v>2573.5</v>
       </c>
       <c r="J808" s="9">
@@ -48630,10 +48635,10 @@
         <v>46058</v>
       </c>
       <c r="C809" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D809" s="9" t="s">
         <v>425</v>
-      </c>
-      <c r="D809" s="9" t="s">
-        <v>426</v>
       </c>
       <c r="E809" s="5" t="s">
         <v>67</v>
@@ -48647,7 +48652,7 @@
       <c r="H809" s="5">
         <v>300</v>
       </c>
-      <c r="I809" s="71">
+      <c r="I809" s="7">
         <v>1077</v>
       </c>
       <c r="J809" s="9">
@@ -48678,7 +48683,7 @@
         <v>5802</v>
       </c>
       <c r="D810" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E810" s="5" t="s">
         <v>67</v>
@@ -48692,7 +48697,7 @@
       <c r="H810" s="5">
         <v>100</v>
       </c>
-      <c r="I810" s="71">
+      <c r="I810" s="7">
         <v>7863</v>
       </c>
       <c r="J810" s="9">
@@ -48723,7 +48728,7 @@
         <v>9531</v>
       </c>
       <c r="D811" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E811" s="5" t="s">
         <v>67</v>
@@ -48737,7 +48742,7 @@
       <c r="H811" s="5">
         <v>100</v>
       </c>
-      <c r="I811" s="71">
+      <c r="I811" s="7">
         <v>7197</v>
       </c>
       <c r="J811" s="9">
@@ -48768,7 +48773,7 @@
         <v>6330</v>
       </c>
       <c r="D812" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E812" s="5" t="s">
         <v>67</v>
@@ -48782,7 +48787,7 @@
       <c r="H812" s="5">
         <v>100</v>
       </c>
-      <c r="I812" s="71">
+      <c r="I812" s="7">
         <v>5880</v>
       </c>
       <c r="J812" s="9">
@@ -48802,8 +48807,774 @@
         <v>0</v>
       </c>
     </row>
+    <row r="813" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A813" s="4">
+        <v>46058</v>
+      </c>
+      <c r="B813" s="4">
+        <v>46062</v>
+      </c>
+      <c r="C813" s="5">
+        <v>8001</v>
+      </c>
+      <c r="D813" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="E813" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F813" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G813" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H813" s="5">
+        <v>200</v>
+      </c>
+      <c r="I813" s="7">
+        <v>2060.6</v>
+      </c>
+      <c r="J813" s="9">
+        <v>0</v>
+      </c>
+      <c r="K813" s="9">
+        <v>0</v>
+      </c>
+      <c r="L813" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M813" s="15">
+        <f t="shared" si="18"/>
+        <v>412120</v>
+      </c>
+      <c r="N813" s="19">
+        <f>860*2</f>
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="814" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A814" s="4">
+        <v>46058</v>
+      </c>
+      <c r="B814" s="4">
+        <v>46062</v>
+      </c>
+      <c r="C814" s="5">
+        <v>8316</v>
+      </c>
+      <c r="D814" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E814" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F814" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G814" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H814" s="5">
+        <v>100</v>
+      </c>
+      <c r="I814" s="7">
+        <v>5650</v>
+      </c>
+      <c r="J814" s="9">
+        <v>0</v>
+      </c>
+      <c r="K814" s="9">
+        <v>0</v>
+      </c>
+      <c r="L814" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M814" s="15">
+        <f t="shared" si="18"/>
+        <v>565000</v>
+      </c>
+      <c r="N814" s="19">
+        <v>25100</v>
+      </c>
+    </row>
+    <row r="815" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A815" s="4">
+        <v>46062</v>
+      </c>
+      <c r="B815" s="4">
+        <v>46065</v>
+      </c>
+      <c r="C815" s="5">
+        <v>2768</v>
+      </c>
+      <c r="D815" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E815" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F815" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G815" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H815" s="5">
+        <v>100</v>
+      </c>
+      <c r="I815" s="9">
+        <v>6033.2</v>
+      </c>
+      <c r="J815" s="9">
+        <v>0</v>
+      </c>
+      <c r="K815" s="9">
+        <v>0</v>
+      </c>
+      <c r="L815" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M815" s="15">
+        <f t="shared" si="18"/>
+        <v>603320</v>
+      </c>
+      <c r="N815" s="19">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="816" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A816" s="4">
+        <v>46062</v>
+      </c>
+      <c r="B816" s="4">
+        <v>46065</v>
+      </c>
+      <c r="C816" s="5">
+        <v>3741</v>
+      </c>
+      <c r="D816" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="E816" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F816" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G816" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H816" s="5">
+        <v>100</v>
+      </c>
+      <c r="I816" s="9">
+        <v>3720.5</v>
+      </c>
+      <c r="J816" s="9">
+        <v>0</v>
+      </c>
+      <c r="K816" s="9">
+        <v>0</v>
+      </c>
+      <c r="L816" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M816" s="15">
+        <f t="shared" ref="M816:M829" si="19">IF(G816="買付",H816*I816+SUM(J816:K816),H816*I816-SUM(J816:K816))</f>
+        <v>372050</v>
+      </c>
+      <c r="N816" s="19">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="817" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A817" s="4">
+        <v>46062</v>
+      </c>
+      <c r="B817" s="4">
+        <v>46065</v>
+      </c>
+      <c r="C817" s="5">
+        <v>6954</v>
+      </c>
+      <c r="D817" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="E817" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F817" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G817" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H817" s="5">
+        <v>100</v>
+      </c>
+      <c r="I817" s="9">
+        <v>6772</v>
+      </c>
+      <c r="J817" s="9">
+        <v>0</v>
+      </c>
+      <c r="K817" s="9">
+        <v>0</v>
+      </c>
+      <c r="L817" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M817" s="15">
+        <f t="shared" si="19"/>
+        <v>677200</v>
+      </c>
+      <c r="N817" s="19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="818" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A818" s="4">
+        <v>46062</v>
+      </c>
+      <c r="B818" s="4">
+        <v>46065</v>
+      </c>
+      <c r="C818" s="5">
+        <v>8766</v>
+      </c>
+      <c r="D818" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E818" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F818" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G818" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H818" s="5">
+        <v>100</v>
+      </c>
+      <c r="I818" s="9">
+        <v>6193.1</v>
+      </c>
+      <c r="J818" s="9">
+        <v>0</v>
+      </c>
+      <c r="K818" s="9">
+        <v>0</v>
+      </c>
+      <c r="L818" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M818" s="15">
+        <f t="shared" si="19"/>
+        <v>619310</v>
+      </c>
+      <c r="N818" s="19">
+        <v>14310</v>
+      </c>
+    </row>
+    <row r="819" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A819" s="4">
+        <v>46063</v>
+      </c>
+      <c r="B819" s="4">
+        <v>46066</v>
+      </c>
+      <c r="C819" s="5">
+        <v>1540</v>
+      </c>
+      <c r="D819" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="E819" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F819" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G819" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H819" s="5">
+        <v>5</v>
+      </c>
+      <c r="I819" s="9">
+        <v>24170</v>
+      </c>
+      <c r="J819" s="9">
+        <v>0</v>
+      </c>
+      <c r="K819" s="9">
+        <v>0</v>
+      </c>
+      <c r="L819" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M819" s="15">
+        <f t="shared" si="19"/>
+        <v>120850</v>
+      </c>
+      <c r="N819" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A820" s="4">
+        <v>46063</v>
+      </c>
+      <c r="B820" s="4">
+        <v>46066</v>
+      </c>
+      <c r="C820" s="5">
+        <v>1662</v>
+      </c>
+      <c r="D820" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E820" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F820" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G820" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H820" s="5">
+        <v>100</v>
+      </c>
+      <c r="I820" s="9">
+        <v>2128</v>
+      </c>
+      <c r="J820" s="9">
+        <v>0</v>
+      </c>
+      <c r="K820" s="9">
+        <v>0</v>
+      </c>
+      <c r="L820" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M820" s="15">
+        <f t="shared" si="19"/>
+        <v>212800</v>
+      </c>
+      <c r="N820" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A821" s="4">
+        <v>46063</v>
+      </c>
+      <c r="B821" s="4">
+        <v>46066</v>
+      </c>
+      <c r="C821" s="5">
+        <v>3563</v>
+      </c>
+      <c r="D821" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E821" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F821" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G821" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H821" s="5">
+        <v>100</v>
+      </c>
+      <c r="I821" s="9">
+        <v>9212</v>
+      </c>
+      <c r="J821" s="9">
+        <v>0</v>
+      </c>
+      <c r="K821" s="9">
+        <v>0</v>
+      </c>
+      <c r="L821" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M821" s="15">
+        <f t="shared" si="19"/>
+        <v>921200</v>
+      </c>
+      <c r="N821" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A822" s="4">
+        <v>46063</v>
+      </c>
+      <c r="B822" s="4">
+        <v>46066</v>
+      </c>
+      <c r="C822" s="5">
+        <v>5016</v>
+      </c>
+      <c r="D822" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="E822" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F822" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G822" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H822" s="5">
+        <v>100</v>
+      </c>
+      <c r="I822" s="9">
+        <v>2766.5</v>
+      </c>
+      <c r="J822" s="9">
+        <v>0</v>
+      </c>
+      <c r="K822" s="9">
+        <v>0</v>
+      </c>
+      <c r="L822" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M822" s="15">
+        <f t="shared" si="19"/>
+        <v>276650</v>
+      </c>
+      <c r="N822" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A823" s="4">
+        <v>46063</v>
+      </c>
+      <c r="B823" s="4">
+        <v>46066</v>
+      </c>
+      <c r="C823" s="5">
+        <v>6269</v>
+      </c>
+      <c r="D823" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E823" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F823" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G823" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H823" s="5">
+        <v>100</v>
+      </c>
+      <c r="I823" s="9">
+        <v>15580</v>
+      </c>
+      <c r="J823" s="9">
+        <v>0</v>
+      </c>
+      <c r="K823" s="9">
+        <v>0</v>
+      </c>
+      <c r="L823" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M823" s="15">
+        <f t="shared" si="19"/>
+        <v>1558000</v>
+      </c>
+      <c r="N823" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A824" s="4">
+        <v>46063</v>
+      </c>
+      <c r="B824" s="4">
+        <v>46066</v>
+      </c>
+      <c r="C824" s="5">
+        <v>8411</v>
+      </c>
+      <c r="D824" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="E824" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F824" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G824" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H824" s="5">
+        <v>100</v>
+      </c>
+      <c r="I824" s="9">
+        <v>7800</v>
+      </c>
+      <c r="J824" s="9">
+        <v>0</v>
+      </c>
+      <c r="K824" s="9">
+        <v>0</v>
+      </c>
+      <c r="L824" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M824" s="15">
+        <f t="shared" si="19"/>
+        <v>780000</v>
+      </c>
+      <c r="N824" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A825" s="4">
+        <v>46063</v>
+      </c>
+      <c r="B825" s="4">
+        <v>46066</v>
+      </c>
+      <c r="C825" s="5">
+        <v>8766</v>
+      </c>
+      <c r="D825" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E825" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F825" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G825" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H825" s="5">
+        <v>100</v>
+      </c>
+      <c r="I825" s="9">
+        <v>6224.2</v>
+      </c>
+      <c r="J825" s="9">
+        <v>0</v>
+      </c>
+      <c r="K825" s="9">
+        <v>0</v>
+      </c>
+      <c r="L825" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M825" s="15">
+        <f t="shared" si="19"/>
+        <v>622420</v>
+      </c>
+      <c r="N825" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A826" s="4">
+        <v>46065</v>
+      </c>
+      <c r="B826" s="4">
+        <v>46069</v>
+      </c>
+      <c r="C826" s="5">
+        <v>6269</v>
+      </c>
+      <c r="D826" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E826" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F826" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G826" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H826" s="5">
+        <v>100</v>
+      </c>
+      <c r="I826" s="9">
+        <v>16190</v>
+      </c>
+      <c r="J826" s="9">
+        <v>0</v>
+      </c>
+      <c r="K826" s="9">
+        <v>0</v>
+      </c>
+      <c r="L826" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M826" s="15">
+        <f t="shared" si="19"/>
+        <v>1619000</v>
+      </c>
+      <c r="N826" s="19">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="827" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A827" s="4">
+        <v>46065</v>
+      </c>
+      <c r="B827" s="4">
+        <v>46069</v>
+      </c>
+      <c r="C827" s="5">
+        <v>8411</v>
+      </c>
+      <c r="D827" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="E827" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F827" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G827" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H827" s="5">
+        <v>100</v>
+      </c>
+      <c r="I827" s="9">
+        <v>7841</v>
+      </c>
+      <c r="J827" s="9">
+        <v>0</v>
+      </c>
+      <c r="K827" s="9">
+        <v>0</v>
+      </c>
+      <c r="L827" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M827" s="15">
+        <f t="shared" si="19"/>
+        <v>784100</v>
+      </c>
+      <c r="N827" s="19">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="828" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A828" s="4">
+        <v>46066</v>
+      </c>
+      <c r="B828" s="4">
+        <v>46070</v>
+      </c>
+      <c r="C828" s="5">
+        <v>5016</v>
+      </c>
+      <c r="D828" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="E828" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F828" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G828" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H828" s="5">
+        <v>100</v>
+      </c>
+      <c r="I828" s="9">
+        <v>3304</v>
+      </c>
+      <c r="J828" s="9">
+        <v>0</v>
+      </c>
+      <c r="K828" s="9">
+        <v>0</v>
+      </c>
+      <c r="L828" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M828" s="15">
+        <f t="shared" si="19"/>
+        <v>330400</v>
+      </c>
+      <c r="N828" s="19">
+        <v>53700</v>
+      </c>
+    </row>
+    <row r="829" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A829" s="4">
+        <v>46066</v>
+      </c>
+      <c r="B829" s="4">
+        <v>46070</v>
+      </c>
+      <c r="C829" s="5">
+        <v>8031</v>
+      </c>
+      <c r="D829" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E829" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F829" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G829" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H829" s="5">
+        <v>100</v>
+      </c>
+      <c r="I829" s="9">
+        <v>5747</v>
+      </c>
+      <c r="J829" s="9">
+        <v>0</v>
+      </c>
+      <c r="K829" s="9">
+        <v>0</v>
+      </c>
+      <c r="L829" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M829" s="15">
+        <f t="shared" si="19"/>
+        <v>574700</v>
+      </c>
+      <c r="N829" s="19">
+        <v>65300</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N677" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A1:N814" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N562">
       <sortCondition ref="A1:A539"/>
     </sortState>
@@ -51780,7 +52551,7 @@
         <v>5602</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F78" s="9">
         <v>144</v>
@@ -52008,7 +52779,7 @@
         <v>1343</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F84" s="9">
         <v>23.1</v>
@@ -57424,7 +58195,7 @@
         <v>3563</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>67</v>
@@ -57457,13 +58228,13 @@
         <v>0</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P66" s="21">
         <v>0</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R66" s="9">
         <v>0</v>
@@ -57507,7 +58278,7 @@
         <v>3563</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>67</v>
@@ -57592,13 +58363,13 @@
   <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -58454,13 +59225,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
-        <v>45945</v>
+        <v>46066</v>
       </c>
       <c r="B25" s="4">
-        <v>45950</v>
+        <v>46072</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>378</v>
+        <v>282</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>159</v>
@@ -58474,14 +59245,14 @@
       <c r="G25" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="H25" s="21">
-        <v>40242</v>
+      <c r="H25" s="71">
+        <v>8992</v>
       </c>
       <c r="I25" s="21">
-        <v>17395</v>
+        <v>33366</v>
       </c>
       <c r="J25" s="21">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="K25" s="21">
         <v>0</v>
@@ -58489,13 +59260,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
-        <v>45974</v>
+        <v>45945</v>
       </c>
       <c r="B26" s="4">
-        <v>45979</v>
+        <v>45950</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>159</v>
@@ -58510,10 +59281,10 @@
         <v>284</v>
       </c>
       <c r="H26" s="21">
-        <v>38038</v>
+        <v>40242</v>
       </c>
       <c r="I26" s="21">
-        <v>18403</v>
+        <v>17395</v>
       </c>
       <c r="J26" s="21">
         <v>70000</v>
@@ -58524,13 +59295,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
-        <v>46006</v>
+        <v>45974</v>
       </c>
       <c r="B27" s="4">
-        <v>46009</v>
+        <v>45979</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>159</v>
@@ -58545,10 +59316,10 @@
         <v>284</v>
       </c>
       <c r="H27" s="21">
-        <v>37910</v>
+        <v>38038</v>
       </c>
       <c r="I27" s="21">
-        <v>18465</v>
+        <v>18403</v>
       </c>
       <c r="J27" s="21">
         <v>70000</v>
@@ -58559,13 +59330,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
-        <v>46036</v>
+        <v>46006</v>
       </c>
       <c r="B28" s="4">
-        <v>46041</v>
+        <v>46009</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>159</v>
@@ -58580,10 +59351,10 @@
         <v>284</v>
       </c>
       <c r="H28" s="21">
-        <v>35338</v>
+        <v>37910</v>
       </c>
       <c r="I28" s="21">
-        <v>19809</v>
+        <v>18465</v>
       </c>
       <c r="J28" s="21">
         <v>70000</v>
@@ -58594,34 +59365,34 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
-        <v>44368</v>
+        <v>46036</v>
       </c>
       <c r="B29" s="4">
-        <v>44371</v>
+        <v>46041</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>163</v>
+        <v>377</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H29" s="8">
-        <v>21735</v>
-      </c>
-      <c r="I29" s="8">
-        <v>13803</v>
-      </c>
-      <c r="J29" s="8">
-        <v>30000</v>
+        <v>284</v>
+      </c>
+      <c r="H29" s="21">
+        <v>35338</v>
+      </c>
+      <c r="I29" s="21">
+        <v>19809</v>
+      </c>
+      <c r="J29" s="21">
+        <v>70000</v>
       </c>
       <c r="K29" s="21">
         <v>0</v>
@@ -58629,34 +59400,34 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
-        <v>44377</v>
+        <v>46066</v>
       </c>
       <c r="B30" s="4">
-        <v>44382</v>
+        <v>46071</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>163</v>
+        <v>377</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H30" s="8">
-        <v>7034</v>
-      </c>
-      <c r="I30" s="8">
-        <v>14217</v>
-      </c>
-      <c r="J30" s="8">
-        <v>10000</v>
+        <v>284</v>
+      </c>
+      <c r="H30" s="21">
+        <v>34978</v>
+      </c>
+      <c r="I30" s="21">
+        <v>20013</v>
+      </c>
+      <c r="J30" s="21">
+        <v>70000</v>
       </c>
       <c r="K30" s="21">
         <v>0</v>
@@ -58664,10 +59435,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
-        <v>44529</v>
+        <v>44368</v>
       </c>
       <c r="B31" s="4">
-        <v>44532</v>
+        <v>44371</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>163</v>
@@ -58679,28 +59450,30 @@
         <v>295</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G31" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="H31" s="8">
-        <v>28769</v>
+        <v>21735</v>
       </c>
       <c r="I31" s="8">
-        <v>13383</v>
+        <v>13803</v>
       </c>
       <c r="J31" s="8">
-        <v>38502</v>
-      </c>
-      <c r="K31" s="19">
-        <v>-1498</v>
+        <v>30000</v>
+      </c>
+      <c r="K31" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
-        <v>44403</v>
+        <v>44377</v>
       </c>
       <c r="B32" s="4">
-        <v>44406</v>
+        <v>44382</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>163</v>
@@ -58709,7 +59482,7 @@
         <v>159</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>67</v>
+        <v>295</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>30</v>
@@ -58718,10 +59491,10 @@
         <v>160</v>
       </c>
       <c r="H32" s="8">
-        <v>7310</v>
+        <v>7034</v>
       </c>
       <c r="I32" s="8">
-        <v>13681</v>
+        <v>14217</v>
       </c>
       <c r="J32" s="8">
         <v>10000</v>
@@ -58732,10 +59505,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B33" s="4">
-        <v>44530</v>
+        <v>44532</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>163</v>
@@ -58744,40 +59517,40 @@
         <v>159</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>67</v>
+        <v>295</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>298</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="8">
-        <v>7310</v>
+        <v>28769</v>
       </c>
       <c r="I33" s="8">
-        <v>13973</v>
+        <v>13383</v>
       </c>
       <c r="J33" s="8">
-        <v>10214</v>
+        <v>38502</v>
       </c>
       <c r="K33" s="19">
-        <v>214</v>
+        <v>-1498</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
-        <v>44165</v>
+        <v>44403</v>
       </c>
       <c r="B34" s="4">
-        <v>44168</v>
+        <v>44406</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>295</v>
+        <v>67</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>30</v>
@@ -58786,13 +59559,13 @@
         <v>160</v>
       </c>
       <c r="H34" s="8">
-        <v>3846</v>
+        <v>7310</v>
       </c>
       <c r="I34" s="8">
-        <v>13000</v>
+        <v>13681</v>
       </c>
       <c r="J34" s="8">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K34" s="21">
         <v>0</v>
@@ -58800,45 +59573,43 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
-        <v>44201</v>
+        <v>44525</v>
       </c>
       <c r="B35" s="4">
-        <v>44204</v>
+        <v>44530</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>295</v>
+        <v>67</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>160</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G35" s="5"/>
       <c r="H35" s="8">
-        <v>7604</v>
+        <v>7310</v>
       </c>
       <c r="I35" s="8">
-        <v>13152</v>
+        <v>13973</v>
       </c>
       <c r="J35" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K35" s="21">
-        <v>0</v>
+        <v>10214</v>
+      </c>
+      <c r="K35" s="19">
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
-        <v>44236</v>
+        <v>44165</v>
       </c>
       <c r="B36" s="4">
-        <v>44242</v>
+        <v>44168</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>158</v>
@@ -58856,13 +59627,13 @@
         <v>160</v>
       </c>
       <c r="H36" s="8">
-        <v>7041</v>
+        <v>3846</v>
       </c>
       <c r="I36" s="8">
-        <v>14202</v>
+        <v>13000</v>
       </c>
       <c r="J36" s="8">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="K36" s="21">
         <v>0</v>
@@ -58870,10 +59641,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
-        <v>44257</v>
+        <v>44201</v>
       </c>
       <c r="B37" s="4">
-        <v>44260</v>
+        <v>44204</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>158</v>
@@ -58891,10 +59662,10 @@
         <v>160</v>
       </c>
       <c r="H37" s="8">
-        <v>6947</v>
+        <v>7604</v>
       </c>
       <c r="I37" s="8">
-        <v>14394</v>
+        <v>13152</v>
       </c>
       <c r="J37" s="8">
         <v>10000</v>
@@ -58905,10 +59676,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
-        <v>44295</v>
+        <v>44236</v>
       </c>
       <c r="B38" s="4">
-        <v>44300</v>
+        <v>44242</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>158</v>
@@ -58926,10 +59697,10 @@
         <v>160</v>
       </c>
       <c r="H38" s="8">
-        <v>6460</v>
+        <v>7041</v>
       </c>
       <c r="I38" s="8">
-        <v>15481</v>
+        <v>14202</v>
       </c>
       <c r="J38" s="8">
         <v>10000</v>
@@ -58940,10 +59711,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
-        <v>44327</v>
+        <v>44257</v>
       </c>
       <c r="B39" s="4">
-        <v>44330</v>
+        <v>44260</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>158</v>
@@ -58961,13 +59732,13 @@
         <v>160</v>
       </c>
       <c r="H39" s="8">
-        <v>3167</v>
+        <v>6947</v>
       </c>
       <c r="I39" s="8">
-        <v>15789</v>
+        <v>14394</v>
       </c>
       <c r="J39" s="8">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K39" s="21">
         <v>0</v>
@@ -58975,10 +59746,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
-        <v>44350</v>
+        <v>44295</v>
       </c>
       <c r="B40" s="4">
-        <v>44355</v>
+        <v>44300</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>158</v>
@@ -58996,10 +59767,10 @@
         <v>160</v>
       </c>
       <c r="H40" s="8">
-        <v>6263</v>
+        <v>6460</v>
       </c>
       <c r="I40" s="8">
-        <v>15967</v>
+        <v>15481</v>
       </c>
       <c r="J40" s="8">
         <v>10000</v>
@@ -59010,10 +59781,10 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
-        <v>44377</v>
+        <v>44327</v>
       </c>
       <c r="B41" s="4">
-        <v>44382</v>
+        <v>44330</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>158</v>
@@ -59031,13 +59802,13 @@
         <v>160</v>
       </c>
       <c r="H41" s="8">
-        <v>6081</v>
+        <v>3167</v>
       </c>
       <c r="I41" s="8">
-        <v>16444</v>
+        <v>15789</v>
       </c>
       <c r="J41" s="8">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="K41" s="21">
         <v>0</v>
@@ -59045,10 +59816,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
-        <v>44921</v>
+        <v>44350</v>
       </c>
       <c r="B42" s="4">
-        <v>44924</v>
+        <v>44355</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>158</v>
@@ -59066,13 +59837,13 @@
         <v>160</v>
       </c>
       <c r="H42" s="8">
-        <v>24940</v>
+        <v>6263</v>
       </c>
       <c r="I42" s="8">
-        <v>17961</v>
+        <v>15967</v>
       </c>
       <c r="J42" s="8">
-        <v>44794</v>
+        <v>10000</v>
       </c>
       <c r="K42" s="21">
         <v>0</v>
@@ -59080,10 +59851,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
-        <v>45243</v>
+        <v>44377</v>
       </c>
       <c r="B43" s="4">
-        <v>45246</v>
+        <v>44382</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>158</v>
@@ -59101,13 +59872,13 @@
         <v>160</v>
       </c>
       <c r="H43" s="8">
-        <v>590</v>
+        <v>6081</v>
       </c>
       <c r="I43" s="8">
-        <v>23925</v>
+        <v>16444</v>
       </c>
       <c r="J43" s="8">
-        <v>1410</v>
+        <v>10000</v>
       </c>
       <c r="K43" s="21">
         <v>0</v>
@@ -59115,10 +59886,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
-        <v>45656</v>
+        <v>44921</v>
       </c>
       <c r="B44" s="4">
-        <v>45663</v>
+        <v>44924</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>158</v>
@@ -59130,15 +59901,19 @@
         <v>295</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="21">
-        <v>3846</v>
-      </c>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44" s="8">
+        <v>24940</v>
+      </c>
+      <c r="I44" s="8">
+        <v>17961</v>
+      </c>
+      <c r="J44" s="8">
+        <v>44794</v>
       </c>
       <c r="K44" s="21">
         <v>0</v>
@@ -59146,10 +59921,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
-        <v>45772</v>
+        <v>45243</v>
       </c>
       <c r="B45" s="4">
-        <v>45778</v>
+        <v>45246</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>158</v>
@@ -59161,28 +59936,30 @@
         <v>295</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="21">
-        <v>69093</v>
-      </c>
-      <c r="I45" s="19">
-        <v>28502</v>
-      </c>
-      <c r="J45" s="19">
-        <v>196929</v>
+        <v>30</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H45" s="8">
+        <v>590</v>
+      </c>
+      <c r="I45" s="8">
+        <v>23925</v>
+      </c>
+      <c r="J45" s="8">
+        <v>1410</v>
       </c>
       <c r="K45" s="21">
-        <v>86850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
-        <v>44404</v>
+        <v>45656</v>
       </c>
       <c r="B46" s="4">
-        <v>44407</v>
+        <v>45663</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>158</v>
@@ -59191,22 +59968,18 @@
         <v>159</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>67</v>
+        <v>295</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H46" s="8">
-        <v>11832</v>
-      </c>
-      <c r="I46" s="8">
-        <v>16903</v>
-      </c>
-      <c r="J46" s="8">
-        <v>20000</v>
+        <v>289</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="21">
+        <v>3846</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9">
+        <v>0</v>
       </c>
       <c r="K46" s="21">
         <v>0</v>
@@ -59214,10 +59987,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
-        <v>44435</v>
+        <v>45772</v>
       </c>
       <c r="B47" s="4">
-        <v>44440</v>
+        <v>45778</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>158</v>
@@ -59226,31 +59999,31 @@
         <v>159</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>67</v>
+        <v>295</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>298</v>
       </c>
       <c r="G47" s="5"/>
-      <c r="H47" s="8">
-        <v>11832</v>
-      </c>
-      <c r="I47" s="8">
-        <v>17067</v>
-      </c>
-      <c r="J47" s="8">
-        <v>20194</v>
-      </c>
-      <c r="K47" s="19">
-        <v>194</v>
+      <c r="H47" s="21">
+        <v>69093</v>
+      </c>
+      <c r="I47" s="19">
+        <v>28502</v>
+      </c>
+      <c r="J47" s="19">
+        <v>196929</v>
+      </c>
+      <c r="K47" s="21">
+        <v>86850</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
-        <v>45656</v>
+        <v>44404</v>
       </c>
       <c r="B48" s="4">
-        <v>45663</v>
+        <v>44407</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>158</v>
@@ -59259,18 +60032,22 @@
         <v>159</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="21">
-        <v>3846</v>
-      </c>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H48" s="8">
+        <v>11832</v>
+      </c>
+      <c r="I48" s="8">
+        <v>16903</v>
+      </c>
+      <c r="J48" s="8">
+        <v>20000</v>
       </c>
       <c r="K48" s="21">
         <v>0</v>
@@ -59278,10 +60055,10 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
-        <v>45824</v>
+        <v>44435</v>
       </c>
       <c r="B49" s="4">
-        <v>45827</v>
+        <v>44440</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>158</v>
@@ -59290,55 +60067,51 @@
         <v>159</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>298</v>
       </c>
       <c r="G49" s="5"/>
-      <c r="H49" s="21">
-        <v>3846</v>
-      </c>
-      <c r="I49" s="19">
-        <v>31398</v>
-      </c>
-      <c r="J49" s="19">
-        <v>12076</v>
-      </c>
-      <c r="K49" s="21">
-        <v>-1071</v>
+      <c r="H49" s="8">
+        <v>11832</v>
+      </c>
+      <c r="I49" s="8">
+        <v>17067</v>
+      </c>
+      <c r="J49" s="8">
+        <v>20194</v>
+      </c>
+      <c r="K49" s="19">
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="4">
-        <v>44188</v>
+        <v>45656</v>
       </c>
       <c r="B50" s="4">
-        <v>44193</v>
+        <v>45663</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H50" s="8">
-        <v>4490</v>
-      </c>
-      <c r="I50" s="8">
-        <v>22273</v>
-      </c>
-      <c r="J50" s="8">
-        <v>10000</v>
+        <v>296</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="21">
+        <v>3846</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9">
+        <v>0</v>
       </c>
       <c r="K50" s="21">
         <v>0</v>
@@ -59346,45 +60119,43 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
-        <v>44224</v>
+        <v>45824</v>
       </c>
       <c r="B51" s="4">
-        <v>44229</v>
+        <v>45827</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>295</v>
+        <v>68</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H51" s="8">
-        <v>2108</v>
-      </c>
-      <c r="I51" s="8">
-        <v>23721</v>
-      </c>
-      <c r="J51" s="8">
-        <v>5000</v>
+        <v>298</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="21">
+        <v>3846</v>
+      </c>
+      <c r="I51" s="19">
+        <v>31398</v>
+      </c>
+      <c r="J51" s="19">
+        <v>12076</v>
       </c>
       <c r="K51" s="21">
-        <v>0</v>
+        <v>-1071</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="4">
-        <v>44257</v>
+        <v>44188</v>
       </c>
       <c r="B52" s="4">
-        <v>44260</v>
+        <v>44193</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>162</v>
@@ -59402,13 +60173,13 @@
         <v>160</v>
       </c>
       <c r="H52" s="8">
-        <v>1938</v>
+        <v>4490</v>
       </c>
       <c r="I52" s="8">
-        <v>25804</v>
+        <v>22273</v>
       </c>
       <c r="J52" s="8">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K52" s="21">
         <v>0</v>
@@ -59416,10 +60187,10 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="4">
-        <v>44295</v>
+        <v>44224</v>
       </c>
       <c r="B53" s="4">
-        <v>44300</v>
+        <v>44229</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>162</v>
@@ -59437,10 +60208,10 @@
         <v>160</v>
       </c>
       <c r="H53" s="8">
-        <v>1920</v>
+        <v>2108</v>
       </c>
       <c r="I53" s="8">
-        <v>26043</v>
+        <v>23721</v>
       </c>
       <c r="J53" s="8">
         <v>5000</v>
@@ -59451,10 +60222,10 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="4">
-        <v>44327</v>
+        <v>44257</v>
       </c>
       <c r="B54" s="4">
-        <v>44330</v>
+        <v>44260</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>162</v>
@@ -59472,13 +60243,13 @@
         <v>160</v>
       </c>
       <c r="H54" s="8">
-        <v>4166</v>
+        <v>1938</v>
       </c>
       <c r="I54" s="8">
-        <v>24007</v>
+        <v>25804</v>
       </c>
       <c r="J54" s="8">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="K54" s="21">
         <v>0</v>
@@ -59486,10 +60257,10 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="4">
-        <v>44350</v>
+        <v>44295</v>
       </c>
       <c r="B55" s="4">
-        <v>44355</v>
+        <v>44300</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>162</v>
@@ -59507,10 +60278,10 @@
         <v>160</v>
       </c>
       <c r="H55" s="8">
-        <v>1983</v>
+        <v>1920</v>
       </c>
       <c r="I55" s="8">
-        <v>25216</v>
+        <v>26043</v>
       </c>
       <c r="J55" s="8">
         <v>5000</v>
@@ -59521,10 +60292,10 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="4">
-        <v>44362</v>
+        <v>44327</v>
       </c>
       <c r="B56" s="4">
-        <v>44365</v>
+        <v>44330</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>162</v>
@@ -59536,31 +60307,33 @@
         <v>295</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G56" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="H56" s="8">
-        <v>16605</v>
+        <v>4166</v>
       </c>
       <c r="I56" s="8">
-        <v>26019</v>
+        <v>24007</v>
       </c>
       <c r="J56" s="8">
-        <v>43205</v>
-      </c>
-      <c r="K56" s="19">
-        <v>3205</v>
+        <v>10000</v>
+      </c>
+      <c r="K56" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="4">
-        <v>44187</v>
+        <v>44350</v>
       </c>
       <c r="B57" s="4">
-        <v>44190</v>
+        <v>44355</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>159</v>
@@ -59575,27 +60348,27 @@
         <v>160</v>
       </c>
       <c r="H57" s="8">
-        <v>6447</v>
+        <v>1983</v>
       </c>
       <c r="I57" s="8">
-        <v>15511</v>
+        <v>25216</v>
       </c>
       <c r="J57" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K57" s="19">
+        <v>5000</v>
+      </c>
+      <c r="K57" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="4">
-        <v>44224</v>
+        <v>44362</v>
       </c>
       <c r="B58" s="4">
-        <v>44229</v>
+        <v>44365</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>159</v>
@@ -59604,30 +60377,28 @@
         <v>295</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>160</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G58" s="5"/>
       <c r="H58" s="8">
-        <v>3093</v>
+        <v>16605</v>
       </c>
       <c r="I58" s="8">
-        <v>16167</v>
+        <v>26019</v>
       </c>
       <c r="J58" s="8">
-        <v>5000</v>
+        <v>43205</v>
       </c>
       <c r="K58" s="19">
-        <v>0</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="4">
-        <v>44257</v>
+        <v>44187</v>
       </c>
       <c r="B59" s="4">
-        <v>44260</v>
+        <v>44190</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>161</v>
@@ -59645,13 +60416,13 @@
         <v>160</v>
       </c>
       <c r="H59" s="8">
-        <v>2978</v>
+        <v>6447</v>
       </c>
       <c r="I59" s="8">
-        <v>16792</v>
+        <v>15511</v>
       </c>
       <c r="J59" s="8">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K59" s="19">
         <v>0</v>
@@ -59659,10 +60430,10 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="4">
-        <v>44295</v>
+        <v>44224</v>
       </c>
       <c r="B60" s="4">
-        <v>44300</v>
+        <v>44229</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>161</v>
@@ -59680,10 +60451,10 @@
         <v>160</v>
       </c>
       <c r="H60" s="8">
-        <v>2810</v>
+        <v>3093</v>
       </c>
       <c r="I60" s="8">
-        <v>17792</v>
+        <v>16167</v>
       </c>
       <c r="J60" s="8">
         <v>5000</v>
@@ -59694,10 +60465,10 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="4">
-        <v>44327</v>
+        <v>44257</v>
       </c>
       <c r="B61" s="4">
-        <v>44330</v>
+        <v>44260</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>161</v>
@@ -59715,10 +60486,10 @@
         <v>160</v>
       </c>
       <c r="H61" s="8">
-        <v>2903</v>
+        <v>2978</v>
       </c>
       <c r="I61" s="8">
-        <v>17225</v>
+        <v>16792</v>
       </c>
       <c r="J61" s="8">
         <v>5000</v>
@@ -59729,10 +60500,10 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="4">
-        <v>44350</v>
+        <v>44295</v>
       </c>
       <c r="B62" s="4">
-        <v>44355</v>
+        <v>44300</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>161</v>
@@ -59750,10 +60521,10 @@
         <v>160</v>
       </c>
       <c r="H62" s="8">
-        <v>2819</v>
+        <v>2810</v>
       </c>
       <c r="I62" s="8">
-        <v>17736</v>
+        <v>17792</v>
       </c>
       <c r="J62" s="8">
         <v>5000</v>
@@ -59764,10 +60535,10 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="4">
-        <v>44362</v>
+        <v>44327</v>
       </c>
       <c r="B63" s="4">
-        <v>44365</v>
+        <v>44330</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>161</v>
@@ -59779,37 +60550,39 @@
         <v>295</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G63" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="H63" s="8">
-        <v>21050</v>
+        <v>2903</v>
       </c>
       <c r="I63" s="8">
-        <v>18410</v>
+        <v>17225</v>
       </c>
       <c r="J63" s="8">
-        <v>38753</v>
+        <v>5000</v>
       </c>
       <c r="K63" s="19">
-        <v>3753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="4">
-        <v>45243</v>
+        <v>44350</v>
       </c>
       <c r="B64" s="4">
-        <v>45247</v>
+        <v>44355</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>67</v>
+        <v>295</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>30</v>
@@ -59817,56 +60590,124 @@
       <c r="G64" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="H64" s="19">
-        <v>180143</v>
-      </c>
-      <c r="I64" s="19">
-        <v>12456</v>
+      <c r="H64" s="8">
+        <v>2819</v>
+      </c>
+      <c r="I64" s="8">
+        <v>17736</v>
       </c>
       <c r="J64" s="8">
-        <v>224386</v>
-      </c>
-      <c r="K64" s="21">
+        <v>5000</v>
+      </c>
+      <c r="K64" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="4">
-        <v>45664</v>
+        <v>44362</v>
       </c>
       <c r="B65" s="4">
-        <v>45671</v>
+        <v>44365</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>67</v>
+        <v>295</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>298</v>
       </c>
       <c r="G65" s="5"/>
-      <c r="H65" s="21">
+      <c r="H65" s="8">
+        <v>21050</v>
+      </c>
+      <c r="I65" s="8">
+        <v>18410</v>
+      </c>
+      <c r="J65" s="8">
+        <v>38753</v>
+      </c>
+      <c r="K65" s="19">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A66" s="4">
+        <v>45243</v>
+      </c>
+      <c r="B66" s="4">
+        <v>45247</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H66" s="19">
         <v>180143</v>
       </c>
-      <c r="I65" s="21">
+      <c r="I66" s="19">
+        <v>12456</v>
+      </c>
+      <c r="J66" s="8">
+        <v>224386</v>
+      </c>
+      <c r="K66" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A67" s="4">
+        <v>45664</v>
+      </c>
+      <c r="B67" s="4">
+        <v>45671</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="21">
+        <v>180143</v>
+      </c>
+      <c r="I67" s="21">
         <v>15148</v>
       </c>
-      <c r="J65" s="21">
+      <c r="J67" s="21">
         <v>272881</v>
       </c>
-      <c r="K65" s="19">
+      <c r="K67" s="19">
         <v>48494</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K55" xr:uid="{00000000-0009-0000-0000-000007000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K65">
-      <sortCondition ref="C1:C55"/>
+  <autoFilter ref="A1:K57" xr:uid="{00000000-0009-0000-0000-000007000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K67">
+      <sortCondition ref="C1:C57"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18"/>
@@ -59964,7 +60805,7 @@
         <v>165</v>
       </c>
       <c r="S1" s="50" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="T1" s="41">
         <f>SUM(S2:S100)</f>
@@ -60285,7 +61126,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>29</v>
@@ -62837,7 +63678,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P49" s="19">
         <v>45684</v>
@@ -62897,7 +63738,7 @@
         <v>0.02</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P50" s="19">
         <v>8063</v>
@@ -62957,7 +63798,7 @@
         <v>0.46</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P51" s="19">
         <v>45684</v>
@@ -63020,7 +63861,7 @@
         <v>1628.74</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Q52" s="12">
         <v>267.2</v>
@@ -63080,7 +63921,7 @@
         <v>868.36</v>
       </c>
       <c r="P53" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q53" s="9">
         <v>0</v>
@@ -63101,10 +63942,10 @@
         <v>46037</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>427</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>428</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>67</v>
@@ -63140,7 +63981,7 @@
         <v>769.38</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q54" s="9">
         <v>0</v>
@@ -63161,10 +64002,10 @@
         <v>46043</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>433</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>434</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>67</v>
@@ -63197,7 +64038,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P55" s="21">
         <v>196971</v>
@@ -63260,7 +64101,7 @@
         <v>2511.9</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q56" s="9">
         <v>1481.75</v>
@@ -63281,10 +64122,10 @@
         <v>46057</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>433</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>434</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>67</v>
@@ -63320,7 +64161,7 @@
         <v>1300.55</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q57" s="9">
         <v>0.08</v>
@@ -63380,7 +64221,7 @@
         <v>864.15</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q58" s="9">
         <v>59.17</v>

--- a/data/02_運用_rakuten.xlsx
+++ b/data/02_運用_rakuten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ca29965d2a6599a/01_資産管理/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="344" documentId="13_ncr:1_{F23918F6-93A0-4FFC-9C54-3B208A91E086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F695F851-9A9D-4210-A143-33E2ABC3DF33}"/>
+  <xr:revisionPtr revIDLastSave="353" documentId="13_ncr:1_{F23918F6-93A0-4FFC-9C54-3B208A91E086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33187685-E742-48BA-BEBE-9EF74EEC82BE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="819" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ_日本" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6554" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6604" uniqueCount="446">
   <si>
     <t>約定日</t>
   </si>
@@ -2000,6 +2000,21 @@
   <si>
     <t>みずほフィナンシャルＧ</t>
   </si>
+  <si>
+    <t>栗本鉄工所</t>
+  </si>
+  <si>
+    <t>キーエンス</t>
+  </si>
+  <si>
+    <t>東京計器</t>
+  </si>
+  <si>
+    <t>三井Ｅ＆Ｓ</t>
+  </si>
+  <si>
+    <t>古河電工</t>
+  </si>
 </sst>
 </file>
 
@@ -2883,22 +2898,19 @@
     <xf numFmtId="40" fontId="0" fillId="39" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2922,6 +2934,12 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2933,9 +2951,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3208,7 +3223,7 @@
   </sheetPr>
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -3220,31 +3235,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="64" t="s">
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="66"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="65"/>
       <c r="S1" s="37" t="s">
         <v>219</v>
       </c>
@@ -3256,50 +3271,50 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="56" t="s">
+      <c r="L2" s="57"/>
+      <c r="M2" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="N2" s="61" t="s">
+      <c r="N2" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="56" t="s">
+      <c r="P2" s="62"/>
+      <c r="Q2" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="R2" s="61" t="s">
+      <c r="R2" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="S2" s="60" t="s">
+      <c r="S2" s="59" t="s">
         <v>214</v>
       </c>
       <c r="U2" s="49">
@@ -3307,7 +3322,7 @@
       </c>
       <c r="V2" s="49">
         <f ca="1">TODAY()</f>
-        <v>46068</v>
+        <v>46072</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
@@ -3317,38 +3332,38 @@
       <c r="C3" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="57"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="32" t="s">
         <v>206</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
       <c r="K3" s="32" t="s">
         <v>206</v>
       </c>
       <c r="L3" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
       <c r="O3" s="32" t="s">
         <v>206</v>
       </c>
       <c r="P3" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="60"/>
-      <c r="U3" s="58" t="s">
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="59"/>
+      <c r="U3" s="55" t="s">
         <v>363</v>
       </c>
-      <c r="V3" s="58"/>
+      <c r="V3" s="55"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="34" t="s">
@@ -3372,7 +3387,7 @@
       </c>
       <c r="F4" s="20">
         <f>SUM(F5:F100)</f>
-        <v>8598063</v>
+        <v>8840803</v>
       </c>
       <c r="G4" s="20">
         <f>SUM(G5:G100)</f>
@@ -3384,11 +3399,11 @@
       </c>
       <c r="I4" s="35">
         <f>SUM(F4:H4)</f>
-        <v>5695189</v>
+        <v>5937929</v>
       </c>
       <c r="J4" s="35">
         <f>SUM(J5:J100)</f>
-        <v>4538211.3546500001</v>
+        <v>4731638.7236500001</v>
       </c>
       <c r="K4" s="20">
         <f>SUM(K5:K100)</f>
@@ -3424,13 +3439,13 @@
       </c>
       <c r="S4" s="38">
         <f>SUM(E4,J4,N4,R4)</f>
-        <v>7393430.8931</v>
-      </c>
-      <c r="U4" s="59">
+        <v>7586858.2620999999</v>
+      </c>
+      <c r="U4" s="56">
         <f ca="1">(V2-U2)/365</f>
-        <v>5.2684931506849315</v>
-      </c>
-      <c r="V4" s="59"/>
+        <v>5.279452054794521</v>
+      </c>
+      <c r="V4" s="56"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="34" t="s">
@@ -3839,7 +3854,7 @@
       </c>
       <c r="F10" s="19">
         <f>SUMIFS(国内株式_特定!$N$2:$N$998,国内株式_特定!$B$2:$B$998,"&gt;=2026/1/1",国内株式_特定!$B$2:$B$998,"&lt;=2026/12/31",国内株式_特定!$N$2:$N$998,"&gt;=0")</f>
-        <v>951670</v>
+        <v>1194410</v>
       </c>
       <c r="G10" s="19">
         <f>SUMIFS(国内株式_特定!$N$2:$N$998,国内株式_特定!$B$2:$B$998,"&gt;=2026/1/1",国内株式_特定!$B$2:$B$998,"&lt;=2026/12/31",国内株式_特定!$N$2:$N$998,"&lt;0")</f>
@@ -3851,11 +3866,11 @@
       </c>
       <c r="I10" s="35">
         <f t="shared" si="11"/>
-        <v>671940</v>
+        <v>914680</v>
       </c>
       <c r="J10" s="36">
         <f t="shared" si="1"/>
-        <v>535435.38899999997</v>
+        <v>728862.75800000003</v>
       </c>
       <c r="K10" s="19">
         <f>SUMIFS(国内株式_信用!$P$2:$P$1000,国内株式_信用!$B$2:$B$1000,"&gt;=2026/1/1",国内株式_信用!$B$2:$B$1000,"&lt;=2026/12/31",国内株式_信用!$P$2:$P$1000,"&gt;=0")</f>
@@ -3891,7 +3906,7 @@
       </c>
       <c r="S10" s="38">
         <f>SUM(E10,J10,N10,R10)</f>
-        <v>535435.38899999997</v>
+        <v>728862.75800000003</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
@@ -3905,6 +3920,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="H2:H3"/>
@@ -3920,11 +3940,6 @@
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6725,52 +6740,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="55" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55" t="s">
         <v>416</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="68" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="L1" s="68"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="67" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="68" t="s">
         <v>418</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="67" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="68" t="s">
         <v>418</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="L2" s="69" t="s">
+      <c r="L2" s="70" t="s">
         <v>418</v>
       </c>
     </row>
@@ -6781,19 +6796,19 @@
       <c r="C3" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="57"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="32" t="s">
         <v>206</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="70"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="34" t="s">
@@ -12239,13 +12254,13 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:O829"/>
+  <dimension ref="A1:O839"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E813" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E816" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D817" sqref="D817"/>
+      <selection pane="bottomRight" activeCell="N839" sqref="N839"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -48981,7 +48996,7 @@
         <v>90</v>
       </c>
       <c r="M816" s="15">
-        <f t="shared" ref="M816:M829" si="19">IF(G816="買付",H816*I816+SUM(J816:K816),H816*I816-SUM(J816:K816))</f>
+        <f t="shared" ref="M816:M839" si="19">IF(G816="買付",H816*I816+SUM(J816:K816),H816*I816-SUM(J816:K816))</f>
         <v>372050</v>
       </c>
       <c r="N816" s="19">
@@ -49571,6 +49586,456 @@
       </c>
       <c r="N829" s="19">
         <v>65300</v>
+      </c>
+    </row>
+    <row r="830" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A830" s="4">
+        <v>46069</v>
+      </c>
+      <c r="B830" s="4">
+        <v>46071</v>
+      </c>
+      <c r="C830" s="5">
+        <v>4519</v>
+      </c>
+      <c r="D830" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E830" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F830" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G830" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H830" s="5">
+        <v>100</v>
+      </c>
+      <c r="I830" s="7">
+        <v>9265</v>
+      </c>
+      <c r="J830" s="9">
+        <v>0</v>
+      </c>
+      <c r="K830" s="9">
+        <v>0</v>
+      </c>
+      <c r="L830" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M830" s="15">
+        <f t="shared" si="19"/>
+        <v>926500</v>
+      </c>
+      <c r="N830" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A831" s="4">
+        <v>46069</v>
+      </c>
+      <c r="B831" s="4">
+        <v>46071</v>
+      </c>
+      <c r="C831" s="5">
+        <v>5602</v>
+      </c>
+      <c r="D831" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="E831" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F831" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G831" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H831" s="5">
+        <v>300</v>
+      </c>
+      <c r="I831" s="7">
+        <v>1699.8</v>
+      </c>
+      <c r="J831" s="9">
+        <v>0</v>
+      </c>
+      <c r="K831" s="9">
+        <v>0</v>
+      </c>
+      <c r="L831" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M831" s="15">
+        <f t="shared" si="19"/>
+        <v>509940</v>
+      </c>
+      <c r="N831" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A832" s="4">
+        <v>46069</v>
+      </c>
+      <c r="B832" s="4">
+        <v>46071</v>
+      </c>
+      <c r="C832" s="5">
+        <v>6861</v>
+      </c>
+      <c r="D832" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="E832" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F832" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G832" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H832" s="5">
+        <v>100</v>
+      </c>
+      <c r="I832" s="7">
+        <v>58300</v>
+      </c>
+      <c r="J832" s="9">
+        <v>0</v>
+      </c>
+      <c r="K832" s="9">
+        <v>0</v>
+      </c>
+      <c r="L832" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M832" s="15">
+        <f t="shared" si="19"/>
+        <v>5830000</v>
+      </c>
+      <c r="N832" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A833" s="4">
+        <v>46069</v>
+      </c>
+      <c r="B833" s="4">
+        <v>46071</v>
+      </c>
+      <c r="C833" s="5">
+        <v>7721</v>
+      </c>
+      <c r="D833" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="E833" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F833" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G833" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H833" s="5">
+        <v>100</v>
+      </c>
+      <c r="I833" s="7">
+        <v>7979</v>
+      </c>
+      <c r="J833" s="9">
+        <v>0</v>
+      </c>
+      <c r="K833" s="9">
+        <v>0</v>
+      </c>
+      <c r="L833" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M833" s="15">
+        <f t="shared" si="19"/>
+        <v>797900</v>
+      </c>
+      <c r="N833" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A834" s="4">
+        <v>46071</v>
+      </c>
+      <c r="B834" s="4">
+        <v>46073</v>
+      </c>
+      <c r="C834" s="5">
+        <v>5602</v>
+      </c>
+      <c r="D834" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="E834" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F834" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G834" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H834" s="5">
+        <v>100</v>
+      </c>
+      <c r="I834" s="7">
+        <v>1720.7</v>
+      </c>
+      <c r="J834" s="9">
+        <v>0</v>
+      </c>
+      <c r="K834" s="9">
+        <v>0</v>
+      </c>
+      <c r="L834" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M834" s="15">
+        <f t="shared" si="19"/>
+        <v>172070</v>
+      </c>
+      <c r="N834" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A835" s="4">
+        <v>46071</v>
+      </c>
+      <c r="B835" s="4">
+        <v>46073</v>
+      </c>
+      <c r="C835" s="5">
+        <v>7003</v>
+      </c>
+      <c r="D835" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="E835" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F835" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G835" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H835" s="5">
+        <v>100</v>
+      </c>
+      <c r="I835" s="7">
+        <v>7492.6</v>
+      </c>
+      <c r="J835" s="9">
+        <v>0</v>
+      </c>
+      <c r="K835" s="9">
+        <v>0</v>
+      </c>
+      <c r="L835" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M835" s="15">
+        <f t="shared" si="19"/>
+        <v>749260</v>
+      </c>
+      <c r="N835" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A836" s="4">
+        <v>46072</v>
+      </c>
+      <c r="B836" s="4">
+        <v>46077</v>
+      </c>
+      <c r="C836" s="5">
+        <v>1540</v>
+      </c>
+      <c r="D836" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="E836" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F836" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G836" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H836" s="5">
+        <v>5</v>
+      </c>
+      <c r="I836" s="7">
+        <v>23735</v>
+      </c>
+      <c r="J836" s="9">
+        <v>0</v>
+      </c>
+      <c r="K836" s="9">
+        <v>0</v>
+      </c>
+      <c r="L836" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M836" s="15">
+        <f t="shared" si="19"/>
+        <v>118675</v>
+      </c>
+      <c r="N836" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A837" s="4">
+        <v>46072</v>
+      </c>
+      <c r="B837" s="4">
+        <v>46077</v>
+      </c>
+      <c r="C837" s="5">
+        <v>6861</v>
+      </c>
+      <c r="D837" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="E837" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F837" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G837" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H837" s="5">
+        <v>100</v>
+      </c>
+      <c r="I837" s="7">
+        <v>60400</v>
+      </c>
+      <c r="J837" s="9">
+        <v>0</v>
+      </c>
+      <c r="K837" s="9">
+        <v>0</v>
+      </c>
+      <c r="L837" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M837" s="15">
+        <f t="shared" si="19"/>
+        <v>6040000</v>
+      </c>
+      <c r="N837" s="19">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="838" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A838" s="4">
+        <v>46072</v>
+      </c>
+      <c r="B838" s="4">
+        <v>46077</v>
+      </c>
+      <c r="C838" s="5">
+        <v>7003</v>
+      </c>
+      <c r="D838" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="E838" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F838" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G838" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H838" s="5">
+        <v>100</v>
+      </c>
+      <c r="I838" s="7">
+        <v>7820</v>
+      </c>
+      <c r="J838" s="9">
+        <v>0</v>
+      </c>
+      <c r="K838" s="9">
+        <v>0</v>
+      </c>
+      <c r="L838" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M838" s="15">
+        <f t="shared" si="19"/>
+        <v>782000</v>
+      </c>
+      <c r="N838" s="19">
+        <v>32740</v>
+      </c>
+    </row>
+    <row r="839" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A839" s="4">
+        <v>46072</v>
+      </c>
+      <c r="B839" s="4">
+        <v>46077</v>
+      </c>
+      <c r="C839" s="5">
+        <v>5801</v>
+      </c>
+      <c r="D839" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E839" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F839" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G839" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H839" s="5">
+        <v>100</v>
+      </c>
+      <c r="I839" s="7">
+        <v>22925</v>
+      </c>
+      <c r="J839" s="9">
+        <v>0</v>
+      </c>
+      <c r="K839" s="9">
+        <v>0</v>
+      </c>
+      <c r="L839" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M839" s="15">
+        <f t="shared" si="19"/>
+        <v>2292500</v>
+      </c>
+      <c r="N839" s="19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -58365,7 +58830,7 @@
   </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -59245,7 +59710,7 @@
       <c r="G25" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="H25" s="71">
+      <c r="H25" s="54">
         <v>8992</v>
       </c>
       <c r="I25" s="21">

--- a/data/02_運用_rakuten.xlsx
+++ b/data/02_運用_rakuten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ca29965d2a6599a/01_資産管理/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="353" documentId="13_ncr:1_{F23918F6-93A0-4FFC-9C54-3B208A91E086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33187685-E742-48BA-BEBE-9EF74EEC82BE}"/>
+  <xr:revisionPtr revIDLastSave="365" documentId="13_ncr:1_{F23918F6-93A0-4FFC-9C54-3B208A91E086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24539CEA-6A7E-45CB-BBEB-DED95613756F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">国内株式_NISA!$A$1:$N$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">国内株式_NISA_配当!$A$1:$K$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">国内株式_信用!$A$1:$AA$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">国内株式_特定!$A$1:$N$814</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">国内株式_特定!$A$1:$N$852</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">国内株式_特定_配当!$A$1:$K$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">投資信託!$A$1:$K$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">米国株式!$A$1:$S$1</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6604" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6669" uniqueCount="449">
   <si>
     <t>約定日</t>
   </si>
@@ -2015,6 +2015,15 @@
   <si>
     <t>古河電工</t>
   </si>
+  <si>
+    <t>285A</t>
+  </si>
+  <si>
+    <t>キオクシアホールディングス</t>
+  </si>
+  <si>
+    <t>積水ハウス</t>
+  </si>
 </sst>
 </file>
 
@@ -2901,16 +2910,22 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2932,12 +2947,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3235,31 +3244,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="63" t="s">
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="65" t="s">
         <v>302</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="65"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="67"/>
       <c r="S1" s="37" t="s">
         <v>219</v>
       </c>
@@ -3271,50 +3280,50 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58" t="s">
+      <c r="L2" s="55"/>
+      <c r="M2" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="N2" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="58" t="s">
+      <c r="P2" s="64"/>
+      <c r="Q2" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="R2" s="60" t="s">
+      <c r="R2" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="S2" s="59" t="s">
+      <c r="S2" s="61" t="s">
         <v>214</v>
       </c>
       <c r="U2" s="49">
@@ -3322,7 +3331,7 @@
       </c>
       <c r="V2" s="49">
         <f ca="1">TODAY()</f>
-        <v>46072</v>
+        <v>46080</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
@@ -3332,38 +3341,38 @@
       <c r="C3" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="32" t="s">
         <v>206</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
       <c r="K3" s="32" t="s">
         <v>206</v>
       </c>
       <c r="L3" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
       <c r="O3" s="32" t="s">
         <v>206</v>
       </c>
       <c r="P3" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="59"/>
-      <c r="U3" s="55" t="s">
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="61"/>
+      <c r="U3" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="V3" s="55"/>
+      <c r="V3" s="59"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="34" t="s">
@@ -3387,11 +3396,11 @@
       </c>
       <c r="F4" s="20">
         <f>SUM(F5:F100)</f>
-        <v>8840803</v>
+        <v>9570503</v>
       </c>
       <c r="G4" s="20">
         <f>SUM(G5:G100)</f>
-        <v>-3705029</v>
+        <v>-4108029</v>
       </c>
       <c r="H4" s="20">
         <f>SUM(H5:H100)</f>
@@ -3399,11 +3408,11 @@
       </c>
       <c r="I4" s="35">
         <f>SUM(F4:H4)</f>
-        <v>5937929</v>
+        <v>6264629</v>
       </c>
       <c r="J4" s="35">
         <f>SUM(J5:J100)</f>
-        <v>4731638.7236500001</v>
+        <v>4991969.6186499996</v>
       </c>
       <c r="K4" s="20">
         <f>SUM(K5:K100)</f>
@@ -3439,13 +3448,13 @@
       </c>
       <c r="S4" s="38">
         <f>SUM(E4,J4,N4,R4)</f>
-        <v>7586858.2620999999</v>
-      </c>
-      <c r="U4" s="56">
+        <v>7847189.1570999995</v>
+      </c>
+      <c r="U4" s="60">
         <f ca="1">(V2-U2)/365</f>
-        <v>5.279452054794521</v>
-      </c>
-      <c r="V4" s="56"/>
+        <v>5.3013698630136989</v>
+      </c>
+      <c r="V4" s="60"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="34" t="s">
@@ -3854,11 +3863,11 @@
       </c>
       <c r="F10" s="19">
         <f>SUMIFS(国内株式_特定!$N$2:$N$998,国内株式_特定!$B$2:$B$998,"&gt;=2026/1/1",国内株式_特定!$B$2:$B$998,"&lt;=2026/12/31",国内株式_特定!$N$2:$N$998,"&gt;=0")</f>
-        <v>1194410</v>
+        <v>1924110</v>
       </c>
       <c r="G10" s="19">
         <f>SUMIFS(国内株式_特定!$N$2:$N$998,国内株式_特定!$B$2:$B$998,"&gt;=2026/1/1",国内株式_特定!$B$2:$B$998,"&lt;=2026/12/31",国内株式_特定!$N$2:$N$998,"&lt;0")</f>
-        <v>-279730</v>
+        <v>-682730</v>
       </c>
       <c r="H10" s="19">
         <f>SUMIFS(国内株式_特定_配当!$H$2:$H$999,国内株式_特定_配当!$A$2:$A$999,"&gt;=2026/1/1",国内株式_特定_配当!$A$2:$A$999,"&lt;=2026/12/31")</f>
@@ -3866,11 +3875,11 @@
       </c>
       <c r="I10" s="35">
         <f t="shared" si="11"/>
-        <v>914680</v>
+        <v>1241380</v>
       </c>
       <c r="J10" s="36">
         <f t="shared" si="1"/>
-        <v>728862.75800000003</v>
+        <v>989193.65299999993</v>
       </c>
       <c r="K10" s="19">
         <f>SUMIFS(国内株式_信用!$P$2:$P$1000,国内株式_信用!$B$2:$B$1000,"&gt;=2026/1/1",国内株式_信用!$B$2:$B$1000,"&lt;=2026/12/31",国内株式_信用!$P$2:$P$1000,"&gt;=0")</f>
@@ -3906,7 +3915,7 @@
       </c>
       <c r="S10" s="38">
         <f>SUM(E10,J10,N10,R10)</f>
-        <v>728862.75800000003</v>
+        <v>989193.65299999993</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
@@ -3920,11 +3929,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="H2:H3"/>
@@ -3940,6 +3944,11 @@
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6740,49 +6749,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="59" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59" t="s">
         <v>416</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="69" t="s">
         <v>219</v>
       </c>
       <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="68" t="s">
         <v>418</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="G2" s="57"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="68" t="s">
         <v>418</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="61" t="s">
         <v>214</v>
       </c>
       <c r="L2" s="70" t="s">
@@ -6796,18 +6805,18 @@
       <c r="C3" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="32" t="s">
         <v>206</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -12254,13 +12263,13 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:O839"/>
+  <dimension ref="A1:O852"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E816" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E833" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N839" sqref="N839"/>
+      <selection pane="bottomRight" activeCell="E853" sqref="E853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -48996,7 +49005,7 @@
         <v>90</v>
       </c>
       <c r="M816" s="15">
-        <f t="shared" ref="M816:M839" si="19">IF(G816="買付",H816*I816+SUM(J816:K816),H816*I816-SUM(J816:K816))</f>
+        <f t="shared" ref="M816:M852" si="19">IF(G816="買付",H816*I816+SUM(J816:K816),H816*I816-SUM(J816:K816))</f>
         <v>372050</v>
       </c>
       <c r="N816" s="19">
@@ -50038,8 +50047,591 @@
         <v>0</v>
       </c>
     </row>
+    <row r="840" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A840" s="4">
+        <v>46077</v>
+      </c>
+      <c r="B840" s="4">
+        <v>46079</v>
+      </c>
+      <c r="C840" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D840" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="E840" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F840" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G840" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H840" s="5">
+        <v>100</v>
+      </c>
+      <c r="I840" s="7">
+        <v>22430</v>
+      </c>
+      <c r="J840" s="9">
+        <v>0</v>
+      </c>
+      <c r="K840" s="9">
+        <v>0</v>
+      </c>
+      <c r="L840" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M840" s="15">
+        <f t="shared" si="19"/>
+        <v>2243000</v>
+      </c>
+      <c r="N840" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A841" s="4">
+        <v>46078</v>
+      </c>
+      <c r="B841" s="4">
+        <v>46080</v>
+      </c>
+      <c r="C841" s="5">
+        <v>1662</v>
+      </c>
+      <c r="D841" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E841" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F841" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G841" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H841" s="5">
+        <v>100</v>
+      </c>
+      <c r="I841" s="7">
+        <v>2263.5</v>
+      </c>
+      <c r="J841" s="9">
+        <v>0</v>
+      </c>
+      <c r="K841" s="9">
+        <v>0</v>
+      </c>
+      <c r="L841" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M841" s="15">
+        <f t="shared" si="19"/>
+        <v>226350</v>
+      </c>
+      <c r="N841" s="19">
+        <v>13550</v>
+      </c>
+    </row>
+    <row r="842" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A842" s="4">
+        <v>46078</v>
+      </c>
+      <c r="B842" s="4">
+        <v>46080</v>
+      </c>
+      <c r="C842" s="5">
+        <v>1928</v>
+      </c>
+      <c r="D842" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E842" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F842" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G842" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H842" s="5">
+        <v>100</v>
+      </c>
+      <c r="I842" s="7">
+        <v>3797</v>
+      </c>
+      <c r="J842" s="9">
+        <v>0</v>
+      </c>
+      <c r="K842" s="9">
+        <v>0</v>
+      </c>
+      <c r="L842" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M842" s="15">
+        <f t="shared" si="19"/>
+        <v>379700</v>
+      </c>
+      <c r="N842" s="19">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="843" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A843" s="4">
+        <v>46078</v>
+      </c>
+      <c r="B843" s="4">
+        <v>46080</v>
+      </c>
+      <c r="C843" s="5">
+        <v>3563</v>
+      </c>
+      <c r="D843" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E843" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F843" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G843" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H843" s="5">
+        <v>100</v>
+      </c>
+      <c r="I843" s="7">
+        <v>9620</v>
+      </c>
+      <c r="J843" s="9">
+        <v>0</v>
+      </c>
+      <c r="K843" s="9">
+        <v>0</v>
+      </c>
+      <c r="L843" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M843" s="15">
+        <f t="shared" si="19"/>
+        <v>962000</v>
+      </c>
+      <c r="N843" s="19">
+        <v>40800</v>
+      </c>
+    </row>
+    <row r="844" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A844" s="4">
+        <v>46078</v>
+      </c>
+      <c r="B844" s="4">
+        <v>46080</v>
+      </c>
+      <c r="C844" s="5">
+        <v>3692</v>
+      </c>
+      <c r="D844" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="E844" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F844" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G844" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H844" s="5">
+        <v>200</v>
+      </c>
+      <c r="I844" s="7">
+        <v>8010</v>
+      </c>
+      <c r="J844" s="9">
+        <v>0</v>
+      </c>
+      <c r="K844" s="9">
+        <v>0</v>
+      </c>
+      <c r="L844" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M844" s="15">
+        <f t="shared" si="19"/>
+        <v>1602000</v>
+      </c>
+      <c r="N844" s="19">
+        <f>-201500*2</f>
+        <v>-403000</v>
+      </c>
+    </row>
+    <row r="845" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A845" s="4">
+        <v>46078</v>
+      </c>
+      <c r="B845" s="4">
+        <v>46080</v>
+      </c>
+      <c r="C845" s="5">
+        <v>4519</v>
+      </c>
+      <c r="D845" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E845" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F845" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G845" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H845" s="5">
+        <v>100</v>
+      </c>
+      <c r="I845" s="7">
+        <v>10285</v>
+      </c>
+      <c r="J845" s="9">
+        <v>0</v>
+      </c>
+      <c r="K845" s="9">
+        <v>0</v>
+      </c>
+      <c r="L845" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M845" s="15">
+        <f t="shared" si="19"/>
+        <v>1028500</v>
+      </c>
+      <c r="N845" s="19">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="846" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A846" s="4">
+        <v>46078</v>
+      </c>
+      <c r="B846" s="4">
+        <v>46080</v>
+      </c>
+      <c r="C846" s="5">
+        <v>5602</v>
+      </c>
+      <c r="D846" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="E846" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F846" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G846" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H846" s="5">
+        <v>400</v>
+      </c>
+      <c r="I846" s="7">
+        <v>1707</v>
+      </c>
+      <c r="J846" s="9">
+        <v>0</v>
+      </c>
+      <c r="K846" s="9">
+        <v>0</v>
+      </c>
+      <c r="L846" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M846" s="15">
+        <f t="shared" si="19"/>
+        <v>682800</v>
+      </c>
+      <c r="N846" s="19">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="847" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A847" s="4">
+        <v>46078</v>
+      </c>
+      <c r="B847" s="4">
+        <v>46080</v>
+      </c>
+      <c r="C847" s="5">
+        <v>5801</v>
+      </c>
+      <c r="D847" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E847" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F847" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G847" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H847" s="5">
+        <v>100</v>
+      </c>
+      <c r="I847" s="7">
+        <v>28057.5</v>
+      </c>
+      <c r="J847" s="9">
+        <v>0</v>
+      </c>
+      <c r="K847" s="9">
+        <v>0</v>
+      </c>
+      <c r="L847" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M847" s="15">
+        <f t="shared" si="19"/>
+        <v>2805750</v>
+      </c>
+      <c r="N847" s="19">
+        <v>513250</v>
+      </c>
+    </row>
+    <row r="848" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A848" s="4">
+        <v>46078</v>
+      </c>
+      <c r="B848" s="4">
+        <v>46080</v>
+      </c>
+      <c r="C848" s="5">
+        <v>7721</v>
+      </c>
+      <c r="D848" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="E848" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F848" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G848" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H848" s="5">
+        <v>100</v>
+      </c>
+      <c r="I848" s="7">
+        <v>8444</v>
+      </c>
+      <c r="J848" s="9">
+        <v>0</v>
+      </c>
+      <c r="K848" s="9">
+        <v>0</v>
+      </c>
+      <c r="L848" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M848" s="15">
+        <f t="shared" si="19"/>
+        <v>844400</v>
+      </c>
+      <c r="N848" s="19">
+        <v>46500</v>
+      </c>
+    </row>
+    <row r="849" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A849" s="4">
+        <v>46078</v>
+      </c>
+      <c r="B849" s="4">
+        <v>46080</v>
+      </c>
+      <c r="C849" s="5">
+        <v>8766</v>
+      </c>
+      <c r="D849" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E849" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F849" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G849" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H849" s="5">
+        <v>100</v>
+      </c>
+      <c r="I849" s="7">
+        <v>6297</v>
+      </c>
+      <c r="J849" s="9">
+        <v>0</v>
+      </c>
+      <c r="K849" s="9">
+        <v>0</v>
+      </c>
+      <c r="L849" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M849" s="15">
+        <f t="shared" si="19"/>
+        <v>629700</v>
+      </c>
+      <c r="N849" s="19">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="850" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A850" s="4">
+        <v>46078</v>
+      </c>
+      <c r="B850" s="4">
+        <v>46083</v>
+      </c>
+      <c r="C850" s="5">
+        <v>9602</v>
+      </c>
+      <c r="D850" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E850" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F850" s="5"/>
+      <c r="G850" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H850" s="5">
+        <v>400</v>
+      </c>
+      <c r="I850" s="7">
+        <v>1922.8</v>
+      </c>
+      <c r="J850" s="9">
+        <v>0</v>
+      </c>
+      <c r="K850" s="9">
+        <v>0</v>
+      </c>
+      <c r="L850" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M850" s="15">
+        <v>0</v>
+      </c>
+      <c r="N850" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A851" s="4">
+        <v>46080</v>
+      </c>
+      <c r="B851" s="4">
+        <v>46084</v>
+      </c>
+      <c r="C851" s="5">
+        <v>5602</v>
+      </c>
+      <c r="D851" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="E851" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F851" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G851" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H851" s="5">
+        <v>300</v>
+      </c>
+      <c r="I851" s="7">
+        <v>1766</v>
+      </c>
+      <c r="J851" s="9">
+        <v>0</v>
+      </c>
+      <c r="K851" s="9">
+        <v>0</v>
+      </c>
+      <c r="L851" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M851" s="15">
+        <f t="shared" si="19"/>
+        <v>529800</v>
+      </c>
+      <c r="N851" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A852" s="4">
+        <v>46080</v>
+      </c>
+      <c r="B852" s="4">
+        <v>46084</v>
+      </c>
+      <c r="C852" s="5">
+        <v>2768</v>
+      </c>
+      <c r="D852" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E852" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F852" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G852" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H852" s="5">
+        <v>100</v>
+      </c>
+      <c r="I852" s="7">
+        <v>7067.4</v>
+      </c>
+      <c r="J852" s="9">
+        <v>0</v>
+      </c>
+      <c r="K852" s="9">
+        <v>0</v>
+      </c>
+      <c r="L852" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M852" s="15">
+        <f t="shared" si="19"/>
+        <v>706740</v>
+      </c>
+      <c r="N852" s="19">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N814" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A1:N852" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N562">
       <sortCondition ref="A1:A539"/>
     </sortState>
